--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="bycicles" sheetId="1" r:id="rId1"/>
+    <sheet name=" VAN valor actual neto NPV " sheetId="2" r:id="rId2"/>
+    <sheet name="Theory" sheetId="4" r:id="rId3"/>
+    <sheet name="VAN" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>YEAR code</t>
   </si>
@@ -108,15 +111,182 @@
   <si>
     <t xml:space="preserve">ingresos millones: </t>
   </si>
+  <si>
+    <t>1. ¿Merece la pena seguir adelante con el fármaco o debería Gopher Drugs abandonarlo ahora y no incurrir en los 9,3 millones de dólares de costes de desarrollo?</t>
+  </si>
+  <si>
+    <t>2. ¿Cómo cambian los cambios en el modelo la respuesta a la pregunta anterior?</t>
+  </si>
+  <si>
+    <t>Gopher Drugs:</t>
+  </si>
+  <si>
+    <t>Development cost:</t>
+  </si>
+  <si>
+    <t>millions</t>
+  </si>
+  <si>
+    <t>Live time:</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Year 1 Margin:</t>
+  </si>
+  <si>
+    <t>Rate of increase:</t>
+  </si>
+  <si>
+    <t>Inc through year</t>
+  </si>
+  <si>
+    <t>Rate of decrease:</t>
+  </si>
+  <si>
+    <t>Discount rate:</t>
+  </si>
+  <si>
+    <t>End of year:</t>
+  </si>
+  <si>
+    <t>Cast Flows (flujos de fundición)</t>
+  </si>
+  <si>
+    <t>Gross margin ($mill)</t>
+  </si>
+  <si>
+    <t>Es como si imaginaras todo el dinero que podrías ganar o perder con ese juguete en el futuro y lo compararas con el dinero que tendrías que gastar ahora mismo para conseguirlo. Si el resultado es positivo, significa que el juguete podría ser una buena inversión,</t>
+  </si>
+  <si>
+    <r>
+      <t>Una gran empresa farmacéutica, Gopher Drugs, está decidiendo si merece la pena seguir adelante con uno de sus nuevos fármacos, Iguazu. Iguazu se encuentra en las fases finales de desarrollo y estará listo para entrar en el mercado dentro de un año. El coste final del desarrollo, que se producirá a principios del año 1, es de 9 $.3M. La empresa estima que la demanda de Iguazú crecerá gradualmente y luego disminuirá a lo largo de su vida útil de 20 años. En concreto, la empresa espera que sus márgenes brutos (ingresos menos costes) sean de 1 $.2M en el año 1, que luego aumenten a un ritmo anual del 10% hasta el año 8, y que finalmente disminuyan a un ritmo anual del 5% hasta el año 20. Gopher Drugs quiere desarrollar un modelo de hoja de cálculo de sus flujos de caja a 20 años, asumiendo que sus flujos de caja, aparte del coste inicial de desarrollo, se producen al</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Var(--cds-font-family-source-sa"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Var(--cds-font-family-source-sa"/>
+      </rPr>
+      <t>de los años respectivos.utilizando un tipo de descuento anual del 12% para calcular el valor actual neto (VAN), la empresa farmacéutica quiere responder a las siguientes preguntas:</t>
+    </r>
+  </si>
+  <si>
+    <t>(Net) present value:</t>
+  </si>
+  <si>
+    <t>Net Present Value:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NPV</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Net Present Value) ó</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VAN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Valor Actual Neto) EXAMPLE:</t>
+    </r>
+  </si>
+  <si>
+    <t>The investment is worth it</t>
+  </si>
+  <si>
+    <t>for 3,3 mill</t>
+  </si>
+  <si>
+    <t>Modelización del valor actual neto</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Cash inflow (end of year)</t>
+  </si>
+  <si>
+    <t>Intial investment</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
+    <t>Net Present Value</t>
+  </si>
+  <si>
+    <t>$30000</t>
+  </si>
+  <si>
+    <t>$65000</t>
+  </si>
+  <si>
+    <t>$80000</t>
+  </si>
+  <si>
+    <t>$75000</t>
+  </si>
+  <si>
+    <t>$55000</t>
+  </si>
+  <si>
+    <t>ESTÁ MAL Y NO SÉ PORQUÉ???</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +322,98 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--cds-font-family-source-sa"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--cds-font-family-source-sa"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--cds-font-family-source-sa"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--cds-font-family-source-sa"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +432,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -383,6 +661,267 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
       </bottom>
       <diagonal/>
     </border>
@@ -392,7 +931,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -404,9 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -417,12 +953,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -435,9 +965,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -449,6 +976,147 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="16" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="16" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis5 2" xfId="1"/>
@@ -546,7 +1214,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$2</c:f>
+              <c:f>bycicles!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -583,7 +1251,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$7</c:f>
+              <c:f>bycicles!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -607,7 +1275,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$7</c:f>
+              <c:f>bycicles!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -641,7 +1309,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$2</c:f>
+              <c:f>bycicles!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -687,7 +1355,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$7</c:f>
+              <c:f>bycicles!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -711,7 +1379,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$7</c:f>
+              <c:f>bycicles!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -745,7 +1413,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$2</c:f>
+              <c:f>bycicles!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -782,7 +1450,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$7</c:f>
+              <c:f>bycicles!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -806,7 +1474,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$7</c:f>
+              <c:f>bycicles!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -840,7 +1508,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$2</c:f>
+              <c:f>bycicles!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1019,7 +1687,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$7</c:f>
+              <c:f>bycicles!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1043,7 +1711,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$7</c:f>
+              <c:f>bycicles!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -1406,6 +2074,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>58222</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="400050"/>
+          <a:ext cx="7678222" cy="2076740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86801</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2686050"/>
+          <a:ext cx="7706801" cy="2029108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>124906</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4781550"/>
+          <a:ext cx="7744906" cy="3210373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258274</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8020050"/>
+          <a:ext cx="7878274" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1671,37 +2496,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,154 +2536,154 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>218.6</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <f>$I$3*EXP($I$4*A3)</f>
         <v>214.07807824032759</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <f>$I$8*A3^$I$9</f>
         <v>170.97</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f>ABS(C3-B3)/B3</f>
         <v>2.0685826896946063E-2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>ABS(D3-B3)/B3</f>
         <v>0.2178865507776761</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <v>103.59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>435</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <f t="shared" ref="C4:C9" si="0">$I$3*EXP($I$4*A4)</f>
         <v>442.41165733248204</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f t="shared" ref="D4:D9" si="1">$I$8*A4^$I$9</f>
         <v>575.51087833709835</v>
       </c>
-      <c r="E4" s="12">
-        <f t="shared" ref="E4:E8" si="2">ABS(C4-B4)/B4</f>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E7" si="2">ABS(C4-B4)/B4</f>
         <v>1.7038292718349508E-2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f t="shared" ref="F4:F7" si="3">ABS(D4-B4)/B4</f>
         <v>0.32301351341861689</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="20">
         <v>0.72589999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>915</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>914.28359294194479</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f t="shared" si="1"/>
         <v>1170.5957441095538</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f t="shared" si="2"/>
         <v>7.8295853339367281E-4</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f t="shared" si="3"/>
         <v>0.2793396110486927</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>1825.9</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>1889.449508096086</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f t="shared" si="1"/>
         <v>1937.2566595562869</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f t="shared" si="2"/>
         <v>3.4804484416499207E-2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>4021.8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>3904.7178262896268</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f t="shared" si="1"/>
         <v>2863.4281246022297</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="2"/>
         <v>2.9111883661637413E-2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f t="shared" si="3"/>
         <v>0.28802324217956399</v>
       </c>
@@ -1867,26 +2692,26 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="31">
         <v>3582.1</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="30">
         <f t="shared" si="0"/>
         <v>8069.4515718006751</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f t="shared" si="1"/>
         <v>3940.4023212853626</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f>SUM(E3:E7)/5</f>
         <v>2.0484689245365173E-2</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <f>SUM(F3:F7)/5</f>
         <v>0.23385003784235411</v>
       </c>
@@ -1897,19 +2722,19 @@
         <v>170.97</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <f t="shared" si="0"/>
         <v>16676.24949265836</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f t="shared" si="1"/>
         <v>5161.4424527966221</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1919,7 +2744,7 @@
         <v>1.7511000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1930,150 +2755,150 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3">
         <v>1</v>
       </c>
       <c r="B12" s="4">
         <v>218.6</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <f>$I$3*EXP($I$4*A12)</f>
         <v>214.07807824032759</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>2</v>
       </c>
       <c r="B13" s="4">
         <v>435</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <f t="shared" ref="C13:C16" si="4">$I$3*EXP($I$4*A13)</f>
         <v>442.41165733248204</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>3</v>
       </c>
       <c r="B14" s="4">
         <v>915</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <f t="shared" si="4"/>
         <v>914.28359294194479</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>4</v>
       </c>
       <c r="B15" s="4">
         <v>1825.9</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <f t="shared" si="4"/>
         <v>1889.449508096086</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>5</v>
       </c>
       <c r="B16" s="4">
         <v>4021.8</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <f t="shared" si="4"/>
         <v>3904.7178262896268</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>16000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10" t="e">
+      <c r="B21" s="9" t="e">
         <f>$I$3*EXP($I$4*B20)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="15" t="e">
+      <c r="B22" s="14" t="e">
         <f>B21*1000000</f>
         <v>#NUM!</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="18">
         <v>103.59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="22" t="s">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+      <c r="C23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="20">
         <v>0.72589999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="13" t="e">
+      <c r="B24" s="12" t="e">
         <f>B22*B19</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="13" t="e">
+      <c r="B25" s="12" t="e">
         <f>B22*B20</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="32" t="e">
+      <c r="B26" s="28" t="e">
         <f>B25-B24</f>
         <v>#NUM!</v>
       </c>
@@ -2090,4 +2915,612 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:8" s="45" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="41"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A6" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:8" ht="9.75" customHeight="1">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
+      <c r="A9" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="52"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="74"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="39">
+        <v>1</v>
+      </c>
+      <c r="F13" s="75">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="39">
+        <v>2</v>
+      </c>
+      <c r="F14" s="76">
+        <f>F13+(F13*0.1)</f>
+        <v>1.3199999999999998</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F14)</f>
+        <v>=F13+(F13*0,1)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="39">
+        <v>3</v>
+      </c>
+      <c r="F15" s="77">
+        <f t="shared" ref="F15:F20" si="0">F14+(F14*0.1)</f>
+        <v>1.4519999999999997</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" ref="G15:G32" ca="1" si="1">_xlfn.FORMULATEXT(F15)</f>
+        <v>=F14+(F14*0,1)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="39">
+        <v>4</v>
+      </c>
+      <c r="F16" s="77">
+        <f t="shared" si="0"/>
+        <v>1.5971999999999997</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F15+(F15*0,1)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="39">
+        <v>5</v>
+      </c>
+      <c r="F17" s="77">
+        <f t="shared" si="0"/>
+        <v>1.7569199999999996</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F16+(F16*0,1)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="E18" s="39">
+        <v>6</v>
+      </c>
+      <c r="F18" s="77">
+        <f t="shared" si="0"/>
+        <v>1.9326119999999996</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F17+(F17*0,1)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="E19" s="39">
+        <v>7</v>
+      </c>
+      <c r="F19" s="77">
+        <f t="shared" si="0"/>
+        <v>2.1258731999999996</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F18+(F18*0,1)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="43">
+        <f>NPV($B$18,F13:F32)</f>
+        <v>12.600290735832383</v>
+      </c>
+      <c r="C20" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B20)</f>
+        <v>=VNA($B$18;F13:F32)</v>
+      </c>
+      <c r="E20" s="39">
+        <v>8</v>
+      </c>
+      <c r="F20" s="77">
+        <f t="shared" si="0"/>
+        <v>2.3384605199999995</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F19+(F19*0,1)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="44">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E21" s="39">
+        <v>9</v>
+      </c>
+      <c r="F21" s="78">
+        <f>F20-(F20*$B$17)</f>
+        <v>2.2215374939999997</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F20-(F20*$B$17)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A22" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="70">
+        <f>B20-B21</f>
+        <v>3.3002907358323821</v>
+      </c>
+      <c r="C22" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B22)</f>
+        <v>=B20-B21</v>
+      </c>
+      <c r="E22" s="39">
+        <v>10</v>
+      </c>
+      <c r="F22" s="78">
+        <f>F21-(F21*$B$17)</f>
+        <v>2.1104606192999995</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F21-(F21*$B$17)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="E23" s="39">
+        <v>11</v>
+      </c>
+      <c r="F23" s="78">
+        <f>F22-(F22*$B$17)</f>
+        <v>2.0049375883349994</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F22-(F22*$B$17)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25">
+      <c r="B24" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="39">
+        <v>12</v>
+      </c>
+      <c r="F24" s="78">
+        <f>F23-(F23*$B$17)</f>
+        <v>1.9046907089182494</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F23-(F23*$B$17)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="79"/>
+      <c r="B25" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="81"/>
+      <c r="E25" s="39">
+        <v>13</v>
+      </c>
+      <c r="F25" s="78">
+        <f>F24-(F24*$B$17)</f>
+        <v>1.8094561734723369</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F24-(F24*$B$17)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="80"/>
+      <c r="E26" s="39">
+        <v>14</v>
+      </c>
+      <c r="F26" s="78">
+        <f>F25-(F25*$B$17)</f>
+        <v>1.71898336479872</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F25-(F25*$B$17)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="E27" s="39">
+        <v>15</v>
+      </c>
+      <c r="F27" s="78">
+        <f>F26-(F26*$B$17)</f>
+        <v>1.633034196558784</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F26-(F26*$B$17)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="E28" s="39">
+        <v>16</v>
+      </c>
+      <c r="F28" s="78">
+        <f>F27-(F27*$B$17)</f>
+        <v>1.5513824867308448</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F27-(F27*$B$17)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="43"/>
+      <c r="E29" s="39">
+        <v>17</v>
+      </c>
+      <c r="F29" s="78">
+        <f>F28-(F28*$B$17)</f>
+        <v>1.4738133623943026</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F28-(F28*$B$17)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="E30" s="39">
+        <v>18</v>
+      </c>
+      <c r="F30" s="78">
+        <f>F29-(F29*$B$17)</f>
+        <v>1.4001226942745875</v>
+      </c>
+      <c r="G30" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F29-(F29*$B$17)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="E31" s="39">
+        <v>19</v>
+      </c>
+      <c r="F31" s="78">
+        <f>F30-(F30*$B$17)</f>
+        <v>1.3301165595608582</v>
+      </c>
+      <c r="G31" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F30-(F30*$B$17)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="E32" s="39">
+        <v>20</v>
+      </c>
+      <c r="F32" s="78">
+        <f>F31-(F31*$B$17)</f>
+        <v>1.2636107315828153</v>
+      </c>
+      <c r="G32" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=F31-(F31*$B$17)</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="52"/>
+      <c r="D33" s="86"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="E34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="31.5">
+      <c r="A1" s="87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="91">
+        <v>1</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="93">
+        <v>2</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="93">
+        <v>3</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="93">
+        <v>4</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="94">
+        <v>5</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="12">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="88">
+        <f>NPV(B9,B2:B6)-B8</f>
+        <v>-150000</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="bycicles" sheetId="1" r:id="rId1"/>
     <sheet name=" VAN valor actual neto NPV " sheetId="2" r:id="rId2"/>
     <sheet name="Theory" sheetId="4" r:id="rId3"/>
     <sheet name="VAN" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>YEAR code</t>
   </si>
@@ -275,18 +276,43 @@
   <si>
     <t>ESTÁ MAL Y NO SÉ PORQUÉ???</t>
   </si>
+  <si>
+    <t>Average of Seasonally Adjusted Sales</t>
+  </si>
+  <si>
+    <t>Year Number</t>
+  </si>
+  <si>
+    <t>y = 158193e0,043x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponential Model 
+y=ae^(bx)
+</t>
+  </si>
+  <si>
+    <t>Error Absolute %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+absolute %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="8">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +438,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +484,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -925,13 +971,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -976,6 +1049,91 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,28 +1146,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,33 +1179,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1055,71 +1200,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="168" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="16" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="16" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="60% - Énfasis5 2" xfId="1"/>
+    <cellStyle name="Moneda 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1985,6 +2099,1258 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Anual Sales Microsoft</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Seasonally Adjusted Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16111701662292213"/>
+                  <c:y val="-0.15060185185185185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.53879566728075301"/>
+                  <c:y val="-0.15457225428518692"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>150781.16666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161696.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175688.83333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185437.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196728.16666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206334.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215657.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248748.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255663.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>261272.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>272232.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>288987.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>307826.08333333331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>323823.08333333331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>334008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>328780.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>303288.91666666669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>323964.16666666669</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>349717.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FE7-4535-87F5-C85963C6D280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1532503600"/>
+        <c:axId val="1532501936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1532503600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years Code</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49772112860892387"/>
+              <c:y val="0.90645815106445027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1532501936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1532501936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.29775845727617384"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1532503600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2226,6 +3592,41 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78153</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>397486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>430579</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87801</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2497,7 +3898,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="H1" sqref="H1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2508,23 +3909,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="32"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -2659,10 +4060,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -2921,7 +4322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2930,7 +4331,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="33" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
@@ -2938,94 +4339,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:8" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:8" s="40" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="57"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="41"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="60"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="61"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="52"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="9">
@@ -3034,16 +4435,16 @@
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="5">
@@ -3052,16 +4453,16 @@
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="35">
         <v>1</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="55">
         <v>1.2</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="5">
@@ -3070,10 +4471,10 @@
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="35">
         <v>2</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="56">
         <f>F13+(F13*0.1)</f>
         <v>1.3199999999999998</v>
       </c>
@@ -3083,17 +4484,17 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="5">
         <v>8</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="E15" s="39">
+      <c r="E15" s="35">
         <v>3</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="57">
         <f t="shared" ref="F15:F20" si="0">F14+(F14*0.1)</f>
         <v>1.4519999999999997</v>
       </c>
@@ -3103,17 +4504,17 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="37">
         <v>0.1</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="E16" s="39">
+      <c r="E16" s="35">
         <v>4</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="57">
         <f t="shared" si="0"/>
         <v>1.5971999999999997</v>
       </c>
@@ -3123,17 +4524,17 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="9">
         <v>0.05</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="E17" s="39">
+      <c r="E17" s="35">
         <v>5</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="57">
         <f t="shared" si="0"/>
         <v>1.7569199999999996</v>
       </c>
@@ -3143,17 +4544,17 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="50" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="9">
         <v>0.12</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="E18" s="39">
+      <c r="E18" s="35">
         <v>6</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="57">
         <f t="shared" si="0"/>
         <v>1.9326119999999996</v>
       </c>
@@ -3163,10 +4564,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="E19" s="39">
+      <c r="E19" s="35">
         <v>7</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="57">
         <f t="shared" si="0"/>
         <v>2.1258731999999996</v>
       </c>
@@ -3176,10 +4577,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="38">
         <f>NPV($B$18,F13:F32)</f>
         <v>12.600290735832383</v>
       </c>
@@ -3187,10 +4588,10 @@
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=VNA($B$18;F13:F32)</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="35">
         <v>8</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="57">
         <f t="shared" si="0"/>
         <v>2.3384605199999995</v>
       </c>
@@ -3200,17 +4601,17 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="39">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="35">
         <v>9</v>
       </c>
-      <c r="F21" s="78">
-        <f>F20-(F20*$B$17)</f>
+      <c r="F21" s="58">
+        <f t="shared" ref="F21:F32" si="2">F20-(F20*$B$17)</f>
         <v>2.2215374939999997</v>
       </c>
       <c r="G21" s="5" t="str">
@@ -3219,10 +4620,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="54">
         <f>B20-B21</f>
         <v>3.3002907358323821</v>
       </c>
@@ -3230,11 +4631,11 @@
         <f ca="1">_xlfn.FORMULATEXT(B22)</f>
         <v>=B20-B21</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="35">
         <v>10</v>
       </c>
-      <c r="F22" s="78">
-        <f>F21-(F21*$B$17)</f>
+      <c r="F22" s="58">
+        <f t="shared" si="2"/>
         <v>2.1104606192999995</v>
       </c>
       <c r="G22" s="5" t="str">
@@ -3243,11 +4644,11 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="E23" s="39">
+      <c r="E23" s="35">
         <v>11</v>
       </c>
-      <c r="F23" s="78">
-        <f>F22-(F22*$B$17)</f>
+      <c r="F23" s="58">
+        <f t="shared" si="2"/>
         <v>2.0049375883349994</v>
       </c>
       <c r="G23" s="5" t="str">
@@ -3256,16 +4657,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="39">
+      <c r="C24" s="86"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="35">
         <v>12</v>
       </c>
-      <c r="F24" s="78">
-        <f>F23-(F23*$B$17)</f>
+      <c r="F24" s="58">
+        <f t="shared" si="2"/>
         <v>1.9046907089182494</v>
       </c>
       <c r="G24" s="5" t="str">
@@ -3274,16 +4675,16 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="79"/>
-      <c r="B25" s="85" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="E25" s="39">
+      <c r="C25" s="61"/>
+      <c r="E25" s="35">
         <v>13</v>
       </c>
-      <c r="F25" s="78">
-        <f>F24-(F24*$B$17)</f>
+      <c r="F25" s="58">
+        <f t="shared" si="2"/>
         <v>1.8094561734723369</v>
       </c>
       <c r="G25" s="5" t="str">
@@ -3292,12 +4693,12 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="C26" s="80"/>
-      <c r="E26" s="39">
+      <c r="C26" s="60"/>
+      <c r="E26" s="35">
         <v>14</v>
       </c>
-      <c r="F26" s="78">
-        <f>F25-(F25*$B$17)</f>
+      <c r="F26" s="58">
+        <f t="shared" si="2"/>
         <v>1.71898336479872</v>
       </c>
       <c r="G26" s="5" t="str">
@@ -3306,11 +4707,11 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="E27" s="39">
+      <c r="E27" s="35">
         <v>15</v>
       </c>
-      <c r="F27" s="78">
-        <f>F26-(F26*$B$17)</f>
+      <c r="F27" s="58">
+        <f t="shared" si="2"/>
         <v>1.633034196558784</v>
       </c>
       <c r="G27" s="5" t="str">
@@ -3319,11 +4720,11 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="E28" s="39">
+      <c r="E28" s="35">
         <v>16</v>
       </c>
-      <c r="F28" s="78">
-        <f>F27-(F27*$B$17)</f>
+      <c r="F28" s="58">
+        <f t="shared" si="2"/>
         <v>1.5513824867308448</v>
       </c>
       <c r="G28" s="5" t="str">
@@ -3332,12 +4733,12 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="C29" s="43"/>
-      <c r="E29" s="39">
+      <c r="C29" s="38"/>
+      <c r="E29" s="35">
         <v>17</v>
       </c>
-      <c r="F29" s="78">
-        <f>F28-(F28*$B$17)</f>
+      <c r="F29" s="58">
+        <f t="shared" si="2"/>
         <v>1.4738133623943026</v>
       </c>
       <c r="G29" s="5" t="str">
@@ -3346,11 +4747,11 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="E30" s="39">
+      <c r="E30" s="35">
         <v>18</v>
       </c>
-      <c r="F30" s="78">
-        <f>F29-(F29*$B$17)</f>
+      <c r="F30" s="58">
+        <f t="shared" si="2"/>
         <v>1.4001226942745875</v>
       </c>
       <c r="G30" s="5" t="str">
@@ -3359,11 +4760,11 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="E31" s="39">
+      <c r="E31" s="35">
         <v>19</v>
       </c>
-      <c r="F31" s="78">
-        <f>F30-(F30*$B$17)</f>
+      <c r="F31" s="58">
+        <f t="shared" si="2"/>
         <v>1.3301165595608582</v>
       </c>
       <c r="G31" s="5" t="str">
@@ -3372,11 +4773,11 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="E32" s="39">
+      <c r="E32" s="35">
         <v>20</v>
       </c>
-      <c r="F32" s="78">
-        <f>F31-(F31*$B$17)</f>
+      <c r="F32" s="58">
+        <f t="shared" si="2"/>
         <v>1.2636107315828153</v>
       </c>
       <c r="G32" s="5" t="str">
@@ -3385,8 +4786,8 @@
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="52"/>
-      <c r="D33" s="86"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="64"/>
       <c r="E33"/>
     </row>
     <row r="34" spans="3:5">
@@ -3419,7 +4820,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="31.5">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="65" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3433,7 +4834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3444,50 +4845,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="68" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="91">
+      <c r="A2" s="69">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="70" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="93">
+      <c r="A3" s="71">
         <v>2</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="70" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="93">
+      <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="70" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="93">
+      <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="70" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A6" s="94">
+      <c r="A6" s="72">
         <v>5</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="73" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3503,7 +4904,7 @@
       <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="32">
         <v>0.15</v>
       </c>
     </row>
@@ -3511,11 +4912,11 @@
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="66">
         <f>NPV(B9,B2:B6)-B8</f>
         <v>-150000</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="74" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3523,4 +4924,971 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="75"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A1" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="111" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="76">
+        <v>1992</v>
+      </c>
+      <c r="B2" s="76">
+        <v>1</v>
+      </c>
+      <c r="C2" s="77">
+        <v>150781.16666666666</v>
+      </c>
+      <c r="D2" s="104">
+        <f>158193*EXP(0.043*B2)</f>
+        <v>165143.66740010298</v>
+      </c>
+      <c r="E2" s="106">
+        <f>ABS((D2-C2)/C2)</f>
+        <v>9.5253943519270107E-2</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="82"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="78">
+        <v>1993</v>
+      </c>
+      <c r="B3" s="78">
+        <v>2</v>
+      </c>
+      <c r="C3" s="77">
+        <v>161696.25</v>
+      </c>
+      <c r="D3" s="104">
+        <f>158193*EXP(0.043*B3)</f>
+        <v>172399.73249357322</v>
+      </c>
+      <c r="E3" s="106">
+        <f t="shared" ref="E3:E21" si="0">ABS((D3-C3)/C3)</f>
+        <v>6.6194995205969331E-2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="78">
+        <v>1994</v>
+      </c>
+      <c r="B4" s="76">
+        <v>3</v>
+      </c>
+      <c r="C4" s="77">
+        <v>175688.83333333334</v>
+      </c>
+      <c r="D4" s="104">
+        <f t="shared" ref="D4:D35" si="1">158193*EXP(0.043*B4)</f>
+        <v>179974.61381214956</v>
+      </c>
+      <c r="E4" s="106">
+        <f t="shared" si="0"/>
+        <v>2.4394154127512661E-2</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="18">
+        <v>158193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" s="78">
+        <v>1995</v>
+      </c>
+      <c r="B5" s="78">
+        <v>4</v>
+      </c>
+      <c r="C5" s="77">
+        <v>185437.25</v>
+      </c>
+      <c r="D5" s="104">
+        <f t="shared" si="1"/>
+        <v>187882.31946960744</v>
+      </c>
+      <c r="E5" s="106">
+        <f t="shared" si="0"/>
+        <v>1.3185427790842644E-2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="78">
+        <v>1996</v>
+      </c>
+      <c r="B6" s="76">
+        <v>5</v>
+      </c>
+      <c r="C6" s="77">
+        <v>196728.16666666666</v>
+      </c>
+      <c r="D6" s="104">
+        <f t="shared" si="1"/>
+        <v>196137.47306675219</v>
+      </c>
+      <c r="E6" s="106">
+        <f t="shared" si="0"/>
+        <v>3.0025878343863449E-3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="78">
+        <v>1997</v>
+      </c>
+      <c r="B7" s="78">
+        <v>6</v>
+      </c>
+      <c r="C7" s="77">
+        <v>206334.08333333334</v>
+      </c>
+      <c r="D7" s="104">
+        <f t="shared" si="1"/>
+        <v>204755.34073462404</v>
+      </c>
+      <c r="E7" s="106">
+        <f t="shared" si="0"/>
+        <v>7.6513902754439152E-3</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="78">
+        <v>1998</v>
+      </c>
+      <c r="B8" s="76">
+        <v>7</v>
+      </c>
+      <c r="C8" s="77">
+        <v>215657.66666666666</v>
+      </c>
+      <c r="D8" s="104">
+        <f t="shared" si="1"/>
+        <v>213751.8593659233</v>
+      </c>
+      <c r="E8" s="106">
+        <f t="shared" si="0"/>
+        <v>8.8371877995373337E-3</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="78">
+        <v>1999</v>
+      </c>
+      <c r="B9" s="78">
+        <v>8</v>
+      </c>
+      <c r="C9" s="77">
+        <v>233872</v>
+      </c>
+      <c r="D9" s="104">
+        <f t="shared" si="1"/>
+        <v>223143.66608686617</v>
+      </c>
+      <c r="E9" s="106">
+        <f t="shared" si="0"/>
+        <v>4.5872673569875101E-2</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="78">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="76">
+        <v>9</v>
+      </c>
+      <c r="C10" s="77">
+        <v>248748.25</v>
+      </c>
+      <c r="D10" s="104">
+        <f t="shared" si="1"/>
+        <v>232948.12902397109</v>
+      </c>
+      <c r="E10" s="106">
+        <f t="shared" si="0"/>
+        <v>6.3518521139460909E-2</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="78">
+        <v>2001</v>
+      </c>
+      <c r="B11" s="78">
+        <v>10</v>
+      </c>
+      <c r="C11" s="77">
+        <v>255663.75</v>
+      </c>
+      <c r="D11" s="104">
+        <f t="shared" si="1"/>
+        <v>243183.37942267326</v>
+      </c>
+      <c r="E11" s="106">
+        <f t="shared" si="0"/>
+        <v>4.88155656690741E-2</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="78">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="76">
+        <v>11</v>
+      </c>
+      <c r="C12" s="77">
+        <v>261272.41666666666</v>
+      </c>
+      <c r="D12" s="104">
+        <f t="shared" si="1"/>
+        <v>253868.34517716331</v>
+      </c>
+      <c r="E12" s="106">
+        <f t="shared" si="0"/>
+        <v>2.833851190250028E-2</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="78">
+        <v>2003</v>
+      </c>
+      <c r="B13" s="78">
+        <v>12</v>
+      </c>
+      <c r="C13" s="77">
+        <v>272232.5</v>
+      </c>
+      <c r="D13" s="104">
+        <f t="shared" si="1"/>
+        <v>265022.78583345655</v>
+      </c>
+      <c r="E13" s="106">
+        <f t="shared" si="0"/>
+        <v>2.6483664391810113E-2</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="78">
+        <v>2004</v>
+      </c>
+      <c r="B14" s="76">
+        <v>13</v>
+      </c>
+      <c r="C14" s="77">
+        <v>288987.5</v>
+      </c>
+      <c r="D14" s="104">
+        <f t="shared" si="1"/>
+        <v>276667.32913042337</v>
+      </c>
+      <c r="E14" s="106">
+        <f t="shared" si="0"/>
+        <v>4.2632192982660591E-2</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="78">
+        <v>2005</v>
+      </c>
+      <c r="B15" s="78">
+        <v>14</v>
+      </c>
+      <c r="C15" s="77">
+        <v>307826.08333333331</v>
+      </c>
+      <c r="D15" s="104">
+        <f t="shared" si="1"/>
+        <v>288823.50914635573</v>
+      </c>
+      <c r="E15" s="106">
+        <f t="shared" si="0"/>
+        <v>6.1731527040222924E-2</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="78">
+        <v>2006</v>
+      </c>
+      <c r="B16" s="76">
+        <v>15</v>
+      </c>
+      <c r="C16" s="77">
+        <v>323823.08333333331</v>
+      </c>
+      <c r="D16" s="104">
+        <f t="shared" si="1"/>
+        <v>301513.80612161325</v>
+      </c>
+      <c r="E16" s="106">
+        <f t="shared" si="0"/>
+        <v>6.8893412359845876E-2</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="78">
+        <v>2007</v>
+      </c>
+      <c r="B17" s="78">
+        <v>16</v>
+      </c>
+      <c r="C17" s="77">
+        <v>334008</v>
+      </c>
+      <c r="D17" s="104">
+        <f t="shared" si="1"/>
+        <v>314761.68803099269</v>
+      </c>
+      <c r="E17" s="106">
+        <f t="shared" si="0"/>
+        <v>5.7622308354911583E-2</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="78">
+        <v>2008</v>
+      </c>
+      <c r="B18" s="76">
+        <v>17</v>
+      </c>
+      <c r="C18" s="77">
+        <v>328780.33333333331</v>
+      </c>
+      <c r="D18" s="104">
+        <f t="shared" si="1"/>
+        <v>328591.65398269973</v>
+      </c>
+      <c r="E18" s="106">
+        <f t="shared" si="0"/>
+        <v>5.7387663282855005E-4</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="78">
+        <v>2009</v>
+      </c>
+      <c r="B19" s="78">
+        <v>18</v>
+      </c>
+      <c r="C19" s="77">
+        <v>303288.91666666669</v>
+      </c>
+      <c r="D19" s="104">
+        <f t="shared" si="1"/>
+        <v>343029.27952418046</v>
+      </c>
+      <c r="E19" s="106">
+        <f t="shared" si="0"/>
+        <v>0.13103137198116241</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="78">
+        <v>2010</v>
+      </c>
+      <c r="B20" s="76">
+        <v>19</v>
+      </c>
+      <c r="C20" s="77">
+        <v>323964.16666666669</v>
+      </c>
+      <c r="D20" s="104">
+        <f t="shared" si="1"/>
+        <v>358101.26393859531</v>
+      </c>
+      <c r="E20" s="106">
+        <f t="shared" si="0"/>
+        <v>0.10537306524722216</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="78">
+        <v>2011</v>
+      </c>
+      <c r="B21" s="78">
+        <v>20</v>
+      </c>
+      <c r="C21" s="77">
+        <v>349717.75</v>
+      </c>
+      <c r="D21" s="104">
+        <f t="shared" si="1"/>
+        <v>373835.47961940081</v>
+      </c>
+      <c r="E21" s="106">
+        <f t="shared" si="0"/>
+        <v>6.8963412979183375E-2</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="A22" s="78">
+        <v>2012</v>
+      </c>
+      <c r="B22" s="113">
+        <v>21</v>
+      </c>
+      <c r="D22" s="104">
+        <f t="shared" si="1"/>
+        <v>390261.02361434634</v>
+      </c>
+      <c r="E22" s="112">
+        <f>AVERAGE(E2:E21)</f>
+        <v>4.8418489540186016E-2</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="78">
+        <v>2013</v>
+      </c>
+      <c r="B23" s="114">
+        <v>22</v>
+      </c>
+      <c r="D23" s="104">
+        <f t="shared" si="1"/>
+        <v>407408.27143420593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="78">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="113">
+        <v>23</v>
+      </c>
+      <c r="D24" s="104">
+        <f t="shared" si="1"/>
+        <v>425308.93322575185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="78">
+        <v>2015</v>
+      </c>
+      <c r="B25" s="114">
+        <v>24</v>
+      </c>
+      <c r="D25" s="104">
+        <f t="shared" si="1"/>
+        <v>443996.1124128513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="78">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="113">
+        <v>25</v>
+      </c>
+      <c r="D26" s="104">
+        <f t="shared" si="1"/>
+        <v>463504.36691412784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="78">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="114">
+        <v>26</v>
+      </c>
+      <c r="D27" s="104">
+        <f t="shared" si="1"/>
+        <v>483869.77305040054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="78">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="113">
+        <v>27</v>
+      </c>
+      <c r="D28" s="104">
+        <f t="shared" si="1"/>
+        <v>505129.99226007872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="78">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="114">
+        <v>28</v>
+      </c>
+      <c r="D29" s="104">
+        <f t="shared" si="1"/>
+        <v>527324.34074589284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="78">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="113">
+        <v>29</v>
+      </c>
+      <c r="D30" s="104">
+        <f t="shared" si="1"/>
+        <v>550493.86218175455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="78">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="114">
+        <v>30</v>
+      </c>
+      <c r="D31" s="104">
+        <f t="shared" si="1"/>
+        <v>574681.40361420403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="78">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="113">
+        <v>31</v>
+      </c>
+      <c r="D32" s="104">
+        <f t="shared" si="1"/>
+        <v>599931.69469880743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="78">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="114">
+        <v>32</v>
+      </c>
+      <c r="D33" s="104">
+        <f t="shared" si="1"/>
+        <v>626291.43041803339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="78">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="113">
+        <v>33</v>
+      </c>
+      <c r="D34" s="104">
+        <f t="shared" si="1"/>
+        <v>653809.35743358068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="78">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="114">
+        <v>34</v>
+      </c>
+      <c r="D35" s="104">
+        <f t="shared" si="1"/>
+        <v>682536.36423284397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="78">
+        <v>2026</v>
+      </c>
+      <c r="B36" s="114">
+        <v>35</v>
+      </c>
+      <c r="C36" s="75"/>
+      <c r="D36" s="104">
+        <f t="shared" ref="D36:D53" si="2">158193*EXP(0.043*B36)</f>
+        <v>712525.57523622608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="78">
+        <v>2027</v>
+      </c>
+      <c r="B37" s="114">
+        <v>36</v>
+      </c>
+      <c r="C37" s="75"/>
+      <c r="D37" s="104">
+        <f t="shared" si="2"/>
+        <v>743832.44903932756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="78">
+        <v>2028</v>
+      </c>
+      <c r="B38" s="114">
+        <v>37</v>
+      </c>
+      <c r="C38" s="75"/>
+      <c r="D38" s="104">
+        <f t="shared" si="2"/>
+        <v>776514.88097169134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="78">
+        <v>2029</v>
+      </c>
+      <c r="B39" s="114">
+        <v>38</v>
+      </c>
+      <c r="C39" s="75"/>
+      <c r="D39" s="104">
+        <f t="shared" si="2"/>
+        <v>810633.31016176147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="78">
+        <v>2030</v>
+      </c>
+      <c r="B40" s="114">
+        <v>39</v>
+      </c>
+      <c r="C40" s="75"/>
+      <c r="D40" s="104">
+        <f t="shared" si="2"/>
+        <v>846250.83130605274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="78">
+        <v>2031</v>
+      </c>
+      <c r="B41" s="114">
+        <v>40</v>
+      </c>
+      <c r="C41" s="75"/>
+      <c r="D41" s="104">
+        <f t="shared" si="2"/>
+        <v>883433.31134922162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="78">
+        <v>2032</v>
+      </c>
+      <c r="B42" s="114">
+        <v>41</v>
+      </c>
+      <c r="C42" s="75"/>
+      <c r="D42" s="104">
+        <f t="shared" si="2"/>
+        <v>922249.5112908124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="78">
+        <v>2033</v>
+      </c>
+      <c r="B43" s="114">
+        <v>42</v>
+      </c>
+      <c r="C43" s="75"/>
+      <c r="D43" s="104">
+        <f t="shared" si="2"/>
+        <v>962771.21334393672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="78">
+        <v>2034</v>
+      </c>
+      <c r="B44" s="114">
+        <v>43</v>
+      </c>
+      <c r="C44" s="75"/>
+      <c r="D44" s="104">
+        <f t="shared" si="2"/>
+        <v>1005073.3536810393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="78">
+        <v>2035</v>
+      </c>
+      <c r="B45" s="114">
+        <v>44</v>
+      </c>
+      <c r="C45" s="75"/>
+      <c r="D45" s="104">
+        <f t="shared" si="2"/>
+        <v>1049234.1610122295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="78">
+        <v>2036</v>
+      </c>
+      <c r="B46" s="114">
+        <v>45</v>
+      </c>
+      <c r="C46" s="75"/>
+      <c r="D46" s="104">
+        <f t="shared" si="2"/>
+        <v>1095335.3012524555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="78">
+        <v>2037</v>
+      </c>
+      <c r="B47" s="114">
+        <v>46</v>
+      </c>
+      <c r="C47" s="75"/>
+      <c r="D47" s="104">
+        <f t="shared" si="2"/>
+        <v>1143462.02854505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="78">
+        <v>2038</v>
+      </c>
+      <c r="B48" s="114">
+        <v>47</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="104">
+        <f t="shared" si="2"/>
+        <v>1193703.3429209306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="78">
+        <v>2039</v>
+      </c>
+      <c r="B49" s="114">
+        <v>48</v>
+      </c>
+      <c r="C49" s="75"/>
+      <c r="D49" s="104">
+        <f t="shared" si="2"/>
+        <v>1246152.1548850155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="78">
+        <v>2040</v>
+      </c>
+      <c r="B50" s="114">
+        <v>49</v>
+      </c>
+      <c r="C50" s="75"/>
+      <c r="D50" s="104">
+        <f t="shared" si="2"/>
+        <v>1300905.4572342171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="78">
+        <v>2041</v>
+      </c>
+      <c r="B51" s="114">
+        <v>50</v>
+      </c>
+      <c r="C51" s="75"/>
+      <c r="D51" s="104">
+        <f t="shared" si="2"/>
+        <v>1358064.5044247624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="78">
+        <v>2042</v>
+      </c>
+      <c r="B52" s="114">
+        <v>51</v>
+      </c>
+      <c r="C52" s="75"/>
+      <c r="D52" s="104">
+        <f t="shared" si="2"/>
+        <v>1417734.9998205265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="78">
+        <v>2043</v>
+      </c>
+      <c r="B53" s="114">
+        <v>52</v>
+      </c>
+      <c r="C53" s="75"/>
+      <c r="D53" s="104">
+        <f t="shared" si="2"/>
+        <v>1480027.2911686744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="78">
+        <v>2044</v>
+      </c>
+      <c r="B54" s="114">
+        <v>53</v>
+      </c>
+      <c r="C54" s="75"/>
+      <c r="D54" s="104">
+        <f t="shared" ref="D54:D60" si="3">158193*EXP(0.043*B54)</f>
+        <v>1545056.5746640807</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="78">
+        <v>2045</v>
+      </c>
+      <c r="B55" s="114">
+        <v>54</v>
+      </c>
+      <c r="C55" s="75"/>
+      <c r="D55" s="104">
+        <f t="shared" si="3"/>
+        <v>1612943.1079799184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="78">
+        <v>2046</v>
+      </c>
+      <c r="B56" s="114">
+        <v>55</v>
+      </c>
+      <c r="C56" s="75"/>
+      <c r="D56" s="104">
+        <f t="shared" si="3"/>
+        <v>1683812.4326583603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="78">
+        <v>2047</v>
+      </c>
+      <c r="B57" s="114">
+        <v>56</v>
+      </c>
+      <c r="C57" s="75"/>
+      <c r="D57" s="104">
+        <f t="shared" si="3"/>
+        <v>1757795.6062726579</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="78">
+        <v>2048</v>
+      </c>
+      <c r="B58" s="114">
+        <v>57</v>
+      </c>
+      <c r="C58" s="75"/>
+      <c r="D58" s="104">
+        <f t="shared" si="3"/>
+        <v>1835029.4447899342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="78">
+        <v>2049</v>
+      </c>
+      <c r="B59" s="114">
+        <v>58</v>
+      </c>
+      <c r="C59" s="75"/>
+      <c r="D59" s="104">
+        <f t="shared" si="3"/>
+        <v>1915656.7755828928</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="78">
+        <v>2050</v>
+      </c>
+      <c r="B60" s="114">
+        <v>59</v>
+      </c>
+      <c r="C60" s="75"/>
+      <c r="D60" s="104">
+        <f t="shared" si="3"/>
+        <v>1999826.7015583178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="bycicles" sheetId="1" r:id="rId1"/>
     <sheet name=" VAN valor actual neto NPV " sheetId="2" r:id="rId2"/>
     <sheet name="Theory" sheetId="4" r:id="rId3"/>
     <sheet name="VAN" sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
+    <sheet name="% average growing" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>YEAR code</t>
   </si>
@@ -187,6 +188,134 @@
   </si>
   <si>
     <t>Net Present Value:</t>
+  </si>
+  <si>
+    <t>The investment is worth it</t>
+  </si>
+  <si>
+    <t>for 3,3 mill</t>
+  </si>
+  <si>
+    <t>Modelización del valor actual neto</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Cash inflow (end of year)</t>
+  </si>
+  <si>
+    <t>Intial investment</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
+    <t>Net Present Value</t>
+  </si>
+  <si>
+    <t>$30000</t>
+  </si>
+  <si>
+    <t>$65000</t>
+  </si>
+  <si>
+    <t>$80000</t>
+  </si>
+  <si>
+    <t>$75000</t>
+  </si>
+  <si>
+    <t>$55000</t>
+  </si>
+  <si>
+    <t>ESTÁ MAL Y NO SÉ PORQUÉ???</t>
+  </si>
+  <si>
+    <t>Average of Seasonally Adjusted Sales</t>
+  </si>
+  <si>
+    <t>Year Number</t>
+  </si>
+  <si>
+    <t>y = 158193e0,043x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponential Model 
+y=ae^(bx)
+</t>
+  </si>
+  <si>
+    <t>Error  %
+Absolute</t>
+  </si>
+  <si>
+    <t>Growing %
+Average</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Porcentaje medio de crecimiento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="KaTeX_Size3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Valor final−Valor inicial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="1"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="KaTeX_Size3"/>
+      </rPr>
+      <t>)/valor inicial ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>×100</t>
+    </r>
   </si>
   <si>
     <r>
@@ -220,8 +349,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> VAN</t>
+      <t xml:space="preserve"> </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VAN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Valor Actual Neto) EXAMPLE:</t>
+    </r>
+  </si>
+  <si>
+    <t>¿Qué tasa de crecimiento porcentual anual g se necesita para amortizar el coste de la planta al final del año 5?</t>
+  </si>
+  <si>
+    <t>Considere la suma de los beneficios de los años 1 a 5, ignorando el valor temporal del dinero.</t>
+  </si>
+  <si>
+    <t>Teniendo en cuenta el valor temporal del dinero, ¿qué tasa de crecimiento porcentual anual g se necesita para amortizar el coste de la planta al final del año 5?</t>
+  </si>
+  <si>
+    <t>Utilice un tipo de descuento del 5% para calcular el valor actual neto (VAN) de los flujos de caja de los años 1 a 5, suponiendo que las entradas de caja se producirán al final de cada año.</t>
+  </si>
+  <si>
+    <t>YEARS</t>
+  </si>
+  <si>
+    <t>Descont</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>Tu objetivo es pagar la inversión de $4M para el final del año 5.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -231,71 +408,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Valor Actual Neto) EXAMPLE:</t>
+      <t>Configuración del Modelo</t>
     </r>
-  </si>
-  <si>
-    <t>The investment is worth it</t>
-  </si>
-  <si>
-    <t>for 3,3 mill</t>
-  </si>
-  <si>
-    <t>Modelización del valor actual neto</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Cash inflow (end of year)</t>
-  </si>
-  <si>
-    <t>Intial investment</t>
-  </si>
-  <si>
-    <t>Discount rate</t>
-  </si>
-  <si>
-    <t>Net Present Value</t>
-  </si>
-  <si>
-    <t>$30000</t>
-  </si>
-  <si>
-    <t>$65000</t>
-  </si>
-  <si>
-    <t>$80000</t>
-  </si>
-  <si>
-    <t>$75000</t>
-  </si>
-  <si>
-    <t>$55000</t>
-  </si>
-  <si>
-    <t>ESTÁ MAL Y NO SÉ PORQUÉ???</t>
-  </si>
-  <si>
-    <t>Average of Seasonally Adjusted Sales</t>
-  </si>
-  <si>
-    <t>Year Number</t>
-  </si>
-  <si>
-    <t>y = 158193e0,043x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exponential Model 
-y=ae^(bx)
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Construye una tabla para modelar los ingresos, costos y beneficios para los años 1 a 5.
+2. Asegúrate de incluir una celda para la tasa de crecimiento anual desconocida g. Codifica esta celda con un color y configúrala con cualquier número que desees por ahora.
 </t>
-  </si>
-  <si>
-    <t>Error Absolute %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-absolute %</t>
+    </r>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Profits</t>
+  </si>
+  <si>
+    <t>Costs (mill)</t>
   </si>
 </sst>
 </file>
@@ -310,9 +449,9 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +584,65 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="KaTeX_Size3"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1004,7 +1202,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1134,72 +1332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,25 +1342,122 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2192,7 +2421,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
+              <c:f>'% average growing'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2359,7 +2588,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$21</c:f>
+              <c:f>'% average growing'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2428,7 +2657,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$21</c:f>
+              <c:f>'% average growing'!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2490,7 +2719,7 @@
                   <c:v>323964.16666666669</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>349717.75</c:v>
+                  <c:v>323964.16666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,15 +3788,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>258274</xdr:colOff>
+      <xdr:colOff>267799</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>66977</xdr:rowOff>
+      <xdr:rowOff>38402</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3584,7 +3813,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8020050"/>
+          <a:off x="9525" y="7991475"/>
           <a:ext cx="7878274" cy="2162477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3601,16 +3830,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>78153</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>397486</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89492</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>430579</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>87801</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441918</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110479</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3897,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I4"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3909,23 +4138,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80" t="s">
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="79"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="82"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -4060,10 +4289,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="79"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -4322,8 +4551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4345,26 +4574,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="44"/>
       <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="36"/>
@@ -4376,15 +4605,15 @@
       <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="41"/>
@@ -4396,34 +4625,34 @@
       <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
       <c r="H9" s="43"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="50" t="s">
@@ -4438,10 +4667,10 @@
       <c r="E12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="83"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="50" t="s">
@@ -4657,10 +4886,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25">
-      <c r="B24" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="86"/>
+      <c r="B24" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="101"/>
       <c r="D24" s="62"/>
       <c r="E24" s="35">
         <v>12</v>
@@ -4677,7 +4906,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="59"/>
       <c r="B25" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="61"/>
       <c r="E25" s="35">
@@ -4813,7 +5042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -4821,7 +5050,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="31.5">
       <c r="A1" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4846,10 +5075,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
@@ -4857,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4865,7 +5094,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4873,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4881,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1">
@@ -4889,12 +5118,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="12">
         <v>150000</v>
@@ -4902,7 +5131,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="32">
         <v>0.15</v>
@@ -4910,14 +5139,14 @@
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="66">
         <f>NPV(B9,B2:B6)-B8</f>
         <v>-150000</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4928,10 +5157,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4939,31 +5168,33 @@
     <col min="2" max="2" width="11.42578125" style="75"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="102" t="s">
+    <row r="1" spans="1:14" ht="32.25" customHeight="1">
+      <c r="A1" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="C1" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="F1" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="111" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:14" ht="19.5">
       <c r="A2" s="76">
         <v>1992</v>
       </c>
@@ -4973,21 +5204,27 @@
       <c r="C2" s="77">
         <v>150781.16666666666</v>
       </c>
-      <c r="D2" s="104">
+      <c r="D2" s="82">
         <f>158193*EXP(0.043*B2)</f>
         <v>165143.66740010298</v>
       </c>
-      <c r="E2" s="106">
+      <c r="E2" s="10">
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="82"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="78">
         <v>1993</v>
       </c>
@@ -4997,23 +5234,16 @@
       <c r="C3" s="77">
         <v>161696.25</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="82">
         <f>158193*EXP(0.043*B3)</f>
         <v>172399.73249357322</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E21" si="0">ABS((D3-C3)/C3)</f>
         <v>6.6194995205969331E-2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="78">
         <v>1994</v>
       </c>
@@ -5023,23 +5253,26 @@
       <c r="C4" s="77">
         <v>175688.83333333334</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="82">
         <f t="shared" ref="D4:D35" si="1">158193*EXP(0.043*B4)</f>
         <v>179974.61381214956</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>2.4394154127512661E-2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="18">
-        <v>158193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="G4" s="93">
+        <f>C21-C2</f>
+        <v>173183.00000000003</v>
+      </c>
+      <c r="H4" s="91" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(G4)</f>
+        <v>=C21-C2</v>
+      </c>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="78">
         <v>1995</v>
       </c>
@@ -5049,23 +5282,26 @@
       <c r="C5" s="77">
         <v>185437.25</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="82">
         <f t="shared" si="1"/>
         <v>187882.31946960744</v>
       </c>
-      <c r="E5" s="106">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>1.3185427790842644E-2</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="20">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5">
+        <f>G4/C2</f>
+        <v>1.1485718264991098</v>
+      </c>
+      <c r="H5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(G5)</f>
+        <v>=G4/C2</v>
+      </c>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="78">
         <v>1996</v>
       </c>
@@ -5075,17 +5311,24 @@
       <c r="C6" s="77">
         <v>196728.16666666666</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="82">
         <f t="shared" si="1"/>
         <v>196137.47306675219</v>
       </c>
-      <c r="E6" s="106">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>3.0025878343863449E-3</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="92">
+        <f>G5*100</f>
+        <v>114.85718264991098</v>
+      </c>
+      <c r="H6" s="91" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(G6)</f>
+        <v>=G5*100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="78">
         <v>1997</v>
       </c>
@@ -5095,17 +5338,16 @@
       <c r="C7" s="77">
         <v>206334.08333333334</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="82">
         <f t="shared" si="1"/>
         <v>204755.34073462404</v>
       </c>
-      <c r="E7" s="106">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>7.6513902754439152E-3</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="78">
         <v>1998</v>
       </c>
@@ -5115,17 +5357,16 @@
       <c r="C8" s="77">
         <v>215657.66666666666</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="82">
         <f t="shared" si="1"/>
         <v>213751.8593659233</v>
       </c>
-      <c r="E8" s="106">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>8.8371877995373337E-3</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="78">
         <v>1999</v>
       </c>
@@ -5135,17 +5376,16 @@
       <c r="C9" s="77">
         <v>233872</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="82">
         <f t="shared" si="1"/>
         <v>223143.66608686617</v>
       </c>
-      <c r="E9" s="106">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>4.5872673569875101E-2</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="78">
         <v>2000</v>
       </c>
@@ -5155,17 +5395,20 @@
       <c r="C10" s="77">
         <v>248748.25</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="82">
         <f t="shared" si="1"/>
         <v>232948.12902397109</v>
       </c>
-      <c r="E10" s="106">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F10" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="97"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="78">
         <v>2001</v>
       </c>
@@ -5175,17 +5418,22 @@
       <c r="C11" s="77">
         <v>255663.75</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="82">
         <f t="shared" si="1"/>
         <v>243183.37942267326</v>
       </c>
-      <c r="E11" s="106">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>4.88155656690741E-2</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="78">
         <v>2002</v>
       </c>
@@ -5195,17 +5443,22 @@
       <c r="C12" s="77">
         <v>261272.41666666666</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="82">
         <f t="shared" si="1"/>
         <v>253868.34517716331</v>
       </c>
-      <c r="E12" s="106">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>2.833851190250028E-2</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="18">
+        <v>158193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="78">
         <v>2003</v>
       </c>
@@ -5215,17 +5468,22 @@
       <c r="C13" s="77">
         <v>272232.5</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="82">
         <f t="shared" si="1"/>
         <v>265022.78583345655</v>
       </c>
-      <c r="E13" s="106">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>2.6483664391810113E-2</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="20">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="78">
         <v>2004</v>
       </c>
@@ -5235,17 +5493,16 @@
       <c r="C14" s="77">
         <v>288987.5</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="82">
         <f t="shared" si="1"/>
         <v>276667.32913042337</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>4.2632192982660591E-2</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="78">
         <v>2005</v>
       </c>
@@ -5255,17 +5512,16 @@
       <c r="C15" s="77">
         <v>307826.08333333331</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="82">
         <f t="shared" si="1"/>
         <v>288823.50914635573</v>
       </c>
-      <c r="E15" s="106">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>6.1731527040222924E-2</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="78">
         <v>2006</v>
       </c>
@@ -5275,17 +5531,16 @@
       <c r="C16" s="77">
         <v>323823.08333333331</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="82">
         <f t="shared" si="1"/>
         <v>301513.80612161325</v>
       </c>
-      <c r="E16" s="106">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>6.8893412359845876E-2</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="78">
         <v>2007</v>
       </c>
@@ -5295,17 +5550,16 @@
       <c r="C17" s="77">
         <v>334008</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="82">
         <f t="shared" si="1"/>
         <v>314761.68803099269</v>
       </c>
-      <c r="E17" s="106">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>5.7622308354911583E-2</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="78">
         <v>2008</v>
       </c>
@@ -5315,17 +5569,16 @@
       <c r="C18" s="77">
         <v>328780.33333333331</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="82">
         <f t="shared" si="1"/>
         <v>328591.65398269973</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>5.7387663282855005E-4</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="78">
         <v>2009</v>
       </c>
@@ -5335,17 +5588,16 @@
       <c r="C19" s="77">
         <v>303288.91666666669</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="82">
         <f t="shared" si="1"/>
         <v>343029.27952418046</v>
       </c>
-      <c r="E19" s="106">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>0.13103137198116241</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="78">
         <v>2010</v>
       </c>
@@ -5355,17 +5607,16 @@
       <c r="C20" s="77">
         <v>323964.16666666669</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="82">
         <f t="shared" si="1"/>
         <v>358101.26393859531</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>0.10537306524722216</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="78">
         <v>2011</v>
       </c>
@@ -5373,151 +5624,149 @@
         <v>20</v>
       </c>
       <c r="C21" s="77">
-        <v>349717.75</v>
-      </c>
-      <c r="D21" s="104">
+        <v>323964.16666666669</v>
+      </c>
+      <c r="D21" s="82">
         <f t="shared" si="1"/>
         <v>373835.47961940081</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
-        <v>6.8963412979183375E-2</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+        <v>0.15394083075875403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="78">
         <v>2012</v>
       </c>
-      <c r="B22" s="113">
+      <c r="B22" s="86">
         <v>21</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="82">
         <f t="shared" si="1"/>
         <v>390261.02361434634</v>
       </c>
-      <c r="E22" s="112">
+      <c r="E22" s="89">
         <f>AVERAGE(E2:E21)</f>
-        <v>4.8418489540186016E-2</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
+        <v>5.2667360429164548E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="78">
         <v>2013</v>
       </c>
-      <c r="B23" s="114">
+      <c r="B23" s="87">
         <v>22</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="82">
         <f t="shared" si="1"/>
         <v>407408.27143420593</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" s="78">
         <v>2014</v>
       </c>
-      <c r="B24" s="113">
+      <c r="B24" s="86">
         <v>23</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="82">
         <f t="shared" si="1"/>
         <v>425308.93322575185</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" s="78">
         <v>2015</v>
       </c>
-      <c r="B25" s="114">
+      <c r="B25" s="87">
         <v>24</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="82">
         <f t="shared" si="1"/>
         <v>443996.1124128513</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="78">
         <v>2016</v>
       </c>
-      <c r="B26" s="113">
+      <c r="B26" s="86">
         <v>25</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="82">
         <f t="shared" si="1"/>
         <v>463504.36691412784</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="78">
         <v>2017</v>
       </c>
-      <c r="B27" s="114">
+      <c r="B27" s="87">
         <v>26</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="82">
         <f t="shared" si="1"/>
         <v>483869.77305040054</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" s="78">
         <v>2018</v>
       </c>
-      <c r="B28" s="113">
+      <c r="B28" s="86">
         <v>27</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="82">
         <f t="shared" si="1"/>
         <v>505129.99226007872</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" s="78">
         <v>2019</v>
       </c>
-      <c r="B29" s="114">
+      <c r="B29" s="87">
         <v>28</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="82">
         <f t="shared" si="1"/>
         <v>527324.34074589284</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" s="78">
         <v>2020</v>
       </c>
-      <c r="B30" s="113">
+      <c r="B30" s="86">
         <v>29</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="82">
         <f t="shared" si="1"/>
         <v>550493.86218175455</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="78">
         <v>2021</v>
       </c>
-      <c r="B31" s="114">
+      <c r="B31" s="87">
         <v>30</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="82">
         <f t="shared" si="1"/>
         <v>574681.40361420403</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" s="78">
         <v>2022</v>
       </c>
-      <c r="B32" s="113">
+      <c r="B32" s="86">
         <v>31</v>
       </c>
-      <c r="D32" s="104">
+      <c r="D32" s="82">
         <f t="shared" si="1"/>
         <v>599931.69469880743</v>
       </c>
@@ -5526,10 +5775,10 @@
       <c r="A33" s="78">
         <v>2023</v>
       </c>
-      <c r="B33" s="114">
+      <c r="B33" s="87">
         <v>32</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="82">
         <f t="shared" si="1"/>
         <v>626291.43041803339</v>
       </c>
@@ -5538,10 +5787,10 @@
       <c r="A34" s="78">
         <v>2024</v>
       </c>
-      <c r="B34" s="113">
+      <c r="B34" s="86">
         <v>33</v>
       </c>
-      <c r="D34" s="104">
+      <c r="D34" s="82">
         <f t="shared" si="1"/>
         <v>653809.35743358068</v>
       </c>
@@ -5550,10 +5799,10 @@
       <c r="A35" s="78">
         <v>2025</v>
       </c>
-      <c r="B35" s="114">
+      <c r="B35" s="87">
         <v>34</v>
       </c>
-      <c r="D35" s="104">
+      <c r="D35" s="82">
         <f t="shared" si="1"/>
         <v>682536.36423284397</v>
       </c>
@@ -5562,11 +5811,11 @@
       <c r="A36" s="78">
         <v>2026</v>
       </c>
-      <c r="B36" s="114">
+      <c r="B36" s="87">
         <v>35</v>
       </c>
       <c r="C36" s="75"/>
-      <c r="D36" s="104">
+      <c r="D36" s="82">
         <f t="shared" ref="D36:D53" si="2">158193*EXP(0.043*B36)</f>
         <v>712525.57523622608</v>
       </c>
@@ -5575,11 +5824,11 @@
       <c r="A37" s="78">
         <v>2027</v>
       </c>
-      <c r="B37" s="114">
+      <c r="B37" s="87">
         <v>36</v>
       </c>
       <c r="C37" s="75"/>
-      <c r="D37" s="104">
+      <c r="D37" s="82">
         <f t="shared" si="2"/>
         <v>743832.44903932756</v>
       </c>
@@ -5588,11 +5837,11 @@
       <c r="A38" s="78">
         <v>2028</v>
       </c>
-      <c r="B38" s="114">
+      <c r="B38" s="87">
         <v>37</v>
       </c>
       <c r="C38" s="75"/>
-      <c r="D38" s="104">
+      <c r="D38" s="82">
         <f t="shared" si="2"/>
         <v>776514.88097169134</v>
       </c>
@@ -5601,11 +5850,11 @@
       <c r="A39" s="78">
         <v>2029</v>
       </c>
-      <c r="B39" s="114">
+      <c r="B39" s="87">
         <v>38</v>
       </c>
       <c r="C39" s="75"/>
-      <c r="D39" s="104">
+      <c r="D39" s="82">
         <f t="shared" si="2"/>
         <v>810633.31016176147</v>
       </c>
@@ -5614,11 +5863,11 @@
       <c r="A40" s="78">
         <v>2030</v>
       </c>
-      <c r="B40" s="114">
+      <c r="B40" s="87">
         <v>39</v>
       </c>
       <c r="C40" s="75"/>
-      <c r="D40" s="104">
+      <c r="D40" s="82">
         <f t="shared" si="2"/>
         <v>846250.83130605274</v>
       </c>
@@ -5627,11 +5876,11 @@
       <c r="A41" s="78">
         <v>2031</v>
       </c>
-      <c r="B41" s="114">
+      <c r="B41" s="87">
         <v>40</v>
       </c>
       <c r="C41" s="75"/>
-      <c r="D41" s="104">
+      <c r="D41" s="82">
         <f t="shared" si="2"/>
         <v>883433.31134922162</v>
       </c>
@@ -5640,11 +5889,11 @@
       <c r="A42" s="78">
         <v>2032</v>
       </c>
-      <c r="B42" s="114">
+      <c r="B42" s="87">
         <v>41</v>
       </c>
       <c r="C42" s="75"/>
-      <c r="D42" s="104">
+      <c r="D42" s="82">
         <f t="shared" si="2"/>
         <v>922249.5112908124</v>
       </c>
@@ -5653,11 +5902,11 @@
       <c r="A43" s="78">
         <v>2033</v>
       </c>
-      <c r="B43" s="114">
+      <c r="B43" s="87">
         <v>42</v>
       </c>
       <c r="C43" s="75"/>
-      <c r="D43" s="104">
+      <c r="D43" s="82">
         <f t="shared" si="2"/>
         <v>962771.21334393672</v>
       </c>
@@ -5666,11 +5915,11 @@
       <c r="A44" s="78">
         <v>2034</v>
       </c>
-      <c r="B44" s="114">
+      <c r="B44" s="87">
         <v>43</v>
       </c>
       <c r="C44" s="75"/>
-      <c r="D44" s="104">
+      <c r="D44" s="82">
         <f t="shared" si="2"/>
         <v>1005073.3536810393</v>
       </c>
@@ -5679,11 +5928,11 @@
       <c r="A45" s="78">
         <v>2035</v>
       </c>
-      <c r="B45" s="114">
+      <c r="B45" s="87">
         <v>44</v>
       </c>
       <c r="C45" s="75"/>
-      <c r="D45" s="104">
+      <c r="D45" s="82">
         <f t="shared" si="2"/>
         <v>1049234.1610122295</v>
       </c>
@@ -5692,11 +5941,11 @@
       <c r="A46" s="78">
         <v>2036</v>
       </c>
-      <c r="B46" s="114">
+      <c r="B46" s="87">
         <v>45</v>
       </c>
       <c r="C46" s="75"/>
-      <c r="D46" s="104">
+      <c r="D46" s="82">
         <f t="shared" si="2"/>
         <v>1095335.3012524555</v>
       </c>
@@ -5705,11 +5954,11 @@
       <c r="A47" s="78">
         <v>2037</v>
       </c>
-      <c r="B47" s="114">
+      <c r="B47" s="87">
         <v>46</v>
       </c>
       <c r="C47" s="75"/>
-      <c r="D47" s="104">
+      <c r="D47" s="82">
         <f t="shared" si="2"/>
         <v>1143462.02854505</v>
       </c>
@@ -5718,11 +5967,11 @@
       <c r="A48" s="78">
         <v>2038</v>
       </c>
-      <c r="B48" s="114">
+      <c r="B48" s="87">
         <v>47</v>
       </c>
       <c r="C48" s="75"/>
-      <c r="D48" s="104">
+      <c r="D48" s="82">
         <f t="shared" si="2"/>
         <v>1193703.3429209306</v>
       </c>
@@ -5731,11 +5980,11 @@
       <c r="A49" s="78">
         <v>2039</v>
       </c>
-      <c r="B49" s="114">
+      <c r="B49" s="87">
         <v>48</v>
       </c>
       <c r="C49" s="75"/>
-      <c r="D49" s="104">
+      <c r="D49" s="82">
         <f t="shared" si="2"/>
         <v>1246152.1548850155</v>
       </c>
@@ -5744,11 +5993,11 @@
       <c r="A50" s="78">
         <v>2040</v>
       </c>
-      <c r="B50" s="114">
+      <c r="B50" s="87">
         <v>49</v>
       </c>
       <c r="C50" s="75"/>
-      <c r="D50" s="104">
+      <c r="D50" s="82">
         <f t="shared" si="2"/>
         <v>1300905.4572342171</v>
       </c>
@@ -5757,11 +6006,11 @@
       <c r="A51" s="78">
         <v>2041</v>
       </c>
-      <c r="B51" s="114">
+      <c r="B51" s="87">
         <v>50</v>
       </c>
       <c r="C51" s="75"/>
-      <c r="D51" s="104">
+      <c r="D51" s="82">
         <f t="shared" si="2"/>
         <v>1358064.5044247624</v>
       </c>
@@ -5770,11 +6019,11 @@
       <c r="A52" s="78">
         <v>2042</v>
       </c>
-      <c r="B52" s="114">
+      <c r="B52" s="87">
         <v>51</v>
       </c>
       <c r="C52" s="75"/>
-      <c r="D52" s="104">
+      <c r="D52" s="82">
         <f t="shared" si="2"/>
         <v>1417734.9998205265</v>
       </c>
@@ -5783,11 +6032,11 @@
       <c r="A53" s="78">
         <v>2043</v>
       </c>
-      <c r="B53" s="114">
+      <c r="B53" s="87">
         <v>52</v>
       </c>
       <c r="C53" s="75"/>
-      <c r="D53" s="104">
+      <c r="D53" s="82">
         <f t="shared" si="2"/>
         <v>1480027.2911686744</v>
       </c>
@@ -5796,11 +6045,11 @@
       <c r="A54" s="78">
         <v>2044</v>
       </c>
-      <c r="B54" s="114">
+      <c r="B54" s="87">
         <v>53</v>
       </c>
       <c r="C54" s="75"/>
-      <c r="D54" s="104">
+      <c r="D54" s="82">
         <f t="shared" ref="D54:D60" si="3">158193*EXP(0.043*B54)</f>
         <v>1545056.5746640807</v>
       </c>
@@ -5809,11 +6058,11 @@
       <c r="A55" s="78">
         <v>2045</v>
       </c>
-      <c r="B55" s="114">
+      <c r="B55" s="87">
         <v>54</v>
       </c>
       <c r="C55" s="75"/>
-      <c r="D55" s="104">
+      <c r="D55" s="82">
         <f t="shared" si="3"/>
         <v>1612943.1079799184</v>
       </c>
@@ -5822,11 +6071,11 @@
       <c r="A56" s="78">
         <v>2046</v>
       </c>
-      <c r="B56" s="114">
+      <c r="B56" s="87">
         <v>55</v>
       </c>
       <c r="C56" s="75"/>
-      <c r="D56" s="104">
+      <c r="D56" s="82">
         <f t="shared" si="3"/>
         <v>1683812.4326583603</v>
       </c>
@@ -5835,11 +6084,11 @@
       <c r="A57" s="78">
         <v>2047</v>
       </c>
-      <c r="B57" s="114">
+      <c r="B57" s="87">
         <v>56</v>
       </c>
       <c r="C57" s="75"/>
-      <c r="D57" s="104">
+      <c r="D57" s="82">
         <f t="shared" si="3"/>
         <v>1757795.6062726579</v>
       </c>
@@ -5848,11 +6097,11 @@
       <c r="A58" s="78">
         <v>2048</v>
       </c>
-      <c r="B58" s="114">
+      <c r="B58" s="87">
         <v>57</v>
       </c>
       <c r="C58" s="75"/>
-      <c r="D58" s="104">
+      <c r="D58" s="82">
         <f t="shared" si="3"/>
         <v>1835029.4447899342</v>
       </c>
@@ -5861,11 +6110,11 @@
       <c r="A59" s="78">
         <v>2049</v>
       </c>
-      <c r="B59" s="114">
+      <c r="B59" s="87">
         <v>58</v>
       </c>
       <c r="C59" s="75"/>
-      <c r="D59" s="104">
+      <c r="D59" s="82">
         <f t="shared" si="3"/>
         <v>1915656.7755828928</v>
       </c>
@@ -5874,21 +6123,142 @@
       <c r="A60" s="78">
         <v>2050</v>
       </c>
-      <c r="B60" s="114">
+      <c r="B60" s="87">
         <v>59</v>
       </c>
       <c r="C60" s="75"/>
-      <c r="D60" s="104">
+      <c r="D60" s="82">
         <f t="shared" si="3"/>
         <v>1999826.7015583178</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G2:H2"/>
+  <mergeCells count="2">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" style="123" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="75" customFormat="1" ht="17.25">
+      <c r="A1" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+    </row>
+    <row r="2" spans="1:16" s="75" customFormat="1">
+      <c r="A2" s="123"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="124" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="A5" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="118"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="124" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="P11" s="33"/>
+    </row>
+    <row r="13" spans="1:16" ht="95.25" customHeight="1">
+      <c r="A13" s="125" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="123" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="12">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="bycicles" sheetId="1" r:id="rId1"/>
     <sheet name=" VAN valor actual neto NPV " sheetId="2" r:id="rId2"/>
-    <sheet name="Theory" sheetId="4" r:id="rId3"/>
-    <sheet name="VAN" sheetId="5" r:id="rId4"/>
-    <sheet name="% average growing" sheetId="6" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="7" r:id="rId6"/>
+    <sheet name="NPV theory" sheetId="4" r:id="rId3"/>
+    <sheet name="% average growing" sheetId="6" r:id="rId4"/>
+    <sheet name="EXAMPLE EXPLICATION" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>YEAR code</t>
   </si>
@@ -200,36 +199,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Cash inflow (end of year)</t>
-  </si>
-  <si>
-    <t>Intial investment</t>
-  </si>
-  <si>
-    <t>Discount rate</t>
-  </si>
-  <si>
-    <t>Net Present Value</t>
-  </si>
-  <si>
-    <t>$30000</t>
-  </si>
-  <si>
-    <t>$65000</t>
-  </si>
-  <si>
-    <t>$80000</t>
-  </si>
-  <si>
-    <t>$75000</t>
-  </si>
-  <si>
-    <t>$55000</t>
-  </si>
-  <si>
-    <t>ESTÁ MAL Y NO SÉ PORQUÉ???</t>
   </si>
   <si>
     <t>Average of Seasonally Adjusted Sales</t>
@@ -390,18 +359,55 @@
     <t>YEARS</t>
   </si>
   <si>
-    <t>Descont</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
     <t>Tu objetivo es pagar la inversión de $4M para el final del año 5.</t>
+  </si>
+  <si>
+    <t>Costs (mill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las ventas unitarias se espera que crezcan en el mismo porcentaje (g) cada año. </t>
+  </si>
+  <si>
+    <t>Durante los años 1 al 5, incurres en dos tipos de costos: costos variables y costos fijos de SG&amp;A (ventas, generales y administrativos)</t>
+  </si>
+  <si>
+    <t>Cada año, los costos variables son iguales a la mitad de los ingresos</t>
+  </si>
+  <si>
+    <t>Durante el año 1, los costos de SG&amp;A son iguales al 40% de los ingresos</t>
+  </si>
+  <si>
+    <t>Se asume que este porcentaje disminuirá un 2% por año, por lo que durante el año 2, los costos de SG&amp;A serán iguales al 38% de los ingresos, y así sucesivamente.</t>
+  </si>
+  <si>
+    <t>ventas 1er año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El precio de $25 permanecerá invariable durante los años 1 a 5. </t>
+  </si>
+  <si>
+    <t>variable Costs</t>
+  </si>
+  <si>
+    <t>fixed Costs SG&amp;A</t>
+  </si>
+  <si>
+    <t>En el año 1, esperas vender 80,000 kits a un precio unitario de $25 cada uno =</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento anual (g)</t>
+  </si>
+  <si>
+    <t>IGNORAMOS EL VALOR TEMPORAL DEL DINERO</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -425,16 +431,77 @@
     </r>
   </si>
   <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Profits</t>
-  </si>
-  <si>
-    <t>Costs (mill)</t>
+    <t>*NPV (Net Present Value) ó VAN (Valor Actual Neto) EXAMPLE:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Para calcular el VAN, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necesitamos calcular el valor presente de los flujos de efectivo futuros</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ingresos y costos) utilizando el tipo de descuento del 5% especificado. </t>
+    </r>
+  </si>
+  <si>
+    <t>Luego, podemos determinar la tasa de crecimiento g que haría que el VAN sea igual a cero.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*net cash flows (profit)= flujos de efectivo futuros (ganancias)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Net Cash Flows</t>
+  </si>
+  <si>
+    <t>Descont del 5% (lo pasamos a número)</t>
+  </si>
+  <si>
+    <t>VAN (=VNA(tasa%;valores)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se necesitaría un crecimiento anual del 138.095% </t>
+  </si>
+  <si>
+    <t>* CHECK AGAIN!!!</t>
   </si>
 </sst>
 </file>
@@ -442,16 +509,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,13 +553,6 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -566,18 +626,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Var(--cds-font-family-source-sa"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -632,6 +680,20 @@
       <family val="5"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
@@ -639,13 +701,60 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,12 +787,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
@@ -694,8 +797,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1080,92 +1195,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
-      </right>
-      <top style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </right>
-      <top style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
-      </right>
-      <top style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </right>
-      <top style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
-      </right>
-      <top style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3" tint="0.59999389629810485"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,19 +1212,131 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1202,7 +1352,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1247,11 +1397,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1262,10 +1411,10 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1275,16 +1424,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,30 +1447,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,41 +1462,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1379,23 +1520,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1406,58 +1556,138 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4138,23 +4368,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="94"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="97"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -4289,10 +4519,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="94"/>
+      <c r="I6" s="89"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -4549,10 +4779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4560,7 +4790,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="32" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
@@ -4568,94 +4798,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:8" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
+    <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="36"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="47"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="48"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="43"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="9">
@@ -4664,16 +4894,16 @@
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="98"/>
+      <c r="G12" s="93"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="5">
@@ -4682,16 +4912,16 @@
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="54">
         <v>1.2</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="5">
@@ -4700,10 +4930,10 @@
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>2</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="55">
         <f>F13+(F13*0.1)</f>
         <v>1.3199999999999998</v>
       </c>
@@ -4713,37 +4943,37 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="5">
         <v>8</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>3</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="56">
         <f t="shared" ref="F15:F20" si="0">F14+(F14*0.1)</f>
         <v>1.4519999999999997</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f t="shared" ref="G15:G32" ca="1" si="1">_xlfn.FORMULATEXT(F15)</f>
+        <f t="shared" ref="G15:H32" ca="1" si="1">_xlfn.FORMULATEXT(F15)</f>
         <v>=F14+(F14*0,1)</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>0.1</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>4</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="56">
         <f t="shared" si="0"/>
         <v>1.5971999999999997</v>
       </c>
@@ -4752,18 +4982,18 @@
         <v>=F15+(F15*0,1)</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="9">
         <v>0.05</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <v>5</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="56">
         <f t="shared" si="0"/>
         <v>1.7569199999999996</v>
       </c>
@@ -4772,18 +5002,18 @@
         <v>=F16+(F16*0,1)</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="49" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="9">
         <v>0.12</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <v>6</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="56">
         <f t="shared" si="0"/>
         <v>1.9326119999999996</v>
       </c>
@@ -4792,11 +5022,11 @@
         <v>=F17+(F17*0,1)</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="E19" s="35">
+    <row r="19" spans="1:9">
+      <c r="E19" s="34">
         <v>7</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="56">
         <f t="shared" si="0"/>
         <v>2.1258731999999996</v>
       </c>
@@ -4805,11 +5035,11 @@
         <v>=F18+(F18*0,1)</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="51" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="37">
         <f>NPV($B$18,F13:F32)</f>
         <v>12.600290735832383</v>
       </c>
@@ -4817,10 +5047,10 @@
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=VNA($B$18;F13:F32)</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="34">
         <v>8</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="56">
         <f t="shared" si="0"/>
         <v>2.3384605199999995</v>
       </c>
@@ -4828,18 +5058,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>=F19+(F19*0,1)</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="52" t="s">
+      <c r="H20" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=FORMULATEXTO(F20)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="38">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="34">
         <v>9</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="57">
         <f t="shared" ref="F21:F32" si="2">F20-(F20*$B$17)</f>
         <v>2.2215374939999997</v>
       </c>
@@ -4848,11 +5082,11 @@
         <v>=F20-(F20*$B$17)</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="53" t="s">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A22" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="53">
         <f>B20-B21</f>
         <v>3.3002907358323821</v>
       </c>
@@ -4860,10 +5094,10 @@
         <f ca="1">_xlfn.FORMULATEXT(B22)</f>
         <v>=B20-B21</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="34">
         <v>10</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="57">
         <f t="shared" si="2"/>
         <v>2.1104606192999995</v>
       </c>
@@ -4872,11 +5106,11 @@
         <v>=F21-(F21*$B$17)</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="E23" s="35">
+    <row r="23" spans="1:9">
+      <c r="E23" s="34">
         <v>11</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="57">
         <f t="shared" si="2"/>
         <v>2.0049375883349994</v>
       </c>
@@ -4884,17 +5118,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>=F22-(F22*$B$17)</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.25">
-      <c r="B24" s="100" t="s">
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="1:9" ht="17.25">
+      <c r="B24" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="35">
+      <c r="C24" s="96"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="34">
         <v>12</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="57">
         <f t="shared" si="2"/>
         <v>1.9046907089182494</v>
       </c>
@@ -4903,16 +5138,16 @@
         <v>=F23-(F23*$B$17)</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="59"/>
-      <c r="B25" s="63" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="58"/>
+      <c r="B25" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="E25" s="35">
+      <c r="C25" s="60"/>
+      <c r="E25" s="34">
         <v>13</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="57">
         <f t="shared" si="2"/>
         <v>1.8094561734723369</v>
       </c>
@@ -4921,12 +5156,12 @@
         <v>=F24-(F24*$B$17)</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="60"/>
-      <c r="E26" s="35">
+    <row r="26" spans="1:9">
+      <c r="C26" s="59"/>
+      <c r="E26" s="34">
         <v>14</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="57">
         <f t="shared" si="2"/>
         <v>1.71898336479872</v>
       </c>
@@ -4935,11 +5170,11 @@
         <v>=F25-(F25*$B$17)</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="E27" s="35">
+    <row r="27" spans="1:9">
+      <c r="E27" s="34">
         <v>15</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="57">
         <f t="shared" si="2"/>
         <v>1.633034196558784</v>
       </c>
@@ -4948,11 +5183,11 @@
         <v>=F26-(F26*$B$17)</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="E28" s="35">
+    <row r="28" spans="1:9">
+      <c r="E28" s="34">
         <v>16</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="57">
         <f t="shared" si="2"/>
         <v>1.5513824867308448</v>
       </c>
@@ -4961,12 +5196,12 @@
         <v>=F27-(F27*$B$17)</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="C29" s="38"/>
-      <c r="E29" s="35">
+    <row r="29" spans="1:9">
+      <c r="C29" s="37"/>
+      <c r="E29" s="34">
         <v>17</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="57">
         <f t="shared" si="2"/>
         <v>1.4738133623943026</v>
       </c>
@@ -4975,11 +5210,11 @@
         <v>=F28-(F28*$B$17)</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="E30" s="35">
+    <row r="30" spans="1:9">
+      <c r="E30" s="34">
         <v>18</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="57">
         <f t="shared" si="2"/>
         <v>1.4001226942745875</v>
       </c>
@@ -4988,11 +5223,11 @@
         <v>=F29-(F29*$B$17)</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="E31" s="35">
+    <row r="31" spans="1:9">
+      <c r="E31" s="34">
         <v>19</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="57">
         <f t="shared" si="2"/>
         <v>1.3301165595608582</v>
       </c>
@@ -5001,11 +5236,11 @@
         <v>=F30-(F30*$B$17)</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="E32" s="35">
+    <row r="32" spans="1:9">
+      <c r="E32" s="34">
         <v>20</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="57">
         <f t="shared" si="2"/>
         <v>1.2636107315828153</v>
       </c>
@@ -5015,8 +5250,8 @@
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="43"/>
-      <c r="D33" s="64"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="63"/>
       <c r="E33"/>
     </row>
     <row r="34" spans="3:5">
@@ -5042,14 +5277,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="31.5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5060,102 +5295,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="69">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="71">
-        <v>2</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="71">
-        <v>3</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="71">
-        <v>4</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A6" s="72">
-        <v>5</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="12">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="32">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="66">
-        <f>NPV(B9,B2:B6)-B8</f>
-        <v>-150000</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
@@ -5165,7 +5304,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="75"/>
+    <col min="2" max="2" width="11.42578125" style="65"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -5175,36 +5314,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>61</v>
+      <c r="B1" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.5">
-      <c r="A2" s="76">
+      <c r="A2" s="66">
         <v>1992</v>
       </c>
-      <c r="B2" s="76">
+      <c r="B2" s="66">
         <v>1</v>
       </c>
-      <c r="C2" s="77">
+      <c r="C2" s="67">
         <v>150781.16666666666</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="72">
         <f>158193*EXP(0.043*B2)</f>
         <v>165143.66740010298</v>
       </c>
@@ -5212,29 +5351,29 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
+      <c r="F2" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="78">
+      <c r="A3" s="68">
         <v>1993</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="68">
         <v>2</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="67">
         <v>161696.25</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="72">
         <f>158193*EXP(0.043*B3)</f>
         <v>172399.73249357322</v>
       </c>
@@ -5244,16 +5383,16 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="78">
+      <c r="A4" s="68">
         <v>1994</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="66">
         <v>3</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="67">
         <v>175688.83333333334</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="72">
         <f t="shared" ref="D4:D35" si="1">158193*EXP(0.043*B4)</f>
         <v>179974.61381214956</v>
       </c>
@@ -5261,28 +5400,28 @@
         <f t="shared" si="0"/>
         <v>2.4394154127512661E-2</v>
       </c>
-      <c r="G4" s="93">
+      <c r="G4" s="83">
         <f>C21-C2</f>
         <v>173183.00000000003</v>
       </c>
-      <c r="H4" s="91" t="str">
+      <c r="H4" s="81" t="str">
         <f ca="1">_xlfn.FORMULATEXT(G4)</f>
         <v>=C21-C2</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="78">
+      <c r="A5" s="68">
         <v>1995</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="68">
         <v>4</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="67">
         <v>185437.25</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="72">
         <f t="shared" si="1"/>
         <v>187882.31946960744</v>
       </c>
@@ -5298,20 +5437,20 @@
         <f ca="1">_xlfn.FORMULATEXT(G5)</f>
         <v>=G4/C2</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A6" s="78">
+      <c r="A6" s="68">
         <v>1996</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="66">
         <v>5</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="67">
         <v>196728.16666666666</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="72">
         <f t="shared" si="1"/>
         <v>196137.47306675219</v>
       </c>
@@ -5319,26 +5458,26 @@
         <f t="shared" si="0"/>
         <v>3.0025878343863449E-3</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="82">
         <f>G5*100</f>
         <v>114.85718264991098</v>
       </c>
-      <c r="H6" s="91" t="str">
+      <c r="H6" s="81" t="str">
         <f ca="1">_xlfn.FORMULATEXT(G6)</f>
         <v>=G5*100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="78">
+      <c r="A7" s="68">
         <v>1997</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="68">
         <v>6</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="67">
         <v>206334.08333333334</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="72">
         <f t="shared" si="1"/>
         <v>204755.34073462404</v>
       </c>
@@ -5348,16 +5487,16 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="78">
+      <c r="A8" s="68">
         <v>1998</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="66">
         <v>7</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="67">
         <v>215657.66666666666</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="72">
         <f t="shared" si="1"/>
         <v>213751.8593659233</v>
       </c>
@@ -5367,16 +5506,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="78">
+      <c r="A9" s="68">
         <v>1999</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="68">
         <v>8</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="67">
         <v>233872</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="72">
         <f t="shared" si="1"/>
         <v>223143.66608686617</v>
       </c>
@@ -5386,16 +5525,16 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="78">
+      <c r="A10" s="68">
         <v>2000</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="66">
         <v>9</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="67">
         <v>248748.25</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="72">
         <f t="shared" si="1"/>
         <v>232948.12902397109</v>
       </c>
@@ -5403,22 +5542,22 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="F10" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="97"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="78">
+      <c r="A11" s="68">
         <v>2001</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="68">
         <v>10</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="67">
         <v>255663.75</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="72">
         <f t="shared" si="1"/>
         <v>243183.37942267326</v>
       </c>
@@ -5426,24 +5565,24 @@
         <f t="shared" si="0"/>
         <v>4.88155656690741E-2</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>58</v>
+      <c r="G11" s="46" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="78">
+      <c r="A12" s="68">
         <v>2002</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="66">
         <v>11</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="67">
         <v>261272.41666666666</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="72">
         <f t="shared" si="1"/>
         <v>253868.34517716331</v>
       </c>
@@ -5451,7 +5590,7 @@
         <f t="shared" si="0"/>
         <v>2.833851190250028E-2</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="74" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="18">
@@ -5459,16 +5598,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A13" s="78">
+      <c r="A13" s="68">
         <v>2003</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="68">
         <v>12</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="67">
         <v>272232.5</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="72">
         <f t="shared" si="1"/>
         <v>265022.78583345655</v>
       </c>
@@ -5476,7 +5615,7 @@
         <f t="shared" si="0"/>
         <v>2.6483664391810113E-2</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="75" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="20">
@@ -5484,16 +5623,16 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="78">
+      <c r="A14" s="68">
         <v>2004</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="66">
         <v>13</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="67">
         <v>288987.5</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="72">
         <f t="shared" si="1"/>
         <v>276667.32913042337</v>
       </c>
@@ -5503,16 +5642,16 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="78">
+      <c r="A15" s="68">
         <v>2005</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="68">
         <v>14</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="67">
         <v>307826.08333333331</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="72">
         <f t="shared" si="1"/>
         <v>288823.50914635573</v>
       </c>
@@ -5522,16 +5661,16 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="78">
+      <c r="A16" s="68">
         <v>2006</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="66">
         <v>15</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="67">
         <v>323823.08333333331</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="72">
         <f t="shared" si="1"/>
         <v>301513.80612161325</v>
       </c>
@@ -5541,16 +5680,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="78">
+      <c r="A17" s="68">
         <v>2007</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="68">
         <v>16</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="67">
         <v>334008</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="72">
         <f t="shared" si="1"/>
         <v>314761.68803099269</v>
       </c>
@@ -5560,16 +5699,16 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="78">
+      <c r="A18" s="68">
         <v>2008</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="66">
         <v>17</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="67">
         <v>328780.33333333331</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="72">
         <f t="shared" si="1"/>
         <v>328591.65398269973</v>
       </c>
@@ -5579,16 +5718,16 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="78">
+      <c r="A19" s="68">
         <v>2009</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="68">
         <v>18</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="67">
         <v>303288.91666666669</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="72">
         <f t="shared" si="1"/>
         <v>343029.27952418046</v>
       </c>
@@ -5598,16 +5737,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="78">
+      <c r="A20" s="68">
         <v>2010</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="66">
         <v>19</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="67">
         <v>323964.16666666669</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="72">
         <f t="shared" si="1"/>
         <v>358101.26393859531</v>
       </c>
@@ -5617,16 +5756,16 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="78">
+      <c r="A21" s="68">
         <v>2011</v>
       </c>
-      <c r="B21" s="78">
+      <c r="B21" s="68">
         <v>20</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="67">
         <v>323964.16666666669</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="72">
         <f t="shared" si="1"/>
         <v>373835.47961940081</v>
       </c>
@@ -5636,498 +5775,498 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="78">
+      <c r="A22" s="68">
         <v>2012</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="76">
         <v>21</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="72">
         <f t="shared" si="1"/>
         <v>390261.02361434634</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="79">
         <f>AVERAGE(E2:E21)</f>
         <v>5.2667360429164548E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="78">
+      <c r="A23" s="68">
         <v>2013</v>
       </c>
-      <c r="B23" s="87">
+      <c r="B23" s="77">
         <v>22</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="72">
         <f t="shared" si="1"/>
         <v>407408.27143420593</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="78">
+      <c r="A24" s="68">
         <v>2014</v>
       </c>
-      <c r="B24" s="86">
+      <c r="B24" s="76">
         <v>23</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="72">
         <f t="shared" si="1"/>
         <v>425308.93322575185</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="78">
+      <c r="A25" s="68">
         <v>2015</v>
       </c>
-      <c r="B25" s="87">
+      <c r="B25" s="77">
         <v>24</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="72">
         <f t="shared" si="1"/>
         <v>443996.1124128513</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="78">
+      <c r="A26" s="68">
         <v>2016</v>
       </c>
-      <c r="B26" s="86">
+      <c r="B26" s="76">
         <v>25</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="72">
         <f t="shared" si="1"/>
         <v>463504.36691412784</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="78">
+      <c r="A27" s="68">
         <v>2017</v>
       </c>
-      <c r="B27" s="87">
+      <c r="B27" s="77">
         <v>26</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="72">
         <f t="shared" si="1"/>
         <v>483869.77305040054</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="78">
+      <c r="A28" s="68">
         <v>2018</v>
       </c>
-      <c r="B28" s="86">
+      <c r="B28" s="76">
         <v>27</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="72">
         <f t="shared" si="1"/>
         <v>505129.99226007872</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="78">
+      <c r="A29" s="68">
         <v>2019</v>
       </c>
-      <c r="B29" s="87">
+      <c r="B29" s="77">
         <v>28</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="72">
         <f t="shared" si="1"/>
         <v>527324.34074589284</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="78">
+      <c r="A30" s="68">
         <v>2020</v>
       </c>
-      <c r="B30" s="86">
+      <c r="B30" s="76">
         <v>29</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="72">
         <f t="shared" si="1"/>
         <v>550493.86218175455</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="78">
+      <c r="A31" s="68">
         <v>2021</v>
       </c>
-      <c r="B31" s="87">
+      <c r="B31" s="77">
         <v>30</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="72">
         <f t="shared" si="1"/>
         <v>574681.40361420403</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="78">
+      <c r="A32" s="68">
         <v>2022</v>
       </c>
-      <c r="B32" s="86">
+      <c r="B32" s="76">
         <v>31</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="72">
         <f t="shared" si="1"/>
         <v>599931.69469880743</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="78">
+      <c r="A33" s="68">
         <v>2023</v>
       </c>
-      <c r="B33" s="87">
+      <c r="B33" s="77">
         <v>32</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="72">
         <f t="shared" si="1"/>
         <v>626291.43041803339</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="78">
+      <c r="A34" s="68">
         <v>2024</v>
       </c>
-      <c r="B34" s="86">
+      <c r="B34" s="76">
         <v>33</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="72">
         <f t="shared" si="1"/>
         <v>653809.35743358068</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="78">
+      <c r="A35" s="68">
         <v>2025</v>
       </c>
-      <c r="B35" s="87">
+      <c r="B35" s="77">
         <v>34</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="72">
         <f t="shared" si="1"/>
         <v>682536.36423284397</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="78">
+      <c r="A36" s="68">
         <v>2026</v>
       </c>
-      <c r="B36" s="87">
+      <c r="B36" s="77">
         <v>35</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="82">
+      <c r="C36" s="65"/>
+      <c r="D36" s="72">
         <f t="shared" ref="D36:D53" si="2">158193*EXP(0.043*B36)</f>
         <v>712525.57523622608</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="78">
+      <c r="A37" s="68">
         <v>2027</v>
       </c>
-      <c r="B37" s="87">
+      <c r="B37" s="77">
         <v>36</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="82">
+      <c r="C37" s="65"/>
+      <c r="D37" s="72">
         <f t="shared" si="2"/>
         <v>743832.44903932756</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="78">
+      <c r="A38" s="68">
         <v>2028</v>
       </c>
-      <c r="B38" s="87">
+      <c r="B38" s="77">
         <v>37</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="82">
+      <c r="C38" s="65"/>
+      <c r="D38" s="72">
         <f t="shared" si="2"/>
         <v>776514.88097169134</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="78">
+      <c r="A39" s="68">
         <v>2029</v>
       </c>
-      <c r="B39" s="87">
+      <c r="B39" s="77">
         <v>38</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="82">
+      <c r="C39" s="65"/>
+      <c r="D39" s="72">
         <f t="shared" si="2"/>
         <v>810633.31016176147</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="78">
+      <c r="A40" s="68">
         <v>2030</v>
       </c>
-      <c r="B40" s="87">
+      <c r="B40" s="77">
         <v>39</v>
       </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="82">
+      <c r="C40" s="65"/>
+      <c r="D40" s="72">
         <f t="shared" si="2"/>
         <v>846250.83130605274</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="78">
+      <c r="A41" s="68">
         <v>2031</v>
       </c>
-      <c r="B41" s="87">
+      <c r="B41" s="77">
         <v>40</v>
       </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="82">
+      <c r="C41" s="65"/>
+      <c r="D41" s="72">
         <f t="shared" si="2"/>
         <v>883433.31134922162</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="78">
+      <c r="A42" s="68">
         <v>2032</v>
       </c>
-      <c r="B42" s="87">
+      <c r="B42" s="77">
         <v>41</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="82">
+      <c r="C42" s="65"/>
+      <c r="D42" s="72">
         <f t="shared" si="2"/>
         <v>922249.5112908124</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="78">
+      <c r="A43" s="68">
         <v>2033</v>
       </c>
-      <c r="B43" s="87">
+      <c r="B43" s="77">
         <v>42</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="82">
+      <c r="C43" s="65"/>
+      <c r="D43" s="72">
         <f t="shared" si="2"/>
         <v>962771.21334393672</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="78">
+      <c r="A44" s="68">
         <v>2034</v>
       </c>
-      <c r="B44" s="87">
+      <c r="B44" s="77">
         <v>43</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="82">
+      <c r="C44" s="65"/>
+      <c r="D44" s="72">
         <f t="shared" si="2"/>
         <v>1005073.3536810393</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="78">
+      <c r="A45" s="68">
         <v>2035</v>
       </c>
-      <c r="B45" s="87">
+      <c r="B45" s="77">
         <v>44</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="82">
+      <c r="C45" s="65"/>
+      <c r="D45" s="72">
         <f t="shared" si="2"/>
         <v>1049234.1610122295</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="78">
+      <c r="A46" s="68">
         <v>2036</v>
       </c>
-      <c r="B46" s="87">
+      <c r="B46" s="77">
         <v>45</v>
       </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="82">
+      <c r="C46" s="65"/>
+      <c r="D46" s="72">
         <f t="shared" si="2"/>
         <v>1095335.3012524555</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="78">
+      <c r="A47" s="68">
         <v>2037</v>
       </c>
-      <c r="B47" s="87">
+      <c r="B47" s="77">
         <v>46</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="82">
+      <c r="C47" s="65"/>
+      <c r="D47" s="72">
         <f t="shared" si="2"/>
         <v>1143462.02854505</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="78">
+      <c r="A48" s="68">
         <v>2038</v>
       </c>
-      <c r="B48" s="87">
+      <c r="B48" s="77">
         <v>47</v>
       </c>
-      <c r="C48" s="75"/>
-      <c r="D48" s="82">
+      <c r="C48" s="65"/>
+      <c r="D48" s="72">
         <f t="shared" si="2"/>
         <v>1193703.3429209306</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="78">
+      <c r="A49" s="68">
         <v>2039</v>
       </c>
-      <c r="B49" s="87">
+      <c r="B49" s="77">
         <v>48</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="82">
+      <c r="C49" s="65"/>
+      <c r="D49" s="72">
         <f t="shared" si="2"/>
         <v>1246152.1548850155</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="78">
+      <c r="A50" s="68">
         <v>2040</v>
       </c>
-      <c r="B50" s="87">
+      <c r="B50" s="77">
         <v>49</v>
       </c>
-      <c r="C50" s="75"/>
-      <c r="D50" s="82">
+      <c r="C50" s="65"/>
+      <c r="D50" s="72">
         <f t="shared" si="2"/>
         <v>1300905.4572342171</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="78">
+      <c r="A51" s="68">
         <v>2041</v>
       </c>
-      <c r="B51" s="87">
+      <c r="B51" s="77">
         <v>50</v>
       </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="82">
+      <c r="C51" s="65"/>
+      <c r="D51" s="72">
         <f t="shared" si="2"/>
         <v>1358064.5044247624</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="78">
+      <c r="A52" s="68">
         <v>2042</v>
       </c>
-      <c r="B52" s="87">
+      <c r="B52" s="77">
         <v>51</v>
       </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="82">
+      <c r="C52" s="65"/>
+      <c r="D52" s="72">
         <f t="shared" si="2"/>
         <v>1417734.9998205265</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="78">
+      <c r="A53" s="68">
         <v>2043</v>
       </c>
-      <c r="B53" s="87">
+      <c r="B53" s="77">
         <v>52</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="82">
+      <c r="C53" s="65"/>
+      <c r="D53" s="72">
         <f t="shared" si="2"/>
         <v>1480027.2911686744</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="78">
+      <c r="A54" s="68">
         <v>2044</v>
       </c>
-      <c r="B54" s="87">
+      <c r="B54" s="77">
         <v>53</v>
       </c>
-      <c r="C54" s="75"/>
-      <c r="D54" s="82">
+      <c r="C54" s="65"/>
+      <c r="D54" s="72">
         <f t="shared" ref="D54:D60" si="3">158193*EXP(0.043*B54)</f>
         <v>1545056.5746640807</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="78">
+      <c r="A55" s="68">
         <v>2045</v>
       </c>
-      <c r="B55" s="87">
+      <c r="B55" s="77">
         <v>54</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="82">
+      <c r="C55" s="65"/>
+      <c r="D55" s="72">
         <f t="shared" si="3"/>
         <v>1612943.1079799184</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="78">
+      <c r="A56" s="68">
         <v>2046</v>
       </c>
-      <c r="B56" s="87">
+      <c r="B56" s="77">
         <v>55</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="82">
+      <c r="C56" s="65"/>
+      <c r="D56" s="72">
         <f t="shared" si="3"/>
         <v>1683812.4326583603</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="78">
+      <c r="A57" s="68">
         <v>2047</v>
       </c>
-      <c r="B57" s="87">
+      <c r="B57" s="77">
         <v>56</v>
       </c>
-      <c r="C57" s="75"/>
-      <c r="D57" s="82">
+      <c r="C57" s="65"/>
+      <c r="D57" s="72">
         <f t="shared" si="3"/>
         <v>1757795.6062726579</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="78">
+      <c r="A58" s="68">
         <v>2048</v>
       </c>
-      <c r="B58" s="87">
+      <c r="B58" s="77">
         <v>57</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="82">
+      <c r="C58" s="65"/>
+      <c r="D58" s="72">
         <f t="shared" si="3"/>
         <v>1835029.4447899342</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="78">
+      <c r="A59" s="68">
         <v>2049</v>
       </c>
-      <c r="B59" s="87">
+      <c r="B59" s="77">
         <v>58</v>
       </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="82">
+      <c r="C59" s="65"/>
+      <c r="D59" s="72">
         <f t="shared" si="3"/>
         <v>1915656.7755828928</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="78">
+      <c r="A60" s="68">
         <v>2050</v>
       </c>
-      <c r="B60" s="87">
+      <c r="B60" s="77">
         <v>59</v>
       </c>
-      <c r="C60" s="75"/>
-      <c r="D60" s="82">
+      <c r="C60" s="65"/>
+      <c r="D60" s="72">
         <f t="shared" si="3"/>
         <v>1999826.7015583178</v>
       </c>
@@ -6143,122 +6282,454 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" style="123" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" style="86" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15" style="65" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="75" customFormat="1" ht="17.25">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+    </row>
+    <row r="2" spans="1:18" s="65" customFormat="1">
+      <c r="A2" s="86"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
+      <c r="A5" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="65" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="87"/>
+    </row>
+    <row r="8" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A8" s="160" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="133"/>
+    </row>
+    <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="161" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="135"/>
+    </row>
+    <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A10" s="131"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="12">
+        <f>80000*25</f>
+        <v>2000000</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="32"/>
+    </row>
+    <row r="14" spans="1:18" ht="17.25">
+      <c r="A14" s="113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" customHeight="1">
+      <c r="A15" s="86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25">
+      <c r="A17" s="113" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="109.5" customHeight="1">
+      <c r="A19" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="136" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A22" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="65"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="F24" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A25" s="128" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30">
+      <c r="A26" s="127" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="139" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-    </row>
-    <row r="2" spans="1:16" s="75" customFormat="1">
-      <c r="A2" s="123"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="124" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="124" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
-      <c r="A5" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="118"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="124" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="P11" s="33"/>
-    </row>
-    <row r="13" spans="1:16" ht="95.25" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="F26" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="152"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="117">
+        <v>1</v>
+      </c>
+      <c r="B27" s="120">
+        <v>2000000</v>
+      </c>
+      <c r="C27" s="119">
+        <f>B27*40%</f>
+        <v>800000</v>
+      </c>
+      <c r="D27" s="122">
+        <f>C27/2</f>
+        <v>400000</v>
+      </c>
+      <c r="E27" s="150">
+        <f>C27+D27</f>
+        <v>1200000</v>
+      </c>
+      <c r="F27" s="115">
+        <f>B27-E27</f>
+        <v>800000</v>
+      </c>
+      <c r="G27" s="151"/>
+      <c r="I27" s="138"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="117">
+        <v>2</v>
+      </c>
+      <c r="B28" s="120">
+        <f>B27 * (1 + 0.05)</f>
+        <v>2100000</v>
+      </c>
+      <c r="C28" s="74">
+        <f>B28*38%</f>
+        <v>798000</v>
+      </c>
+      <c r="D28" s="122">
+        <f t="shared" ref="D28:D31" si="0">C28/2</f>
+        <v>399000</v>
+      </c>
+      <c r="E28" s="150">
+        <f t="shared" ref="E28:E31" si="1">C28+D28</f>
+        <v>1197000</v>
+      </c>
+      <c r="F28" s="115">
+        <f t="shared" ref="F28:F31" si="2">B28-E28</f>
+        <v>903000</v>
+      </c>
+      <c r="G28" s="151"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="117">
+        <v>3</v>
+      </c>
+      <c r="B29" s="120">
+        <f t="shared" ref="B29:B31" si="3">B28 * (1 + 0.05)</f>
+        <v>2205000</v>
+      </c>
+      <c r="C29" s="119">
+        <f>B29*36%</f>
+        <v>793800</v>
+      </c>
+      <c r="D29" s="122">
+        <f t="shared" si="0"/>
+        <v>396900</v>
+      </c>
+      <c r="E29" s="150">
+        <f t="shared" si="1"/>
+        <v>1190700</v>
+      </c>
+      <c r="F29" s="115">
+        <f t="shared" si="2"/>
+        <v>1014300</v>
+      </c>
+      <c r="G29" s="151"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="117">
+        <v>4</v>
+      </c>
+      <c r="B30" s="120">
+        <f t="shared" si="3"/>
+        <v>2315250</v>
+      </c>
+      <c r="C30" s="119">
+        <f>B30*34%</f>
+        <v>787185</v>
+      </c>
+      <c r="D30" s="122">
+        <f t="shared" si="0"/>
+        <v>393592.5</v>
+      </c>
+      <c r="E30" s="150">
+        <f t="shared" si="1"/>
+        <v>1180777.5</v>
+      </c>
+      <c r="F30" s="115">
+        <f t="shared" si="2"/>
+        <v>1134472.5</v>
+      </c>
+      <c r="G30" s="151"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A31" s="117">
+        <v>5</v>
+      </c>
+      <c r="B31" s="123">
+        <f t="shared" si="3"/>
+        <v>2431012.5</v>
+      </c>
+      <c r="C31" s="74">
+        <f>B31*32%</f>
+        <v>777924</v>
+      </c>
+      <c r="D31" s="122">
+        <f t="shared" si="0"/>
+        <v>388962</v>
+      </c>
+      <c r="E31" s="154">
+        <f t="shared" si="1"/>
+        <v>1166886</v>
+      </c>
+      <c r="F31" s="115">
+        <f t="shared" si="2"/>
+        <v>1264126.5</v>
+      </c>
+      <c r="G31" s="151"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="155">
+        <f>SUM(E27:E31)</f>
+        <v>5935363.5</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="114"/>
+    </row>
+    <row r="33" spans="1:10" s="148" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A33" s="147" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="119" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="123" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="11">
+      <c r="B33" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="159" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="149">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="123" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="123" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="12">
-        <v>4</v>
-      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="65"/>
+      <c r="G34" s="65"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="141">
+        <f>NPV($B$34,B27:B31)</f>
+        <v>9523809.5238095243</v>
+      </c>
+      <c r="C35" s="65" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B35)</f>
+        <v>=VNA($B$34;B27:B31)</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="156">
+        <f>B35-B36</f>
+        <v>5523809.5238095243</v>
+      </c>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A36" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="142">
+        <v>4000000</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A37" s="143" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="144">
+        <f>B35-B36</f>
+        <v>5523809.5238095243</v>
+      </c>
+      <c r="C37" s="65" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B37)</f>
+        <v>=B35-B36</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C37)</f>
+        <v>=FORMULATEXTO(B37)</v>
+      </c>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="J37" s="65"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="158">
+        <f>B35-E32</f>
+        <v>3588446.0238095243</v>
+      </c>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="145" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="146"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="G41" s="65"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="140"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A40:H40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="bycicles" sheetId="1" r:id="rId1"/>
     <sheet name=" VAN valor actual neto NPV " sheetId="2" r:id="rId2"/>
     <sheet name="NPV theory" sheetId="4" r:id="rId3"/>
     <sheet name="% average growing" sheetId="6" r:id="rId4"/>
-    <sheet name="EXAMPLE EXPLICATION" sheetId="7" r:id="rId5"/>
+    <sheet name="VAN example " sheetId="7" r:id="rId5"/>
+    <sheet name="VAN definition" sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>YEAR code</t>
   </si>
@@ -503,6 +505,79 @@
   <si>
     <t>* CHECK AGAIN!!!</t>
   </si>
+  <si>
+    <t>* Quiero ganar 1000€ en 3 años, ¿Cuánto dinero tengo que invertir?</t>
+  </si>
+  <si>
+    <t>* con un interés compuesto 5% (fijo)</t>
+  </si>
+  <si>
+    <t>*Los 863,84€ es el valor actual de los 1000 dólares de dentro de 3 años.
+*Y el 5% anual sería la tasa de descuento.</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>* VAN positivo, el negocio renta.</t>
+  </si>
+  <si>
+    <t>VALOR ACTUAL NETO (VAN), otro ejemplo</t>
+  </si>
+  <si>
+    <t>Anual Renueve (mill)=</t>
+  </si>
+  <si>
+    <t>Bluejay Natural Gas</t>
+  </si>
+  <si>
+    <t>* La CEO está muy preocupada por mantener los gastos de capital dentro de un presupuesto fijo y gestionar el riesgo.</t>
+  </si>
+  <si>
+    <t>*análisis financiero de los flujos de ingresos esperados</t>
+  </si>
+  <si>
+    <t>Discount Rate  12%=</t>
+  </si>
+  <si>
+    <t>*En los negocios compartidos, Bluejay asumirá el 50% de los gastos y recibirá sòlo el 50% de los ingresos.</t>
+  </si>
+  <si>
+    <t>*Total capital expenditures for the approved projects, no more than</t>
+  </si>
+  <si>
+    <t>*Capital expenditures for the approved projects/year cannot be more than</t>
+  </si>
+  <si>
+    <t>*The capital expenditures for the potential list of projects far exceed</t>
+  </si>
+  <si>
+    <t>so no all proyects will be on.</t>
+  </si>
+  <si>
+    <t>Starting data Bluejay Natural Gas            SHARED PROJECTS</t>
+  </si>
+  <si>
+    <t>Cost/year (50%)</t>
+  </si>
+  <si>
+    <t>Renevue/year (50%)</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>*FE1= Flujo de efectivo del 1er año</t>
+  </si>
+  <si>
+    <t>*FE2= Flujo de efectivo del 2o año</t>
+  </si>
+  <si>
+    <t>* i= interés</t>
+  </si>
+  <si>
+    <t>*IO =Inversión inicial</t>
+  </si>
 </sst>
 </file>
 
@@ -513,12 +588,12 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +828,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -810,7 +905,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1345,14 +1440,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1456,7 +1562,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1465,7 +1571,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1484,17 +1590,17 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1507,78 +1613,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1614,23 +1648,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1650,12 +1672,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1686,9 +1702,165 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Énfasis5 2" xfId="1"/>
@@ -1817,7 +1989,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1921,7 +2092,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2016,7 +2186,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2142,7 +2311,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2604,7 +2772,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4091,6 +4258,657 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="1543049"/>
+          <a:ext cx="4000500" cy="1913255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>668401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>13225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="5179297"/>
+          <a:ext cx="2363278" cy="1440324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>778171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297707</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327641" y="5289067"/>
+          <a:ext cx="3385962" cy="826579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1362076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>187652</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>145592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362076" y="6962055"/>
+          <a:ext cx="2977038" cy="2295187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>151321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>79793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flecha abajo 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2746615" y="6495330"/>
+          <a:ext cx="314325" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flecha abajo 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4477648" y="8091396"/>
+          <a:ext cx="328703" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>692451</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>192439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223389</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4843913" y="7003713"/>
+          <a:ext cx="4059806" cy="1519585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35943</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>501030</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>116129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10980707" y="4519339"/>
+          <a:ext cx="4239144" cy="1419620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>575094</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>148734</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10765047" y="6550141"/>
+          <a:ext cx="5612130" cy="542290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>697840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>115373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257354</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>43845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flecha abajo 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13152227" y="6135892"/>
+          <a:ext cx="314325" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>725271</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65690</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11038547" y="8237652"/>
+          <a:ext cx="5471453" cy="2340557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>5571</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319896</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flecha abajo 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13214769" y="7186877"/>
+          <a:ext cx="314325" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>441403</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>557560</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>32387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18422744" y="6228556"/>
+          <a:ext cx="7782621" cy="5349990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>185855</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>673715</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18933843" y="728016"/>
+          <a:ext cx="6621031" cy="5037932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>305093</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>631253</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Flecha abajo 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22119666" y="5833880"/>
+          <a:ext cx="326160" cy="300179"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4368,23 +5186,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="131"/>
+      <c r="E1" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="89"/>
+      <c r="F1" s="131"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="92"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -4519,10 +5337,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="89"/>
+      <c r="I6" s="131"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -4804,26 +5622,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="143"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -4835,15 +5653,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -4855,34 +5673,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -4897,10 +5715,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="93"/>
+      <c r="G12" s="135"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -5121,10 +5939,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -5351,17 +6169,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -5542,10 +6360,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="92"/>
+      <c r="G10" s="134"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -6286,8 +7104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6303,10 +7121,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="130"/>
+      <c r="B1" s="156"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -6342,43 +7160,43 @@
       <c r="A7" s="87"/>
     </row>
     <row r="8" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="133"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="135"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="131"/>
+      <c r="A10" s="105"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="86" t="s">
@@ -6405,7 +7223,7 @@
       <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="17.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="89" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6420,7 +7238,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.25">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="89" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6431,12 +7249,12 @@
       <c r="F19" s="32"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="108" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="108" t="s">
         <v>77</v>
       </c>
       <c r="K22" s="65"/>
@@ -6452,62 +7270,62 @@
       <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="104" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
-      <c r="A26" s="127" t="s">
+      <c r="A26" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="121" t="s">
+      <c r="D26" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="153" t="s">
+      <c r="E26" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="116" t="s">
+      <c r="F26" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="152"/>
+      <c r="G26" s="122"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="117">
+      <c r="A27" s="93">
         <v>1</v>
       </c>
-      <c r="B27" s="120">
+      <c r="B27" s="96">
         <v>2000000</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="95">
         <f>B27*40%</f>
         <v>800000</v>
       </c>
-      <c r="D27" s="122">
+      <c r="D27" s="98">
         <f>C27/2</f>
         <v>400000</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="120">
         <f>C27+D27</f>
         <v>1200000</v>
       </c>
-      <c r="F27" s="115">
+      <c r="F27" s="91">
         <f>B27-E27</f>
         <v>800000</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="I27" s="138"/>
+      <c r="G27" s="121"/>
+      <c r="I27" s="110"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="117">
+      <c r="A28" s="93">
         <v>2</v>
       </c>
-      <c r="B28" s="120">
+      <c r="B28" s="96">
         <f>B27 * (1 + 0.05)</f>
         <v>2100000</v>
       </c>
@@ -6515,78 +7333,78 @@
         <f>B28*38%</f>
         <v>798000</v>
       </c>
-      <c r="D28" s="122">
+      <c r="D28" s="98">
         <f t="shared" ref="D28:D31" si="0">C28/2</f>
         <v>399000</v>
       </c>
-      <c r="E28" s="150">
+      <c r="E28" s="120">
         <f t="shared" ref="E28:E31" si="1">C28+D28</f>
         <v>1197000</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="91">
         <f t="shared" ref="F28:F31" si="2">B28-E28</f>
         <v>903000</v>
       </c>
-      <c r="G28" s="151"/>
+      <c r="G28" s="121"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="117">
+      <c r="A29" s="93">
         <v>3</v>
       </c>
-      <c r="B29" s="120">
+      <c r="B29" s="96">
         <f t="shared" ref="B29:B31" si="3">B28 * (1 + 0.05)</f>
         <v>2205000</v>
       </c>
-      <c r="C29" s="119">
+      <c r="C29" s="95">
         <f>B29*36%</f>
         <v>793800</v>
       </c>
-      <c r="D29" s="122">
+      <c r="D29" s="98">
         <f t="shared" si="0"/>
         <v>396900</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="120">
         <f t="shared" si="1"/>
         <v>1190700</v>
       </c>
-      <c r="F29" s="115">
+      <c r="F29" s="91">
         <f t="shared" si="2"/>
         <v>1014300</v>
       </c>
-      <c r="G29" s="151"/>
+      <c r="G29" s="121"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
-      <c r="A30" s="117">
+      <c r="A30" s="93">
         <v>4</v>
       </c>
-      <c r="B30" s="120">
+      <c r="B30" s="96">
         <f t="shared" si="3"/>
         <v>2315250</v>
       </c>
-      <c r="C30" s="119">
+      <c r="C30" s="95">
         <f>B30*34%</f>
         <v>787185</v>
       </c>
-      <c r="D30" s="122">
+      <c r="D30" s="98">
         <f t="shared" si="0"/>
         <v>393592.5</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="120">
         <f t="shared" si="1"/>
         <v>1180777.5</v>
       </c>
-      <c r="F30" s="115">
+      <c r="F30" s="91">
         <f t="shared" si="2"/>
         <v>1134472.5</v>
       </c>
-      <c r="G30" s="151"/>
+      <c r="G30" s="121"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A31" s="117">
+      <c r="A31" s="93">
         <v>5</v>
       </c>
-      <c r="B31" s="123">
+      <c r="B31" s="99">
         <f t="shared" si="3"/>
         <v>2431012.5</v>
       </c>
@@ -6594,46 +7412,46 @@
         <f>B31*32%</f>
         <v>777924</v>
       </c>
-      <c r="D31" s="122">
+      <c r="D31" s="98">
         <f t="shared" si="0"/>
         <v>388962</v>
       </c>
-      <c r="E31" s="154">
+      <c r="E31" s="124">
         <f t="shared" si="1"/>
         <v>1166886</v>
       </c>
-      <c r="F31" s="115">
+      <c r="F31" s="91">
         <f t="shared" si="2"/>
         <v>1264126.5</v>
       </c>
-      <c r="G31" s="151"/>
+      <c r="G31" s="121"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1">
       <c r="B32" s="65"/>
       <c r="D32" s="65"/>
-      <c r="E32" s="155">
+      <c r="E32" s="125">
         <f>SUM(E27:E31)</f>
         <v>5935363.5</v>
       </c>
       <c r="F32" s="65"/>
-      <c r="G32" s="114"/>
-    </row>
-    <row r="33" spans="1:10" s="148" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A33" s="147" t="s">
+      <c r="G32" s="90"/>
+    </row>
+    <row r="33" spans="1:10" s="118" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A33" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="157" t="s">
+      <c r="B33" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="159" t="s">
+      <c r="F33" s="129" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="149">
+      <c r="B34" s="119">
         <v>0.05</v>
       </c>
       <c r="C34" s="11"/>
@@ -6641,10 +7459,10 @@
       <c r="G34" s="65"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="141">
+      <c r="B35" s="113">
         <f>NPV($B$34,B27:B31)</f>
         <v>9523809.5238095243</v>
       </c>
@@ -6653,7 +7471,7 @@
         <v>=VNA($B$34;B27:B31)</v>
       </c>
       <c r="D35" s="65"/>
-      <c r="E35" s="156">
+      <c r="E35" s="126">
         <f>B35-B36</f>
         <v>5523809.5238095243</v>
       </c>
@@ -6661,10 +7479,10 @@
       <c r="G35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A36" s="126" t="s">
+      <c r="A36" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="142">
+      <c r="B36" s="114">
         <v>4000000</v>
       </c>
       <c r="C36" s="12"/>
@@ -6675,10 +7493,10 @@
       <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="144">
+      <c r="B37" s="116">
         <f>B35-B36</f>
         <v>5523809.5238095243</v>
       </c>
@@ -6695,33 +7513,33 @@
       <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="B38" s="158">
+      <c r="B38" s="128">
         <f>B35-E32</f>
         <v>3588446.0238095243</v>
       </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="145" t="s">
+      <c r="A40" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="146"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="140"/>
+      <c r="A45" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6732,4 +7550,518 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="163">
+        <f>1000/POWER(1+0.05,3)</f>
+        <v>863.83759853147603</v>
+      </c>
+      <c r="B4" s="164" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A4)</f>
+        <v>=1000/POTENCIA(1+0,05;3)</v>
+      </c>
+      <c r="C4" s="165"/>
+    </row>
+    <row r="5" spans="1:23" ht="51.75" customHeight="1">
+      <c r="A5" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1">
+      <c r="W16" s="65"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A17" s="166" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="167"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="107"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="183"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="46"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="183"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="46"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="183"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A21" s="183"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:14" ht="64.5" customHeight="1">
+      <c r="A22" s="183"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="184" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="46"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="183"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="183"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="183"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="46"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="183"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="183"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="183"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="183"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="46"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="183"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="46"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="183"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="46"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="183"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="46"/>
+      <c r="N32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="183"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="46"/>
+      <c r="N33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="183"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="46"/>
+      <c r="N34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="183"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="46"/>
+      <c r="N35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="183"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="46"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A37" s="183"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="46"/>
+    </row>
+    <row r="38" spans="1:14" ht="21.75" thickBot="1">
+      <c r="A38" s="183"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="180" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="46"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="183"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="46"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="183"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="46"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A41" s="185"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="187"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F38:I38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1">
+      <c r="A1" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="176"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="12">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="169"/>
+      <c r="C13" s="177">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="170" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="170"/>
+      <c r="C14" s="178">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A16" s="171" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="179" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="179" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:E16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="bycicles" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="% average growing" sheetId="6" r:id="rId4"/>
     <sheet name="VAN example " sheetId="7" r:id="rId5"/>
     <sheet name="VAN definition" sheetId="8" r:id="rId6"/>
-    <sheet name="Hoja2" sheetId="9" r:id="rId7"/>
+    <sheet name="table final proyect" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
   <si>
     <t>YEAR code</t>
   </si>
@@ -537,9 +537,6 @@
     <t>*análisis financiero de los flujos de ingresos esperados</t>
   </si>
   <si>
-    <t>Discount Rate  12%=</t>
-  </si>
-  <si>
     <t>*En los negocios compartidos, Bluejay asumirá el 50% de los gastos y recibirá sòlo el 50% de los ingresos.</t>
   </si>
   <si>
@@ -552,21 +549,6 @@
     <t>*The capital expenditures for the potential list of projects far exceed</t>
   </si>
   <si>
-    <t>so no all proyects will be on.</t>
-  </si>
-  <si>
-    <t>Starting data Bluejay Natural Gas            SHARED PROJECTS</t>
-  </si>
-  <si>
-    <t>Cost/year (50%)</t>
-  </si>
-  <si>
-    <t>Renevue/year (50%)</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
     <t>*FE1= Flujo de efectivo del 1er año</t>
   </si>
   <si>
@@ -577,6 +559,151 @@
   </si>
   <si>
     <t>*IO =Inversión inicial</t>
+  </si>
+  <si>
+    <t>Financial Estimates for Potential Projects (in $millions)</t>
+  </si>
+  <si>
+    <t>Project Index</t>
+  </si>
+  <si>
+    <t>Functional Area (FA)</t>
+  </si>
+  <si>
+    <t>Capex Year 1</t>
+  </si>
+  <si>
+    <t>Capex Year 2</t>
+  </si>
+  <si>
+    <t>Capex Year 3</t>
+  </si>
+  <si>
+    <t>FA1</t>
+  </si>
+  <si>
+    <t>FA2</t>
+  </si>
+  <si>
+    <t>FA3</t>
+  </si>
+  <si>
+    <t>Approved project?</t>
+  </si>
+  <si>
+    <t>*Capex Year 1 =  Capital Expenditure Year 1 =  Gasto de Capital en el 1er año.</t>
+  </si>
+  <si>
+    <t>*so no all proyects will be on.</t>
+  </si>
+  <si>
+    <t>Discount Rate  12%, lo pasamos a número=</t>
+  </si>
+  <si>
+    <t>*Capex/FA/year</t>
+  </si>
+  <si>
+    <t>NPV estimation</t>
+  </si>
+  <si>
+    <t>NPV tighter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* NPV (Net Present Value)=VAN (Valor Actual Neto),Se calcula restando el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>costo inicial de la inversión</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valor presente de los flujos de efectivo futuros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, descontados a una </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tasa de descuento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> adecuada</t>
+    </r>
+  </si>
+  <si>
+    <t>Capex FA1</t>
+  </si>
+  <si>
+    <t>Capex FA2</t>
+  </si>
+  <si>
+    <t>Capex FA3</t>
+  </si>
+  <si>
+    <t>*Total Capex  no more than 10000 and 4000/year (mill)</t>
+  </si>
+  <si>
+    <t>*Al menos 1 proyecto</t>
   </si>
 </sst>
 </file>
@@ -593,7 +720,7 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +975,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -905,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1451,6 +1600,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1458,7 +1769,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1702,102 +2013,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,62 +2020,267 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Énfasis5 2" xfId="1"/>
@@ -5186,23 +5606,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132" t="s">
+      <c r="D1" s="177"/>
+      <c r="E1" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="131"/>
+      <c r="F1" s="177"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="134"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -5337,10 +5757,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="131"/>
+      <c r="I6" s="177"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -5622,26 +6042,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="189"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -5653,15 +6073,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="146"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="192"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -5673,34 +6093,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="195"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="198"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -5715,10 +6135,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="135" t="s">
+      <c r="F12" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="135"/>
+      <c r="G12" s="181"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -5939,10 +6359,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="138"/>
+      <c r="C24" s="184"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -6095,7 +6515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
@@ -6169,17 +6589,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -6360,10 +6780,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="153" t="s">
+      <c r="F10" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="134"/>
+      <c r="G10" s="180"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -7104,7 +7524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -7121,10 +7541,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="156"/>
+      <c r="B1" s="202"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -7178,22 +7598,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="159"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="205"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -7524,16 +7944,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="160" t="s">
+      <c r="A40" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="161"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
+      <c r="B40" s="207"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>
@@ -7556,7 +7976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
@@ -7576,32 +7996,32 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="163">
+      <c r="A4" s="131">
         <f>1000/POWER(1+0.05,3)</f>
         <v>863.83759853147603</v>
       </c>
-      <c r="B4" s="164" t="str">
+      <c r="B4" s="132" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A4)</f>
         <v>=1000/POTENCIA(1+0,05;3)</v>
       </c>
-      <c r="C4" s="165"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:23" ht="51.75" customHeight="1">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="208"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1">
       <c r="W16" s="65"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="168"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="211"/>
       <c r="D17" s="106"/>
       <c r="E17" s="106"/>
       <c r="F17" s="106"/>
@@ -7612,7 +8032,7 @@
       <c r="K17" s="107"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="183"/>
+      <c r="A18" s="135"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -7625,7 +8045,7 @@
       <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="183"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
@@ -7638,7 +8058,7 @@
       <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="183"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
@@ -7651,9 +8071,9 @@
       <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A21" s="183"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="184"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
@@ -7664,9 +8084,9 @@
       <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:14" ht="64.5" customHeight="1">
-      <c r="A22" s="183"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="42"/>
-      <c r="C22" s="184" t="s">
+      <c r="C22" s="136" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="42"/>
@@ -7679,7 +8099,7 @@
       <c r="K22" s="46"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="183"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
@@ -7692,7 +8112,7 @@
       <c r="K23" s="46"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="183"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
@@ -7705,7 +8125,7 @@
       <c r="K24" s="46"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="183"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -7718,7 +8138,7 @@
       <c r="K25" s="46"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="183"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
@@ -7731,7 +8151,7 @@
       <c r="K26" s="46"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="183"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -7744,7 +8164,7 @@
       <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="183"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -7757,7 +8177,7 @@
       <c r="K28" s="46"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="183"/>
+      <c r="A29" s="135"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -7770,7 +8190,7 @@
       <c r="K29" s="46"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="183"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -7783,7 +8203,7 @@
       <c r="K30" s="46"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="183"/>
+      <c r="A31" s="135"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -7796,7 +8216,7 @@
       <c r="K31" s="46"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="183"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -7808,11 +8228,11 @@
       <c r="J32" s="42"/>
       <c r="K32" s="46"/>
       <c r="N32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="183"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
@@ -7824,11 +8244,11 @@
       <c r="J33" s="42"/>
       <c r="K33" s="46"/>
       <c r="N33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="183"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
@@ -7840,11 +8260,11 @@
       <c r="J34" s="42"/>
       <c r="K34" s="46"/>
       <c r="N34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="183"/>
+      <c r="A35" s="135"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
@@ -7856,11 +8276,11 @@
       <c r="J35" s="42"/>
       <c r="K35" s="46"/>
       <c r="N35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="183"/>
+      <c r="A36" s="135"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
@@ -7873,7 +8293,7 @@
       <c r="K36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A37" s="183"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
@@ -7886,22 +8306,22 @@
       <c r="K37" s="46"/>
     </row>
     <row r="38" spans="1:14" ht="21.75" thickBot="1">
-      <c r="A38" s="183"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="180" t="s">
+      <c r="F38" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="181"/>
-      <c r="H38" s="181"/>
-      <c r="I38" s="182"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="214"/>
       <c r="J38" s="42"/>
       <c r="K38" s="46"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="183"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
@@ -7914,7 +8334,7 @@
       <c r="K39" s="46"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="183"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
@@ -7927,17 +8347,17 @@
       <c r="K40" s="46"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A41" s="185"/>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="187"/>
+      <c r="A41" s="137"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7953,115 +8373,919 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="65" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="65" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="65" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="65" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="65" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="65" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="65" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="65" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A1" s="219" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="171"/>
+    </row>
+    <row r="2" spans="1:19" s="164" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A2" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="169" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="169" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="162" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="163" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="163" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="163" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="163" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="163" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="165" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="172"/>
+      <c r="R2" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="176"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="S2" s="217"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A3" s="148">
+        <v>1</v>
+      </c>
+      <c r="B3" s="152">
+        <v>1</v>
+      </c>
+      <c r="C3" s="149" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="150">
+        <v>1</v>
+      </c>
+      <c r="E3" s="149">
+        <v>250</v>
+      </c>
+      <c r="F3" s="149">
+        <v>100</v>
+      </c>
+      <c r="G3" s="149">
+        <v>100</v>
+      </c>
+      <c r="H3" s="157">
+        <f>IF(AND(B3&gt;0,C3="FA1"),1/1,0/1)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="157">
+        <f>IF(AND(B3&gt;0, C3="FA1"), SUM(E3:G3), 0)</f>
+        <v>450</v>
+      </c>
+      <c r="J3" s="157">
+        <f>IF(AND(B3&gt;0,C3="FA2"),1/1,0/1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="157">
+        <f>IF(AND(B3&gt;0, C3="FA2"), SUM(E3:G3), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="157">
+        <f>IF(AND(B3&gt;0,C3="FA3"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="157">
+        <f>IF(AND(B3&gt;0, C3="FA3"), SUM(E3:G3), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="157"/>
+      <c r="O3" s="151">
+        <v>60</v>
+      </c>
+      <c r="P3" s="160"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="142">
+        <v>2</v>
+      </c>
+      <c r="B4" s="153">
+        <v>0</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="141">
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="140">
+        <v>500</v>
+      </c>
+      <c r="F4" s="140">
+        <v>300</v>
+      </c>
+      <c r="G4" s="140">
+        <v>300</v>
+      </c>
+      <c r="H4" s="157">
+        <f t="shared" ref="H4:H14" si="0">IF(AND(B4&gt;0,C4="FA1"),1/1,0/1)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="157">
+        <f t="shared" ref="I4:I14" si="1">IF(AND(B4&gt;0, C4="FA1"), SUM(E4:G4), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="157">
+        <f t="shared" ref="J4:J14" si="2">IF(AND(B4&gt;0,C4="FA2"),1/1,0/1)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="157">
+        <f t="shared" ref="K4:K14" si="3">IF(AND(B4&gt;0, C4="FA2"), SUM(E4:G4), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="157">
+        <f t="shared" ref="L4:L14" si="4">IF(AND(B4&gt;0,C4="FA3"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="157">
+        <f t="shared" ref="M4:M14" si="5">IF(AND(B4&gt;0, C4="FA3"), SUM(E4:G4), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="158"/>
+      <c r="O4" s="143">
+        <v>180</v>
+      </c>
+      <c r="P4" s="160"/>
+      <c r="R4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="142">
+        <v>3</v>
+      </c>
+      <c r="B5" s="153">
+        <v>0</v>
+      </c>
+      <c r="C5" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="140">
+        <v>100</v>
+      </c>
+      <c r="F5" s="140">
+        <v>200</v>
+      </c>
+      <c r="G5" s="140">
+        <v>400</v>
+      </c>
+      <c r="H5" s="157">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="158"/>
+      <c r="O5" s="143">
+        <v>80</v>
+      </c>
+      <c r="P5" s="160"/>
+      <c r="R5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="142">
+        <v>4</v>
+      </c>
+      <c r="B6" s="153">
+        <v>1</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="141">
+        <v>1</v>
+      </c>
+      <c r="E6" s="140">
+        <v>750</v>
+      </c>
+      <c r="F6" s="140">
+        <v>500</v>
+      </c>
+      <c r="G6" s="140">
+        <v>300</v>
+      </c>
+      <c r="H6" s="157">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="157">
+        <f t="shared" si="1"/>
+        <v>1550</v>
+      </c>
+      <c r="J6" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="158"/>
+      <c r="O6" s="143">
+        <v>310</v>
+      </c>
+      <c r="P6" s="160"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="142">
+        <v>5</v>
+      </c>
+      <c r="B7" s="153">
+        <v>1</v>
+      </c>
+      <c r="C7" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="141">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="140">
+        <v>200</v>
+      </c>
+      <c r="F7" s="140">
+        <v>400</v>
+      </c>
+      <c r="G7" s="140">
+        <v>800</v>
+      </c>
+      <c r="H7" s="157">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="157">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="J7" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="158"/>
+      <c r="O7" s="143">
+        <v>220</v>
+      </c>
+      <c r="P7" s="160"/>
+      <c r="R7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="142">
+        <v>6</v>
+      </c>
+      <c r="B8" s="153">
+        <v>0</v>
+      </c>
+      <c r="C8" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="140">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="140">
+        <v>300</v>
+      </c>
+      <c r="G8" s="140">
+        <v>300</v>
+      </c>
+      <c r="H8" s="157">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="158"/>
+      <c r="O8" s="143">
+        <v>180</v>
+      </c>
+      <c r="P8" s="160"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="142">
+        <v>7</v>
+      </c>
+      <c r="B9" s="153">
+        <v>0</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="141">
+        <v>1</v>
+      </c>
+      <c r="E9" s="140">
+        <v>750</v>
+      </c>
+      <c r="F9" s="140">
+        <v>750</v>
+      </c>
+      <c r="G9" s="140">
+        <v>300</v>
+      </c>
+      <c r="H9" s="157">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="158"/>
+      <c r="O9" s="143">
+        <v>410</v>
+      </c>
+      <c r="P9" s="160"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="142">
+        <v>8</v>
+      </c>
+      <c r="B10" s="153">
+        <v>1</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="141">
+        <v>1</v>
+      </c>
+      <c r="E10" s="140">
+        <v>800</v>
+      </c>
+      <c r="F10" s="140">
+        <v>700</v>
+      </c>
+      <c r="G10" s="140">
+        <v>600</v>
+      </c>
+      <c r="H10" s="157">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="157">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="L10" s="157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="158"/>
+      <c r="O10" s="143">
+        <v>280</v>
+      </c>
+      <c r="P10" s="160"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="142">
+        <v>9</v>
+      </c>
+      <c r="B11" s="153">
+        <v>1</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="141">
+        <v>0.67</v>
+      </c>
+      <c r="E11" s="140">
+        <v>400</v>
+      </c>
+      <c r="F11" s="140">
+        <v>600</v>
+      </c>
+      <c r="G11" s="140">
+        <v>800</v>
+      </c>
+      <c r="H11" s="157">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="157">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="L11" s="157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="158"/>
+      <c r="O11" s="143">
+        <v>380</v>
+      </c>
+      <c r="P11" s="160"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="142">
+        <v>10</v>
+      </c>
+      <c r="B12" s="153">
+        <v>0</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="141">
+        <v>1</v>
+      </c>
+      <c r="E12" s="140">
+        <v>100</v>
+      </c>
+      <c r="F12" s="140">
+        <v>200</v>
+      </c>
+      <c r="G12" s="140">
+        <v>400</v>
+      </c>
+      <c r="H12" s="157">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="158"/>
+      <c r="O12" s="143">
+        <v>100</v>
+      </c>
+      <c r="P12" s="160"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="142">
+        <v>11</v>
+      </c>
+      <c r="B13" s="153">
+        <v>1</v>
+      </c>
+      <c r="C13" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="140">
+        <v>700</v>
+      </c>
+      <c r="F13" s="140">
+        <v>500</v>
+      </c>
+      <c r="G13" s="140">
+        <v>300</v>
+      </c>
+      <c r="H13" s="157">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="157">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="157">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="N13" s="158"/>
+      <c r="O13" s="143">
+        <v>260</v>
+      </c>
+      <c r="P13" s="160"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A14" s="144">
+        <v>12</v>
+      </c>
+      <c r="B14" s="154">
+        <v>0</v>
+      </c>
+      <c r="C14" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="146">
+        <v>1</v>
+      </c>
+      <c r="E14" s="145">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="145">
+        <v>400</v>
+      </c>
+      <c r="G14" s="145">
+        <v>400</v>
+      </c>
+      <c r="H14" s="166">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="166">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="157">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="159"/>
+      <c r="O14" s="147">
+        <v>340</v>
+      </c>
+      <c r="P14" s="160"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
+      <c r="E15" s="26">
+        <f>SUMIFS(E3:E14,B3:B14,"&gt;0")</f>
+        <v>3100</v>
+      </c>
+      <c r="F15" s="26">
+        <f>SUM(F6:F7,F9,F10,F11,F13,F3)</f>
+        <v>3550</v>
+      </c>
+      <c r="G15" s="26">
+        <f>SUM(G6:G7,G9,G10,G13,G3)</f>
+        <v>2400</v>
+      </c>
+      <c r="H15" s="74">
+        <f t="shared" ref="H15:M15" si="6">SUM(H3:H14)</f>
+        <v>3</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="6"/>
+        <v>3400</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="225">
+        <f t="shared" si="6"/>
+        <v>3900</v>
+      </c>
+      <c r="L15" s="173">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="173">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:19" s="65" customFormat="1" ht="60">
+      <c r="D16" s="174" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="222">
+        <f>SUM(E15:G15)</f>
+        <v>9050</v>
+      </c>
+      <c r="F16" s="222"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="175">
+        <f>IF(H15&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="226" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="175">
+        <f>IF(J15&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="226" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="175">
+        <f>IF(J15&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="226" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" s="42"/>
+    </row>
+    <row r="17" spans="1:16" s="65" customFormat="1" ht="42.75" customHeight="1">
+      <c r="D17" s="5"/>
+      <c r="E17" s="222">
+        <f>SUM(I15,K15,M15)</f>
+        <v>8800</v>
+      </c>
+      <c r="F17" s="222"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="226" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="223"/>
+      <c r="J17" s="226" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="223"/>
+      <c r="L17" s="226" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="223"/>
+      <c r="N17" s="160"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" customHeight="1">
+      <c r="E18" s="167"/>
+      <c r="I18" s="176"/>
+      <c r="L18" s="167"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+    </row>
+    <row r="20" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A20" s="65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="215" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="155">
+        <v>50000000</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5">
+      <c r="A24" s="218" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="218"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="156">
+        <v>0.12</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="91">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="12">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="91">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="91">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="169" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="177">
-        <v>50000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="170" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="170"/>
-      <c r="C14" s="178">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A16" s="171" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="179" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="179" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="179" t="s">
-        <v>102</v>
+      <c r="F27" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:E16"/>
+  <mergeCells count="6">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="133">
   <si>
     <t>YEAR code</t>
   </si>
@@ -586,9 +586,6 @@
   </si>
   <si>
     <t>FA3</t>
-  </si>
-  <si>
-    <t>Approved project?</t>
   </si>
   <si>
     <t>*Capex Year 1 =  Capital Expenditure Year 1 =  Gasto de Capital en el 1er año.</t>
@@ -700,10 +697,63 @@
     <t>Capex FA3</t>
   </si>
   <si>
-    <t>*Total Capex  no more than 10000 and 4000/year (mill)</t>
-  </si>
-  <si>
     <t>*Al menos 1 proyecto</t>
+  </si>
+  <si>
+    <t>Approved project</t>
+  </si>
+  <si>
+    <t>*Total Capex approved projects in 3 years(no more 10000)</t>
+  </si>
+  <si>
+    <t>Capex/ok projects 1+2+3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*VAN ajustado = VAN original * (1 - Tasa de descuento)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> *ROI (Return on Investment = rendimiento de la inversión) de cada proyecto, es el VAN en porcentaje del gasto total de capital del proyecto.</t>
+  </si>
+  <si>
+    <t>ROI (from NPV tighter)</t>
+  </si>
+  <si>
+    <t>% Decrease (pasado a número)</t>
+  </si>
+  <si>
+    <t>Media
+ROI</t>
+  </si>
+  <si>
+    <t>Max
+ROI</t>
+  </si>
+  <si>
+    <t>Min 
+ROI</t>
+  </si>
+  <si>
+    <t>VAN con diferentes %</t>
   </si>
 </sst>
 </file>
@@ -720,7 +770,7 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,6 +1047,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1054,7 +1112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1737,11 +1795,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1756,10 +1829,32 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1769,7 +1864,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2028,9 +2123,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2082,12 +2174,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2106,13 +2192,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2120,14 +2200,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2136,6 +2209,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2259,28 +2339,113 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Énfasis5 2" xfId="1"/>
@@ -3192,6 +3357,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5606,23 +5772,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="177"/>
-      <c r="E1" s="178" t="s">
+      <c r="D1" s="172"/>
+      <c r="E1" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="177"/>
+      <c r="F1" s="172"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="179" t="s">
+      <c r="H1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="180"/>
+      <c r="I1" s="175"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -5757,10 +5923,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="177" t="s">
+      <c r="H6" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="177"/>
+      <c r="I6" s="172"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -6042,26 +6208,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -6073,15 +6239,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="192"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="187"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -6093,34 +6259,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="195"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="190"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="198"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="193"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="182" t="s">
+      <c r="E11" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -6135,10 +6301,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="181" t="s">
+      <c r="F12" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="181"/>
+      <c r="G12" s="176"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -6359,10 +6525,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="183" t="s">
+      <c r="B24" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="184"/>
+      <c r="C24" s="179"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -6589,17 +6755,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -6780,10 +6946,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="199" t="s">
+      <c r="F10" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="180"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -7541,10 +7707,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="202"/>
+      <c r="B1" s="197"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -7598,22 +7764,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="205"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="200"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -7944,16 +8110,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="206" t="s">
+      <c r="A40" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="207"/>
-      <c r="C40" s="207"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="207"/>
+      <c r="B40" s="202"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="202"/>
+      <c r="E40" s="202"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="202"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>
@@ -8007,21 +8173,21 @@
       <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:23" ht="51.75" customHeight="1">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="203" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1">
       <c r="W16" s="65"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A17" s="209" t="s">
+      <c r="A17" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="211"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="106"/>
       <c r="E17" s="106"/>
       <c r="F17" s="106"/>
@@ -8311,12 +8477,12 @@
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="212" t="s">
+      <c r="F38" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="214"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="209"/>
       <c r="J38" s="42"/>
       <c r="K38" s="46"/>
     </row>
@@ -8373,917 +8539,1180 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="65" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="65" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="65" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="65" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="65" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="65" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="65" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="65" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" customWidth="1"/>
+    <col min="1" max="6" width="11.42578125" style="65"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="65" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="65" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="65" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="65" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="65" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="65" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="65" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="65" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="65" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="65" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="65" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A1" s="219" t="s">
+    <row r="1" spans="1:24" s="161" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A1" s="248" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="249" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="249" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="250" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="240" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="171"/>
-    </row>
-    <row r="2" spans="1:19" s="164" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A2" s="161" t="s">
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="241"/>
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="243"/>
+    </row>
+    <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A2" s="247">
+        <v>0</v>
+      </c>
+      <c r="B2" s="252">
+        <f>W3 * A2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="254">
+        <f>(W3-B2)-50000</f>
+        <v>-49940</v>
+      </c>
+      <c r="D2" s="237"/>
+      <c r="E2" s="238"/>
+      <c r="G2" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="170" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="169" t="s">
+      <c r="H2" s="165" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="J2" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="162" t="s">
+      <c r="K2" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="162" t="s">
+      <c r="L2" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="162" t="s">
+      <c r="M2" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="163" t="s">
+      <c r="N2" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="236" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="163" t="s">
+      <c r="Q2" s="160" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="163" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="163" t="s">
+      <c r="T2" s="160" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="163" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="165" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="168" t="s">
+      <c r="V2" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="P2" s="172"/>
-      <c r="R2" s="216" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="217"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickTop="1">
-      <c r="A3" s="148">
+      <c r="W2" s="235" t="s">
+        <v>115</v>
+      </c>
+      <c r="X2" s="166"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickTop="1">
+      <c r="A3" s="244">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="252">
+        <f t="shared" ref="B3:B8" si="0">W4 * A3</f>
+        <v>9</v>
+      </c>
+      <c r="C3" s="254">
+        <f t="shared" ref="C3:C8" si="1">(W4-B3)-50000</f>
+        <v>-49829</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="18"/>
+      <c r="G3" s="147">
         <v>1</v>
       </c>
-      <c r="B3" s="152">
+      <c r="H3" s="151">
         <v>1</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="I3" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="150">
+      <c r="J3" s="149">
         <v>1</v>
       </c>
-      <c r="E3" s="149">
+      <c r="K3" s="148">
         <v>250</v>
       </c>
-      <c r="F3" s="149">
+      <c r="L3" s="215">
         <v>100</v>
       </c>
-      <c r="G3" s="149">
+      <c r="M3" s="215">
         <v>100</v>
       </c>
-      <c r="H3" s="157">
-        <f>IF(AND(B3&gt;0,C3="FA1"),1/1,0/1)</f>
+      <c r="N3" s="214">
+        <f>IF(H3=1,SUM(K3:M3),0)</f>
+        <v>450</v>
+      </c>
+      <c r="O3" s="234">
+        <f>IF(N3=0, 0,(V3/N3)*100)</f>
+        <v>11.733333333333333</v>
+      </c>
+      <c r="P3" s="156">
+        <f>IF(AND(H3&gt;0,I3="FA1"),1/1,0/1)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="157">
-        <f>IF(AND(B3&gt;0, C3="FA1"), SUM(E3:G3), 0)</f>
+      <c r="Q3" s="156">
+        <f>IF(AND(H3&gt;0, I3="FA1"), SUM(K3:M3), 0)</f>
         <v>450</v>
       </c>
-      <c r="J3" s="157">
-        <f>IF(AND(B3&gt;0,C3="FA2"),1/1,0/1)</f>
+      <c r="R3" s="156">
+        <f>IF(AND(H3&gt;0,I3="FA2"),1/1,0/1)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="157">
-        <f>IF(AND(B3&gt;0, C3="FA2"), SUM(E3:G3), 0)</f>
+      <c r="S3" s="156">
+        <f>IF(AND(H3&gt;0, I3="FA2"), SUM(K3:M3), 0)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="157">
-        <f>IF(AND(B3&gt;0,C3="FA3"),1,0)</f>
+      <c r="T3" s="156">
+        <f>IF(AND(H3&gt;0,I3="FA3"),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="157">
-        <f>IF(AND(B3&gt;0, C3="FA3"), SUM(E3:G3), 0)</f>
+      <c r="U3" s="156">
+        <f>IF(AND(H3&gt;0, I3="FA3"), SUM(K3:M3), 0)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="157"/>
-      <c r="O3" s="151">
+      <c r="V3" s="221">
+        <f>W3 * 0.88</f>
+        <v>52.8</v>
+      </c>
+      <c r="W3" s="150">
         <v>60</v>
       </c>
-      <c r="P3" s="160"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="142">
+      <c r="X3" s="157"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="244">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="252">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="254">
+        <f t="shared" si="1"/>
+        <v>-49928</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="18"/>
+      <c r="G4" s="141">
         <v>2</v>
       </c>
-      <c r="B4" s="153">
+      <c r="H4" s="152">
+        <v>1</v>
+      </c>
+      <c r="I4" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="140">
+        <v>0.33</v>
+      </c>
+      <c r="K4" s="169">
+        <v>500</v>
+      </c>
+      <c r="L4" s="169">
+        <v>300</v>
+      </c>
+      <c r="M4" s="169">
+        <v>300</v>
+      </c>
+      <c r="N4" s="214">
+        <f t="shared" ref="N4:N14" si="2">IF(H4=1,SUM(K4:M4),0)</f>
+        <v>1100</v>
+      </c>
+      <c r="O4" s="234">
+        <f t="shared" ref="O4:O14" si="3">IF(N4=0, 0,(V4/N4)*100)</f>
+        <v>14.400000000000002</v>
+      </c>
+      <c r="P4" s="156">
+        <f t="shared" ref="P4:P14" si="4">IF(AND(H4&gt;0,I4="FA1"),1/1,0/1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="156">
+        <f t="shared" ref="Q4:Q14" si="5">IF(AND(H4&gt;0, I4="FA1"), SUM(K4:M4), 0)</f>
+        <v>1100</v>
+      </c>
+      <c r="R4" s="156">
+        <f t="shared" ref="R4:R14" si="6">IF(AND(H4&gt;0,I4="FA2"),1/1,0/1)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="S4" s="156">
+        <f t="shared" ref="S4:S14" si="7">IF(AND(H4&gt;0, I4="FA2"), SUM(K4:M4), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="156">
+        <f t="shared" ref="T4:T14" si="8">IF(AND(H4&gt;0,I4="FA3"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="156">
+        <f t="shared" ref="U4:U14" si="9">IF(AND(H4&gt;0, I4="FA3"), SUM(K4:M4), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="221">
+        <f t="shared" ref="V4:V14" si="10">W4 * 0.88</f>
+        <v>158.4</v>
+      </c>
+      <c r="W4" s="142">
+        <v>180</v>
+      </c>
+      <c r="X4" s="157"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="244">
+        <v>0.15</v>
+      </c>
+      <c r="B5" s="252">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
+      <c r="C5" s="254">
+        <f t="shared" si="1"/>
+        <v>-49736.5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="18"/>
+      <c r="G5" s="141">
+        <v>3</v>
+      </c>
+      <c r="H5" s="152">
+        <v>0</v>
+      </c>
+      <c r="I5" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="141">
-        <v>0.33</v>
-      </c>
-      <c r="E4" s="140">
-        <v>500</v>
-      </c>
-      <c r="F4" s="140">
-        <v>300</v>
-      </c>
-      <c r="G4" s="140">
-        <v>300</v>
-      </c>
-      <c r="H4" s="157">
-        <f t="shared" ref="H4:H14" si="0">IF(AND(B4&gt;0,C4="FA1"),1/1,0/1)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="157">
-        <f t="shared" ref="I4:I14" si="1">IF(AND(B4&gt;0, C4="FA1"), SUM(E4:G4), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="157">
-        <f t="shared" ref="J4:J14" si="2">IF(AND(B4&gt;0,C4="FA2"),1/1,0/1)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="157">
-        <f t="shared" ref="K4:K14" si="3">IF(AND(B4&gt;0, C4="FA2"), SUM(E4:G4), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="157">
-        <f t="shared" ref="L4:L14" si="4">IF(AND(B4&gt;0,C4="FA3"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="157">
-        <f t="shared" ref="M4:M14" si="5">IF(AND(B4&gt;0, C4="FA3"), SUM(E4:G4), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="158"/>
-      <c r="O4" s="143">
-        <v>180</v>
-      </c>
-      <c r="P4" s="160"/>
-      <c r="R4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="142">
-        <v>3</v>
-      </c>
-      <c r="B5" s="153">
-        <v>0</v>
-      </c>
-      <c r="C5" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="141">
+      <c r="J5" s="140">
         <v>0.5</v>
       </c>
-      <c r="E5" s="140">
+      <c r="K5" s="169">
         <v>100</v>
       </c>
-      <c r="F5" s="140">
+      <c r="L5" s="169">
         <v>200</v>
       </c>
-      <c r="G5" s="140">
+      <c r="M5" s="169">
         <v>400</v>
       </c>
-      <c r="H5" s="157">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="157">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="157">
+      <c r="N5" s="214">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="157">
+      <c r="O5" s="234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="157">
+      <c r="P5" s="156">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M5" s="157">
+      <c r="Q5" s="156">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="158"/>
-      <c r="O5" s="143">
+      <c r="R5" s="156">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="221">
+        <f t="shared" si="10"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="W5" s="142">
         <v>80</v>
       </c>
-      <c r="P5" s="160"/>
-      <c r="R5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="142">
+      <c r="X5" s="157"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="244">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="252">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="254">
+        <f t="shared" si="1"/>
+        <v>-49824</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="18"/>
+      <c r="G6" s="141">
         <v>4</v>
       </c>
-      <c r="B6" s="153">
+      <c r="H6" s="152">
         <v>1</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="I6" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="141">
+      <c r="J6" s="140">
         <v>1</v>
       </c>
-      <c r="E6" s="140">
+      <c r="K6" s="169">
         <v>750</v>
       </c>
-      <c r="F6" s="140">
+      <c r="L6" s="169">
         <v>500</v>
       </c>
-      <c r="G6" s="140">
+      <c r="M6" s="169">
         <v>300</v>
       </c>
-      <c r="H6" s="157">
+      <c r="N6" s="214">
+        <f t="shared" si="2"/>
+        <v>1550</v>
+      </c>
+      <c r="O6" s="234">
+        <f t="shared" si="3"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P6" s="156">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="156">
+        <f t="shared" si="5"/>
+        <v>1550</v>
+      </c>
+      <c r="R6" s="156">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="221">
+        <f t="shared" si="10"/>
+        <v>272.8</v>
+      </c>
+      <c r="W6" s="142">
+        <v>310</v>
+      </c>
+      <c r="X6" s="157"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="244">
+        <v>0.25</v>
+      </c>
+      <c r="B7" s="252">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C7" s="254">
+        <f t="shared" si="1"/>
+        <v>-49865</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="141">
+        <v>5</v>
+      </c>
+      <c r="H7" s="152">
         <v>1</v>
       </c>
-      <c r="I6" s="157">
+      <c r="I7" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="140">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="169">
+        <v>200</v>
+      </c>
+      <c r="L7" s="169">
+        <v>400</v>
+      </c>
+      <c r="M7" s="169">
+        <v>800</v>
+      </c>
+      <c r="N7" s="214">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="O7" s="234">
+        <f t="shared" si="3"/>
+        <v>13.828571428571429</v>
+      </c>
+      <c r="P7" s="156">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="156">
+        <f t="shared" si="5"/>
+        <v>1400</v>
+      </c>
+      <c r="R7" s="156">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="221">
+        <f t="shared" si="10"/>
+        <v>193.6</v>
+      </c>
+      <c r="W7" s="142">
+        <v>220</v>
+      </c>
+      <c r="X7" s="157"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A8" s="245">
+        <v>0.3</v>
+      </c>
+      <c r="B8" s="253">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C8" s="254">
         <f t="shared" si="1"/>
-        <v>1550</v>
-      </c>
-      <c r="J6" s="157">
+        <v>-49713</v>
+      </c>
+      <c r="D8" s="246"/>
+      <c r="E8" s="239"/>
+      <c r="G8" s="141">
+        <v>6</v>
+      </c>
+      <c r="H8" s="152">
+        <v>0</v>
+      </c>
+      <c r="I8" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="140">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="169">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="169">
+        <v>300</v>
+      </c>
+      <c r="M8" s="169">
+        <v>300</v>
+      </c>
+      <c r="N8" s="214">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="157">
+      <c r="O8" s="234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="157">
+      <c r="P8" s="156">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="157">
+      <c r="Q8" s="156">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="158"/>
-      <c r="O6" s="143">
-        <v>310</v>
-      </c>
-      <c r="P6" s="160"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="142">
-        <v>5</v>
-      </c>
-      <c r="B7" s="153">
+      <c r="R8" s="156">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="221">
+        <f t="shared" si="10"/>
+        <v>158.4</v>
+      </c>
+      <c r="W8" s="142">
+        <v>180</v>
+      </c>
+      <c r="X8" s="157"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="G9" s="141">
+        <v>7</v>
+      </c>
+      <c r="H9" s="152">
         <v>1</v>
       </c>
-      <c r="C7" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="141">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="140">
-        <v>200</v>
-      </c>
-      <c r="F7" s="140">
-        <v>400</v>
-      </c>
-      <c r="G7" s="140">
+      <c r="I9" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="140">
+        <v>1</v>
+      </c>
+      <c r="K9" s="169">
+        <v>750</v>
+      </c>
+      <c r="L9" s="169">
+        <v>750</v>
+      </c>
+      <c r="M9" s="169">
+        <v>300</v>
+      </c>
+      <c r="N9" s="214">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="O9" s="234">
+        <f t="shared" si="3"/>
+        <v>20.044444444444444</v>
+      </c>
+      <c r="P9" s="156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="156">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="156">
+        <f t="shared" si="7"/>
+        <v>1800</v>
+      </c>
+      <c r="T9" s="156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="221">
+        <f t="shared" si="10"/>
+        <v>360.8</v>
+      </c>
+      <c r="W9" s="142">
+        <v>410</v>
+      </c>
+      <c r="X9" s="157"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="G10" s="141">
+        <v>8</v>
+      </c>
+      <c r="H10" s="152">
+        <v>0</v>
+      </c>
+      <c r="I10" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="140">
+        <v>1</v>
+      </c>
+      <c r="K10" s="169">
         <v>800</v>
       </c>
-      <c r="H7" s="157">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="157">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="J7" s="157">
+      <c r="L10" s="169">
+        <v>700</v>
+      </c>
+      <c r="M10" s="169">
+        <v>600</v>
+      </c>
+      <c r="N10" s="214">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="157">
+      <c r="O10" s="234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="157">
+      <c r="P10" s="156">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="157">
+      <c r="Q10" s="156">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="158"/>
-      <c r="O7" s="143">
-        <v>220</v>
-      </c>
-      <c r="P7" s="160"/>
-      <c r="R7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="142">
-        <v>6</v>
-      </c>
-      <c r="B8" s="153">
+      <c r="R10" s="156">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="S10" s="156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="221">
+        <f t="shared" si="10"/>
+        <v>246.4</v>
+      </c>
+      <c r="W10" s="142">
+        <v>280</v>
+      </c>
+      <c r="X10" s="157"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="G11" s="141">
+        <v>9</v>
+      </c>
+      <c r="H11" s="152">
+        <v>1</v>
+      </c>
+      <c r="I11" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="141">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="140">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="140">
-        <v>300</v>
-      </c>
-      <c r="G8" s="140">
-        <v>300</v>
-      </c>
-      <c r="H8" s="157">
-        <f t="shared" si="0"/>
+      <c r="J11" s="140">
+        <v>0.67</v>
+      </c>
+      <c r="K11" s="169">
+        <v>400</v>
+      </c>
+      <c r="L11" s="169">
+        <v>600</v>
+      </c>
+      <c r="M11" s="169">
+        <v>800</v>
+      </c>
+      <c r="N11" s="214">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="O11" s="234">
+        <f t="shared" si="3"/>
+        <v>18.577777777777776</v>
+      </c>
+      <c r="P11" s="156">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I8" s="157">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="156">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J8" s="157">
+      <c r="R11" s="156">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="156">
+        <f t="shared" si="7"/>
+        <v>1800</v>
+      </c>
+      <c r="T11" s="156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="221">
+        <f t="shared" si="10"/>
+        <v>334.4</v>
+      </c>
+      <c r="W11" s="142">
+        <v>380</v>
+      </c>
+      <c r="X11" s="157"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="G12" s="141">
+        <v>10</v>
+      </c>
+      <c r="H12" s="152">
+        <v>0</v>
+      </c>
+      <c r="I12" s="169" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="140">
+        <v>1</v>
+      </c>
+      <c r="K12" s="169">
+        <v>100</v>
+      </c>
+      <c r="L12" s="169">
+        <v>200</v>
+      </c>
+      <c r="M12" s="169">
+        <v>400</v>
+      </c>
+      <c r="N12" s="214">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="157">
+      <c r="O12" s="234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="157">
+      <c r="P12" s="156">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="157">
+      <c r="Q12" s="156">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="158"/>
-      <c r="O8" s="143">
-        <v>180</v>
-      </c>
-      <c r="P8" s="160"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="142">
-        <v>7</v>
-      </c>
-      <c r="B9" s="153">
+      <c r="R12" s="156">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C9" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="141">
+      <c r="S12" s="156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="221">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="W12" s="142">
+        <v>100</v>
+      </c>
+      <c r="X12" s="157"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="G13" s="141">
+        <v>11</v>
+      </c>
+      <c r="H13" s="152">
         <v>1</v>
       </c>
-      <c r="E9" s="140">
-        <v>750</v>
-      </c>
-      <c r="F9" s="140">
-        <v>750</v>
-      </c>
-      <c r="G9" s="140">
+      <c r="I13" s="169" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="140">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="169">
+        <v>700</v>
+      </c>
+      <c r="L13" s="169">
+        <v>500</v>
+      </c>
+      <c r="M13" s="169">
         <v>300</v>
       </c>
-      <c r="H9" s="157">
-        <f t="shared" si="0"/>
+      <c r="N13" s="214">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="O13" s="234">
+        <f t="shared" si="3"/>
+        <v>15.253333333333336</v>
+      </c>
+      <c r="P13" s="156">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I9" s="157">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="156">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J9" s="157">
+      <c r="R13" s="156">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="156">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="156">
+        <f t="shared" si="9"/>
+        <v>1500</v>
+      </c>
+      <c r="V13" s="221">
+        <f t="shared" si="10"/>
+        <v>228.8</v>
+      </c>
+      <c r="W13" s="142">
+        <v>260</v>
+      </c>
+      <c r="X13" s="157"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1">
+      <c r="G14" s="143">
+        <v>12</v>
+      </c>
+      <c r="H14" s="153">
+        <v>0</v>
+      </c>
+      <c r="I14" s="144" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="145">
+        <v>1</v>
+      </c>
+      <c r="K14" s="144">
+        <v>1500</v>
+      </c>
+      <c r="L14" s="144">
+        <v>400</v>
+      </c>
+      <c r="M14" s="144">
+        <v>400</v>
+      </c>
+      <c r="N14" s="225">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="157">
+      <c r="O14" s="234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="157">
+      <c r="P14" s="226">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="157">
+      <c r="Q14" s="226">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="158"/>
-      <c r="O9" s="143">
-        <v>410</v>
-      </c>
-      <c r="P9" s="160"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="142">
-        <v>8</v>
-      </c>
-      <c r="B10" s="153">
+      <c r="R14" s="226">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="226">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="226">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="226">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="227">
+        <f t="shared" si="10"/>
+        <v>299.2</v>
+      </c>
+      <c r="W14" s="146">
+        <v>340</v>
+      </c>
+      <c r="X14" s="157"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
+      <c r="K15" s="222">
+        <f>SUMIFS(K3:K14,H3:H14,"&gt;0")</f>
+        <v>3550</v>
+      </c>
+      <c r="L15" s="222">
+        <f>SUMIFS(L3:L14,H3:H14,"&gt;0")</f>
+        <v>3150</v>
+      </c>
+      <c r="M15" s="222">
+        <f>SUMIFS(M3:M14,H3:H14,"&gt;0")</f>
+        <v>2900</v>
+      </c>
+      <c r="N15" s="232">
+        <f>SUM(N3:N14)</f>
+        <v>9600</v>
+      </c>
+      <c r="O15" s="229"/>
+      <c r="P15" s="46">
+        <f t="shared" ref="P15:U15" si="11">SUM(P3:P14)</f>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="139">
+        <f t="shared" si="11"/>
+        <v>4500</v>
+      </c>
+      <c r="R15" s="223">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="224">
+        <f t="shared" si="11"/>
+        <v>3600</v>
+      </c>
+      <c r="T15" s="222">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="141">
+      <c r="U15" s="222">
+        <f t="shared" si="11"/>
+        <v>1500</v>
+      </c>
+      <c r="V15" s="42"/>
+    </row>
+    <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+      <c r="J16" s="216"/>
+      <c r="K16" s="217"/>
+      <c r="L16" s="217"/>
+      <c r="M16" s="217"/>
+      <c r="N16" s="233" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" s="230"/>
+      <c r="P16" s="167">
+        <f>IF(P15&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="140">
-        <v>800</v>
-      </c>
-      <c r="F10" s="140">
-        <v>700</v>
-      </c>
-      <c r="G10" s="140">
-        <v>600</v>
-      </c>
-      <c r="H10" s="157">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="157">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="157">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="231" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16" s="218">
+        <f>IF(R15&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="157">
-        <f t="shared" si="3"/>
-        <v>2100</v>
-      </c>
-      <c r="L10" s="157">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="157">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="158"/>
-      <c r="O10" s="143">
-        <v>280</v>
-      </c>
-      <c r="P10" s="160"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="142">
-        <v>9</v>
-      </c>
-      <c r="B11" s="153">
+      <c r="S16" s="219" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="218">
+        <f>IF(R15&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="141">
-        <v>0.67</v>
-      </c>
-      <c r="E11" s="140">
-        <v>400</v>
-      </c>
-      <c r="F11" s="140">
-        <v>600</v>
-      </c>
-      <c r="G11" s="140">
-        <v>800</v>
-      </c>
-      <c r="H11" s="157">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="157">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="157">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="157">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-      <c r="L11" s="157">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="157">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="158"/>
-      <c r="O11" s="143">
-        <v>380</v>
-      </c>
-      <c r="P11" s="160"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="142">
-        <v>10</v>
-      </c>
-      <c r="B12" s="153">
-        <v>0</v>
-      </c>
-      <c r="C12" s="140" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="141">
-        <v>1</v>
-      </c>
-      <c r="E12" s="140">
-        <v>100</v>
-      </c>
-      <c r="F12" s="140">
-        <v>200</v>
-      </c>
-      <c r="G12" s="140">
-        <v>400</v>
-      </c>
-      <c r="H12" s="157">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="157">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="157">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="157">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="157">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="158"/>
-      <c r="O12" s="143">
-        <v>100</v>
-      </c>
-      <c r="P12" s="160"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="142">
-        <v>11</v>
-      </c>
-      <c r="B13" s="153">
-        <v>1</v>
-      </c>
-      <c r="C13" s="140" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="141">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="140">
-        <v>700</v>
-      </c>
-      <c r="F13" s="140">
-        <v>500</v>
-      </c>
-      <c r="G13" s="140">
-        <v>300</v>
-      </c>
-      <c r="H13" s="157">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="157">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="157">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="157">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="157">
-        <f t="shared" si="5"/>
-        <v>1500</v>
-      </c>
-      <c r="N13" s="158"/>
-      <c r="O13" s="143">
-        <v>260</v>
-      </c>
-      <c r="P13" s="160"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A14" s="144">
-        <v>12</v>
-      </c>
-      <c r="B14" s="154">
-        <v>0</v>
-      </c>
-      <c r="C14" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="146">
-        <v>1</v>
-      </c>
-      <c r="E14" s="145">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="145">
-        <v>400</v>
-      </c>
-      <c r="G14" s="145">
-        <v>400</v>
-      </c>
-      <c r="H14" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="157">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="166">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="157">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="159"/>
-      <c r="O14" s="147">
-        <v>340</v>
-      </c>
-      <c r="P14" s="160"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1">
-      <c r="E15" s="26">
-        <f>SUMIFS(E3:E14,B3:B14,"&gt;0")</f>
-        <v>3100</v>
-      </c>
-      <c r="F15" s="26">
-        <f>SUM(F6:F7,F9,F10,F11,F13,F3)</f>
-        <v>3550</v>
-      </c>
-      <c r="G15" s="26">
-        <f>SUM(G6:G7,G9,G10,G13,G3)</f>
-        <v>2400</v>
-      </c>
-      <c r="H15" s="74">
-        <f t="shared" ref="H15:M15" si="6">SUM(H3:H14)</f>
-        <v>3</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="6"/>
-        <v>3400</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K15" s="225">
-        <f t="shared" si="6"/>
-        <v>3900</v>
-      </c>
-      <c r="L15" s="173">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="173">
-        <f t="shared" si="6"/>
-        <v>1500</v>
-      </c>
-      <c r="N15" s="42"/>
-    </row>
-    <row r="16" spans="1:19" s="65" customFormat="1" ht="60">
-      <c r="D16" s="174" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="222">
-        <f>SUM(E15:G15)</f>
-        <v>9050</v>
-      </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="175">
-        <f>IF(H15&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="226" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="175">
-        <f>IF(J15&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="226" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="175">
-        <f>IF(J15&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="226" t="s">
-        <v>115</v>
-      </c>
-      <c r="N16" s="42"/>
-    </row>
-    <row r="17" spans="1:16" s="65" customFormat="1" ht="42.75" customHeight="1">
-      <c r="D17" s="5"/>
-      <c r="E17" s="222">
-        <f>SUM(I15,K15,M15)</f>
-        <v>8800</v>
-      </c>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="226" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="223"/>
-      <c r="J17" s="226" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17" s="223"/>
-      <c r="L17" s="226" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17" s="223"/>
-      <c r="N17" s="160"/>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1">
-      <c r="E18" s="167"/>
-      <c r="I18" s="176"/>
-      <c r="L18" s="167"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-    </row>
-    <row r="20" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A20" s="65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
+      <c r="U16" s="219" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16" s="42"/>
+    </row>
+    <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
+      <c r="J17" s="42"/>
+      <c r="K17" s="217"/>
+      <c r="L17" s="217"/>
+      <c r="M17" s="217"/>
+      <c r="N17" s="220"/>
+      <c r="O17" s="220"/>
+      <c r="P17" s="219" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="171" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" s="170"/>
+      <c r="T17" s="171" t="s">
+        <v>121</v>
+      </c>
+      <c r="U17" s="170"/>
+      <c r="V17" s="157"/>
+      <c r="Y17" s="211" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z17" s="212"/>
+    </row>
+    <row r="18" spans="7:26" ht="16.5" customHeight="1">
+      <c r="G18" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="163"/>
+      <c r="Q18" s="168"/>
+      <c r="T18" s="163"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="134"/>
+    </row>
+    <row r="19" spans="7:26">
+      <c r="G19" s="228" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="7:26" ht="20.25" customHeight="1">
+      <c r="G20" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="7:26">
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="7:26">
+      <c r="Y22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="7:26">
+      <c r="G23" s="210" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="154">
+        <v>50000000</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="7:26" ht="16.5">
+      <c r="G24" s="213" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="155">
+        <v>0.12</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="7:26">
+      <c r="G25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="91">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="26" spans="7:26">
+      <c r="G26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="91">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="27" spans="7:26">
+      <c r="G27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="91">
+        <v>10000000</v>
+      </c>
+      <c r="L27" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="215" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="215"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="155">
-        <v>50000000</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5">
-      <c r="A24" s="218" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="218"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="156">
-        <v>0.12</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="91">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="91">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="91">
-        <v>10000000</v>
-      </c>
-      <c r="F27" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G1:W1"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -25,10 +25,120 @@
     <sheet name="REVISED final table project" sheetId="10" r:id="rId11"/>
     <sheet name="approved line charts" sheetId="11" r:id="rId12"/>
     <sheet name="example linear programming" sheetId="15" r:id="rId13"/>
+    <sheet name="example LP" sheetId="20" r:id="rId14"/>
+    <sheet name="variants LP" sheetId="21" r:id="rId15"/>
+    <sheet name="Hoja2" sheetId="22" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="12" hidden="1">'example linear programming'!$B$4:$C$4</definedName>
+    <definedName name="solver_adj" localSheetId="13" hidden="1">'example LP'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="14" hidden="1">'variants LP'!$B$2:$C$2</definedName>
+    <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="14" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="12" hidden="1">'example linear programming'!$D$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="13" hidden="1">'example LP'!$D$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="14" hidden="1">'variants LP'!$D$15:$D$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="12" hidden="1">'example linear programming'!$D$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="13" hidden="1">'example LP'!$D$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="12" hidden="1">'example linear programming'!$D$15</definedName>
+    <definedName name="solver_lhs4" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
+    <definedName name="solver_lhs5" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
+    <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="14" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="14" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="12" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="12" hidden="1">'example linear programming'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="13" hidden="1">'example LP'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="14" hidden="1">'variants LP'!$D$11</definedName>
+    <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="14" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="12" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="12" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="12" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="12" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="12" hidden="1">'example linear programming'!$F$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="13" hidden="1">'example LP'!$F$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="14" hidden="1">'variants LP'!$F$15:$F$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="12" hidden="1">'example linear programming'!$F$14</definedName>
+    <definedName name="solver_rhs2" localSheetId="13" hidden="1">'example LP'!$F$9</definedName>
+    <definedName name="solver_rhs3" localSheetId="12" hidden="1">'example linear programming'!$F$15</definedName>
+    <definedName name="solver_rhs4" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
+    <definedName name="solver_rhs5" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
+    <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="14" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="14" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="14" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="14" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="14" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="239">
   <si>
     <t>YEAR code</t>
   </si>
@@ -1083,9 +1193,6 @@
     <t>*Capex advertising: at least 10 advertisings of each one:</t>
   </si>
   <si>
-    <t>*The number of adversatings of both has to be the same.</t>
-  </si>
-  <si>
     <t>*¿Cuántos anuncios de cada tipo deben utilizarse?</t>
   </si>
   <si>
@@ -1098,19 +1205,136 @@
     <t>No.of TV Ads</t>
   </si>
   <si>
-    <t>OBJETIVES?</t>
-  </si>
-  <si>
-    <t>VARIABLE?</t>
-  </si>
-  <si>
-    <t>LIMITATIONS?</t>
-  </si>
-  <si>
     <t>dummie numbers</t>
   </si>
   <si>
     <t>Modelado LP (Linear Programming)</t>
+  </si>
+  <si>
+    <t>Objetive (max):</t>
+  </si>
+  <si>
+    <t>Constain Table:</t>
+  </si>
+  <si>
+    <t>LHS</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>formula (LHS)</t>
+  </si>
+  <si>
+    <t>No of people reached:</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Budget(presupuesto):</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>At least 10 radio</t>
+  </si>
+  <si>
+    <t>At least TV</t>
+  </si>
+  <si>
+    <t>R&gt;=T</t>
+  </si>
+  <si>
+    <t>*The number of adversatings of both has to be the same:</t>
+  </si>
+  <si>
+    <t>*Sumary senteses:</t>
+  </si>
+  <si>
+    <t>Purchase of 175 radio ads and 10 TV ads looking maximun of number of people reached.</t>
+  </si>
+  <si>
+    <t>1. OBJETIVES?</t>
+  </si>
+  <si>
+    <t>2. VARIABLE?</t>
+  </si>
+  <si>
+    <t>3.LIMITATIONS OR CONDITIONS?</t>
+  </si>
+  <si>
+    <t>* SOLVER (PL)  *es muy úitl =SUMAPRODUCTO</t>
+  </si>
+  <si>
+    <t>*Al utilizar =SUMAPRODUCTO las matrices deben tener el mismo tamaño, si no da error.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Profit:</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>2X+Y&lt;=120</t>
+  </si>
+  <si>
+    <t>2X+3Y&lt;=240</t>
+  </si>
+  <si>
+    <t>3. LIMITATIONS or CONDITIONS or CONSTRAINTS?</t>
+  </si>
+  <si>
+    <t>600 basic</t>
+  </si>
+  <si>
+    <t>1200 XP</t>
+  </si>
+  <si>
+    <t>No. XP computers</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Costs:</t>
+  </si>
+  <si>
+    <t>No. BASIC computers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Parts/computers:</t>
+  </si>
+  <si>
+    <t>hours os emssasmbly</t>
+  </si>
+  <si>
+    <t>hours tests</t>
+  </si>
+  <si>
+    <t>price hour of emssasbly.</t>
+  </si>
+  <si>
+    <t>price hour of testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Cost unit/emssasmbly:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Cost unit/testing:</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2623,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2920,6 +3144,81 @@
     <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2951,9 +3250,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3010,27 +3306,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3055,6 +3330,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3076,23 +3354,38 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Énfasis5 2" xfId="1"/>
@@ -3343,7 +3636,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3447,7 +3739,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3542,7 +3833,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3668,7 +3958,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4572,7 +4861,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5251,7 +5539,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5659,7 +5946,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5741,7 +6027,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6056,7 +6341,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6702,7 +6986,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6992,7 +7275,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7113,7 +7395,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7188,7 +7469,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7313,7 +7593,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7462,7 +7741,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7588,7 +7866,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14583,6 +14860,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>410694</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="38100"/>
+          <a:ext cx="8021169" cy="2781688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>544596</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="381000"/>
+          <a:ext cx="11974596" cy="2600688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -14917,7 +15280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -14935,7 +15298,7 @@
     </row>
     <row r="7" spans="1:1" ht="17.25">
       <c r="A7" s="89" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -14990,25 +15353,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="299" t="s">
+      <c r="G1" s="320" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
-      <c r="P1" s="300"/>
-      <c r="Q1" s="300"/>
-      <c r="R1" s="300"/>
-      <c r="S1" s="300"/>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="301"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
+      <c r="N1" s="321"/>
+      <c r="O1" s="321"/>
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="321"/>
+      <c r="S1" s="321"/>
+      <c r="T1" s="321"/>
+      <c r="U1" s="321"/>
+      <c r="V1" s="321"/>
+      <c r="W1" s="322"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -15979,9 +16342,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="302"/>
-      <c r="L16" s="302"/>
-      <c r="M16" s="302"/>
+      <c r="K16" s="323"/>
+      <c r="L16" s="323"/>
+      <c r="M16" s="323"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -16011,9 +16374,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="302"/>
-      <c r="L17" s="302"/>
-      <c r="M17" s="302"/>
+      <c r="K17" s="323"/>
+      <c r="L17" s="323"/>
+      <c r="M17" s="323"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -16029,10 +16392,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="296" t="s">
+      <c r="Y17" s="317" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="297"/>
+      <c r="Z17" s="318"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -16069,11 +16432,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="295" t="s">
+      <c r="G23" s="316" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="295"/>
-      <c r="I23" s="295"/>
+      <c r="H23" s="316"/>
+      <c r="I23" s="316"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -16081,11 +16444,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="298" t="s">
+      <c r="G24" s="319" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="298"/>
-      <c r="I24" s="298"/>
+      <c r="H24" s="319"/>
+      <c r="I24" s="319"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -16171,20 +16534,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="326" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -16241,10 +16604,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="306" t="s">
+      <c r="M3" s="328" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="306"/>
+      <c r="N3" s="328"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -16463,10 +16826,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="307" t="s">
+      <c r="M9" s="329" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="308"/>
+      <c r="N9" s="330"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -16735,12 +17098,12 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="309" t="s">
+      <c r="D17" s="331" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="309"/>
-      <c r="F17" s="309"/>
-      <c r="G17" s="309"/>
+      <c r="E17" s="331"/>
+      <c r="F17" s="331"/>
+      <c r="G17" s="331"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -17084,11 +17447,11 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="258" t="s">
+      <c r="O24" s="287" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="258"/>
-      <c r="Q24" s="258"/>
+      <c r="P24" s="287"/>
+      <c r="Q24" s="287"/>
       <c r="R24" s="65"/>
     </row>
     <row r="25" spans="1:18">
@@ -17159,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="310" t="s">
+      <c r="M26" s="324" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -17221,7 +17584,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="310"/>
+      <c r="M27" s="324"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -17281,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="310"/>
+      <c r="M28" s="324"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -17695,11 +18058,11 @@
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="303" t="s">
+      <c r="E40" s="325" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="303"/>
-      <c r="G40" s="303"/>
+      <c r="F40" s="325"/>
+      <c r="G40" s="325"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -18048,149 +18411,792 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="292" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="65" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="65" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="260"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="269">
+        <v>175</v>
+      </c>
+      <c r="C4" s="269">
+        <v>10.000000000000007</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="267">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="267">
+        <v>7000</v>
+      </c>
+      <c r="G5" s="262" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="262" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A7" s="271" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="272">
+        <f>SUMPRODUCT(B4:C4,B5:C5)</f>
+        <v>595000</v>
+      </c>
+      <c r="G7" s="262" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="259" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="259" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="259" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="268" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="259">
+        <v>200</v>
+      </c>
+      <c r="C13" s="259">
+        <v>500</v>
+      </c>
+      <c r="D13" s="259">
+        <f>SUMPRODUCT($B$4:$C$4,B13:C13)</f>
+        <v>40000</v>
+      </c>
+      <c r="E13" s="259" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="270">
+        <f>C20</f>
+        <v>40000</v>
+      </c>
+      <c r="G13" s="42" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D13)</f>
+        <v>=SUMAPRODUCTO($B$4:$C$4;B13:C13)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="259">
+        <v>1</v>
+      </c>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259">
+        <f t="shared" ref="D14:D16" si="0">SUMPRODUCT($B$4:$C$4,B14:C14)</f>
+        <v>175</v>
+      </c>
+      <c r="E14" s="259" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="259">
+        <v>10</v>
+      </c>
+      <c r="G14" s="42" t="str">
+        <f t="shared" ref="G14:G15" ca="1" si="1">_xlfn.FORMULATEXT(D14)</f>
+        <v>=SUMAPRODUCTO($B$4:$C$4;B14:C14)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="259"/>
+      <c r="C15" s="259">
+        <v>1</v>
+      </c>
+      <c r="D15" s="259">
+        <f t="shared" si="0"/>
+        <v>10.000000000000007</v>
+      </c>
+      <c r="E15" s="259" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="259">
+        <v>10</v>
+      </c>
+      <c r="G15" s="42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=SUMAPRODUCTO($B$4:$C$4;B15:C15)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="259">
+        <v>1</v>
+      </c>
+      <c r="C16" s="259">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="259">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="E16" s="259" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="259">
+        <v>0</v>
+      </c>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="332" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="332"/>
+      <c r="C20" s="261">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="332" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="332"/>
+      <c r="C21" s="12">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="86">
+        <v>3000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="332" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="332"/>
+      <c r="C22" s="12">
+        <v>500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="86">
+        <v>7000</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="332" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="332"/>
+      <c r="C23" s="332"/>
+      <c r="D23" s="332"/>
+      <c r="E23" s="332"/>
+      <c r="F23" s="12">
+        <f>200*10+500*10</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="332" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="332"/>
+      <c r="C24" s="332"/>
+      <c r="D24" s="332"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="333" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="333"/>
+      <c r="C26" s="333"/>
+      <c r="D26" s="333"/>
+      <c r="E26" s="333"/>
+      <c r="F26" s="333"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="65" t="s">
+      <c r="A1" s="65"/>
+      <c r="B1" s="273" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="273" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="269">
+        <v>37</v>
+      </c>
+      <c r="C2" s="269">
+        <v>60</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>195</v>
       </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="65"/>
+      <c r="B3" s="267">
+        <v>5</v>
+      </c>
+      <c r="C3" s="267">
+        <v>6</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="262" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="262" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A5" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="262" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A6" s="271" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="274">
+        <f>SUMPRODUCT(B2:C2,B3:C3)</f>
+        <v>545</v>
+      </c>
+      <c r="F6" s="65"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="275" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="259"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="258" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="258" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="258" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="259">
+        <v>2</v>
+      </c>
+      <c r="C9" s="259">
+        <v>1</v>
+      </c>
+      <c r="D9" s="259">
+        <f>SUMPRODUCT($B$2:$C$2,B9:C9)</f>
+        <v>134</v>
+      </c>
+      <c r="E9" s="259" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="259">
+        <v>120</v>
+      </c>
+      <c r="G9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D9)</f>
+        <v>=SUMAPRODUCTO($B$2:$C$2;B9:C9)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="276" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="259">
+        <v>2</v>
+      </c>
+      <c r="C10" s="259">
+        <v>3</v>
+      </c>
+      <c r="D10" s="259">
+        <f>SUMPRODUCT($B$2:$C$2,B10:C10)</f>
+        <v>254</v>
+      </c>
+      <c r="E10" s="259" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="259">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="65"/>
+      <c r="B1" s="334" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="334" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="269">
+        <v>560</v>
+      </c>
+      <c r="C2" s="269">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="266" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="65"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="262" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A4" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="267"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="262" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A5" s="336" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="335">
+        <v>300</v>
+      </c>
+      <c r="C5" s="267">
+        <v>450</v>
+      </c>
+      <c r="D5" s="343">
+        <f>SUMPRODUCT(B2:C2,B5:C5)</f>
+        <v>708000</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="262" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="65" customFormat="1">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="335"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
+      <c r="F6" s="262"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="267">
+        <v>150</v>
+      </c>
+      <c r="C7" s="267">
+        <v>225</v>
+      </c>
+      <c r="D7" s="267">
+        <f>B7*B2+C7*C2</f>
+        <v>354000</v>
+      </c>
+      <c r="E7" s="65"/>
+    </row>
+    <row r="8" spans="1:7" s="65" customFormat="1">
+      <c r="A8" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="338">
+        <f>5*F8</f>
+        <v>55</v>
+      </c>
+      <c r="C8" s="338">
+        <f>6*F8</f>
+        <v>66</v>
+      </c>
+      <c r="D8" s="338">
+        <f>B8+C8</f>
+        <v>121</v>
+      </c>
+      <c r="F8" s="337">
+        <v>11</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A9" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="338">
+        <f>1*F9</f>
+        <v>15</v>
+      </c>
+      <c r="C9" s="338">
+        <f>2*F9</f>
+        <v>30</v>
+      </c>
+      <c r="D9" s="338">
+        <f>B9+C9</f>
+        <v>45</v>
+      </c>
+      <c r="F9" s="337">
+        <v>15</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="267"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="343">
+        <f>SUM(D7:D9)</f>
+        <v>354166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A11" s="339" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="340"/>
+      <c r="C11" s="341"/>
+      <c r="D11" s="342">
+        <f>D5-D10</f>
+        <v>353834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="65"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="275" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="265"/>
+      <c r="C14" s="265"/>
+      <c r="D14" s="263" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="G3" s="316" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="G4" s="316" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="G5" s="316" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:7">
-      <c r="C11" s="65"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="65"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="313" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="313"/>
-      <c r="C18" s="314">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="313" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="313"/>
-      <c r="C19" s="12">
+      <c r="E14" s="263" t="s">
         <v>200</v>
       </c>
-      <c r="D19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="86">
+      <c r="F14" s="263" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="265">
+        <v>1</v>
+      </c>
+      <c r="C15" s="265"/>
+      <c r="D15" s="265">
+        <f>SUMPRODUCT($B$2:$C$2,B15:C15)</f>
+        <v>560</v>
+      </c>
+      <c r="E15" s="265" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="265">
+        <v>600</v>
+      </c>
+      <c r="G15" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D15)</f>
+        <v>=SUMAPRODUCTO($B$2:$C$2;B15:C15)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="276" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="265"/>
+      <c r="C16" s="265">
+        <v>1</v>
+      </c>
+      <c r="D16" s="265">
+        <f>SUMPRODUCT($B$2:$C$2,B16:C16)</f>
+        <v>1200</v>
+      </c>
+      <c r="E16" s="265" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="265">
+        <v>1200</v>
+      </c>
+      <c r="G16" s="65" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D16)</f>
+        <v>=SUMAPRODUCTO($B$2:$C$2;B16:C16)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="265">
+        <v>5</v>
+      </c>
+      <c r="C17" s="265">
+        <v>6</v>
+      </c>
+      <c r="D17" s="265">
+        <f t="shared" ref="D17:D18" si="0">SUMPRODUCT($B$2:$C$2,B17:C17)</f>
+        <v>10000</v>
+      </c>
+      <c r="E17" s="265" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="265">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="265">
+        <v>1</v>
+      </c>
+      <c r="C18" s="265">
+        <v>2</v>
+      </c>
+      <c r="D18" s="265">
+        <f t="shared" si="0"/>
+        <v>2960</v>
+      </c>
+      <c r="E18" s="265" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="265">
         <v>3000</v>
       </c>
-      <c r="F19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="313" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="313"/>
-      <c r="C20" s="12">
-        <v>500</v>
-      </c>
-      <c r="D20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="86">
-        <v>7000</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="210" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="65"/>
-      <c r="F21" s="12">
-        <f>200*10+500*10</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="315" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="315"/>
-      <c r="C24" s="315"/>
-      <c r="D24" s="315"/>
-      <c r="E24" s="315"/>
-      <c r="F24" s="315"/>
+      <c r="H18" s="168"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="42"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:F24"/>
+  <mergeCells count="1">
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18205,35 +19211,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="283" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="269"/>
-      <c r="B4" s="269"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
+      <c r="A4" s="283"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -18264,22 +19270,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="311" t="s">
+      <c r="A9" s="281" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="311"/>
-      <c r="C9" s="311"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
+      <c r="B9" s="281"/>
+      <c r="C9" s="281"/>
+      <c r="D9" s="281"/>
+      <c r="E9" s="281"/>
+      <c r="F9" s="281"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="311"/>
-      <c r="B10" s="311"/>
-      <c r="C10" s="311"/>
-      <c r="D10" s="311"/>
-      <c r="E10" s="311"/>
-      <c r="F10" s="311"/>
+      <c r="A10" s="281"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -18292,11 +19298,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="289" t="s">
+      <c r="A20" s="284" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="290"/>
-      <c r="C20" s="291"/>
+      <c r="B20" s="285"/>
+      <c r="C20" s="286"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -18574,12 +19580,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="292" t="s">
+      <c r="G39" s="278" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="293"/>
-      <c r="I39" s="293"/>
-      <c r="J39" s="294"/>
+      <c r="H39" s="279"/>
+      <c r="I39" s="279"/>
+      <c r="J39" s="280"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -18612,22 +19618,22 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="288" t="s">
+      <c r="A45" s="277" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="288"/>
-      <c r="C45" s="288"/>
-      <c r="D45" s="288"/>
-      <c r="E45" s="288"/>
+      <c r="B45" s="277"/>
+      <c r="C45" s="277"/>
+      <c r="D45" s="277"/>
+      <c r="E45" s="277"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A45:E45"/>
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="A9:F10"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:G4"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A45:E45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18678,23 +19684,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="287" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="258"/>
-      <c r="E1" s="259" t="s">
+      <c r="D1" s="287"/>
+      <c r="E1" s="288" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="258"/>
+      <c r="F1" s="287"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="260" t="s">
+      <c r="H1" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="261"/>
+      <c r="I1" s="290"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -18829,10 +19835,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="258" t="s">
+      <c r="H6" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="258"/>
+      <c r="I6" s="287"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -19114,26 +20120,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="295" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="268" t="s">
+      <c r="A4" s="297" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="269"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="270"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="298"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -19145,15 +20151,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="299" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="272"/>
-      <c r="C6" s="272"/>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="273"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="301"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -19165,34 +20171,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="274" t="s">
+      <c r="A8" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="275"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="276"/>
+      <c r="B8" s="303"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="304"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="277" t="s">
+      <c r="A9" s="305" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="278"/>
-      <c r="C9" s="278"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="279"/>
+      <c r="B9" s="306"/>
+      <c r="C9" s="306"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="307"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="292" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="263"/>
-      <c r="G11" s="263"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="292"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -19207,10 +20213,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="262" t="s">
+      <c r="F12" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="262"/>
+      <c r="G12" s="291"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -19431,10 +20437,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="264" t="s">
+      <c r="B24" s="293" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="294"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -19661,17 +20667,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="309" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="281"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="309"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -19852,10 +20858,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="280" t="s">
+      <c r="F10" s="308" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="261"/>
+      <c r="G10" s="290"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -20613,10 +21619,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="310" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="283"/>
+      <c r="B1" s="311"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -20670,22 +21676,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="284" t="s">
+      <c r="A9" s="312" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="285"/>
-      <c r="C9" s="285"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="285"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="286"/>
+      <c r="B9" s="313"/>
+      <c r="C9" s="313"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="313"/>
+      <c r="H9" s="313"/>
+      <c r="I9" s="313"/>
+      <c r="J9" s="313"/>
+      <c r="K9" s="313"/>
+      <c r="L9" s="313"/>
+      <c r="M9" s="313"/>
+      <c r="N9" s="314"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -21016,16 +22022,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="287" t="s">
+      <c r="A40" s="315" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="288"/>
-      <c r="C40" s="288"/>
-      <c r="D40" s="288"/>
-      <c r="E40" s="288"/>
-      <c r="F40" s="288"/>
-      <c r="G40" s="288"/>
-      <c r="H40" s="288"/>
+      <c r="B40" s="277"/>
+      <c r="C40" s="277"/>
+      <c r="D40" s="277"/>
+      <c r="E40" s="277"/>
+      <c r="F40" s="277"/>
+      <c r="G40" s="277"/>
+      <c r="H40" s="277"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7125" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="example linear programming" sheetId="15" r:id="rId13"/>
     <sheet name="example LP" sheetId="20" r:id="rId14"/>
     <sheet name="variants LP" sheetId="21" r:id="rId15"/>
-    <sheet name="Hoja2" sheetId="22" r:id="rId16"/>
+    <sheet name="more variants LP" sheetId="22" r:id="rId16"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId17"/>
@@ -35,108 +35,147 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="12" hidden="1">'example linear programming'!$B$4:$C$4</definedName>
     <definedName name="solver_adj" localSheetId="13" hidden="1">'example LP'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="15" hidden="1">'more variants LP'!$B$2:$F$2</definedName>
     <definedName name="solver_adj" localSheetId="14" hidden="1">'variants LP'!$B$2:$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="14" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">'example linear programming'!$D$13</definedName>
     <definedName name="solver_lhs1" localSheetId="13" hidden="1">'example LP'!$D$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="15" hidden="1">'more variants LP'!$G$12</definedName>
     <definedName name="solver_lhs1" localSheetId="14" hidden="1">'variants LP'!$D$15:$D$18</definedName>
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">'example linear programming'!$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="13" hidden="1">'example LP'!$D$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="15" hidden="1">'more variants LP'!$G$13</definedName>
     <definedName name="solver_lhs3" localSheetId="12" hidden="1">'example linear programming'!$D$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="15" hidden="1">'more variants LP'!$G$14</definedName>
     <definedName name="solver_lhs4" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
+    <definedName name="solver_lhs4" localSheetId="15" hidden="1">'more variants LP'!$G$15</definedName>
     <definedName name="solver_lhs5" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
     <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="14" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="14" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="12" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="15" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="12" hidden="1">'example linear programming'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="13" hidden="1">'example LP'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="15" hidden="1">'more variants LP'!$B$5</definedName>
     <definedName name="solver_opt" localSheetId="14" hidden="1">'variants LP'!$D$11</definedName>
     <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="14" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="12" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="12" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">'example linear programming'!$F$13</definedName>
     <definedName name="solver_rhs1" localSheetId="13" hidden="1">'example LP'!$F$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="15" hidden="1">'more variants LP'!$I$12</definedName>
     <definedName name="solver_rhs1" localSheetId="14" hidden="1">'variants LP'!$F$15:$F$18</definedName>
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">'example linear programming'!$F$14</definedName>
     <definedName name="solver_rhs2" localSheetId="13" hidden="1">'example LP'!$F$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="15" hidden="1">'more variants LP'!$I$13</definedName>
     <definedName name="solver_rhs3" localSheetId="12" hidden="1">'example linear programming'!$F$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="15" hidden="1">'more variants LP'!$I$14</definedName>
     <definedName name="solver_rhs4" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
+    <definedName name="solver_rhs4" localSheetId="15" hidden="1">'more variants LP'!$I$15</definedName>
     <definedName name="solver_rhs5" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
     <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="14" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="15" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="14" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="14" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -184,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="248">
   <si>
     <t>YEAR code</t>
   </si>
@@ -1335,6 +1374,36 @@
   </si>
   <si>
     <t xml:space="preserve">     Cost unit/testing:</t>
+  </si>
+  <si>
+    <t>local bono</t>
+  </si>
+  <si>
+    <t>Tech valor</t>
+  </si>
+  <si>
+    <t>Acc high risk</t>
+  </si>
+  <si>
+    <t>Elect Thomp</t>
+  </si>
+  <si>
+    <t>Palmer 
+tech</t>
+  </si>
+  <si>
+    <t>Aerospace 
+Corp.</t>
+  </si>
+  <si>
+    <t>HDN 
+high risk</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Budget</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1799,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1818,6 +1887,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2623,7 +2722,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3189,6 +3288,32 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3360,17 +3485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3380,11 +3494,37 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3517,6 +3657,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4791,6 +4937,424 @@
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>INVESTMENT %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5111111111111088E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'more variants LP'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>local bono</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elect Thomp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aerospace 
+Corp.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Palmer 
+tech</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HDN 
+high risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'more variants LP'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0210-45A0-B008-D0B5380C417D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -8451,6 +9015,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9268,6 +9872,607 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -14907,20 +16112,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246966</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>196167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>544596</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>124188</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>418204</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20179</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14933,14 +16138,44 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5334000" y="381000"/>
-          <a:ext cx="11974596" cy="2600688"/>
+          <a:off x="8695227" y="196167"/>
+          <a:ext cx="7943086" cy="4144773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>153778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>900043</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>191326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15353,25 +16588,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="320" t="s">
+      <c r="G1" s="330" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
-      <c r="N1" s="321"/>
-      <c r="O1" s="321"/>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="321"/>
-      <c r="S1" s="321"/>
-      <c r="T1" s="321"/>
-      <c r="U1" s="321"/>
-      <c r="V1" s="321"/>
-      <c r="W1" s="322"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
+      <c r="N1" s="331"/>
+      <c r="O1" s="331"/>
+      <c r="P1" s="331"/>
+      <c r="Q1" s="331"/>
+      <c r="R1" s="331"/>
+      <c r="S1" s="331"/>
+      <c r="T1" s="331"/>
+      <c r="U1" s="331"/>
+      <c r="V1" s="331"/>
+      <c r="W1" s="332"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -16342,9 +17577,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="323"/>
-      <c r="L16" s="323"/>
-      <c r="M16" s="323"/>
+      <c r="K16" s="333"/>
+      <c r="L16" s="333"/>
+      <c r="M16" s="333"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -16374,9 +17609,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="323"/>
-      <c r="L17" s="323"/>
-      <c r="M17" s="323"/>
+      <c r="K17" s="333"/>
+      <c r="L17" s="333"/>
+      <c r="M17" s="333"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -16392,10 +17627,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="317" t="s">
+      <c r="Y17" s="327" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="318"/>
+      <c r="Z17" s="328"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -16432,11 +17667,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="316" t="s">
+      <c r="G23" s="326" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="316"/>
-      <c r="I23" s="316"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="326"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -16444,11 +17679,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="319" t="s">
+      <c r="G24" s="329" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="319"/>
-      <c r="I24" s="319"/>
+      <c r="H24" s="329"/>
+      <c r="I24" s="329"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -16534,20 +17769,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="336" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -16604,10 +17839,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="328" t="s">
+      <c r="M3" s="338" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="328"/>
+      <c r="N3" s="338"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -16826,10 +18061,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="329" t="s">
+      <c r="M9" s="339" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="330"/>
+      <c r="N9" s="340"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -17098,12 +18333,12 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="331" t="s">
+      <c r="D17" s="341" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="331"/>
-      <c r="F17" s="331"/>
-      <c r="G17" s="331"/>
+      <c r="E17" s="341"/>
+      <c r="F17" s="341"/>
+      <c r="G17" s="341"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -17447,11 +18682,11 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="287" t="s">
+      <c r="O24" s="297" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="287"/>
-      <c r="Q24" s="287"/>
+      <c r="P24" s="297"/>
+      <c r="Q24" s="297"/>
       <c r="R24" s="65"/>
     </row>
     <row r="25" spans="1:18">
@@ -17522,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="324" t="s">
+      <c r="M26" s="334" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -17584,7 +18819,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="324"/>
+      <c r="M27" s="334"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -17644,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="324"/>
+      <c r="M28" s="334"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -18058,11 +19293,11 @@
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="325" t="s">
+      <c r="E40" s="335" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="325"/>
-      <c r="G40" s="325"/>
+      <c r="F40" s="335"/>
+      <c r="G40" s="335"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -18427,12 +19662,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="302" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
       <c r="E1" s="65" t="s">
         <v>217</v>
       </c>
@@ -18623,19 +19858,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="332" t="s">
+      <c r="A20" s="342" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="332"/>
+      <c r="B20" s="342"/>
       <c r="C20" s="261">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="332" t="s">
+      <c r="A21" s="342" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="332"/>
+      <c r="B21" s="342"/>
       <c r="C21" s="12">
         <v>200</v>
       </c>
@@ -18650,10 +19885,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="332" t="s">
+      <c r="A22" s="342" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="332"/>
+      <c r="B22" s="342"/>
       <c r="C22" s="12">
         <v>500</v>
       </c>
@@ -18668,35 +19903,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="332" t="s">
+      <c r="A23" s="342" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="332"/>
-      <c r="C23" s="332"/>
-      <c r="D23" s="332"/>
-      <c r="E23" s="332"/>
+      <c r="B23" s="342"/>
+      <c r="C23" s="342"/>
+      <c r="D23" s="342"/>
+      <c r="E23" s="342"/>
       <c r="F23" s="12">
         <f>200*10+500*10</f>
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="332" t="s">
+      <c r="A24" s="342" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="332"/>
-      <c r="C24" s="332"/>
-      <c r="D24" s="332"/>
+      <c r="B24" s="342"/>
+      <c r="C24" s="342"/>
+      <c r="D24" s="342"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="333" t="s">
+      <c r="A26" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="333"/>
-      <c r="C26" s="333"/>
-      <c r="D26" s="333"/>
-      <c r="E26" s="333"/>
-      <c r="F26" s="333"/>
+      <c r="B26" s="343"/>
+      <c r="C26" s="343"/>
+      <c r="D26" s="343"/>
+      <c r="E26" s="343"/>
+      <c r="F26" s="343"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -18882,7 +20117,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A14" sqref="A14:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18893,10 +20128,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30">
       <c r="A1" s="65"/>
-      <c r="B1" s="334" t="s">
+      <c r="B1" s="280" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="334" t="s">
+      <c r="C1" s="280" t="s">
         <v>227</v>
       </c>
       <c r="D1" s="65"/>
@@ -18944,16 +20179,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="336" t="s">
+      <c r="A5" s="282" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="335">
+      <c r="B5" s="281">
         <v>300</v>
       </c>
       <c r="C5" s="267">
         <v>450</v>
       </c>
-      <c r="D5" s="343">
+      <c r="D5" s="286">
         <f>SUMPRODUCT(B2:C2,B5:C5)</f>
         <v>708000</v>
       </c>
@@ -18966,7 +20201,7 @@
       <c r="A6" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="335"/>
+      <c r="B6" s="281"/>
       <c r="C6" s="267"/>
       <c r="D6" s="267"/>
       <c r="F6" s="262"/>
@@ -18991,19 +20226,19 @@
       <c r="A8" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="338">
+      <c r="B8" s="284">
         <f>5*F8</f>
         <v>55</v>
       </c>
-      <c r="C8" s="338">
+      <c r="C8" s="284">
         <f>6*F8</f>
         <v>66</v>
       </c>
-      <c r="D8" s="338">
+      <c r="D8" s="284">
         <f>B8+C8</f>
         <v>121</v>
       </c>
-      <c r="F8" s="337">
+      <c r="F8" s="283">
         <v>11</v>
       </c>
       <c r="G8" s="65" t="s">
@@ -19014,19 +20249,19 @@
       <c r="A9" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="338">
+      <c r="B9" s="284">
         <f>1*F9</f>
         <v>15</v>
       </c>
-      <c r="C9" s="338">
+      <c r="C9" s="284">
         <f>2*F9</f>
         <v>30</v>
       </c>
-      <c r="D9" s="338">
+      <c r="D9" s="284">
         <f>B9+C9</f>
         <v>45</v>
       </c>
-      <c r="F9" s="337">
+      <c r="F9" s="283">
         <v>15</v>
       </c>
       <c r="G9" s="65" t="s">
@@ -19039,18 +20274,18 @@
       </c>
       <c r="B10" s="267"/>
       <c r="C10" s="267"/>
-      <c r="D10" s="343">
+      <c r="D10" s="286">
         <f>SUM(D7:D9)</f>
         <v>354166</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="339" t="s">
+      <c r="A11" s="344" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="340"/>
-      <c r="C11" s="341"/>
-      <c r="D11" s="342">
+      <c r="B11" s="345"/>
+      <c r="C11" s="346"/>
+      <c r="D11" s="285">
         <f>D5-D10</f>
         <v>353834</v>
       </c>
@@ -19187,16 +20422,267 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="36" customHeight="1">
+      <c r="A1" s="65"/>
+      <c r="B1" s="354" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="357" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="356" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="358" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="355" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="269">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="269">
+        <v>0</v>
+      </c>
+      <c r="D2" s="269">
+        <v>0</v>
+      </c>
+      <c r="E2" s="269">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="269">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="279" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="347">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C3" s="347">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D3" s="347">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E3" s="347">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F3" s="347">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="267"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="281">
+        <f>SUMPRODUCT(B2:F2,B3:F3)</f>
+        <v>22850</v>
+      </c>
+      <c r="C5" s="267"/>
+      <c r="D5" s="348"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="65"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="65"/>
+      <c r="B7" s="267"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="267"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="65"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="65"/>
+      <c r="B9" s="284"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="349"/>
+      <c r="B10" s="350"/>
+      <c r="C10" s="350"/>
+      <c r="D10" s="351"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="275" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="278"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="277" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="277" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" s="277" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="65" customFormat="1">
+      <c r="A12" s="352" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="353">
+        <v>1</v>
+      </c>
+      <c r="C12" s="353">
+        <v>1</v>
+      </c>
+      <c r="D12" s="353">
+        <v>1</v>
+      </c>
+      <c r="E12" s="353">
+        <v>1</v>
+      </c>
+      <c r="F12" s="353">
+        <v>1</v>
+      </c>
+      <c r="G12" s="353">
+        <f>SUMPRODUCT($B$2:$F$2,B12:F12)</f>
+        <v>250000</v>
+      </c>
+      <c r="H12" s="353" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="353">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="278">
+        <v>1</v>
+      </c>
+      <c r="C13" s="278"/>
+      <c r="D13" s="278"/>
+      <c r="E13" s="278"/>
+      <c r="F13" s="278"/>
+      <c r="G13" s="353">
+        <f>SUMPRODUCT($B$2:$F$2,B13:F13)</f>
+        <v>50000</v>
+      </c>
+      <c r="H13" s="278" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="278">
+        <f>250000*0.2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="276" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="278"/>
+      <c r="C14" s="278">
+        <v>1</v>
+      </c>
+      <c r="D14" s="278">
+        <v>1</v>
+      </c>
+      <c r="E14" s="278">
+        <v>1</v>
+      </c>
+      <c r="F14" s="278"/>
+      <c r="G14" s="353">
+        <f>SUMPRODUCT($B$2:$F$2,B14:F14)</f>
+        <v>100000</v>
+      </c>
+      <c r="H14" s="278" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="278">
+        <f>0.4*250000</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="278"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278">
+        <v>1</v>
+      </c>
+      <c r="G15" s="353">
+        <f>SUMPRODUCT($B$2:$F$2,B15:F15)</f>
+        <v>100000</v>
+      </c>
+      <c r="H15" s="278" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="278">
+        <f>250000/2</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5"/>
+      <c r="B16" s="278"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="278"/>
+      <c r="H16" s="278"/>
+      <c r="I16" s="278"/>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" s="65"/>
+      <c r="I21" s="65"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19211,35 +20697,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="292" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="293" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="283"/>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
+      <c r="A4" s="293"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="293"/>
+      <c r="E4" s="293"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="293"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -19270,22 +20756,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="281" t="s">
+      <c r="A9" s="291" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="281"/>
-      <c r="C9" s="281"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
+      <c r="B9" s="291"/>
+      <c r="C9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="281"/>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
+      <c r="A10" s="291"/>
+      <c r="B10" s="291"/>
+      <c r="C10" s="291"/>
+      <c r="D10" s="291"/>
+      <c r="E10" s="291"/>
+      <c r="F10" s="291"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -19298,11 +20784,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="284" t="s">
+      <c r="A20" s="294" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="285"/>
-      <c r="C20" s="286"/>
+      <c r="B20" s="295"/>
+      <c r="C20" s="296"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -19580,12 +21066,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="278" t="s">
+      <c r="G39" s="288" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="279"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="280"/>
+      <c r="H39" s="289"/>
+      <c r="I39" s="289"/>
+      <c r="J39" s="290"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -19618,13 +21104,13 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="277" t="s">
+      <c r="A45" s="287" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="277"/>
-      <c r="C45" s="277"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="277"/>
+      <c r="B45" s="287"/>
+      <c r="C45" s="287"/>
+      <c r="D45" s="287"/>
+      <c r="E45" s="287"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -19684,23 +21170,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="297" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287" t="s">
+      <c r="B1" s="297"/>
+      <c r="C1" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="287"/>
-      <c r="E1" s="288" t="s">
+      <c r="D1" s="297"/>
+      <c r="E1" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="287"/>
+      <c r="F1" s="297"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="289" t="s">
+      <c r="H1" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="290"/>
+      <c r="I1" s="300"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -19835,10 +21321,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="287" t="s">
+      <c r="H6" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="287"/>
+      <c r="I6" s="297"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -20120,26 +21606,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="295" t="s">
+      <c r="A3" s="305" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="297" t="s">
+      <c r="A4" s="307" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="298"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="293"/>
+      <c r="E4" s="293"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="308"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -20151,15 +21637,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="299" t="s">
+      <c r="A6" s="309" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="301"/>
+      <c r="B6" s="310"/>
+      <c r="C6" s="310"/>
+      <c r="D6" s="310"/>
+      <c r="E6" s="310"/>
+      <c r="F6" s="310"/>
+      <c r="G6" s="311"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -20171,34 +21657,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="302" t="s">
+      <c r="A8" s="312" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="303"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="304"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="313"/>
+      <c r="D8" s="313"/>
+      <c r="E8" s="313"/>
+      <c r="F8" s="313"/>
+      <c r="G8" s="314"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="305" t="s">
+      <c r="A9" s="315" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="306"/>
-      <c r="C9" s="306"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="307"/>
+      <c r="B9" s="316"/>
+      <c r="C9" s="316"/>
+      <c r="D9" s="316"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="316"/>
+      <c r="G9" s="317"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="292" t="s">
+      <c r="E11" s="302" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="292"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -20213,10 +21699,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="291" t="s">
+      <c r="F12" s="301" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="291"/>
+      <c r="G12" s="301"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -20437,10 +21923,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="293" t="s">
+      <c r="B24" s="303" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="294"/>
+      <c r="C24" s="304"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -20667,17 +22153,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="319" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="319"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -20858,10 +22344,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="308" t="s">
+      <c r="F10" s="318" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="290"/>
+      <c r="G10" s="300"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -21619,10 +23105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="320" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="311"/>
+      <c r="B1" s="321"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -21676,22 +23162,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="312" t="s">
+      <c r="A9" s="322" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="313"/>
-      <c r="C9" s="313"/>
-      <c r="D9" s="313"/>
-      <c r="E9" s="313"/>
-      <c r="F9" s="313"/>
-      <c r="G9" s="313"/>
-      <c r="H9" s="313"/>
-      <c r="I9" s="313"/>
-      <c r="J9" s="313"/>
-      <c r="K9" s="313"/>
-      <c r="L9" s="313"/>
-      <c r="M9" s="313"/>
-      <c r="N9" s="314"/>
+      <c r="B9" s="323"/>
+      <c r="C9" s="323"/>
+      <c r="D9" s="323"/>
+      <c r="E9" s="323"/>
+      <c r="F9" s="323"/>
+      <c r="G9" s="323"/>
+      <c r="H9" s="323"/>
+      <c r="I9" s="323"/>
+      <c r="J9" s="323"/>
+      <c r="K9" s="323"/>
+      <c r="L9" s="323"/>
+      <c r="M9" s="323"/>
+      <c r="N9" s="324"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -22022,16 +23508,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="315" t="s">
+      <c r="A40" s="325" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="277"/>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="277"/>
-      <c r="H40" s="277"/>
+      <c r="B40" s="287"/>
+      <c r="C40" s="287"/>
+      <c r="D40" s="287"/>
+      <c r="E40" s="287"/>
+      <c r="F40" s="287"/>
+      <c r="G40" s="287"/>
+      <c r="H40" s="287"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -28,41 +28,50 @@
     <sheet name="example LP" sheetId="20" r:id="rId14"/>
     <sheet name="variants LP" sheetId="21" r:id="rId15"/>
     <sheet name="more variants LP" sheetId="22" r:id="rId16"/>
+    <sheet name="Hoja1" sheetId="23" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="12" hidden="1">'example linear programming'!$B$4:$C$4</definedName>
     <definedName name="solver_adj" localSheetId="13" hidden="1">'example LP'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="16" hidden="1">Hoja1!$B$2:$P$2</definedName>
     <definedName name="solver_adj" localSheetId="15" hidden="1">'more variants LP'!$B$2:$F$2</definedName>
     <definedName name="solver_adj" localSheetId="14" hidden="1">'variants LP'!$B$2:$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="16" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="14" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">'example linear programming'!$D$13</definedName>
     <definedName name="solver_lhs1" localSheetId="13" hidden="1">'example LP'!$D$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="16" hidden="1">Hoja1!$Q$13:$Q$17</definedName>
     <definedName name="solver_lhs1" localSheetId="15" hidden="1">'more variants LP'!$G$12</definedName>
     <definedName name="solver_lhs1" localSheetId="14" hidden="1">'variants LP'!$D$15:$D$18</definedName>
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">'example linear programming'!$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="13" hidden="1">'example LP'!$D$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="16" hidden="1">Hoja1!$Q$18:$Q$20</definedName>
     <definedName name="solver_lhs2" localSheetId="15" hidden="1">'more variants LP'!$G$13</definedName>
     <definedName name="solver_lhs3" localSheetId="12" hidden="1">'example linear programming'!$D$15</definedName>
     <definedName name="solver_lhs3" localSheetId="15" hidden="1">'more variants LP'!$G$14</definedName>
@@ -71,54 +80,67 @@
     <definedName name="solver_lhs5" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
     <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="16" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="14" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="16" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="14" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="12" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="15" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="12" hidden="1">'example linear programming'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="13" hidden="1">'example LP'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="16" hidden="1">Hoja1!$B$8</definedName>
     <definedName name="solver_opt" localSheetId="15" hidden="1">'more variants LP'!$B$5</definedName>
     <definedName name="solver_opt" localSheetId="14" hidden="1">'variants LP'!$D$11</definedName>
     <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="16" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="14" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="15" hidden="1">3</definedName>
@@ -127,10 +149,12 @@
     <definedName name="solver_rel5" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">'example linear programming'!$F$13</definedName>
     <definedName name="solver_rhs1" localSheetId="13" hidden="1">'example LP'!$F$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="16" hidden="1">Hoja1!$S$13:$S$17</definedName>
     <definedName name="solver_rhs1" localSheetId="15" hidden="1">'more variants LP'!$I$12</definedName>
     <definedName name="solver_rhs1" localSheetId="14" hidden="1">'variants LP'!$F$15:$F$18</definedName>
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">'example linear programming'!$F$14</definedName>
     <definedName name="solver_rhs2" localSheetId="13" hidden="1">'example LP'!$F$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="16" hidden="1">Hoja1!$S$18:$S$20</definedName>
     <definedName name="solver_rhs2" localSheetId="15" hidden="1">'more variants LP'!$I$13</definedName>
     <definedName name="solver_rhs3" localSheetId="12" hidden="1">'example linear programming'!$F$15</definedName>
     <definedName name="solver_rhs3" localSheetId="15" hidden="1">'more variants LP'!$I$14</definedName>
@@ -139,42 +163,52 @@
     <definedName name="solver_rhs5" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
     <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="16" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="14" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="16" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="15" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="14" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="16" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="14" hidden="1">3</definedName>
   </definedNames>
@@ -223,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="273">
   <si>
     <t>YEAR code</t>
   </si>
@@ -1404,6 +1438,82 @@
   </si>
   <si>
     <t>Budget</t>
+  </si>
+  <si>
+    <t>Objetive (min) 
+bus distance:</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Variables:</t>
+  </si>
+  <si>
+    <t>Sector A</t>
+  </si>
+  <si>
+    <t>Sector B</t>
+  </si>
+  <si>
+    <t>Sector C</t>
+  </si>
+  <si>
+    <t>Sector D</t>
+  </si>
+  <si>
+    <t>Sector E</t>
+  </si>
+  <si>
+    <t>capacity/school B</t>
+  </si>
+  <si>
+    <t>capacity/school C</t>
+  </si>
+  <si>
+    <t>capacity/school E</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2832,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3314,6 +3424,53 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3494,37 +3651,27 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5064,6 +5211,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C83A-4407-ACBA-8DE3BA61A32C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5083,6 +5235,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C83A-4407-ACBA-8DE3BA61A32C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5102,6 +5259,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C83A-4407-ACBA-8DE3BA61A32C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5121,6 +5283,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C83A-4407-ACBA-8DE3BA61A32C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5140,6 +5307,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C83A-4407-ACBA-8DE3BA61A32C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -15231,6 +15403,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>232785</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>58080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>232784</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3601383" y="4925123"/>
+          <a:ext cx="6133170" cy="3253592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="415183"/>
+          <a:ext cx="1057275" cy="1080427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16588,25 +16841,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="330" t="s">
+      <c r="G1" s="347" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
-      <c r="N1" s="331"/>
-      <c r="O1" s="331"/>
-      <c r="P1" s="331"/>
-      <c r="Q1" s="331"/>
-      <c r="R1" s="331"/>
-      <c r="S1" s="331"/>
-      <c r="T1" s="331"/>
-      <c r="U1" s="331"/>
-      <c r="V1" s="331"/>
-      <c r="W1" s="332"/>
+      <c r="H1" s="348"/>
+      <c r="I1" s="348"/>
+      <c r="J1" s="348"/>
+      <c r="K1" s="348"/>
+      <c r="L1" s="348"/>
+      <c r="M1" s="348"/>
+      <c r="N1" s="348"/>
+      <c r="O1" s="348"/>
+      <c r="P1" s="348"/>
+      <c r="Q1" s="348"/>
+      <c r="R1" s="348"/>
+      <c r="S1" s="348"/>
+      <c r="T1" s="348"/>
+      <c r="U1" s="348"/>
+      <c r="V1" s="348"/>
+      <c r="W1" s="349"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -17577,9 +17830,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="333"/>
-      <c r="L16" s="333"/>
-      <c r="M16" s="333"/>
+      <c r="K16" s="350"/>
+      <c r="L16" s="350"/>
+      <c r="M16" s="350"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -17609,9 +17862,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="333"/>
-      <c r="L17" s="333"/>
-      <c r="M17" s="333"/>
+      <c r="K17" s="350"/>
+      <c r="L17" s="350"/>
+      <c r="M17" s="350"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -17627,10 +17880,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="327" t="s">
+      <c r="Y17" s="344" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="328"/>
+      <c r="Z17" s="345"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -17667,11 +17920,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="326" t="s">
+      <c r="G23" s="343" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="326"/>
-      <c r="I23" s="326"/>
+      <c r="H23" s="343"/>
+      <c r="I23" s="343"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -17679,11 +17932,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="329" t="s">
+      <c r="G24" s="346" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="329"/>
-      <c r="I24" s="329"/>
+      <c r="H24" s="346"/>
+      <c r="I24" s="346"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -17769,20 +18022,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="353" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="337"/>
-      <c r="J1" s="337"/>
-      <c r="K1" s="337"/>
-      <c r="L1" s="337"/>
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -17839,10 +18092,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="338" t="s">
+      <c r="M3" s="355" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="338"/>
+      <c r="N3" s="355"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -18061,10 +18314,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="339" t="s">
+      <c r="M9" s="356" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="340"/>
+      <c r="N9" s="357"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -18333,12 +18586,12 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="341" t="s">
+      <c r="D17" s="358" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="341"/>
-      <c r="F17" s="341"/>
-      <c r="G17" s="341"/>
+      <c r="E17" s="358"/>
+      <c r="F17" s="358"/>
+      <c r="G17" s="358"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -18682,11 +18935,11 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="297" t="s">
+      <c r="O24" s="314" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="297"/>
-      <c r="Q24" s="297"/>
+      <c r="P24" s="314"/>
+      <c r="Q24" s="314"/>
       <c r="R24" s="65"/>
     </row>
     <row r="25" spans="1:18">
@@ -18757,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="334" t="s">
+      <c r="M26" s="351" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -18819,7 +19072,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="334"/>
+      <c r="M27" s="351"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -18879,7 +19132,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="334"/>
+      <c r="M28" s="351"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -19293,11 +19546,11 @@
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="335" t="s">
+      <c r="E40" s="352" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="335"/>
-      <c r="G40" s="335"/>
+      <c r="F40" s="352"/>
+      <c r="G40" s="352"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -19662,12 +19915,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="319" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
       <c r="E1" s="65" t="s">
         <v>217</v>
       </c>
@@ -19858,19 +20111,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="342" t="s">
+      <c r="A20" s="359" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="342"/>
+      <c r="B20" s="359"/>
       <c r="C20" s="261">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="342" t="s">
+      <c r="A21" s="359" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="342"/>
+      <c r="B21" s="359"/>
       <c r="C21" s="12">
         <v>200</v>
       </c>
@@ -19885,10 +20138,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="342" t="s">
+      <c r="A22" s="359" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="342"/>
+      <c r="B22" s="359"/>
       <c r="C22" s="12">
         <v>500</v>
       </c>
@@ -19903,35 +20156,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="342" t="s">
+      <c r="A23" s="359" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="342"/>
-      <c r="C23" s="342"/>
-      <c r="D23" s="342"/>
-      <c r="E23" s="342"/>
+      <c r="B23" s="359"/>
+      <c r="C23" s="359"/>
+      <c r="D23" s="359"/>
+      <c r="E23" s="359"/>
       <c r="F23" s="12">
         <f>200*10+500*10</f>
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="342" t="s">
+      <c r="A24" s="359" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="342"/>
-      <c r="C24" s="342"/>
-      <c r="D24" s="342"/>
+      <c r="B24" s="359"/>
+      <c r="C24" s="359"/>
+      <c r="D24" s="359"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="343" t="s">
+      <c r="A26" s="360" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="343"/>
-      <c r="C26" s="343"/>
-      <c r="D26" s="343"/>
-      <c r="E26" s="343"/>
-      <c r="F26" s="343"/>
+      <c r="B26" s="360"/>
+      <c r="C26" s="360"/>
+      <c r="D26" s="360"/>
+      <c r="E26" s="360"/>
+      <c r="F26" s="360"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -20280,11 +20533,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="361" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="345"/>
-      <c r="C11" s="346"/>
+      <c r="B11" s="362"/>
+      <c r="C11" s="363"/>
       <c r="D11" s="285">
         <f>D5-D10</f>
         <v>353834</v>
@@ -20424,8 +20677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20439,19 +20692,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1">
       <c r="A1" s="65"/>
-      <c r="B1" s="354" t="s">
+      <c r="B1" s="299" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="357" t="s">
+      <c r="C1" s="302" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="356" t="s">
+      <c r="D1" s="301" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="358" t="s">
+      <c r="E1" s="303" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="355" t="s">
+      <c r="F1" s="300" t="s">
         <v>245</v>
       </c>
       <c r="K1" s="12"/>
@@ -20480,19 +20733,19 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="347">
+      <c r="B3" s="292">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C3" s="347">
+      <c r="C3" s="292">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D3" s="347">
+      <c r="D3" s="292">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E3" s="347">
+      <c r="E3" s="292">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F3" s="347">
+      <c r="F3" s="292">
         <v>0.11799999999999999</v>
       </c>
     </row>
@@ -20510,7 +20763,7 @@
         <v>22850</v>
       </c>
       <c r="C5" s="267"/>
-      <c r="D5" s="348"/>
+      <c r="D5" s="293"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="65"/>
@@ -20537,10 +20790,10 @@
       <c r="D9" s="284"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="349"/>
-      <c r="B10" s="350"/>
-      <c r="C10" s="350"/>
-      <c r="D10" s="351"/>
+      <c r="A10" s="294"/>
+      <c r="B10" s="295"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="296"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="275" t="s">
@@ -20562,32 +20815,32 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="65" customFormat="1">
-      <c r="A12" s="352" t="s">
+      <c r="A12" s="297" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="353">
+      <c r="B12" s="298">
         <v>1</v>
       </c>
-      <c r="C12" s="353">
+      <c r="C12" s="298">
         <v>1</v>
       </c>
-      <c r="D12" s="353">
+      <c r="D12" s="298">
         <v>1</v>
       </c>
-      <c r="E12" s="353">
+      <c r="E12" s="298">
         <v>1</v>
       </c>
-      <c r="F12" s="353">
+      <c r="F12" s="298">
         <v>1</v>
       </c>
-      <c r="G12" s="353">
+      <c r="G12" s="298">
         <f>SUMPRODUCT($B$2:$F$2,B12:F12)</f>
         <v>250000</v>
       </c>
-      <c r="H12" s="353" t="s">
+      <c r="H12" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="I12" s="353">
+      <c r="I12" s="298">
         <v>250000</v>
       </c>
     </row>
@@ -20602,7 +20855,7 @@
       <c r="D13" s="278"/>
       <c r="E13" s="278"/>
       <c r="F13" s="278"/>
-      <c r="G13" s="353">
+      <c r="G13" s="298">
         <f>SUMPRODUCT($B$2:$F$2,B13:F13)</f>
         <v>50000</v>
       </c>
@@ -20629,7 +20882,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="278"/>
-      <c r="G14" s="353">
+      <c r="G14" s="298">
         <f>SUMPRODUCT($B$2:$F$2,B14:F14)</f>
         <v>100000</v>
       </c>
@@ -20652,7 +20905,7 @@
       <c r="F15" s="278">
         <v>1</v>
       </c>
-      <c r="G15" s="353">
+      <c r="G15" s="298">
         <f>SUMPRODUCT($B$2:$F$2,B15:F15)</f>
         <v>100000</v>
       </c>
@@ -20678,6 +20931,577 @@
     <row r="21" spans="5:9">
       <c r="E21" s="65"/>
       <c r="I21" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="65"/>
+      <c r="B1" s="364" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="364" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="364" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="365" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="365" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="365" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="365" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="365" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="365" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="365" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="365" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="365" t="s">
+        <v>255</v>
+      </c>
+      <c r="N1" s="365" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="365" t="s">
+        <v>262</v>
+      </c>
+      <c r="P1" s="365" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="269">
+        <v>400</v>
+      </c>
+      <c r="C2" s="269">
+        <v>0</v>
+      </c>
+      <c r="D2" s="269">
+        <v>300</v>
+      </c>
+      <c r="E2" s="269">
+        <v>500</v>
+      </c>
+      <c r="F2" s="269">
+        <v>0</v>
+      </c>
+      <c r="G2" s="269">
+        <v>0</v>
+      </c>
+      <c r="H2" s="269">
+        <v>100</v>
+      </c>
+      <c r="I2" s="269">
+        <v>0</v>
+      </c>
+      <c r="J2" s="269">
+        <v>0</v>
+      </c>
+      <c r="K2" s="269">
+        <v>800</v>
+      </c>
+      <c r="L2" s="269">
+        <v>0</v>
+      </c>
+      <c r="M2" s="269">
+        <v>0</v>
+      </c>
+      <c r="N2" s="269">
+        <v>400</v>
+      </c>
+      <c r="O2" s="269">
+        <v>0</v>
+      </c>
+      <c r="P2" s="269">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="290" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="65"/>
+      <c r="B3" s="368">
+        <v>5</v>
+      </c>
+      <c r="C3" s="368">
+        <v>8</v>
+      </c>
+      <c r="D3" s="369">
+        <v>6</v>
+      </c>
+      <c r="E3" s="370">
+        <v>0</v>
+      </c>
+      <c r="F3" s="370">
+        <v>4</v>
+      </c>
+      <c r="G3" s="370">
+        <v>12</v>
+      </c>
+      <c r="H3" s="370">
+        <v>0</v>
+      </c>
+      <c r="I3" s="370">
+        <v>4</v>
+      </c>
+      <c r="J3" s="370">
+        <v>7</v>
+      </c>
+      <c r="K3" s="370">
+        <v>2</v>
+      </c>
+      <c r="L3" s="370">
+        <v>7</v>
+      </c>
+      <c r="M3" s="370">
+        <v>5</v>
+      </c>
+      <c r="N3" s="370">
+        <v>0</v>
+      </c>
+      <c r="O3" s="370">
+        <v>12</v>
+      </c>
+      <c r="P3" s="370">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="65"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="1:19" ht="31.5" customHeight="1">
+      <c r="A5" s="291"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="65"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="267"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="1:19" ht="30">
+      <c r="A8" s="291" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="371">
+        <f>SUMPRODUCT(B2:P2,B3:P3)</f>
+        <v>5400</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="65"/>
+      <c r="B9" s="284"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="168"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="294"/>
+      <c r="B10" s="295"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="288"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="366" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="288"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="367" t="s">
+        <v>199</v>
+      </c>
+      <c r="R12" s="367" t="s">
+        <v>200</v>
+      </c>
+      <c r="S12" s="367" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="287" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="289">
+        <v>1</v>
+      </c>
+      <c r="C13" s="289">
+        <v>1</v>
+      </c>
+      <c r="D13" s="289">
+        <v>1</v>
+      </c>
+      <c r="E13" s="289"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="289"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="289">
+        <f>SUMPRODUCT($B$2:$P$2,B13:P13)</f>
+        <v>700</v>
+      </c>
+      <c r="R13" s="289" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="289">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="287" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="289"/>
+      <c r="C14" s="289"/>
+      <c r="D14" s="289"/>
+      <c r="E14" s="289">
+        <v>1</v>
+      </c>
+      <c r="F14" s="289">
+        <v>1</v>
+      </c>
+      <c r="G14" s="289">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="289">
+        <f t="shared" ref="Q14:Q20" si="0">SUMPRODUCT($B$2:$P$2,B14:P14)</f>
+        <v>500</v>
+      </c>
+      <c r="R14" s="289" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="289">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="287" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="289"/>
+      <c r="C15" s="289"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="289"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="289">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R15" s="289" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" s="289">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="287" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="289"/>
+      <c r="C16" s="289"/>
+      <c r="D16" s="289"/>
+      <c r="E16" s="289"/>
+      <c r="F16" s="289"/>
+      <c r="G16" s="289"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="289">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="R16" s="289" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="289">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="287" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="289"/>
+      <c r="C17" s="289"/>
+      <c r="D17" s="289"/>
+      <c r="E17" s="289"/>
+      <c r="F17" s="289"/>
+      <c r="G17" s="289"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="289">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="R17" s="289" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="289">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="289">
+        <f>SUMPRODUCT($B$2:$P$2,B18:P18)</f>
+        <v>900</v>
+      </c>
+      <c r="R18" s="289" t="s">
+        <v>206</v>
+      </c>
+      <c r="S18" s="289">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="289">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="R19" s="289" t="s">
+        <v>206</v>
+      </c>
+      <c r="S19" s="289">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="289">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="R20" s="289" t="s">
+        <v>206</v>
+      </c>
+      <c r="S20" s="289">
+        <v>900</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20697,35 +21521,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="309" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="310" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293"/>
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="310"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="293"/>
-      <c r="B4" s="293"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
+      <c r="A4" s="310"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -20756,22 +21580,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="291" t="s">
+      <c r="A9" s="308" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
+      <c r="B9" s="308"/>
+      <c r="C9" s="308"/>
+      <c r="D9" s="308"/>
+      <c r="E9" s="308"/>
+      <c r="F9" s="308"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="291"/>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
+      <c r="A10" s="308"/>
+      <c r="B10" s="308"/>
+      <c r="C10" s="308"/>
+      <c r="D10" s="308"/>
+      <c r="E10" s="308"/>
+      <c r="F10" s="308"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -20784,11 +21608,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="294" t="s">
+      <c r="A20" s="311" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="295"/>
-      <c r="C20" s="296"/>
+      <c r="B20" s="312"/>
+      <c r="C20" s="313"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -21066,12 +21890,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="288" t="s">
+      <c r="G39" s="305" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="289"/>
-      <c r="I39" s="289"/>
-      <c r="J39" s="290"/>
+      <c r="H39" s="306"/>
+      <c r="I39" s="306"/>
+      <c r="J39" s="307"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -21104,13 +21928,13 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="287" t="s">
+      <c r="A45" s="304" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="287"/>
-      <c r="C45" s="287"/>
-      <c r="D45" s="287"/>
-      <c r="E45" s="287"/>
+      <c r="B45" s="304"/>
+      <c r="C45" s="304"/>
+      <c r="D45" s="304"/>
+      <c r="E45" s="304"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -21170,23 +21994,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297" t="s">
+      <c r="B1" s="314"/>
+      <c r="C1" s="314" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="298" t="s">
+      <c r="D1" s="314"/>
+      <c r="E1" s="315" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="297"/>
+      <c r="F1" s="314"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="299" t="s">
+      <c r="H1" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="300"/>
+      <c r="I1" s="317"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -21321,10 +22145,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="297" t="s">
+      <c r="H6" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="297"/>
+      <c r="I6" s="314"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -21606,26 +22430,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="322" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="324" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="293"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="308"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="325"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -21637,15 +22461,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="309" t="s">
+      <c r="A6" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="310"/>
-      <c r="D6" s="310"/>
-      <c r="E6" s="310"/>
-      <c r="F6" s="310"/>
-      <c r="G6" s="311"/>
+      <c r="B6" s="327"/>
+      <c r="C6" s="327"/>
+      <c r="D6" s="327"/>
+      <c r="E6" s="327"/>
+      <c r="F6" s="327"/>
+      <c r="G6" s="328"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -21657,34 +22481,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="312" t="s">
+      <c r="A8" s="329" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="313"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="313"/>
-      <c r="E8" s="313"/>
-      <c r="F8" s="313"/>
-      <c r="G8" s="314"/>
+      <c r="B8" s="330"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="331"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="315" t="s">
+      <c r="A9" s="332" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="316"/>
-      <c r="C9" s="316"/>
-      <c r="D9" s="316"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="316"/>
-      <c r="G9" s="317"/>
+      <c r="B9" s="333"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="333"/>
+      <c r="E9" s="333"/>
+      <c r="F9" s="333"/>
+      <c r="G9" s="334"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="302" t="s">
+      <c r="E11" s="319" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
+      <c r="F11" s="319"/>
+      <c r="G11" s="319"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -21699,10 +22523,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="301" t="s">
+      <c r="F12" s="318" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="301"/>
+      <c r="G12" s="318"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -21923,10 +22747,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="303" t="s">
+      <c r="B24" s="320" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="304"/>
+      <c r="C24" s="321"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -22153,17 +22977,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="319" t="s">
+      <c r="F2" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="319"/>
-      <c r="N2" s="319"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -22344,10 +23168,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="318" t="s">
+      <c r="F10" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="300"/>
+      <c r="G10" s="317"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -23105,10 +23929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="337" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="321"/>
+      <c r="B1" s="338"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -23162,22 +23986,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="322" t="s">
+      <c r="A9" s="339" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="323"/>
-      <c r="C9" s="323"/>
-      <c r="D9" s="323"/>
-      <c r="E9" s="323"/>
-      <c r="F9" s="323"/>
-      <c r="G9" s="323"/>
-      <c r="H9" s="323"/>
-      <c r="I9" s="323"/>
-      <c r="J9" s="323"/>
-      <c r="K9" s="323"/>
-      <c r="L9" s="323"/>
-      <c r="M9" s="323"/>
-      <c r="N9" s="324"/>
+      <c r="B9" s="340"/>
+      <c r="C9" s="340"/>
+      <c r="D9" s="340"/>
+      <c r="E9" s="340"/>
+      <c r="F9" s="340"/>
+      <c r="G9" s="340"/>
+      <c r="H9" s="340"/>
+      <c r="I9" s="340"/>
+      <c r="J9" s="340"/>
+      <c r="K9" s="340"/>
+      <c r="L9" s="340"/>
+      <c r="M9" s="340"/>
+      <c r="N9" s="341"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -23508,16 +24332,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="325" t="s">
+      <c r="A40" s="342" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="287"/>
-      <c r="C40" s="287"/>
-      <c r="D40" s="287"/>
-      <c r="E40" s="287"/>
-      <c r="F40" s="287"/>
-      <c r="G40" s="287"/>
-      <c r="H40" s="287"/>
+      <c r="B40" s="304"/>
+      <c r="C40" s="304"/>
+      <c r="D40" s="304"/>
+      <c r="E40" s="304"/>
+      <c r="F40" s="304"/>
+      <c r="G40" s="304"/>
+      <c r="H40" s="304"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -31,9 +31,10 @@
     <sheet name="example 2 LP" sheetId="23" r:id="rId17"/>
     <sheet name="example 3 LP" sheetId="24" r:id="rId18"/>
     <sheet name="example 4 LP" sheetId="25" r:id="rId19"/>
+    <sheet name="transport problems" sheetId="26" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="16" hidden="1">'example 2 LP'!$B$2:$P$2</definedName>
@@ -42,6 +43,7 @@
     <definedName name="solver_adj" localSheetId="12" hidden="1">'example linear programming'!$B$4:$C$4</definedName>
     <definedName name="solver_adj" localSheetId="13" hidden="1">'example LP'!$B$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="15" hidden="1">'more variants LP'!$B$2:$F$2</definedName>
+    <definedName name="solver_adj" localSheetId="19" hidden="1">'transport problems'!$C$12:$E$14</definedName>
     <definedName name="solver_adj" localSheetId="14" hidden="1">'variants LP'!$B$2:$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="16" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="17" hidden="1">0.0001</definedName>
@@ -49,6 +51,7 @@
     <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="19" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="14" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="17" hidden="1">2</definedName>
@@ -56,6 +59,7 @@
     <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="17" hidden="1">2</definedName>
@@ -63,6 +67,7 @@
     <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="17" hidden="1">1</definedName>
@@ -70,6 +75,7 @@
     <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="17" hidden="1">2147483647</definedName>
@@ -77,6 +83,7 @@
     <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="15" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="19" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
     <definedName name="solver_lhs1" localSheetId="16" hidden="1">'example 2 LP'!$Q$13:$Q$17</definedName>
@@ -85,12 +92,14 @@
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">'example linear programming'!$D$13</definedName>
     <definedName name="solver_lhs1" localSheetId="13" hidden="1">'example LP'!$D$10</definedName>
     <definedName name="solver_lhs1" localSheetId="15" hidden="1">'more variants LP'!$G$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="19" hidden="1">'transport problems'!$C$15:$E$15</definedName>
     <definedName name="solver_lhs1" localSheetId="14" hidden="1">'variants LP'!$D$15:$D$18</definedName>
     <definedName name="solver_lhs2" localSheetId="16" hidden="1">'example 2 LP'!$Q$18:$Q$20</definedName>
     <definedName name="solver_lhs2" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">'example linear programming'!$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="13" hidden="1">'example LP'!$D$9</definedName>
     <definedName name="solver_lhs2" localSheetId="15" hidden="1">'more variants LP'!$G$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="19" hidden="1">'transport problems'!$F$12:$F$14</definedName>
     <definedName name="solver_lhs3" localSheetId="12" hidden="1">'example linear programming'!$D$15</definedName>
     <definedName name="solver_lhs3" localSheetId="15" hidden="1">'more variants LP'!$G$14</definedName>
     <definedName name="solver_lhs4" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
@@ -102,6 +111,7 @@
     <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="19" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="16" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="17" hidden="1">30</definedName>
@@ -109,6 +119,7 @@
     <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="19" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="14" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="16" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="17" hidden="1">0.075</definedName>
@@ -116,6 +127,7 @@
     <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="19" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="14" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="17" hidden="1">2</definedName>
@@ -123,6 +135,7 @@
     <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="17" hidden="1">1</definedName>
@@ -130,6 +143,7 @@
     <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="17" hidden="1">2147483647</definedName>
@@ -137,6 +151,7 @@
     <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="19" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="17" hidden="1">1</definedName>
@@ -144,6 +159,7 @@
     <definedName name="solver_num" localSheetId="12" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="15" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="17" hidden="1">1</definedName>
@@ -151,6 +167,7 @@
     <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="16" hidden="1">'example 2 LP'!$B$8</definedName>
     <definedName name="solver_opt" localSheetId="17" hidden="1">'example 3 LP'!$B$7</definedName>
@@ -158,6 +175,7 @@
     <definedName name="solver_opt" localSheetId="12" hidden="1">'example linear programming'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="13" hidden="1">'example LP'!$B$6</definedName>
     <definedName name="solver_opt" localSheetId="15" hidden="1">'more variants LP'!$B$5</definedName>
+    <definedName name="solver_opt" localSheetId="19" hidden="1">'transport problems'!$B$22</definedName>
     <definedName name="solver_opt" localSheetId="14" hidden="1">'variants LP'!$D$11</definedName>
     <definedName name="solver_pre" localSheetId="16" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="17" hidden="1">0.000001</definedName>
@@ -165,6 +183,7 @@
     <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="19" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="14" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="17" hidden="1">2</definedName>
@@ -172,6 +191,7 @@
     <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel0" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="16" hidden="1">2</definedName>
@@ -180,12 +200,14 @@
     <definedName name="solver_rel1" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="12" hidden="1">3</definedName>
@@ -198,12 +220,14 @@
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">'example linear programming'!$F$13</definedName>
     <definedName name="solver_rhs1" localSheetId="13" hidden="1">'example LP'!$F$10</definedName>
     <definedName name="solver_rhs1" localSheetId="15" hidden="1">'more variants LP'!$I$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="19" hidden="1">'transport problems'!$C$7:$E$7</definedName>
     <definedName name="solver_rhs1" localSheetId="14" hidden="1">'variants LP'!$F$15:$F$18</definedName>
     <definedName name="solver_rhs2" localSheetId="16" hidden="1">'example 2 LP'!$S$18:$S$20</definedName>
     <definedName name="solver_rhs2" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">'example linear programming'!$F$14</definedName>
     <definedName name="solver_rhs2" localSheetId="13" hidden="1">'example LP'!$F$9</definedName>
     <definedName name="solver_rhs2" localSheetId="15" hidden="1">'more variants LP'!$I$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="19" hidden="1">'transport problems'!$F$4:$F$6</definedName>
     <definedName name="solver_rhs3" localSheetId="12" hidden="1">'example linear programming'!$F$15</definedName>
     <definedName name="solver_rhs3" localSheetId="15" hidden="1">'more variants LP'!$I$14</definedName>
     <definedName name="solver_rhs4" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
@@ -215,6 +239,7 @@
     <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="17" hidden="1">0</definedName>
@@ -222,6 +247,7 @@
     <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="19" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="17" hidden="1">2</definedName>
@@ -229,6 +255,7 @@
     <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="17" hidden="1">2</definedName>
@@ -236,6 +263,7 @@
     <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="16" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="17" hidden="1">100</definedName>
@@ -243,6 +271,7 @@
     <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="19" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="14" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="17" hidden="1">2147483647</definedName>
@@ -250,6 +279,7 @@
     <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="15" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="19" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="16" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="17" hidden="1">0.01</definedName>
@@ -257,6 +287,7 @@
     <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="15" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="19" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="14" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="17" hidden="1">2</definedName>
@@ -264,6 +295,7 @@
     <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="17" hidden="1">0</definedName>
@@ -271,6 +303,7 @@
     <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="19" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="16" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="17" hidden="1">3</definedName>
@@ -278,6 +311,7 @@
     <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="19" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="14" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -325,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="356">
   <si>
     <t>YEAR code</t>
   </si>
@@ -1729,6 +1763,237 @@
   <si>
     <t>Project 1</t>
   </si>
+  <si>
+    <t>Transportation example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping cost: </t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Clevelan</t>
+  </si>
+  <si>
+    <t>Albany (A)</t>
+  </si>
+  <si>
+    <t>Boston (B)</t>
+  </si>
+  <si>
+    <t>Clevelan ©</t>
+  </si>
+  <si>
+    <t>Desmonies (D) send to :</t>
+  </si>
+  <si>
+    <t>*cost of sending one article</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evanston</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evanston (E) send to:</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Lauderdale (F) send: </t>
+  </si>
+  <si>
+    <t>*Objetive: min cost</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Factories in: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desmonies</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evanston</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fort Lauderdale</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stores in : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Albany</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Boston</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clevelan</t>
+    </r>
+  </si>
+  <si>
+    <t>* Outputs:</t>
+  </si>
+  <si>
+    <t>D:</t>
+  </si>
+  <si>
+    <t>E:</t>
+  </si>
+  <si>
+    <t>F:</t>
+  </si>
+  <si>
+    <t>Dont produce more than:
+(unites)</t>
+  </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>B:</t>
+  </si>
+  <si>
+    <t>C:</t>
+  </si>
+  <si>
+    <t>* Demands 
+(need number of products):</t>
+  </si>
+  <si>
+    <t>Data Table:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desmonies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boston</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Output (limit 
+production):</t>
+  </si>
+  <si>
+    <t>Demand:</t>
+  </si>
+  <si>
+    <t>Shipment Table:</t>
+  </si>
+  <si>
+    <t>*dummy numbers = variables; cuantity of products (unites) for shipping.</t>
+  </si>
+  <si>
+    <t>Objetive (min):</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
+  </si>
 </sst>
 </file>
 
@@ -1746,7 +2011,7 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2127,8 +2392,15 @@
       <color theme="1"/>
       <name val="Var(--cds-font-family-source-sa"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2261,8 +2533,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -3066,6 +3350,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3074,7 +3367,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="422">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3753,6 +4046,65 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="22" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3933,58 +4285,54 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="22" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="22" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5733,9 +6081,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5816,7 +6162,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6052,6 +6397,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6072,6 +6422,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6092,6 +6447,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6112,6 +6472,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6132,6 +6497,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6152,6 +6522,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -6174,6 +6549,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -6196,6 +6576,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -6218,6 +6603,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -6240,6 +6630,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -6262,6 +6657,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -6284,6 +6684,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -6307,6 +6712,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -6330,6 +6740,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -6353,6 +6768,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-B0C0-4430-96BD-0C70ED22091D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6487,7 +6907,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7278,7 +7697,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7686,7 +8104,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7768,7 +8185,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8083,7 +8499,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8386,7 +8801,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8730,7 +9144,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9020,7 +9433,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9141,7 +9553,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9216,7 +9627,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9341,7 +9751,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9490,7 +9899,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9616,7 +10024,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18607,25 +19014,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="361" t="s">
+      <c r="G1" s="386" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
-      <c r="N1" s="362"/>
-      <c r="O1" s="362"/>
-      <c r="P1" s="362"/>
-      <c r="Q1" s="362"/>
-      <c r="R1" s="362"/>
-      <c r="S1" s="362"/>
-      <c r="T1" s="362"/>
-      <c r="U1" s="362"/>
-      <c r="V1" s="362"/>
-      <c r="W1" s="363"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="387"/>
+      <c r="L1" s="387"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="387"/>
+      <c r="O1" s="387"/>
+      <c r="P1" s="387"/>
+      <c r="Q1" s="387"/>
+      <c r="R1" s="387"/>
+      <c r="S1" s="387"/>
+      <c r="T1" s="387"/>
+      <c r="U1" s="387"/>
+      <c r="V1" s="387"/>
+      <c r="W1" s="388"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -19596,9 +20003,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="364"/>
-      <c r="L16" s="364"/>
-      <c r="M16" s="364"/>
+      <c r="K16" s="389"/>
+      <c r="L16" s="389"/>
+      <c r="M16" s="389"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -19628,9 +20035,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="364"/>
-      <c r="L17" s="364"/>
-      <c r="M17" s="364"/>
+      <c r="K17" s="389"/>
+      <c r="L17" s="389"/>
+      <c r="M17" s="389"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -19646,10 +20053,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="358" t="s">
+      <c r="Y17" s="383" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="359"/>
+      <c r="Z17" s="384"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -19686,11 +20093,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="357" t="s">
+      <c r="G23" s="382" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="357"/>
-      <c r="I23" s="357"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="382"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -19698,11 +20105,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="360" t="s">
+      <c r="G24" s="385" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="360"/>
-      <c r="I24" s="360"/>
+      <c r="H24" s="385"/>
+      <c r="I24" s="385"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -19793,20 +20200,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="367" t="s">
+      <c r="A1" s="392" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -19863,10 +20270,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="369" t="s">
+      <c r="M3" s="394" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="369"/>
+      <c r="N3" s="394"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -20085,10 +20492,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="370" t="s">
+      <c r="M9" s="395" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="371"/>
+      <c r="N9" s="396"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -20357,12 +20764,12 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="372" t="s">
+      <c r="D17" s="397" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="372"/>
-      <c r="F17" s="372"/>
-      <c r="G17" s="372"/>
+      <c r="E17" s="397"/>
+      <c r="F17" s="397"/>
+      <c r="G17" s="397"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -20706,11 +21113,11 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="328" t="s">
+      <c r="O24" s="353" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="328"/>
-      <c r="Q24" s="328"/>
+      <c r="P24" s="353"/>
+      <c r="Q24" s="353"/>
       <c r="R24" s="65"/>
     </row>
     <row r="25" spans="1:19">
@@ -20781,7 +21188,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="365" t="s">
+      <c r="M26" s="390" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -20843,7 +21250,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="365"/>
+      <c r="M27" s="390"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -20903,7 +21310,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="365"/>
+      <c r="M28" s="390"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -21017,7 +21424,7 @@
       <c r="J31" s="65"/>
       <c r="K31" s="234"/>
       <c r="L31" s="65"/>
-      <c r="M31" s="384"/>
+      <c r="M31" s="326"/>
       <c r="N31" s="106"/>
       <c r="O31" s="106"/>
       <c r="P31" s="106"/>
@@ -21326,11 +21733,11 @@
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="366" t="s">
+      <c r="E40" s="391" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="366"/>
-      <c r="G40" s="366"/>
+      <c r="F40" s="391"/>
+      <c r="G40" s="391"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -21625,40 +22032,40 @@
       <c r="J49" s="65"/>
       <c r="K49" s="65"/>
       <c r="L49" s="65"/>
-      <c r="M49" s="391">
+      <c r="M49" s="333">
         <v>0</v>
       </c>
-      <c r="N49" s="391">
+      <c r="N49" s="333">
         <v>1</v>
       </c>
-      <c r="O49" s="391">
+      <c r="O49" s="333">
         <v>1</v>
       </c>
-      <c r="P49" s="388">
+      <c r="P49" s="330">
         <v>1</v>
       </c>
-      <c r="Q49" s="388">
+      <c r="Q49" s="330">
         <v>1</v>
       </c>
-      <c r="R49" s="388">
+      <c r="R49" s="330">
         <v>1</v>
       </c>
-      <c r="S49" s="388">
+      <c r="S49" s="330">
         <v>1</v>
       </c>
-      <c r="T49" s="388">
+      <c r="T49" s="330">
         <v>0</v>
       </c>
-      <c r="U49" s="388">
+      <c r="U49" s="330">
         <v>1</v>
       </c>
-      <c r="V49" s="388">
+      <c r="V49" s="330">
         <v>0</v>
       </c>
-      <c r="W49" s="388">
+      <c r="W49" s="330">
         <v>1</v>
       </c>
-      <c r="X49" s="388">
+      <c r="X49" s="330">
         <v>1</v>
       </c>
     </row>
@@ -21702,10 +22109,10 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:27" ht="30.75" thickBot="1">
-      <c r="L52" s="385" t="s">
+      <c r="L52" s="327" t="s">
         <v>295</v>
       </c>
-      <c r="M52" s="386">
+      <c r="M52" s="328">
         <f>SUMPRODUCT(M49:X49,M50:X50)</f>
         <v>2076</v>
       </c>
@@ -21729,7 +22136,7 @@
       </c>
     </row>
     <row r="55" spans="1:27">
-      <c r="L55" s="387" t="s">
+      <c r="L55" s="329" t="s">
         <v>297</v>
       </c>
       <c r="M55" s="308">
@@ -21809,76 +22216,76 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" thickBot="1"/>
     <row r="60" spans="1:27" ht="15.75" thickBot="1">
-      <c r="L60" s="392" t="s">
+      <c r="L60" s="334" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="15.75" thickBot="1"/>
     <row r="62" spans="1:27" ht="15.75">
-      <c r="L62" s="384" t="s">
+      <c r="L62" s="326" t="s">
         <v>294</v>
       </c>
-      <c r="M62" s="389" t="s">
+      <c r="M62" s="331" t="s">
         <v>311</v>
       </c>
-      <c r="N62" s="389" t="s">
+      <c r="N62" s="331" t="s">
         <v>312</v>
       </c>
-      <c r="O62" s="389" t="s">
+      <c r="O62" s="331" t="s">
         <v>313</v>
       </c>
-      <c r="P62" s="389" t="s">
+      <c r="P62" s="331" t="s">
         <v>314</v>
       </c>
-      <c r="Q62" s="389" t="s">
+      <c r="Q62" s="331" t="s">
         <v>315</v>
       </c>
-      <c r="R62" s="389" t="s">
+      <c r="R62" s="331" t="s">
         <v>316</v>
       </c>
-      <c r="S62" s="389" t="s">
+      <c r="S62" s="331" t="s">
         <v>317</v>
       </c>
-      <c r="T62" s="390" t="s">
+      <c r="T62" s="332" t="s">
         <v>318</v>
       </c>
-      <c r="U62" s="393"/>
-      <c r="V62" s="393"/>
-      <c r="W62" s="393"/>
-      <c r="X62" s="393"/>
+      <c r="U62" s="335"/>
+      <c r="V62" s="335"/>
+      <c r="W62" s="335"/>
+      <c r="X62" s="335"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="L63" s="397" t="s">
+      <c r="L63" s="339" t="s">
         <v>319</v>
       </c>
-      <c r="M63" s="398">
+      <c r="M63" s="340">
         <v>1</v>
       </c>
-      <c r="N63" s="399">
+      <c r="N63" s="341">
         <v>1</v>
       </c>
-      <c r="O63" s="399">
+      <c r="O63" s="341">
         <v>1</v>
       </c>
-      <c r="P63" s="399">
+      <c r="P63" s="341">
         <v>1</v>
       </c>
-      <c r="Q63" s="399">
+      <c r="Q63" s="341">
         <v>1</v>
       </c>
-      <c r="R63" s="399">
+      <c r="R63" s="341">
         <v>0</v>
       </c>
-      <c r="S63" s="399">
+      <c r="S63" s="341">
         <v>0</v>
       </c>
-      <c r="T63" s="399">
+      <c r="T63" s="341">
         <v>0</v>
       </c>
-      <c r="U63" s="395"/>
-      <c r="V63" s="395"/>
-      <c r="W63" s="395"/>
-      <c r="X63" s="395"/>
+      <c r="U63" s="337"/>
+      <c r="V63" s="337"/>
+      <c r="W63" s="337"/>
+      <c r="X63" s="337"/>
     </row>
     <row r="64" spans="1:27">
       <c r="L64" s="3" t="s">
@@ -21908,16 +22315,16 @@
       <c r="T64" s="304">
         <v>1</v>
       </c>
-      <c r="U64" s="394"/>
-      <c r="V64" s="394"/>
-      <c r="W64" s="394"/>
-      <c r="X64" s="394"/>
+      <c r="U64" s="336"/>
+      <c r="V64" s="336"/>
+      <c r="W64" s="336"/>
+      <c r="X64" s="336"/>
     </row>
     <row r="65" spans="12:20">
-      <c r="L65" s="397" t="s">
+      <c r="L65" s="339" t="s">
         <v>300</v>
       </c>
-      <c r="M65" s="400">
+      <c r="M65" s="342">
         <v>1</v>
       </c>
       <c r="N65" s="304">
@@ -21972,10 +22379,10 @@
       </c>
     </row>
     <row r="67" spans="12:20">
-      <c r="L67" s="397" t="s">
+      <c r="L67" s="339" t="s">
         <v>302</v>
       </c>
-      <c r="M67" s="400">
+      <c r="M67" s="342">
         <v>1</v>
       </c>
       <c r="N67" s="304">
@@ -22030,10 +22437,10 @@
       </c>
     </row>
     <row r="69" spans="12:20">
-      <c r="L69" s="397" t="s">
+      <c r="L69" s="339" t="s">
         <v>304</v>
       </c>
-      <c r="M69" s="400">
+      <c r="M69" s="342">
         <v>1</v>
       </c>
       <c r="N69" s="304">
@@ -22088,10 +22495,10 @@
       </c>
     </row>
     <row r="71" spans="12:20">
-      <c r="L71" s="397" t="s">
+      <c r="L71" s="339" t="s">
         <v>306</v>
       </c>
-      <c r="M71" s="400">
+      <c r="M71" s="342">
         <v>1</v>
       </c>
       <c r="N71" s="304">
@@ -22146,10 +22553,10 @@
       </c>
     </row>
     <row r="73" spans="12:20">
-      <c r="L73" s="397" t="s">
+      <c r="L73" s="339" t="s">
         <v>308</v>
       </c>
-      <c r="M73" s="400">
+      <c r="M73" s="342">
         <v>1</v>
       </c>
       <c r="N73" s="304">
@@ -22178,7 +22585,7 @@
       <c r="L74" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="M74" s="400">
+      <c r="M74" s="342">
         <v>0</v>
       </c>
       <c r="N74" s="304">
@@ -22204,61 +22611,61 @@
       </c>
     </row>
     <row r="76" spans="12:20">
-      <c r="M76" s="396"/>
+      <c r="M76" s="338"/>
     </row>
     <row r="78" spans="12:20">
-      <c r="M78" s="396"/>
+      <c r="M78" s="338"/>
     </row>
     <row r="80" spans="12:20">
-      <c r="M80" s="396"/>
+      <c r="M80" s="338"/>
     </row>
     <row r="82" spans="13:13">
-      <c r="M82" s="396"/>
+      <c r="M82" s="338"/>
     </row>
     <row r="84" spans="13:13">
-      <c r="M84" s="396"/>
+      <c r="M84" s="338"/>
     </row>
     <row r="86" spans="13:13">
-      <c r="M86" s="396"/>
+      <c r="M86" s="338"/>
     </row>
     <row r="88" spans="13:13">
-      <c r="M88" s="396"/>
+      <c r="M88" s="338"/>
     </row>
     <row r="90" spans="13:13">
-      <c r="M90" s="396"/>
+      <c r="M90" s="338"/>
     </row>
     <row r="92" spans="13:13">
-      <c r="M92" s="396"/>
+      <c r="M92" s="338"/>
     </row>
     <row r="94" spans="13:13">
-      <c r="M94" s="396"/>
+      <c r="M94" s="338"/>
     </row>
     <row r="261" spans="13:13">
-      <c r="M261" s="396"/>
+      <c r="M261" s="338"/>
     </row>
     <row r="263" spans="13:13">
-      <c r="M263" s="396"/>
+      <c r="M263" s="338"/>
     </row>
     <row r="265" spans="13:13">
-      <c r="M265" s="396"/>
+      <c r="M265" s="338"/>
     </row>
     <row r="267" spans="13:13">
-      <c r="M267" s="396"/>
+      <c r="M267" s="338"/>
     </row>
     <row r="269" spans="13:13">
-      <c r="M269" s="396"/>
+      <c r="M269" s="338"/>
     </row>
     <row r="271" spans="13:13">
-      <c r="M271" s="396"/>
+      <c r="M271" s="338"/>
     </row>
     <row r="273" spans="13:13">
-      <c r="M273" s="396"/>
+      <c r="M273" s="338"/>
     </row>
     <row r="275" spans="13:13">
-      <c r="M275" s="396"/>
+      <c r="M275" s="338"/>
     </row>
     <row r="277" spans="13:13">
-      <c r="M277" s="396"/>
+      <c r="M277" s="338"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22375,12 +22782,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="358" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
       <c r="E1" s="65" t="s">
         <v>217</v>
       </c>
@@ -22571,19 +22978,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="398" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="373"/>
+      <c r="B20" s="398"/>
       <c r="C20" s="261">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="373" t="s">
+      <c r="A21" s="398" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="373"/>
+      <c r="B21" s="398"/>
       <c r="C21" s="12">
         <v>200</v>
       </c>
@@ -22598,10 +23005,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="373" t="s">
+      <c r="A22" s="398" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="373"/>
+      <c r="B22" s="398"/>
       <c r="C22" s="12">
         <v>500</v>
       </c>
@@ -22616,35 +23023,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="373" t="s">
+      <c r="A23" s="398" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="373"/>
-      <c r="C23" s="373"/>
-      <c r="D23" s="373"/>
-      <c r="E23" s="373"/>
+      <c r="B23" s="398"/>
+      <c r="C23" s="398"/>
+      <c r="D23" s="398"/>
+      <c r="E23" s="398"/>
       <c r="F23" s="12">
         <f>200*10+500*10</f>
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="373" t="s">
+      <c r="A24" s="398" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="373"/>
-      <c r="C24" s="373"/>
-      <c r="D24" s="373"/>
+      <c r="B24" s="398"/>
+      <c r="C24" s="398"/>
+      <c r="D24" s="398"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="374" t="s">
+      <c r="A26" s="399" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="374"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
+      <c r="B26" s="399"/>
+      <c r="C26" s="399"/>
+      <c r="D26" s="399"/>
+      <c r="E26" s="399"/>
+      <c r="F26" s="399"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -22993,11 +23400,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="375" t="s">
+      <c r="A11" s="400" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="376"/>
-      <c r="C11" s="377"/>
+      <c r="B11" s="401"/>
+      <c r="C11" s="402"/>
       <c r="D11" s="285">
         <f>D5-D10</f>
         <v>353834</v>
@@ -24095,7 +24502,7 @@
       <c r="A7" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="378">
+      <c r="B7" s="320">
         <f>SUMPRODUCT(B3:K3,B4:K4)+50000</f>
         <v>1220000</v>
       </c>
@@ -24290,7 +24697,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="379"/>
+      <c r="A15" s="321"/>
       <c r="B15" s="307"/>
       <c r="C15" s="307"/>
       <c r="D15" s="307"/>
@@ -24306,7 +24713,7 @@
       <c r="N15" s="295"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="379"/>
+      <c r="A16" s="321"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -24331,7 +24738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -24416,7 +24823,7 @@
       <c r="C15" s="308">
         <v>3</v>
       </c>
-      <c r="D15" s="381">
+      <c r="D15" s="323">
         <f t="shared" ref="D15:D16" si="0">SUMPRODUCT($B$9:$C$9,B15:C15)</f>
         <v>42</v>
       </c>
@@ -24428,7 +24835,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="380" t="s">
+      <c r="A16" s="322" t="s">
         <v>293</v>
       </c>
       <c r="B16" s="308">
@@ -24441,7 +24848,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E16" s="383" t="s">
+      <c r="E16" s="325" t="s">
         <v>206</v>
       </c>
       <c r="F16" s="308">
@@ -24449,7 +24856,7 @@
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="382"/>
+      <c r="D17" s="324"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24468,35 +24875,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="348" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="323"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="349" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="324"/>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="349"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="324"/>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
+      <c r="A4" s="349"/>
+      <c r="B4" s="349"/>
+      <c r="C4" s="349"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -24527,22 +24934,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="322" t="s">
+      <c r="A9" s="347" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="322"/>
-      <c r="C9" s="322"/>
-      <c r="D9" s="322"/>
-      <c r="E9" s="322"/>
-      <c r="F9" s="322"/>
+      <c r="B9" s="347"/>
+      <c r="C9" s="347"/>
+      <c r="D9" s="347"/>
+      <c r="E9" s="347"/>
+      <c r="F9" s="347"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="322"/>
-      <c r="B10" s="322"/>
-      <c r="C10" s="322"/>
-      <c r="D10" s="322"/>
-      <c r="E10" s="322"/>
-      <c r="F10" s="322"/>
+      <c r="A10" s="347"/>
+      <c r="B10" s="347"/>
+      <c r="C10" s="347"/>
+      <c r="D10" s="347"/>
+      <c r="E10" s="347"/>
+      <c r="F10" s="347"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -24555,11 +24962,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="325" t="s">
+      <c r="A20" s="350" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="326"/>
-      <c r="C20" s="327"/>
+      <c r="B20" s="351"/>
+      <c r="C20" s="352"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -24837,12 +25244,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="319" t="s">
+      <c r="G39" s="344" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="320"/>
-      <c r="I39" s="320"/>
-      <c r="J39" s="321"/>
+      <c r="H39" s="345"/>
+      <c r="I39" s="345"/>
+      <c r="J39" s="346"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -24875,13 +25282,13 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="318" t="s">
+      <c r="A45" s="343" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="318"/>
-      <c r="C45" s="318"/>
-      <c r="D45" s="318"/>
-      <c r="E45" s="318"/>
+      <c r="B45" s="343"/>
+      <c r="C45" s="343"/>
+      <c r="D45" s="343"/>
+      <c r="E45" s="343"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -24894,6 +25301,468 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="105" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A1" s="404" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="405"/>
+      <c r="H1" s="105" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C2" s="403" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="H2" s="85" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A3" s="417" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="318" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="318" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="318" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="414" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="412" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="318">
+        <v>5</v>
+      </c>
+      <c r="D4" s="318">
+        <v>4</v>
+      </c>
+      <c r="E4" s="318">
+        <v>3</v>
+      </c>
+      <c r="F4" s="413">
+        <v>100</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="411"/>
+      <c r="B5" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="318">
+        <v>8</v>
+      </c>
+      <c r="D5" s="318">
+        <v>4</v>
+      </c>
+      <c r="E5" s="318">
+        <v>3</v>
+      </c>
+      <c r="F5" s="413">
+        <v>300</v>
+      </c>
+      <c r="H5" s="398" t="s">
+        <v>327</v>
+      </c>
+      <c r="I5" s="398"/>
+      <c r="J5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="12">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="411"/>
+      <c r="B6" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="318">
+        <v>9</v>
+      </c>
+      <c r="D6" s="318">
+        <v>7</v>
+      </c>
+      <c r="E6" s="318">
+        <v>5</v>
+      </c>
+      <c r="F6" s="413">
+        <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>325</v>
+      </c>
+      <c r="K6" s="12">
+        <v>4</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="415" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="413">
+        <v>300</v>
+      </c>
+      <c r="D7" s="413">
+        <v>200</v>
+      </c>
+      <c r="E7" s="413">
+        <v>200</v>
+      </c>
+      <c r="J7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="398" t="s">
+        <v>330</v>
+      </c>
+      <c r="I9" s="398"/>
+      <c r="J9" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="12">
+        <v>8</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="403" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="410"/>
+      <c r="E10" s="410"/>
+      <c r="F10" s="65"/>
+      <c r="J10" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="12">
+        <v>4</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A11" s="416" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="318" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="318" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="318" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="414" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="K11" s="12">
+        <v>3</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="412" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="418">
+        <v>100</v>
+      </c>
+      <c r="D12" s="418">
+        <v>0</v>
+      </c>
+      <c r="E12" s="418">
+        <v>0</v>
+      </c>
+      <c r="F12" s="413">
+        <f>SUM(C12:E12)</f>
+        <v>100</v>
+      </c>
+      <c r="G12" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F12)</f>
+        <v>=SUMA(C12:E12)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="411"/>
+      <c r="B13" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="418">
+        <v>0</v>
+      </c>
+      <c r="D13" s="418">
+        <v>200</v>
+      </c>
+      <c r="E13" s="418">
+        <v>100</v>
+      </c>
+      <c r="F13" s="413">
+        <f t="shared" ref="F13:F14" si="0">SUM(C13:E13)</f>
+        <v>300</v>
+      </c>
+      <c r="G13" s="65" t="str">
+        <f t="shared" ref="G13:G14" ca="1" si="1">_xlfn.FORMULATEXT(F13)</f>
+        <v>=SUMA(C13:E13)</v>
+      </c>
+      <c r="H13" s="398" t="s">
+        <v>332</v>
+      </c>
+      <c r="I13" s="398"/>
+      <c r="J13" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="12">
+        <v>9</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="411"/>
+      <c r="B14" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="418">
+        <v>200</v>
+      </c>
+      <c r="D14" s="418">
+        <v>0</v>
+      </c>
+      <c r="E14" s="418">
+        <v>100</v>
+      </c>
+      <c r="F14" s="413">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G14" s="65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=SUMA(C14:E14)</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="K14" s="12">
+        <v>7</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="65"/>
+      <c r="B15" s="415" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="413">
+        <f>SUM(C12:C14)</f>
+        <v>300</v>
+      </c>
+      <c r="D15" s="413">
+        <f t="shared" ref="D15:E15" si="2">SUM(D12:D14)</f>
+        <v>200</v>
+      </c>
+      <c r="E15" s="413">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="J15" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="K15" s="12">
+        <v>5</v>
+      </c>
+      <c r="L15" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C15)</f>
+        <v>=SUMA(C12:C14)</v>
+      </c>
+      <c r="D16" s="65" t="str">
+        <f t="shared" ref="D16:E16" ca="1" si="3">_xlfn.FORMULATEXT(D15)</f>
+        <v>=SUMA(D12:D14)</v>
+      </c>
+      <c r="E16" s="65" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=SUMA(E12:E14)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="H17" s="406" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" s="406"/>
+      <c r="K17" s="65"/>
+    </row>
+    <row r="18" spans="1:13" ht="27.75" customHeight="1">
+      <c r="H18" s="408" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" s="409" t="s">
+        <v>344</v>
+      </c>
+      <c r="L18" s="409"/>
+      <c r="M18" s="65"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="419" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="419"/>
+      <c r="C19" s="419"/>
+      <c r="D19" s="419"/>
+      <c r="E19" s="419"/>
+      <c r="F19" s="419"/>
+      <c r="H19" s="399" t="s">
+        <v>340</v>
+      </c>
+      <c r="I19" s="105" t="s">
+        <v>337</v>
+      </c>
+      <c r="J19" s="319">
+        <v>100</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="L19" s="319">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="H20" s="399"/>
+      <c r="I20" s="105" t="s">
+        <v>338</v>
+      </c>
+      <c r="J20" s="319">
+        <v>300</v>
+      </c>
+      <c r="K20" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="L20" s="319">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="421" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" s="421"/>
+      <c r="H21" s="399"/>
+      <c r="I21" s="105" t="s">
+        <v>339</v>
+      </c>
+      <c r="J21" s="319">
+        <v>300</v>
+      </c>
+      <c r="K21" s="85" t="s">
+        <v>343</v>
+      </c>
+      <c r="L21" s="319">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="407" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" s="420">
+        <f>SUMPRODUCT(C4:E6,C12:E14)</f>
+        <v>3900</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H17:I17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -24941,23 +25810,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328" t="s">
+      <c r="B1" s="353"/>
+      <c r="C1" s="353" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="328"/>
-      <c r="E1" s="329" t="s">
+      <c r="D1" s="353"/>
+      <c r="E1" s="354" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="328"/>
+      <c r="F1" s="353"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="330" t="s">
+      <c r="H1" s="355" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="331"/>
+      <c r="I1" s="356"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -25092,10 +25961,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="328" t="s">
+      <c r="H6" s="353" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="328"/>
+      <c r="I6" s="353"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -25377,26 +26246,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="361" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
+      <c r="B3" s="362"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="338" t="s">
+      <c r="A4" s="363" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="339"/>
+      <c r="B4" s="349"/>
+      <c r="C4" s="349"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="364"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -25408,15 +26277,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="340" t="s">
+      <c r="A6" s="365" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="341"/>
-      <c r="C6" s="341"/>
-      <c r="D6" s="341"/>
-      <c r="E6" s="341"/>
-      <c r="F6" s="341"/>
-      <c r="G6" s="342"/>
+      <c r="B6" s="366"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
+      <c r="G6" s="367"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -25428,34 +26297,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="343" t="s">
+      <c r="A8" s="368" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="344"/>
-      <c r="C8" s="344"/>
-      <c r="D8" s="344"/>
-      <c r="E8" s="344"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="345"/>
+      <c r="B8" s="369"/>
+      <c r="C8" s="369"/>
+      <c r="D8" s="369"/>
+      <c r="E8" s="369"/>
+      <c r="F8" s="369"/>
+      <c r="G8" s="370"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="346" t="s">
+      <c r="A9" s="371" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="347"/>
-      <c r="C9" s="347"/>
-      <c r="D9" s="347"/>
-      <c r="E9" s="347"/>
-      <c r="F9" s="347"/>
-      <c r="G9" s="348"/>
+      <c r="B9" s="372"/>
+      <c r="C9" s="372"/>
+      <c r="D9" s="372"/>
+      <c r="E9" s="372"/>
+      <c r="F9" s="372"/>
+      <c r="G9" s="373"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="333" t="s">
+      <c r="E11" s="358" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="333"/>
-      <c r="G11" s="333"/>
+      <c r="F11" s="358"/>
+      <c r="G11" s="358"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -25470,10 +26339,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="332" t="s">
+      <c r="F12" s="357" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="332"/>
+      <c r="G12" s="357"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -25694,10 +26563,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="334" t="s">
+      <c r="B24" s="359" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="335"/>
+      <c r="C24" s="360"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -25924,17 +26793,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="350" t="s">
+      <c r="F2" s="375" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="350"/>
-      <c r="H2" s="350"/>
-      <c r="I2" s="350"/>
-      <c r="J2" s="350"/>
-      <c r="K2" s="350"/>
-      <c r="L2" s="350"/>
-      <c r="M2" s="350"/>
-      <c r="N2" s="350"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
+      <c r="I2" s="375"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="375"/>
+      <c r="L2" s="375"/>
+      <c r="M2" s="375"/>
+      <c r="N2" s="375"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -26115,10 +26984,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="349" t="s">
+      <c r="F10" s="374" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="331"/>
+      <c r="G10" s="356"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -26876,10 +27745,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="376" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="352"/>
+      <c r="B1" s="377"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -26933,22 +27802,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="353" t="s">
+      <c r="A9" s="378" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="354"/>
-      <c r="C9" s="354"/>
-      <c r="D9" s="354"/>
-      <c r="E9" s="354"/>
-      <c r="F9" s="354"/>
-      <c r="G9" s="354"/>
-      <c r="H9" s="354"/>
-      <c r="I9" s="354"/>
-      <c r="J9" s="354"/>
-      <c r="K9" s="354"/>
-      <c r="L9" s="354"/>
-      <c r="M9" s="354"/>
-      <c r="N9" s="355"/>
+      <c r="B9" s="379"/>
+      <c r="C9" s="379"/>
+      <c r="D9" s="379"/>
+      <c r="E9" s="379"/>
+      <c r="F9" s="379"/>
+      <c r="G9" s="379"/>
+      <c r="H9" s="379"/>
+      <c r="I9" s="379"/>
+      <c r="J9" s="379"/>
+      <c r="K9" s="379"/>
+      <c r="L9" s="379"/>
+      <c r="M9" s="379"/>
+      <c r="N9" s="380"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -27279,16 +28148,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="356" t="s">
+      <c r="A40" s="381" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="318"/>
-      <c r="C40" s="318"/>
-      <c r="D40" s="318"/>
-      <c r="E40" s="318"/>
-      <c r="F40" s="318"/>
-      <c r="G40" s="318"/>
-      <c r="H40" s="318"/>
+      <c r="B40" s="343"/>
+      <c r="C40" s="343"/>
+      <c r="D40" s="343"/>
+      <c r="E40" s="343"/>
+      <c r="F40" s="343"/>
+      <c r="G40" s="343"/>
+      <c r="H40" s="343"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -28,187 +28,255 @@
     <sheet name="example LP" sheetId="20" r:id="rId14"/>
     <sheet name="variants LP" sheetId="21" r:id="rId15"/>
     <sheet name="more variants LP" sheetId="22" r:id="rId16"/>
-    <sheet name="Hoja1" sheetId="23" r:id="rId17"/>
+    <sheet name="example 2 LP" sheetId="23" r:id="rId17"/>
+    <sheet name="example 3 LP" sheetId="24" r:id="rId18"/>
+    <sheet name="example 4 LP" sheetId="25" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="16" hidden="1">'example 2 LP'!$B$2:$P$2</definedName>
+    <definedName name="solver_adj" localSheetId="17" hidden="1">'example 3 LP'!$B$3:$K$3</definedName>
+    <definedName name="solver_adj" localSheetId="18" hidden="1">'example 4 LP'!$B$9:$C$9</definedName>
     <definedName name="solver_adj" localSheetId="12" hidden="1">'example linear programming'!$B$4:$C$4</definedName>
     <definedName name="solver_adj" localSheetId="13" hidden="1">'example LP'!$B$2:$C$2</definedName>
-    <definedName name="solver_adj" localSheetId="16" hidden="1">Hoja1!$B$2:$P$2</definedName>
     <definedName name="solver_adj" localSheetId="15" hidden="1">'more variants LP'!$B$2:$F$2</definedName>
     <definedName name="solver_adj" localSheetId="14" hidden="1">'variants LP'!$B$2:$C$2</definedName>
+    <definedName name="solver_cvg" localSheetId="16" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="17" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="18" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="16" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="14" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="17" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="17" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="17" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="16" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="17" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs0" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
+    <definedName name="solver_lhs1" localSheetId="16" hidden="1">'example 2 LP'!$Q$13:$Q$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="17" hidden="1">'example 3 LP'!$L$10:$L$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">'example linear programming'!$D$13</definedName>
     <definedName name="solver_lhs1" localSheetId="13" hidden="1">'example LP'!$D$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="16" hidden="1">Hoja1!$Q$13:$Q$17</definedName>
     <definedName name="solver_lhs1" localSheetId="15" hidden="1">'more variants LP'!$G$12</definedName>
     <definedName name="solver_lhs1" localSheetId="14" hidden="1">'variants LP'!$D$15:$D$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="16" hidden="1">'example 2 LP'!$Q$18:$Q$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">'example linear programming'!$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="13" hidden="1">'example LP'!$D$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="16" hidden="1">Hoja1!$Q$18:$Q$20</definedName>
     <definedName name="solver_lhs2" localSheetId="15" hidden="1">'more variants LP'!$G$13</definedName>
     <definedName name="solver_lhs3" localSheetId="12" hidden="1">'example linear programming'!$D$15</definedName>
     <definedName name="solver_lhs3" localSheetId="15" hidden="1">'more variants LP'!$G$14</definedName>
     <definedName name="solver_lhs4" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
     <definedName name="solver_lhs4" localSheetId="15" hidden="1">'more variants LP'!$G$15</definedName>
     <definedName name="solver_lhs5" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
+    <definedName name="solver_mip" localSheetId="16" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="17" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="16" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="17" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="18" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="16" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="14" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="16" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="17" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="18" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="16" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="14" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="17" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="17" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="16" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="17" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="17" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="12" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="13" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="15" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="17" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="16" hidden="1">'example 2 LP'!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="17" hidden="1">'example 3 LP'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="18" hidden="1">'example 4 LP'!$B$12</definedName>
     <definedName name="solver_opt" localSheetId="12" hidden="1">'example linear programming'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="13" hidden="1">'example LP'!$B$6</definedName>
-    <definedName name="solver_opt" localSheetId="16" hidden="1">Hoja1!$B$8</definedName>
     <definedName name="solver_opt" localSheetId="15" hidden="1">'more variants LP'!$B$5</definedName>
     <definedName name="solver_opt" localSheetId="14" hidden="1">'variants LP'!$D$11</definedName>
+    <definedName name="solver_pre" localSheetId="16" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="17" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="18" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="16" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="14" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="17" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_rel0" localSheetId="18" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="17" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="12" hidden="1">3</definedName>
+    <definedName name="solver_rhs0" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="16" hidden="1">'example 2 LP'!$S$13:$S$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="17" hidden="1">'example 3 LP'!$N$10:$N$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">'example linear programming'!$F$13</definedName>
     <definedName name="solver_rhs1" localSheetId="13" hidden="1">'example LP'!$F$10</definedName>
-    <definedName name="solver_rhs1" localSheetId="16" hidden="1">Hoja1!$S$13:$S$17</definedName>
     <definedName name="solver_rhs1" localSheetId="15" hidden="1">'more variants LP'!$I$12</definedName>
     <definedName name="solver_rhs1" localSheetId="14" hidden="1">'variants LP'!$F$15:$F$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="16" hidden="1">'example 2 LP'!$S$18:$S$20</definedName>
+    <definedName name="solver_rhs2" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">'example linear programming'!$F$14</definedName>
     <definedName name="solver_rhs2" localSheetId="13" hidden="1">'example LP'!$F$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="16" hidden="1">Hoja1!$S$18:$S$20</definedName>
     <definedName name="solver_rhs2" localSheetId="15" hidden="1">'more variants LP'!$I$13</definedName>
     <definedName name="solver_rhs3" localSheetId="12" hidden="1">'example linear programming'!$F$15</definedName>
     <definedName name="solver_rhs3" localSheetId="15" hidden="1">'more variants LP'!$I$14</definedName>
     <definedName name="solver_rhs4" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
     <definedName name="solver_rhs4" localSheetId="15" hidden="1">'more variants LP'!$I$15</definedName>
     <definedName name="solver_rhs5" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
+    <definedName name="solver_rlx" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="17" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="16" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="17" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="18" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="14" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="17" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="17" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="16" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="17" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="18" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="16" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="14" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="16" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="17" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="16" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="17" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="18" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="16" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="15" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="14" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="17" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="16" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="17" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="18" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="14" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="16" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="17" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="18" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="16" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="14" hidden="1">3</definedName>
   </definedNames>
@@ -257,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="320">
   <si>
     <t>YEAR code</t>
   </si>
@@ -1515,6 +1583,152 @@
   <si>
     <t>capacity/school E</t>
   </si>
+  <si>
+    <t>contrato 1 año</t>
+  </si>
+  <si>
+    <t>despido 1 año</t>
+  </si>
+  <si>
+    <t>contrato 2 año</t>
+  </si>
+  <si>
+    <t>despido 2 año</t>
+  </si>
+  <si>
+    <t>contrato 3 año</t>
+  </si>
+  <si>
+    <t>despido 3 año</t>
+  </si>
+  <si>
+    <t>contrato 4 año</t>
+  </si>
+  <si>
+    <t>despido 4 año</t>
+  </si>
+  <si>
+    <t>contrato 5 año</t>
+  </si>
+  <si>
+    <t>despido 5 año</t>
+  </si>
+  <si>
+    <t>Objetive 
+(min total cost):</t>
+  </si>
+  <si>
+    <t>Año 1</t>
+  </si>
+  <si>
+    <t>Año 2</t>
+  </si>
+  <si>
+    <t>Año 3</t>
+  </si>
+  <si>
+    <t>Año 4</t>
+  </si>
+  <si>
+    <t>Año 5</t>
+  </si>
+  <si>
+    <t>SOCCER BALLS</t>
+  </si>
+  <si>
+    <t>BASKETBALL</t>
+  </si>
+  <si>
+    <t>Objetive (max)
+DAILY PROFIT::</t>
+  </si>
+  <si>
+    <t>factory
+machine time</t>
+  </si>
+  <si>
+    <t>factory
+worker´s time</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>Objetive (max)
+VPN ok projects</t>
+  </si>
+  <si>
+    <t>Contraints</t>
+  </si>
+  <si>
+    <t>Capex (1+2+3years)</t>
+  </si>
+  <si>
+    <t>Proyect 1</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>Project 3</t>
+  </si>
+  <si>
+    <t>Project 4</t>
+  </si>
+  <si>
+    <t>Project 5</t>
+  </si>
+  <si>
+    <t>Project 6</t>
+  </si>
+  <si>
+    <t>Project 7</t>
+  </si>
+  <si>
+    <t>Project 8</t>
+  </si>
+  <si>
+    <t>Project 9</t>
+  </si>
+  <si>
+    <t>Project 10</t>
+  </si>
+  <si>
+    <t>Project 11</t>
+  </si>
+  <si>
+    <t>Project 12</t>
+  </si>
+  <si>
+    <t>PART 2</t>
+  </si>
+  <si>
+    <t>Manager 1</t>
+  </si>
+  <si>
+    <t>Manager 2</t>
+  </si>
+  <si>
+    <t>Manager 3</t>
+  </si>
+  <si>
+    <t>Manager 4</t>
+  </si>
+  <si>
+    <t>Manager 5</t>
+  </si>
+  <si>
+    <t>Manager 6</t>
+  </si>
+  <si>
+    <t>Manager 7</t>
+  </si>
+  <si>
+    <t>Manager 8</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
 </sst>
 </file>
 
@@ -1532,7 +1746,7 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1908,8 +2122,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Var(--cds-font-family-source-sa"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2030,8 +2249,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2824,6 +3055,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2832,7 +3074,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3471,6 +3713,46 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3651,26 +3933,57 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="22" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3681,7 +3994,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5551,6 +5904,656 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Nº</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> students/ school</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6534558180227455E-2"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'example 2 LP'!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>AB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EE</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>EC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'example 2 LP'!$B$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F81-4B9A-A25E-4A2780E1F83F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6275,6 +7278,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6682,6 +7686,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6763,6 +7768,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7077,6 +8083,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7379,6 +8386,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7722,6 +8730,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8011,6 +9020,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8131,6 +9141,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8205,6 +9216,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8329,6 +9341,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8477,6 +9490,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8602,6 +9616,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9227,6 +10242,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10646,6 +11701,525 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -15407,16 +16981,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>232785</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>58080</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>407023</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>232784</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152160</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685803</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>70849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15433,7 +17007,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3601383" y="4925123"/>
+          <a:off x="407023" y="4286251"/>
           <a:ext cx="6133170" cy="3253592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15473,6 +17047,122 @@
         <a:xfrm>
           <a:off x="0" y="415183"/>
           <a:ext cx="1057275" cy="1080427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246256</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218378</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146127</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295638</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133351" y="3409950"/>
+          <a:ext cx="9430112" cy="2019654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="57151"/>
+          <a:ext cx="10334625" cy="1259124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16158,6 +17848,82 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>86322</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16516947" y="6243481"/>
+          <a:ext cx="7327304" cy="2360768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>56087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>13205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27209749" y="11819462"/>
+          <a:ext cx="9080501" cy="6878618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16798,8 +18564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:N12"/>
+    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16841,25 +18607,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="347" t="s">
+      <c r="G1" s="361" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="348"/>
-      <c r="I1" s="348"/>
-      <c r="J1" s="348"/>
-      <c r="K1" s="348"/>
-      <c r="L1" s="348"/>
-      <c r="M1" s="348"/>
-      <c r="N1" s="348"/>
-      <c r="O1" s="348"/>
-      <c r="P1" s="348"/>
-      <c r="Q1" s="348"/>
-      <c r="R1" s="348"/>
-      <c r="S1" s="348"/>
-      <c r="T1" s="348"/>
-      <c r="U1" s="348"/>
-      <c r="V1" s="348"/>
-      <c r="W1" s="349"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
+      <c r="N1" s="362"/>
+      <c r="O1" s="362"/>
+      <c r="P1" s="362"/>
+      <c r="Q1" s="362"/>
+      <c r="R1" s="362"/>
+      <c r="S1" s="362"/>
+      <c r="T1" s="362"/>
+      <c r="U1" s="362"/>
+      <c r="V1" s="362"/>
+      <c r="W1" s="363"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -17830,9 +19596,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="350"/>
-      <c r="L16" s="350"/>
-      <c r="M16" s="350"/>
+      <c r="K16" s="364"/>
+      <c r="L16" s="364"/>
+      <c r="M16" s="364"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -17862,9 +19628,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="350"/>
-      <c r="L17" s="350"/>
-      <c r="M17" s="350"/>
+      <c r="K17" s="364"/>
+      <c r="L17" s="364"/>
+      <c r="M17" s="364"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -17880,10 +19646,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="344" t="s">
+      <c r="Y17" s="358" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="345"/>
+      <c r="Z17" s="359"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -17920,11 +19686,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="343" t="s">
+      <c r="G23" s="357" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="343"/>
-      <c r="I23" s="343"/>
+      <c r="H23" s="357"/>
+      <c r="I23" s="357"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -17932,11 +19698,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="346" t="s">
+      <c r="G24" s="360" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="346"/>
-      <c r="I24" s="346"/>
+      <c r="H24" s="360"/>
+      <c r="I24" s="360"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -17997,10 +19763,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="O61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18015,27 +19781,32 @@
     <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="367" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="368"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -18092,10 +19863,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="355" t="s">
+      <c r="M3" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="355"/>
+      <c r="N3" s="369"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -18314,10 +20085,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="356" t="s">
+      <c r="M9" s="370" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="357"/>
+      <c r="N9" s="371"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -18582,16 +20353,16 @@
       <c r="Q16" s="65"/>
       <c r="R16" s="65"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75">
+    <row r="17" spans="1:19" ht="15.75">
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="358" t="s">
+      <c r="D17" s="372" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="358"/>
-      <c r="F17" s="358"/>
-      <c r="G17" s="358"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="372"/>
+      <c r="G17" s="372"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -18609,7 +20380,7 @@
       <c r="Q17" s="65"/>
       <c r="R17" s="65"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75">
+    <row r="18" spans="1:19" ht="15.75">
       <c r="A18" s="235" t="s">
         <v>101</v>
       </c>
@@ -18656,7 +20427,7 @@
       <c r="Q18" s="65"/>
       <c r="R18" s="65"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="239">
         <v>1</v>
       </c>
@@ -18705,7 +20476,7 @@
       <c r="Q19" s="65"/>
       <c r="R19" s="65"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75">
+    <row r="20" spans="1:19" ht="15.75">
       <c r="A20" s="239">
         <v>2</v>
       </c>
@@ -18759,7 +20530,7 @@
       <c r="Q20" s="65"/>
       <c r="R20" s="65"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="239">
         <v>3</v>
       </c>
@@ -18808,7 +20579,7 @@
       <c r="Q21" s="65"/>
       <c r="R21" s="65"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="239">
         <v>4</v>
       </c>
@@ -18857,7 +20628,7 @@
       <c r="Q22" s="65"/>
       <c r="R22" s="65"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" s="239">
         <v>5</v>
       </c>
@@ -18906,7 +20677,7 @@
       <c r="Q23" s="65"/>
       <c r="R23" s="65"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75">
+    <row r="24" spans="1:19" ht="15.75">
       <c r="A24" s="65"/>
       <c r="B24" s="65"/>
       <c r="C24" s="246" t="s">
@@ -18935,14 +20706,14 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="314" t="s">
+      <c r="O24" s="328" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="314"/>
-      <c r="Q24" s="314"/>
+      <c r="P24" s="328"/>
+      <c r="Q24" s="328"/>
       <c r="R24" s="65"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19">
       <c r="A25" s="65"/>
       <c r="B25" s="65"/>
       <c r="C25" s="65"/>
@@ -18968,7 +20739,7 @@
       </c>
       <c r="R25" s="65"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19">
       <c r="A26" s="239">
         <v>6</v>
       </c>
@@ -19010,7 +20781,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="351" t="s">
+      <c r="M26" s="365" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -19030,7 +20801,7 @@
       </c>
       <c r="R26" s="65"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:19">
       <c r="A27" s="239">
         <v>7</v>
       </c>
@@ -19072,7 +20843,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="351"/>
+      <c r="M27" s="365"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -19090,7 +20861,7 @@
       </c>
       <c r="R27" s="65"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19">
       <c r="A28" s="239">
         <v>8</v>
       </c>
@@ -19132,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="351"/>
+      <c r="M28" s="365"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -19150,7 +20921,7 @@
       </c>
       <c r="R28" s="65"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19">
       <c r="A29" s="239">
         <v>9</v>
       </c>
@@ -19199,7 +20970,7 @@
       <c r="Q29" s="65"/>
       <c r="R29" s="65"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75">
+    <row r="30" spans="1:19" ht="16.5" thickBot="1">
       <c r="A30" s="65"/>
       <c r="B30" s="65"/>
       <c r="C30" s="246" t="s">
@@ -19233,7 +21004,7 @@
       <c r="Q30" s="65"/>
       <c r="R30" s="65"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
@@ -19246,14 +21017,15 @@
       <c r="J31" s="65"/>
       <c r="K31" s="234"/>
       <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="M31" s="384"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="107"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="239">
         <v>10</v>
       </c>
@@ -19295,14 +21067,15 @@
         <v>0</v>
       </c>
       <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
+      <c r="M32" s="135"/>
       <c r="N32" s="42"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="46"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="239">
         <v>11</v>
       </c>
@@ -19344,14 +21117,15 @@
         <v>1</v>
       </c>
       <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
+      <c r="M33" s="135"/>
       <c r="N33" s="42"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="46"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="239">
         <v>12</v>
       </c>
@@ -19393,14 +21167,15 @@
         <v>1</v>
       </c>
       <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75">
+      <c r="M34" s="135"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="46"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
       <c r="C35" s="246" t="s">
@@ -19427,14 +21202,15 @@
       <c r="J35" s="65"/>
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="M35" s="135"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="46"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -19447,14 +21223,15 @@
       <c r="J36" s="65"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75">
+      <c r="M36" s="135"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="46"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75">
       <c r="A37" s="65"/>
       <c r="B37" s="65"/>
       <c r="C37" s="65"/>
@@ -19477,14 +21254,15 @@
       <c r="J37" s="65"/>
       <c r="K37" s="65"/>
       <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75">
+      <c r="M37" s="135"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="46"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75">
       <c r="A38" s="65"/>
       <c r="B38" s="65"/>
       <c r="C38" s="246" t="s">
@@ -19514,14 +21292,15 @@
       <c r="J38" s="65"/>
       <c r="K38" s="65"/>
       <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="M38" s="135"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="46"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="65"/>
       <c r="B39" s="65"/>
       <c r="C39" s="65"/>
@@ -19534,36 +21313,38 @@
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75">
+      <c r="M39" s="135"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="46"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.75">
       <c r="A40" s="65"/>
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="352" t="s">
+      <c r="E40" s="366" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="352"/>
-      <c r="G40" s="352"/>
+      <c r="F40" s="366"/>
+      <c r="G40" s="366"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.75">
+      <c r="M40" s="135"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="46"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.75">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
       <c r="C41" s="65"/>
@@ -19584,14 +21365,15 @@
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.75">
+      <c r="M41" s="135"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="46"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.75">
       <c r="A42" s="65"/>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
@@ -19613,14 +21395,15 @@
       <c r="J42" s="65"/>
       <c r="K42" s="65"/>
       <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="M42" s="135"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="46"/>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="65"/>
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
@@ -19641,14 +21424,15 @@
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="M43" s="135"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="46"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" thickBot="1">
       <c r="A44" s="65"/>
       <c r="B44" s="65"/>
       <c r="C44" s="65"/>
@@ -19669,14 +21453,15 @@
       <c r="J44" s="65"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="M44" s="137"/>
+      <c r="N44" s="138"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="138"/>
+      <c r="R44" s="138"/>
+      <c r="S44" s="139"/>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="65"/>
       <c r="B45" s="65"/>
       <c r="C45" s="65"/>
@@ -19704,7 +21489,7 @@
       <c r="Q45" s="65"/>
       <c r="R45" s="65"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:24">
       <c r="A46" s="65"/>
       <c r="B46" s="65"/>
       <c r="C46" s="65"/>
@@ -19732,7 +21517,7 @@
       <c r="Q46" s="65"/>
       <c r="R46" s="65"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:24" ht="15.75" thickBot="1">
       <c r="A47" s="65"/>
       <c r="B47" s="65"/>
       <c r="C47" s="65"/>
@@ -19752,7 +21537,6 @@
       <c r="I47" s="65"/>
       <c r="J47" s="65"/>
       <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
       <c r="M47" s="65"/>
       <c r="N47" s="65"/>
       <c r="O47" s="65"/>
@@ -19760,7 +21544,7 @@
       <c r="Q47" s="65"/>
       <c r="R47" s="65"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:24" ht="16.5" thickBot="1">
       <c r="A48" s="65"/>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -19780,15 +21564,47 @@
       <c r="I48" s="65"/>
       <c r="J48" s="65"/>
       <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="L48" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="M48" s="309" t="s">
+        <v>298</v>
+      </c>
+      <c r="N48" s="309" t="s">
+        <v>299</v>
+      </c>
+      <c r="O48" s="309" t="s">
+        <v>300</v>
+      </c>
+      <c r="P48" s="237" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q48" s="237" t="s">
+        <v>302</v>
+      </c>
+      <c r="R48" s="237" t="s">
+        <v>303</v>
+      </c>
+      <c r="S48" s="237" t="s">
+        <v>304</v>
+      </c>
+      <c r="T48" s="237" t="s">
+        <v>305</v>
+      </c>
+      <c r="U48" s="237" t="s">
+        <v>306</v>
+      </c>
+      <c r="V48" s="237" t="s">
+        <v>307</v>
+      </c>
+      <c r="W48" s="237" t="s">
+        <v>308</v>
+      </c>
+      <c r="X48" s="309" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="65"/>
       <c r="B49" s="65"/>
       <c r="C49" s="65"/>
@@ -19809,12 +21625,640 @@
       <c r="J49" s="65"/>
       <c r="K49" s="65"/>
       <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
+      <c r="M49" s="391">
+        <v>0</v>
+      </c>
+      <c r="N49" s="391">
+        <v>1</v>
+      </c>
+      <c r="O49" s="391">
+        <v>1</v>
+      </c>
+      <c r="P49" s="388">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="388">
+        <v>1</v>
+      </c>
+      <c r="R49" s="388">
+        <v>1</v>
+      </c>
+      <c r="S49" s="388">
+        <v>1</v>
+      </c>
+      <c r="T49" s="388">
+        <v>0</v>
+      </c>
+      <c r="U49" s="388">
+        <v>1</v>
+      </c>
+      <c r="V49" s="388">
+        <v>0</v>
+      </c>
+      <c r="W49" s="388">
+        <v>1</v>
+      </c>
+      <c r="X49" s="388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="M50">
+        <v>53</v>
+      </c>
+      <c r="N50">
+        <v>158</v>
+      </c>
+      <c r="O50">
+        <v>70</v>
+      </c>
+      <c r="P50">
+        <v>273</v>
+      </c>
+      <c r="Q50">
+        <v>194</v>
+      </c>
+      <c r="R50">
+        <v>158</v>
+      </c>
+      <c r="S50">
+        <v>361</v>
+      </c>
+      <c r="T50">
+        <v>246</v>
+      </c>
+      <c r="U50">
+        <v>334</v>
+      </c>
+      <c r="V50">
+        <v>88</v>
+      </c>
+      <c r="W50">
+        <v>229</v>
+      </c>
+      <c r="X50">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" thickBot="1"/>
+    <row r="52" spans="1:27" ht="30.75" thickBot="1">
+      <c r="L52" s="385" t="s">
+        <v>295</v>
+      </c>
+      <c r="M52" s="386">
+        <f>SUMPRODUCT(M49:X49,M50:X50)</f>
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" thickBot="1"/>
+    <row r="54" spans="1:27" ht="15.75" thickBot="1">
+      <c r="L54" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="Y54" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z54" s="308" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA54" s="308" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="L55" s="387" t="s">
+        <v>297</v>
+      </c>
+      <c r="M55" s="308">
+        <v>1</v>
+      </c>
+      <c r="N55" s="308">
+        <v>1</v>
+      </c>
+      <c r="O55" s="308">
+        <v>1</v>
+      </c>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="308"/>
+      <c r="Z55" s="308" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA55" s="308">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="L56" s="306"/>
+      <c r="M56" s="308"/>
+      <c r="N56" s="308"/>
+      <c r="O56" s="308"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="308"/>
+      <c r="Z56" s="308" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA56" s="308">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="L57" s="308"/>
+      <c r="M57" s="308"/>
+      <c r="N57" s="308"/>
+      <c r="O57" s="308"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="308"/>
+      <c r="Z57" s="308"/>
+      <c r="AA57" s="308"/>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="L58" s="307"/>
+      <c r="M58" s="307"/>
+      <c r="N58" s="307"/>
+      <c r="O58" s="307"/>
+      <c r="P58" s="307"/>
+      <c r="Q58" s="307"/>
+      <c r="R58" s="307"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" thickBot="1"/>
+    <row r="60" spans="1:27" ht="15.75" thickBot="1">
+      <c r="L60" s="392" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" thickBot="1"/>
+    <row r="62" spans="1:27" ht="15.75">
+      <c r="L62" s="384" t="s">
+        <v>294</v>
+      </c>
+      <c r="M62" s="389" t="s">
+        <v>311</v>
+      </c>
+      <c r="N62" s="389" t="s">
+        <v>312</v>
+      </c>
+      <c r="O62" s="389" t="s">
+        <v>313</v>
+      </c>
+      <c r="P62" s="389" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q62" s="389" t="s">
+        <v>315</v>
+      </c>
+      <c r="R62" s="389" t="s">
+        <v>316</v>
+      </c>
+      <c r="S62" s="389" t="s">
+        <v>317</v>
+      </c>
+      <c r="T62" s="390" t="s">
+        <v>318</v>
+      </c>
+      <c r="U62" s="393"/>
+      <c r="V62" s="393"/>
+      <c r="W62" s="393"/>
+      <c r="X62" s="393"/>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="L63" s="397" t="s">
+        <v>319</v>
+      </c>
+      <c r="M63" s="398">
+        <v>1</v>
+      </c>
+      <c r="N63" s="399">
+        <v>1</v>
+      </c>
+      <c r="O63" s="399">
+        <v>1</v>
+      </c>
+      <c r="P63" s="399">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="399">
+        <v>1</v>
+      </c>
+      <c r="R63" s="399">
+        <v>0</v>
+      </c>
+      <c r="S63" s="399">
+        <v>0</v>
+      </c>
+      <c r="T63" s="399">
+        <v>0</v>
+      </c>
+      <c r="U63" s="395"/>
+      <c r="V63" s="395"/>
+      <c r="W63" s="395"/>
+      <c r="X63" s="395"/>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="L64" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="M64" s="304">
+        <v>1</v>
+      </c>
+      <c r="N64" s="304">
+        <v>1</v>
+      </c>
+      <c r="O64" s="304">
+        <v>1</v>
+      </c>
+      <c r="P64" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="304">
+        <v>0</v>
+      </c>
+      <c r="R64" s="304">
+        <v>1</v>
+      </c>
+      <c r="S64" s="304">
+        <v>0</v>
+      </c>
+      <c r="T64" s="304">
+        <v>1</v>
+      </c>
+      <c r="U64" s="394"/>
+      <c r="V64" s="394"/>
+      <c r="W64" s="394"/>
+      <c r="X64" s="394"/>
+    </row>
+    <row r="65" spans="12:20">
+      <c r="L65" s="397" t="s">
+        <v>300</v>
+      </c>
+      <c r="M65" s="400">
+        <v>1</v>
+      </c>
+      <c r="N65" s="304">
+        <v>0</v>
+      </c>
+      <c r="O65" s="304">
+        <v>0</v>
+      </c>
+      <c r="P65" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="304">
+        <v>1</v>
+      </c>
+      <c r="R65" s="304">
+        <v>1</v>
+      </c>
+      <c r="S65" s="304">
+        <v>0</v>
+      </c>
+      <c r="T65" s="304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="12:20">
+      <c r="L66" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="M66" s="304">
+        <v>0</v>
+      </c>
+      <c r="N66" s="304">
+        <v>1</v>
+      </c>
+      <c r="O66" s="304">
+        <v>0</v>
+      </c>
+      <c r="P66" s="304">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="304">
+        <v>1</v>
+      </c>
+      <c r="R66" s="304">
+        <v>1</v>
+      </c>
+      <c r="S66" s="304">
+        <v>1</v>
+      </c>
+      <c r="T66" s="304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="12:20">
+      <c r="L67" s="397" t="s">
+        <v>302</v>
+      </c>
+      <c r="M67" s="400">
+        <v>1</v>
+      </c>
+      <c r="N67" s="304">
+        <v>1</v>
+      </c>
+      <c r="O67" s="304">
+        <v>1</v>
+      </c>
+      <c r="P67" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="304">
+        <v>1</v>
+      </c>
+      <c r="R67" s="304">
+        <v>1</v>
+      </c>
+      <c r="S67" s="304">
+        <v>1</v>
+      </c>
+      <c r="T67" s="304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="12:20">
+      <c r="L68" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="M68" s="304">
+        <v>1</v>
+      </c>
+      <c r="N68" s="304">
+        <v>1</v>
+      </c>
+      <c r="O68" s="304">
+        <v>1</v>
+      </c>
+      <c r="P68" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="304">
+        <v>1</v>
+      </c>
+      <c r="R68" s="304">
+        <v>1</v>
+      </c>
+      <c r="S68" s="304">
+        <v>1</v>
+      </c>
+      <c r="T68" s="304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="12:20">
+      <c r="L69" s="397" t="s">
+        <v>304</v>
+      </c>
+      <c r="M69" s="400">
+        <v>1</v>
+      </c>
+      <c r="N69" s="304">
+        <v>1</v>
+      </c>
+      <c r="O69" s="304">
+        <v>1</v>
+      </c>
+      <c r="P69" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="304">
+        <v>1</v>
+      </c>
+      <c r="R69" s="304">
+        <v>1</v>
+      </c>
+      <c r="S69" s="304">
+        <v>0</v>
+      </c>
+      <c r="T69" s="304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="12:20">
+      <c r="L70" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="M70" s="304">
+        <v>1</v>
+      </c>
+      <c r="N70" s="304">
+        <v>1</v>
+      </c>
+      <c r="O70" s="304">
+        <v>1</v>
+      </c>
+      <c r="P70" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="304">
+        <v>0</v>
+      </c>
+      <c r="R70" s="304">
+        <v>1</v>
+      </c>
+      <c r="S70" s="304">
+        <v>1</v>
+      </c>
+      <c r="T70" s="304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="12:20">
+      <c r="L71" s="397" t="s">
+        <v>306</v>
+      </c>
+      <c r="M71" s="400">
+        <v>1</v>
+      </c>
+      <c r="N71" s="304">
+        <v>1</v>
+      </c>
+      <c r="O71" s="304">
+        <v>1</v>
+      </c>
+      <c r="P71" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="304">
+        <v>0</v>
+      </c>
+      <c r="R71" s="304">
+        <v>0</v>
+      </c>
+      <c r="S71" s="304">
+        <v>0</v>
+      </c>
+      <c r="T71" s="304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="12:20">
+      <c r="L72" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M72" s="304">
+        <v>1</v>
+      </c>
+      <c r="N72" s="304">
+        <v>1</v>
+      </c>
+      <c r="O72" s="304">
+        <v>1</v>
+      </c>
+      <c r="P72" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="304">
+        <v>0</v>
+      </c>
+      <c r="R72" s="304">
+        <v>1</v>
+      </c>
+      <c r="S72" s="304">
+        <v>1</v>
+      </c>
+      <c r="T72" s="304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="12:20">
+      <c r="L73" s="397" t="s">
+        <v>308</v>
+      </c>
+      <c r="M73" s="400">
+        <v>1</v>
+      </c>
+      <c r="N73" s="304">
+        <v>1</v>
+      </c>
+      <c r="O73" s="304">
+        <v>1</v>
+      </c>
+      <c r="P73" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="304">
+        <v>1</v>
+      </c>
+      <c r="R73" s="304">
+        <v>1</v>
+      </c>
+      <c r="S73" s="304">
+        <v>0</v>
+      </c>
+      <c r="T73" s="304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="12:20">
+      <c r="L74" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="M74" s="400">
+        <v>0</v>
+      </c>
+      <c r="N74" s="304">
+        <v>0</v>
+      </c>
+      <c r="O74" s="304">
+        <v>0</v>
+      </c>
+      <c r="P74" s="304">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="304">
+        <v>1</v>
+      </c>
+      <c r="R74" s="304">
+        <v>0</v>
+      </c>
+      <c r="S74" s="304">
+        <v>1</v>
+      </c>
+      <c r="T74" s="304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="12:20">
+      <c r="M76" s="396"/>
+    </row>
+    <row r="78" spans="12:20">
+      <c r="M78" s="396"/>
+    </row>
+    <row r="80" spans="12:20">
+      <c r="M80" s="396"/>
+    </row>
+    <row r="82" spans="13:13">
+      <c r="M82" s="396"/>
+    </row>
+    <row r="84" spans="13:13">
+      <c r="M84" s="396"/>
+    </row>
+    <row r="86" spans="13:13">
+      <c r="M86" s="396"/>
+    </row>
+    <row r="88" spans="13:13">
+      <c r="M88" s="396"/>
+    </row>
+    <row r="90" spans="13:13">
+      <c r="M90" s="396"/>
+    </row>
+    <row r="92" spans="13:13">
+      <c r="M92" s="396"/>
+    </row>
+    <row r="94" spans="13:13">
+      <c r="M94" s="396"/>
+    </row>
+    <row r="261" spans="13:13">
+      <c r="M261" s="396"/>
+    </row>
+    <row r="263" spans="13:13">
+      <c r="M263" s="396"/>
+    </row>
+    <row r="265" spans="13:13">
+      <c r="M265" s="396"/>
+    </row>
+    <row r="267" spans="13:13">
+      <c r="M267" s="396"/>
+    </row>
+    <row r="269" spans="13:13">
+      <c r="M269" s="396"/>
+    </row>
+    <row r="271" spans="13:13">
+      <c r="M271" s="396"/>
+    </row>
+    <row r="273" spans="13:13">
+      <c r="M273" s="396"/>
+    </row>
+    <row r="275" spans="13:13">
+      <c r="M275" s="396"/>
+    </row>
+    <row r="277" spans="13:13">
+      <c r="M277" s="396"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -19827,53 +22271,69 @@
     <mergeCell ref="D17:G17"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:N13">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N13">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H29 H32:H34">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>MIN($K$19:$K$29)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>MAX($K$19:$K$29)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:F38">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>4000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
       <formula>4000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:N20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+      <formula>10000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49:X49">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>4000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+      <formula>4000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N63:X63">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>4000</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
-      <formula>10000</formula>
+      <formula>4000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19902,7 +22362,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19915,12 +22375,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="333" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
       <c r="E1" s="65" t="s">
         <v>217</v>
       </c>
@@ -20111,19 +22571,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="359" t="s">
+      <c r="A20" s="373" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="359"/>
+      <c r="B20" s="373"/>
       <c r="C20" s="261">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="359" t="s">
+      <c r="A21" s="373" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="359"/>
+      <c r="B21" s="373"/>
       <c r="C21" s="12">
         <v>200</v>
       </c>
@@ -20138,10 +22598,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="359" t="s">
+      <c r="A22" s="373" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="359"/>
+      <c r="B22" s="373"/>
       <c r="C22" s="12">
         <v>500</v>
       </c>
@@ -20156,35 +22616,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="359" t="s">
+      <c r="A23" s="373" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="359"/>
-      <c r="C23" s="359"/>
-      <c r="D23" s="359"/>
-      <c r="E23" s="359"/>
+      <c r="B23" s="373"/>
+      <c r="C23" s="373"/>
+      <c r="D23" s="373"/>
+      <c r="E23" s="373"/>
       <c r="F23" s="12">
         <f>200*10+500*10</f>
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="359" t="s">
+      <c r="A24" s="373" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="359"/>
-      <c r="C24" s="359"/>
-      <c r="D24" s="359"/>
+      <c r="B24" s="373"/>
+      <c r="C24" s="373"/>
+      <c r="D24" s="373"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="360" t="s">
+      <c r="A26" s="374" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="360"/>
-      <c r="C26" s="360"/>
-      <c r="D26" s="360"/>
-      <c r="E26" s="360"/>
-      <c r="F26" s="360"/>
+      <c r="B26" s="374"/>
+      <c r="C26" s="374"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="374"/>
+      <c r="F26" s="374"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -20215,7 +22675,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20533,11 +22993,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="361" t="s">
+      <c r="A11" s="375" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="362"/>
-      <c r="C11" s="363"/>
+      <c r="B11" s="376"/>
+      <c r="C11" s="377"/>
       <c r="D11" s="285">
         <f>D5-D10</f>
         <v>353834</v>
@@ -20675,10 +23135,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="A11" sqref="A11:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20932,6 +23392,13 @@
       <c r="E21" s="65"/>
       <c r="I21" s="65"/>
     </row>
+    <row r="24" spans="5:9">
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20943,8 +23410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20954,49 +23421,49 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="65"/>
-      <c r="B1" s="364" t="s">
+      <c r="B1" s="310" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="364" t="s">
+      <c r="C1" s="310" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="364" t="s">
+      <c r="D1" s="310" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="365" t="s">
+      <c r="E1" s="311" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="365" t="s">
+      <c r="F1" s="311" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="365" t="s">
+      <c r="G1" s="311" t="s">
         <v>253</v>
       </c>
-      <c r="H1" s="365" t="s">
+      <c r="H1" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="365" t="s">
+      <c r="I1" s="311" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="365" t="s">
+      <c r="J1" s="311" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="365" t="s">
+      <c r="K1" s="311" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="365" t="s">
+      <c r="L1" s="311" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="365" t="s">
+      <c r="M1" s="311" t="s">
         <v>255</v>
       </c>
-      <c r="N1" s="365" t="s">
+      <c r="N1" s="311" t="s">
         <v>258</v>
       </c>
-      <c r="O1" s="365" t="s">
+      <c r="O1" s="311" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="365" t="s">
+      <c r="P1" s="311" t="s">
         <v>263</v>
       </c>
     </row>
@@ -21055,49 +23522,49 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="65"/>
-      <c r="B3" s="368">
+      <c r="B3" s="314">
         <v>5</v>
       </c>
-      <c r="C3" s="368">
+      <c r="C3" s="314">
         <v>8</v>
       </c>
-      <c r="D3" s="369">
+      <c r="D3" s="315">
         <v>6</v>
       </c>
-      <c r="E3" s="370">
+      <c r="E3" s="316">
         <v>0</v>
       </c>
-      <c r="F3" s="370">
+      <c r="F3" s="316">
         <v>4</v>
       </c>
-      <c r="G3" s="370">
+      <c r="G3" s="316">
         <v>12</v>
       </c>
-      <c r="H3" s="370">
+      <c r="H3" s="316">
         <v>0</v>
       </c>
-      <c r="I3" s="370">
+      <c r="I3" s="316">
         <v>4</v>
       </c>
-      <c r="J3" s="370">
+      <c r="J3" s="316">
         <v>7</v>
       </c>
-      <c r="K3" s="370">
+      <c r="K3" s="316">
         <v>2</v>
       </c>
-      <c r="L3" s="370">
+      <c r="L3" s="316">
         <v>7</v>
       </c>
-      <c r="M3" s="370">
+      <c r="M3" s="316">
         <v>5</v>
       </c>
-      <c r="N3" s="370">
+      <c r="N3" s="316">
         <v>0</v>
       </c>
-      <c r="O3" s="370">
+      <c r="O3" s="316">
         <v>12</v>
       </c>
-      <c r="P3" s="370">
+      <c r="P3" s="316">
         <v>7</v>
       </c>
     </row>
@@ -21140,7 +23607,7 @@
       <c r="A8" s="291" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="371">
+      <c r="B8" s="317">
         <f>SUMPRODUCT(B2:P2,B3:P3)</f>
         <v>5400</v>
       </c>
@@ -21175,7 +23642,7 @@
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="366" t="s">
+      <c r="A12" s="312" t="s">
         <v>246</v>
       </c>
       <c r="B12" s="288"/>
@@ -21193,13 +23660,13 @@
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
-      <c r="Q12" s="367" t="s">
+      <c r="Q12" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="R12" s="367" t="s">
+      <c r="R12" s="313" t="s">
         <v>200</v>
       </c>
-      <c r="S12" s="367" t="s">
+      <c r="S12" s="313" t="s">
         <v>201</v>
       </c>
     </row>
@@ -21510,6 +23977,486 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="30">
+      <c r="A2" s="65"/>
+      <c r="B2" s="310" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="310" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="310" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="310" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="310" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="310" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" s="310" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" s="310" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="310" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="269">
+        <v>10</v>
+      </c>
+      <c r="C3" s="269">
+        <v>0</v>
+      </c>
+      <c r="D3" s="269">
+        <v>10</v>
+      </c>
+      <c r="E3" s="269">
+        <v>0</v>
+      </c>
+      <c r="F3" s="269">
+        <v>0</v>
+      </c>
+      <c r="G3" s="269">
+        <v>20</v>
+      </c>
+      <c r="H3" s="269">
+        <v>15</v>
+      </c>
+      <c r="I3" s="269">
+        <v>0</v>
+      </c>
+      <c r="J3" s="269">
+        <v>10</v>
+      </c>
+      <c r="K3" s="269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="65"/>
+      <c r="B4" s="314">
+        <v>64000</v>
+      </c>
+      <c r="C4" s="314">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="314">
+        <v>14000</v>
+      </c>
+      <c r="E4" s="314">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="314">
+        <v>14000</v>
+      </c>
+      <c r="G4" s="314">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="314">
+        <v>14000</v>
+      </c>
+      <c r="I4" s="314">
+        <v>2000</v>
+      </c>
+      <c r="J4" s="314">
+        <v>14000</v>
+      </c>
+      <c r="K4" s="314">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="45">
+      <c r="A7" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="378">
+        <f>SUMPRODUCT(B3:K3,B4:K4)+50000</f>
+        <v>1220000</v>
+      </c>
+      <c r="C7" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B7)</f>
+        <v>=SUMAPRODUCTO(B3:K3;B4:K4)+50000</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="G8" s="168"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="312" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="307"/>
+      <c r="C9" s="307"/>
+      <c r="D9" s="307"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="313" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="313" t="s">
+        <v>200</v>
+      </c>
+      <c r="N9" s="313" t="s">
+        <v>201</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="306" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="308">
+        <v>1</v>
+      </c>
+      <c r="C10" s="308">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="308"/>
+      <c r="E10" s="308"/>
+      <c r="F10" s="308"/>
+      <c r="G10" s="308"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="308">
+        <f>SUMPRODUCT($B$3:$K$3,B10:K10) +50</f>
+        <v>60</v>
+      </c>
+      <c r="M10" s="308" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="308">
+        <v>60</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="306" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="308"/>
+      <c r="C11" s="308"/>
+      <c r="D11" s="308">
+        <v>1</v>
+      </c>
+      <c r="E11" s="308">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="308"/>
+      <c r="G11" s="308"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="308">
+        <f>SUMPRODUCT($B$3:$K$3,B11:K11)+N10</f>
+        <v>70</v>
+      </c>
+      <c r="M11" s="308" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="308">
+        <v>70</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="306" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="308"/>
+      <c r="C12" s="308"/>
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="308">
+        <v>1</v>
+      </c>
+      <c r="G12" s="308">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="308">
+        <f t="shared" ref="L12:L14" si="0">SUMPRODUCT($B$3:$K$3,B12:K12)+N11</f>
+        <v>50</v>
+      </c>
+      <c r="M12" s="308" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="308">
+        <v>50</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="306" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="308"/>
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="308"/>
+      <c r="G13" s="308"/>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="308">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="M13" s="308" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="308">
+        <v>65</v>
+      </c>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="306" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="308">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="M14" s="308" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="308">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="379"/>
+      <c r="B15" s="307"/>
+      <c r="C15" s="307"/>
+      <c r="D15" s="307"/>
+      <c r="E15" s="307"/>
+      <c r="F15" s="307"/>
+      <c r="G15" s="307"/>
+      <c r="H15" s="307"/>
+      <c r="I15" s="307"/>
+      <c r="J15" s="307"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="295"/>
+      <c r="N15" s="295"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="379"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="295"/>
+      <c r="N16" s="295"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A8:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="65"/>
+      <c r="B8" s="299" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="302" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="269">
+        <v>4</v>
+      </c>
+      <c r="C9" s="269">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="65"/>
+      <c r="B10" s="314">
+        <v>20</v>
+      </c>
+      <c r="C10" s="314">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="65"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="281">
+        <f>SUMPRODUCT(B9:C9,B10:C10)</f>
+        <v>200</v>
+      </c>
+      <c r="C12" s="267"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="65"/>
+      <c r="B13" s="281"/>
+      <c r="C13" s="267"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="275" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="308"/>
+      <c r="C14" s="308"/>
+      <c r="D14" s="305" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="305" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="305" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="308">
+        <v>1.5</v>
+      </c>
+      <c r="C15" s="308">
+        <v>3</v>
+      </c>
+      <c r="D15" s="381">
+        <f t="shared" ref="D15:D16" si="0">SUMPRODUCT($B$9:$C$9,B15:C15)</f>
+        <v>42</v>
+      </c>
+      <c r="E15" s="308" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="308">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="380" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="308">
+        <v>3</v>
+      </c>
+      <c r="C16" s="93">
+        <v>1</v>
+      </c>
+      <c r="D16" s="298">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E16" s="383" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="308">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="382"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N45"/>
@@ -21521,35 +24468,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="323" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
-      <c r="F2" s="309"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="310" t="s">
+      <c r="A3" s="324" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310"/>
+      <c r="B3" s="324"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="310"/>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
+      <c r="A4" s="324"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="324"/>
+      <c r="G4" s="324"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -21580,22 +24527,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="308" t="s">
+      <c r="A9" s="322" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="308"/>
-      <c r="C9" s="308"/>
-      <c r="D9" s="308"/>
-      <c r="E9" s="308"/>
-      <c r="F9" s="308"/>
+      <c r="B9" s="322"/>
+      <c r="C9" s="322"/>
+      <c r="D9" s="322"/>
+      <c r="E9" s="322"/>
+      <c r="F9" s="322"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="308"/>
-      <c r="B10" s="308"/>
-      <c r="C10" s="308"/>
-      <c r="D10" s="308"/>
-      <c r="E10" s="308"/>
-      <c r="F10" s="308"/>
+      <c r="A10" s="322"/>
+      <c r="B10" s="322"/>
+      <c r="C10" s="322"/>
+      <c r="D10" s="322"/>
+      <c r="E10" s="322"/>
+      <c r="F10" s="322"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -21608,11 +24555,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="311" t="s">
+      <c r="A20" s="325" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="312"/>
-      <c r="C20" s="313"/>
+      <c r="B20" s="326"/>
+      <c r="C20" s="327"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -21890,12 +24837,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="305" t="s">
+      <c r="G39" s="319" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="306"/>
-      <c r="I39" s="306"/>
-      <c r="J39" s="307"/>
+      <c r="H39" s="320"/>
+      <c r="I39" s="320"/>
+      <c r="J39" s="321"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -21928,13 +24875,13 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="304" t="s">
+      <c r="A45" s="318" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="304"/>
-      <c r="C45" s="304"/>
-      <c r="D45" s="304"/>
-      <c r="E45" s="304"/>
+      <c r="B45" s="318"/>
+      <c r="C45" s="318"/>
+      <c r="D45" s="318"/>
+      <c r="E45" s="318"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -21994,23 +24941,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314" t="s">
+      <c r="B1" s="328"/>
+      <c r="C1" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="314"/>
-      <c r="E1" s="315" t="s">
+      <c r="D1" s="328"/>
+      <c r="E1" s="329" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="314"/>
+      <c r="F1" s="328"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="316" t="s">
+      <c r="H1" s="330" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="317"/>
+      <c r="I1" s="331"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -22145,10 +25092,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="314" t="s">
+      <c r="H6" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="314"/>
+      <c r="I6" s="328"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -22430,26 +25377,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="322" t="s">
+      <c r="A3" s="336" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="338" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="325"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="324"/>
+      <c r="G4" s="339"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -22461,15 +25408,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="326" t="s">
+      <c r="A6" s="340" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="327"/>
-      <c r="C6" s="327"/>
-      <c r="D6" s="327"/>
-      <c r="E6" s="327"/>
-      <c r="F6" s="327"/>
-      <c r="G6" s="328"/>
+      <c r="B6" s="341"/>
+      <c r="C6" s="341"/>
+      <c r="D6" s="341"/>
+      <c r="E6" s="341"/>
+      <c r="F6" s="341"/>
+      <c r="G6" s="342"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -22481,34 +25428,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="329" t="s">
+      <c r="A8" s="343" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="330"/>
-      <c r="C8" s="330"/>
-      <c r="D8" s="330"/>
-      <c r="E8" s="330"/>
-      <c r="F8" s="330"/>
-      <c r="G8" s="331"/>
+      <c r="B8" s="344"/>
+      <c r="C8" s="344"/>
+      <c r="D8" s="344"/>
+      <c r="E8" s="344"/>
+      <c r="F8" s="344"/>
+      <c r="G8" s="345"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="332" t="s">
+      <c r="A9" s="346" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="333"/>
-      <c r="C9" s="333"/>
-      <c r="D9" s="333"/>
-      <c r="E9" s="333"/>
-      <c r="F9" s="333"/>
-      <c r="G9" s="334"/>
+      <c r="B9" s="347"/>
+      <c r="C9" s="347"/>
+      <c r="D9" s="347"/>
+      <c r="E9" s="347"/>
+      <c r="F9" s="347"/>
+      <c r="G9" s="348"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="319" t="s">
+      <c r="E11" s="333" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="319"/>
-      <c r="G11" s="319"/>
+      <c r="F11" s="333"/>
+      <c r="G11" s="333"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -22523,10 +25470,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="318" t="s">
+      <c r="F12" s="332" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="318"/>
+      <c r="G12" s="332"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -22747,10 +25694,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="320" t="s">
+      <c r="B24" s="334" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="321"/>
+      <c r="C24" s="335"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -22977,17 +25924,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="336" t="s">
+      <c r="F2" s="350" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="350"/>
+      <c r="I2" s="350"/>
+      <c r="J2" s="350"/>
+      <c r="K2" s="350"/>
+      <c r="L2" s="350"/>
+      <c r="M2" s="350"/>
+      <c r="N2" s="350"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -23168,10 +26115,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="335" t="s">
+      <c r="F10" s="349" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="317"/>
+      <c r="G10" s="331"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -23929,10 +26876,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="351" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="338"/>
+      <c r="B1" s="352"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -23986,22 +26933,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="339" t="s">
+      <c r="A9" s="353" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="340"/>
-      <c r="C9" s="340"/>
-      <c r="D9" s="340"/>
-      <c r="E9" s="340"/>
-      <c r="F9" s="340"/>
-      <c r="G9" s="340"/>
-      <c r="H9" s="340"/>
-      <c r="I9" s="340"/>
-      <c r="J9" s="340"/>
-      <c r="K9" s="340"/>
-      <c r="L9" s="340"/>
-      <c r="M9" s="340"/>
-      <c r="N9" s="341"/>
+      <c r="B9" s="354"/>
+      <c r="C9" s="354"/>
+      <c r="D9" s="354"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="354"/>
+      <c r="G9" s="354"/>
+      <c r="H9" s="354"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="354"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="354"/>
+      <c r="M9" s="354"/>
+      <c r="N9" s="355"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -24332,16 +27279,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="342" t="s">
+      <c r="A40" s="356" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="304"/>
-      <c r="C40" s="304"/>
-      <c r="D40" s="304"/>
-      <c r="E40" s="304"/>
-      <c r="F40" s="304"/>
-      <c r="G40" s="304"/>
-      <c r="H40" s="304"/>
+      <c r="B40" s="318"/>
+      <c r="C40" s="318"/>
+      <c r="D40" s="318"/>
+      <c r="E40" s="318"/>
+      <c r="F40" s="318"/>
+      <c r="G40" s="318"/>
+      <c r="H40" s="318"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="15" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -31,287 +31,390 @@
     <sheet name="example 2 LP" sheetId="23" r:id="rId17"/>
     <sheet name="example 3 LP" sheetId="24" r:id="rId18"/>
     <sheet name="example 4 LP" sheetId="25" r:id="rId19"/>
-    <sheet name="transport problems" sheetId="26" r:id="rId20"/>
+    <sheet name=" shipping transport LP" sheetId="26" r:id="rId20"/>
+    <sheet name="example transport LP" sheetId="27" r:id="rId21"/>
+    <sheet name="TRANSPORT LP" sheetId="28" r:id="rId22"/>
+    <sheet name=" assigment problem LP" sheetId="29" r:id="rId23"/>
+    <sheet name="Hoja4" sheetId="30" r:id="rId24"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="22" hidden="1">' assigment problem LP'!$B$12:$E$14</definedName>
+    <definedName name="solver_adj" localSheetId="19" hidden="1">' shipping transport LP'!$C$12:$E$14</definedName>
     <definedName name="solver_adj" localSheetId="16" hidden="1">'example 2 LP'!$B$2:$P$2</definedName>
     <definedName name="solver_adj" localSheetId="17" hidden="1">'example 3 LP'!$B$3:$K$3</definedName>
     <definedName name="solver_adj" localSheetId="18" hidden="1">'example 4 LP'!$B$9:$C$9</definedName>
     <definedName name="solver_adj" localSheetId="12" hidden="1">'example linear programming'!$B$4:$C$4</definedName>
     <definedName name="solver_adj" localSheetId="13" hidden="1">'example LP'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="20" hidden="1">'example transport LP'!$D$4:$D$12</definedName>
     <definedName name="solver_adj" localSheetId="15" hidden="1">'more variants LP'!$B$2:$F$2</definedName>
-    <definedName name="solver_adj" localSheetId="19" hidden="1">'transport problems'!$C$12:$E$14</definedName>
+    <definedName name="solver_adj" localSheetId="21" hidden="1">'TRANSPORT LP'!$D$13:$D$21</definedName>
     <definedName name="solver_adj" localSheetId="14" hidden="1">'variants LP'!$B$2:$C$2</definedName>
+    <definedName name="solver_cvg" localSheetId="22" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="19" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="16" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="17" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="18" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="20" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="19" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="21" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="14" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="22" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="22" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="22" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="22" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="19" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="20" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="15" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="19" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
+    <definedName name="solver_lhs1" localSheetId="22" hidden="1">' assigment problem LP'!$B$15:$E$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="19" hidden="1">' shipping transport LP'!$C$15:$E$15</definedName>
     <definedName name="solver_lhs1" localSheetId="16" hidden="1">'example 2 LP'!$Q$13:$Q$17</definedName>
     <definedName name="solver_lhs1" localSheetId="17" hidden="1">'example 3 LP'!$L$10:$L$14</definedName>
     <definedName name="solver_lhs1" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">'example linear programming'!$D$13</definedName>
     <definedName name="solver_lhs1" localSheetId="13" hidden="1">'example LP'!$D$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="20" hidden="1">'example transport LP'!$B$16:$B$18</definedName>
     <definedName name="solver_lhs1" localSheetId="15" hidden="1">'more variants LP'!$G$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="19" hidden="1">'transport problems'!$C$15:$E$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="21" hidden="1">'TRANSPORT LP'!$C$24:$C$26</definedName>
     <definedName name="solver_lhs1" localSheetId="14" hidden="1">'variants LP'!$D$15:$D$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="22" hidden="1">' assigment problem LP'!$F$12:$F$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="19" hidden="1">' shipping transport LP'!$F$12:$F$14</definedName>
     <definedName name="solver_lhs2" localSheetId="16" hidden="1">'example 2 LP'!$Q$18:$Q$20</definedName>
     <definedName name="solver_lhs2" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">'example linear programming'!$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="13" hidden="1">'example LP'!$D$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="20" hidden="1">'example transport LP'!$B$22:$B$24</definedName>
     <definedName name="solver_lhs2" localSheetId="15" hidden="1">'more variants LP'!$G$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="19" hidden="1">'transport problems'!$F$12:$F$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="21" hidden="1">'TRANSPORT LP'!$C$29:$C$31</definedName>
     <definedName name="solver_lhs3" localSheetId="12" hidden="1">'example linear programming'!$D$15</definedName>
     <definedName name="solver_lhs3" localSheetId="15" hidden="1">'more variants LP'!$G$14</definedName>
     <definedName name="solver_lhs4" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
     <definedName name="solver_lhs4" localSheetId="15" hidden="1">'more variants LP'!$G$15</definedName>
     <definedName name="solver_lhs5" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
+    <definedName name="solver_mip" localSheetId="22" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="19" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="20" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="19" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="22" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="19" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="16" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="17" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="18" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="20" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="19" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="21" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="14" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="22" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="19" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="16" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="17" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="18" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="20" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="19" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="21" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="14" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="22" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="22" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="22" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="19" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="20" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="19" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="22" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="12" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="15" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="22" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="22" hidden="1">' assigment problem LP'!$B$20</definedName>
+    <definedName name="solver_opt" localSheetId="19" hidden="1">' shipping transport LP'!$B$22</definedName>
     <definedName name="solver_opt" localSheetId="16" hidden="1">'example 2 LP'!$B$8</definedName>
     <definedName name="solver_opt" localSheetId="17" hidden="1">'example 3 LP'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="18" hidden="1">'example 4 LP'!$B$12</definedName>
     <definedName name="solver_opt" localSheetId="12" hidden="1">'example linear programming'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="13" hidden="1">'example LP'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="20" hidden="1">'example transport LP'!$B$27</definedName>
     <definedName name="solver_opt" localSheetId="15" hidden="1">'more variants LP'!$B$5</definedName>
-    <definedName name="solver_opt" localSheetId="19" hidden="1">'transport problems'!$B$22</definedName>
+    <definedName name="solver_opt" localSheetId="21" hidden="1">'TRANSPORT LP'!$C$9</definedName>
     <definedName name="solver_opt" localSheetId="14" hidden="1">'variants LP'!$D$11</definedName>
+    <definedName name="solver_pre" localSheetId="22" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="19" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="16" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="17" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="18" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="20" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="19" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="21" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="14" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="22" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel0" localSheetId="18" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="22" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="22" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="20" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="21" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rhs0" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="22" hidden="1">' assigment problem LP'!$B$17:$E$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="19" hidden="1">' shipping transport LP'!$C$7:$E$7</definedName>
     <definedName name="solver_rhs1" localSheetId="16" hidden="1">'example 2 LP'!$S$13:$S$17</definedName>
     <definedName name="solver_rhs1" localSheetId="17" hidden="1">'example 3 LP'!$N$10:$N$14</definedName>
     <definedName name="solver_rhs1" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">'example linear programming'!$F$13</definedName>
     <definedName name="solver_rhs1" localSheetId="13" hidden="1">'example LP'!$F$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="20" hidden="1">'example transport LP'!$D$16:$D$18</definedName>
     <definedName name="solver_rhs1" localSheetId="15" hidden="1">'more variants LP'!$I$12</definedName>
-    <definedName name="solver_rhs1" localSheetId="19" hidden="1">'transport problems'!$C$7:$E$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="21" hidden="1">'TRANSPORT LP'!$E$24:$E$26</definedName>
     <definedName name="solver_rhs1" localSheetId="14" hidden="1">'variants LP'!$F$15:$F$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="22" hidden="1">' assigment problem LP'!$H$12:$H$14</definedName>
+    <definedName name="solver_rhs2" localSheetId="19" hidden="1">' shipping transport LP'!$F$4:$F$6</definedName>
     <definedName name="solver_rhs2" localSheetId="16" hidden="1">'example 2 LP'!$S$18:$S$20</definedName>
     <definedName name="solver_rhs2" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">'example linear programming'!$F$14</definedName>
     <definedName name="solver_rhs2" localSheetId="13" hidden="1">'example LP'!$F$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="20" hidden="1">'example transport LP'!$D$22:$D$24</definedName>
     <definedName name="solver_rhs2" localSheetId="15" hidden="1">'more variants LP'!$I$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="19" hidden="1">'transport problems'!$F$4:$F$6</definedName>
+    <definedName name="solver_rhs2" localSheetId="21" hidden="1">'TRANSPORT LP'!$E$29:$E$31</definedName>
     <definedName name="solver_rhs3" localSheetId="12" hidden="1">'example linear programming'!$F$15</definedName>
     <definedName name="solver_rhs3" localSheetId="15" hidden="1">'more variants LP'!$I$14</definedName>
     <definedName name="solver_rhs4" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
     <definedName name="solver_rhs4" localSheetId="15" hidden="1">'more variants LP'!$I$15</definedName>
     <definedName name="solver_rhs5" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
+    <definedName name="solver_rlx" localSheetId="22" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="22" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="19" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="17" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="18" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="20" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="19" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="21" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="14" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="22" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="19" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="20" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="22" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="22" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="19" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="16" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="17" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="18" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="20" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="19" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="21" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="14" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="22" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="19" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="20" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="15" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="19" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="22" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="19" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="16" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="17" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="18" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="20" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="15" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="19" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="21" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="14" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="22" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="19" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="20" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="22" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="19" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="17" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="18" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="20" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="19" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="21" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="14" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="22" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="19" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="16" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="17" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="18" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="20" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="19" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="21" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="14" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -359,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="430">
   <si>
     <t>YEAR code</t>
   </si>
@@ -1994,6 +2097,339 @@
   <si>
     <t>Total Cost:</t>
   </si>
+  <si>
+    <t>Transportation example - alternative template</t>
+  </si>
+  <si>
+    <t>Desmonies</t>
+  </si>
+  <si>
+    <t>Evanston</t>
+  </si>
+  <si>
+    <t>Unit cost</t>
+  </si>
+  <si>
+    <t>Destinations/stores</t>
+  </si>
+  <si>
+    <t>Origin/ factories</t>
+  </si>
+  <si>
+    <t>Shipments
+(variable)</t>
+  </si>
+  <si>
+    <t>Supply contraints:</t>
+  </si>
+  <si>
+    <t>Factories:</t>
+  </si>
+  <si>
+    <t>*dummy numbers</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>cappacity</t>
+  </si>
+  <si>
+    <t>Outflow</t>
+  </si>
+  <si>
+    <t>Stores:</t>
+  </si>
+  <si>
+    <t>inflow</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*outflow: flujo de dinero que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de un lugar específico.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*outflow: flujo de dinero que</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de un lugar específico.</t>
+    </r>
+  </si>
+  <si>
+    <t>Objetive:</t>
+  </si>
+  <si>
+    <t>Min cost:</t>
+  </si>
+  <si>
+    <t>*no me sale, por????</t>
+  </si>
+  <si>
+    <t>Planta 1</t>
+  </si>
+  <si>
+    <t>Planta 2</t>
+  </si>
+  <si>
+    <t>Planta 3</t>
+  </si>
+  <si>
+    <t>Proyecto A</t>
+  </si>
+  <si>
+    <t>Proyecto B</t>
+  </si>
+  <si>
+    <t>Proyecto C</t>
+  </si>
+  <si>
+    <t>Demand of projects:</t>
+  </si>
+  <si>
+    <t>Capacity Limit plantas:</t>
+  </si>
+  <si>
+    <t>*Objetive:</t>
+  </si>
+  <si>
+    <t>Min Cost:</t>
+  </si>
+  <si>
+    <t>A PLANTA 1</t>
+  </si>
+  <si>
+    <t>A PLANTA 2</t>
+  </si>
+  <si>
+    <t>A PLANTA 3</t>
+  </si>
+  <si>
+    <t>B PLANTA 1</t>
+  </si>
+  <si>
+    <t>B PLANTA 2</t>
+  </si>
+  <si>
+    <t>B PLANTA 3</t>
+  </si>
+  <si>
+    <t>COST $</t>
+  </si>
+  <si>
+    <t>C PLANTA 1</t>
+  </si>
+  <si>
+    <t>C PLANTA 2</t>
+  </si>
+  <si>
+    <t>C PLANTA 3</t>
+  </si>
+  <si>
+    <t>Units of concrete trucks</t>
+  </si>
+  <si>
+    <t>Contraints Table:</t>
+  </si>
+  <si>
+    <t>PLANTA 1</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>PLANTA 2</t>
+  </si>
+  <si>
+    <t>PLANTA 3</t>
+  </si>
+  <si>
+    <t>Demand Table:</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>*Nº de camiones que se trasladan a las PLANTAS.</t>
+  </si>
+  <si>
+    <t>igual a  (Nº de camiones * cost of transport)</t>
+  </si>
+  <si>
+    <t>*Nº de camiones que necesita cada proyecto.</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>Project C</t>
+  </si>
+  <si>
+    <t>Transport problems</t>
+  </si>
+  <si>
+    <t>Assigment problems</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Cost Table</t>
+  </si>
+  <si>
+    <t>Recolocation:</t>
+  </si>
+  <si>
+    <t>Assigment Table</t>
+  </si>
+  <si>
+    <t>* A quién van a colocar y dónde.</t>
+  </si>
+  <si>
+    <t>one candidate/
+one office</t>
+  </si>
+  <si>
+    <t>Objetive (min)</t>
+  </si>
+  <si>
+    <t>Cost $</t>
+  </si>
+  <si>
+    <t>Summary sentence:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will go to Miami</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to NY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wilson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to Omaha for a total relocation of 2400$.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2011,7 +2447,7 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2394,6 +2830,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3367,7 +3825,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4105,213 +4563,30 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4331,7 +4606,310 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="23" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -16735,6 +17313,508 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="1238250"/>
+          <a:ext cx="514350" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="1295400"/>
+          <a:ext cx="542925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4238625" y="1295400"/>
+          <a:ext cx="304800" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246966</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>196167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>418204</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8695227" y="196167"/>
+          <a:ext cx="7943086" cy="4144773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>153778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>900043</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>191326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>407023</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685803</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>70849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="407023" y="4286251"/>
+          <a:ext cx="6133170" cy="3253592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="415183"/>
+          <a:ext cx="1057275" cy="1080427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246256</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218378</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146127</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295638</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133351" y="3409950"/>
+          <a:ext cx="9430112" cy="2019654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="57151"/>
+          <a:ext cx="10334625" cy="1259124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201116</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="209550"/>
+          <a:ext cx="7821116" cy="2429214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514652</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143626" y="1381125"/>
+          <a:ext cx="5801026" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -17384,204 +18464,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>407023</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>162623</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685803</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>70849</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="407023" y="4286251"/>
-          <a:ext cx="6133170" cy="3253592"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34183</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>143060</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="415183"/>
-          <a:ext cx="1057275" cy="1080427"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>246256</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4878</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>218378</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>146127</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295638</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95604</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133351" y="3409950"/>
-          <a:ext cx="9430112" cy="2019654"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>173275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="57151"/>
-          <a:ext cx="10334625" cy="1259124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17670,7 +18553,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -17827,7 +18710,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17862,7 +18745,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17987,7 +18870,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18334,7 +19217,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18491,7 +19374,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18529,79 +19412,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>246966</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>196167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>418204</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>20179</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8695227" y="196167"/>
-          <a:ext cx="7943086" cy="4144773"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>153778</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>900043</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>191326</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18939,31 +19749,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A7"/>
+  <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.25">
+    <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="89" t="s">
         <v>196</v>
       </c>
+      <c r="E7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" s="161" t="s">
+        <v>411</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19014,25 +19831,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="386" t="s">
+      <c r="G1" s="403" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="J1" s="387"/>
-      <c r="K1" s="387"/>
-      <c r="L1" s="387"/>
-      <c r="M1" s="387"/>
-      <c r="N1" s="387"/>
-      <c r="O1" s="387"/>
-      <c r="P1" s="387"/>
-      <c r="Q1" s="387"/>
-      <c r="R1" s="387"/>
-      <c r="S1" s="387"/>
-      <c r="T1" s="387"/>
-      <c r="U1" s="387"/>
-      <c r="V1" s="387"/>
-      <c r="W1" s="388"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
+      <c r="N1" s="404"/>
+      <c r="O1" s="404"/>
+      <c r="P1" s="404"/>
+      <c r="Q1" s="404"/>
+      <c r="R1" s="404"/>
+      <c r="S1" s="404"/>
+      <c r="T1" s="404"/>
+      <c r="U1" s="404"/>
+      <c r="V1" s="404"/>
+      <c r="W1" s="405"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -20003,9 +20820,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="389"/>
-      <c r="M16" s="389"/>
+      <c r="K16" s="406"/>
+      <c r="L16" s="406"/>
+      <c r="M16" s="406"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -20035,9 +20852,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="389"/>
-      <c r="L17" s="389"/>
-      <c r="M17" s="389"/>
+      <c r="K17" s="406"/>
+      <c r="L17" s="406"/>
+      <c r="M17" s="406"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -20053,10 +20870,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="383" t="s">
+      <c r="Y17" s="400" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="384"/>
+      <c r="Z17" s="401"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -20093,11 +20910,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="382" t="s">
+      <c r="G23" s="399" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="382"/>
+      <c r="H23" s="399"/>
+      <c r="I23" s="399"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -20105,11 +20922,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="385" t="s">
+      <c r="G24" s="402" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="385"/>
-      <c r="I24" s="385"/>
+      <c r="H24" s="402"/>
+      <c r="I24" s="402"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -20200,20 +21017,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="409" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
+      <c r="B1" s="410"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -20270,10 +21087,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="394" t="s">
+      <c r="M3" s="411" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="394"/>
+      <c r="N3" s="411"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -20492,10 +21309,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="395" t="s">
+      <c r="M9" s="412" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="396"/>
+      <c r="N9" s="413"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -20764,12 +21581,12 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="397" t="s">
+      <c r="D17" s="414" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="397"/>
-      <c r="F17" s="397"/>
-      <c r="G17" s="397"/>
+      <c r="E17" s="414"/>
+      <c r="F17" s="414"/>
+      <c r="G17" s="414"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -21113,11 +21930,11 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="353" t="s">
+      <c r="O24" s="370" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="353"/>
-      <c r="Q24" s="353"/>
+      <c r="P24" s="370"/>
+      <c r="Q24" s="370"/>
       <c r="R24" s="65"/>
     </row>
     <row r="25" spans="1:19">
@@ -21188,7 +22005,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="390" t="s">
+      <c r="M26" s="407" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -21250,7 +22067,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="390"/>
+      <c r="M27" s="407"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -21310,7 +22127,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="390"/>
+      <c r="M28" s="407"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -21733,11 +22550,11 @@
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="391" t="s">
+      <c r="E40" s="408" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="391"/>
-      <c r="G40" s="391"/>
+      <c r="F40" s="408"/>
+      <c r="G40" s="408"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -22782,12 +23599,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="375" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="358"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358"/>
+      <c r="B1" s="375"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
       <c r="E1" s="65" t="s">
         <v>217</v>
       </c>
@@ -22978,19 +23795,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="398" t="s">
+      <c r="A20" s="415" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="398"/>
+      <c r="B20" s="415"/>
       <c r="C20" s="261">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="398" t="s">
+      <c r="A21" s="415" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="398"/>
+      <c r="B21" s="415"/>
       <c r="C21" s="12">
         <v>200</v>
       </c>
@@ -23005,10 +23822,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="398" t="s">
+      <c r="A22" s="415" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="398"/>
+      <c r="B22" s="415"/>
       <c r="C22" s="12">
         <v>500</v>
       </c>
@@ -23023,35 +23840,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="398" t="s">
+      <c r="A23" s="415" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="398"/>
-      <c r="C23" s="398"/>
-      <c r="D23" s="398"/>
-      <c r="E23" s="398"/>
+      <c r="B23" s="415"/>
+      <c r="C23" s="415"/>
+      <c r="D23" s="415"/>
+      <c r="E23" s="415"/>
       <c r="F23" s="12">
         <f>200*10+500*10</f>
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="398" t="s">
+      <c r="A24" s="415" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="398"/>
-      <c r="C24" s="398"/>
-      <c r="D24" s="398"/>
+      <c r="B24" s="415"/>
+      <c r="C24" s="415"/>
+      <c r="D24" s="415"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="399" t="s">
+      <c r="A26" s="416" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="399"/>
-      <c r="C26" s="399"/>
-      <c r="D26" s="399"/>
-      <c r="E26" s="399"/>
-      <c r="F26" s="399"/>
+      <c r="B26" s="416"/>
+      <c r="C26" s="416"/>
+      <c r="D26" s="416"/>
+      <c r="E26" s="416"/>
+      <c r="F26" s="416"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -23400,11 +24217,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="400" t="s">
+      <c r="A11" s="417" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="401"/>
-      <c r="C11" s="402"/>
+      <c r="B11" s="418"/>
+      <c r="C11" s="419"/>
       <c r="D11" s="285">
         <f>D5-D10</f>
         <v>353834</v>
@@ -24875,35 +25692,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="348" t="s">
+      <c r="A2" s="365" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="366" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="349"/>
-      <c r="G3" s="349"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="349"/>
-      <c r="B4" s="349"/>
-      <c r="C4" s="349"/>
-      <c r="D4" s="349"/>
-      <c r="E4" s="349"/>
-      <c r="F4" s="349"/>
-      <c r="G4" s="349"/>
+      <c r="A4" s="366"/>
+      <c r="B4" s="366"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -24934,22 +25751,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="347" t="s">
+      <c r="A9" s="364" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="347"/>
-      <c r="C9" s="347"/>
-      <c r="D9" s="347"/>
-      <c r="E9" s="347"/>
-      <c r="F9" s="347"/>
+      <c r="B9" s="364"/>
+      <c r="C9" s="364"/>
+      <c r="D9" s="364"/>
+      <c r="E9" s="364"/>
+      <c r="F9" s="364"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="347"/>
-      <c r="B10" s="347"/>
-      <c r="C10" s="347"/>
-      <c r="D10" s="347"/>
-      <c r="E10" s="347"/>
-      <c r="F10" s="347"/>
+      <c r="A10" s="364"/>
+      <c r="B10" s="364"/>
+      <c r="C10" s="364"/>
+      <c r="D10" s="364"/>
+      <c r="E10" s="364"/>
+      <c r="F10" s="364"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -24962,11 +25779,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="350" t="s">
+      <c r="A20" s="367" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="351"/>
-      <c r="C20" s="352"/>
+      <c r="B20" s="368"/>
+      <c r="C20" s="369"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -25244,12 +26061,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="344" t="s">
+      <c r="G39" s="361" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="345"/>
-      <c r="I39" s="345"/>
-      <c r="J39" s="346"/>
+      <c r="H39" s="362"/>
+      <c r="I39" s="362"/>
+      <c r="J39" s="363"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -25282,13 +26099,13 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="343" t="s">
+      <c r="A45" s="360" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="343"/>
-      <c r="C45" s="343"/>
-      <c r="D45" s="343"/>
-      <c r="E45" s="343"/>
+      <c r="B45" s="360"/>
+      <c r="C45" s="360"/>
+      <c r="D45" s="360"/>
+      <c r="E45" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -25308,8 +26125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -25325,26 +26142,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="105" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="404" t="s">
+      <c r="A1" s="426" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="405"/>
+      <c r="B1" s="427"/>
       <c r="H1" s="105" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C2" s="403" t="s">
+      <c r="C2" s="421" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
+      <c r="D2" s="422"/>
+      <c r="E2" s="422"/>
       <c r="H2" s="85" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A3" s="417" t="s">
+      <c r="A3" s="356" t="s">
         <v>345</v>
       </c>
       <c r="B3" s="74"/>
@@ -25357,13 +26174,13 @@
       <c r="E3" s="318" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="414" t="s">
+      <c r="F3" s="353" t="s">
         <v>350</v>
       </c>
       <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="412" t="s">
+      <c r="A4" s="423" t="s">
         <v>349</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -25378,7 +26195,7 @@
       <c r="E4" s="318">
         <v>3</v>
       </c>
-      <c r="F4" s="413">
+      <c r="F4" s="352">
         <v>100</v>
       </c>
       <c r="H4" s="85" t="s">
@@ -25386,7 +26203,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="411"/>
+      <c r="A5" s="424"/>
       <c r="B5" s="5" t="s">
         <v>329</v>
       </c>
@@ -25399,13 +26216,13 @@
       <c r="E5" s="318">
         <v>3</v>
       </c>
-      <c r="F5" s="413">
+      <c r="F5" s="352">
         <v>300</v>
       </c>
-      <c r="H5" s="398" t="s">
+      <c r="H5" s="415" t="s">
         <v>327</v>
       </c>
-      <c r="I5" s="398"/>
+      <c r="I5" s="415"/>
       <c r="J5" t="s">
         <v>324</v>
       </c>
@@ -25417,7 +26234,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="411"/>
+      <c r="A6" s="424"/>
       <c r="B6" s="5" t="s">
         <v>331</v>
       </c>
@@ -25430,7 +26247,7 @@
       <c r="E6" s="318">
         <v>5</v>
       </c>
-      <c r="F6" s="413">
+      <c r="F6" s="352">
         <v>300</v>
       </c>
       <c r="J6" t="s">
@@ -25444,16 +26261,16 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="415" t="s">
+      <c r="B7" s="354" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="413">
+      <c r="C7" s="352">
         <v>300</v>
       </c>
-      <c r="D7" s="413">
+      <c r="D7" s="352">
         <v>200</v>
       </c>
-      <c r="E7" s="413">
+      <c r="E7" s="352">
         <v>200</v>
       </c>
       <c r="J7" t="s">
@@ -25467,10 +26284,10 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="H9" s="398" t="s">
+      <c r="H9" s="415" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="398"/>
+      <c r="I9" s="415"/>
       <c r="J9" s="65" t="s">
         <v>324</v>
       </c>
@@ -25484,11 +26301,11 @@
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
-      <c r="C10" s="403" t="s">
+      <c r="C10" s="421" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="410"/>
-      <c r="E10" s="410"/>
+      <c r="D10" s="422"/>
+      <c r="E10" s="422"/>
       <c r="F10" s="65"/>
       <c r="J10" s="65" t="s">
         <v>325</v>
@@ -25501,7 +26318,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A11" s="416" t="s">
+      <c r="A11" s="355" t="s">
         <v>352</v>
       </c>
       <c r="B11" s="74"/>
@@ -25514,7 +26331,7 @@
       <c r="E11" s="318" t="s">
         <v>323</v>
       </c>
-      <c r="F11" s="414" t="s">
+      <c r="F11" s="353" t="s">
         <v>350</v>
       </c>
       <c r="J11" s="65" t="s">
@@ -25528,22 +26345,22 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="412" t="s">
+      <c r="A12" s="423" t="s">
         <v>349</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C12" s="418">
+      <c r="C12" s="357">
         <v>100</v>
       </c>
-      <c r="D12" s="418">
+      <c r="D12" s="357">
         <v>0</v>
       </c>
-      <c r="E12" s="418">
+      <c r="E12" s="357">
         <v>0</v>
       </c>
-      <c r="F12" s="413">
+      <c r="F12" s="352">
         <f>SUM(C12:E12)</f>
         <v>100</v>
       </c>
@@ -25553,20 +26370,20 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="411"/>
+      <c r="A13" s="424"/>
       <c r="B13" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C13" s="418">
+      <c r="C13" s="357">
         <v>0</v>
       </c>
-      <c r="D13" s="418">
+      <c r="D13" s="357">
         <v>200</v>
       </c>
-      <c r="E13" s="418">
+      <c r="E13" s="357">
         <v>100</v>
       </c>
-      <c r="F13" s="413">
+      <c r="F13" s="352">
         <f t="shared" ref="F13:F14" si="0">SUM(C13:E13)</f>
         <v>300</v>
       </c>
@@ -25574,10 +26391,10 @@
         <f t="shared" ref="G13:G14" ca="1" si="1">_xlfn.FORMULATEXT(F13)</f>
         <v>=SUMA(C13:E13)</v>
       </c>
-      <c r="H13" s="398" t="s">
+      <c r="H13" s="415" t="s">
         <v>332</v>
       </c>
-      <c r="I13" s="398"/>
+      <c r="I13" s="415"/>
       <c r="J13" s="65" t="s">
         <v>324</v>
       </c>
@@ -25589,20 +26406,20 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="411"/>
+      <c r="A14" s="424"/>
       <c r="B14" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C14" s="418">
+      <c r="C14" s="357">
         <v>200</v>
       </c>
-      <c r="D14" s="418">
+      <c r="D14" s="357">
         <v>0</v>
       </c>
-      <c r="E14" s="418">
+      <c r="E14" s="357">
         <v>100</v>
       </c>
-      <c r="F14" s="413">
+      <c r="F14" s="352">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -25622,18 +26439,18 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="65"/>
-      <c r="B15" s="415" t="s">
+      <c r="B15" s="354" t="s">
         <v>351</v>
       </c>
-      <c r="C15" s="413">
+      <c r="C15" s="352">
         <f>SUM(C12:C14)</f>
         <v>300</v>
       </c>
-      <c r="D15" s="413">
+      <c r="D15" s="352">
         <f t="shared" ref="D15:E15" si="2">SUM(D12:D14)</f>
         <v>200</v>
       </c>
-      <c r="E15" s="413">
+      <c r="E15" s="352">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
@@ -25663,32 +26480,32 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="H17" s="406" t="s">
+      <c r="H17" s="428" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="406"/>
+      <c r="I17" s="428"/>
       <c r="K17" s="65"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1">
-      <c r="H18" s="408" t="s">
+      <c r="H18" s="350" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="409" t="s">
+      <c r="K18" s="420" t="s">
         <v>344</v>
       </c>
-      <c r="L18" s="409"/>
+      <c r="L18" s="420"/>
       <c r="M18" s="65"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="419" t="s">
+      <c r="A19" s="358" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="419"/>
-      <c r="C19" s="419"/>
-      <c r="D19" s="419"/>
-      <c r="E19" s="419"/>
-      <c r="F19" s="419"/>
-      <c r="H19" s="399" t="s">
+      <c r="B19" s="358"/>
+      <c r="C19" s="358"/>
+      <c r="D19" s="358"/>
+      <c r="E19" s="358"/>
+      <c r="F19" s="358"/>
+      <c r="H19" s="416" t="s">
         <v>340</v>
       </c>
       <c r="I19" s="105" t="s">
@@ -25705,7 +26522,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="H20" s="399"/>
+      <c r="H20" s="416"/>
       <c r="I20" s="105" t="s">
         <v>338</v>
       </c>
@@ -25720,11 +26537,11 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="421" t="s">
+      <c r="A21" s="425" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="421"/>
-      <c r="H21" s="399"/>
+      <c r="B21" s="425"/>
+      <c r="H21" s="416"/>
       <c r="I21" s="105" t="s">
         <v>339</v>
       </c>
@@ -25739,16 +26556,21 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="407" t="s">
+      <c r="A22" s="349" t="s">
         <v>355</v>
       </c>
-      <c r="B22" s="420">
+      <c r="B22" s="359">
         <f>SUMPRODUCT(C4:E6,C12:E14)</f>
         <v>3900</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="C2:E2"/>
@@ -25756,13 +26578,1344 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="343" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="430"/>
+      <c r="J1" s="105" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="J2" s="85" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="26.25" customHeight="1">
+      <c r="A3" s="344" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="344" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="344" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="431" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="347">
+        <v>5</v>
+      </c>
+      <c r="D4" s="432">
+        <v>0</v>
+      </c>
+      <c r="J4" s="85" t="s">
+        <v>321</v>
+      </c>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="347">
+        <v>4</v>
+      </c>
+      <c r="D5" s="432">
+        <v>0</v>
+      </c>
+      <c r="J5" s="415" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="415"/>
+      <c r="L5" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="M5" s="12">
+        <v>5</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="347">
+        <v>3</v>
+      </c>
+      <c r="D6" s="432">
+        <v>100</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="M6" s="12">
+        <v>4</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="347">
+        <v>8</v>
+      </c>
+      <c r="D7" s="432">
+        <v>0</v>
+      </c>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="M7" s="12">
+        <v>3</v>
+      </c>
+      <c r="N7" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="347">
+        <v>4</v>
+      </c>
+      <c r="D8" s="432">
+        <v>300</v>
+      </c>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="347">
+        <v>3</v>
+      </c>
+      <c r="D9" s="432">
+        <v>0</v>
+      </c>
+      <c r="J9" s="415" t="s">
+        <v>330</v>
+      </c>
+      <c r="K9" s="415"/>
+      <c r="L9" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="M9" s="12">
+        <v>8</v>
+      </c>
+      <c r="N9" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="347">
+        <v>9</v>
+      </c>
+      <c r="D10" s="432">
+        <v>300</v>
+      </c>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="M10" s="12">
+        <v>4</v>
+      </c>
+      <c r="N10" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="347">
+        <v>7</v>
+      </c>
+      <c r="D11" s="432">
+        <v>0</v>
+      </c>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="M11" s="12">
+        <v>3</v>
+      </c>
+      <c r="N11" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="347">
+        <v>5</v>
+      </c>
+      <c r="D12" s="432">
+        <v>0</v>
+      </c>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="D13" s="433" t="s">
+        <v>365</v>
+      </c>
+      <c r="J13" s="415" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" s="415"/>
+      <c r="L13" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="M13" s="12">
+        <v>9</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="433" t="s">
+        <v>372</v>
+      </c>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="M14" s="12">
+        <v>7</v>
+      </c>
+      <c r="N14" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="344" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" s="344" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="344" t="s">
+        <v>367</v>
+      </c>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="M15" s="12">
+        <v>5</v>
+      </c>
+      <c r="N15" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="347">
+        <f>SUMIF($A$4:$A$12,A16,$D$4:$D$12)</f>
+        <v>100</v>
+      </c>
+      <c r="C16" s="347" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="347">
+        <v>100</v>
+      </c>
+      <c r="E16" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B16)</f>
+        <v>=SUMAR.SI($A$4:$A$12;A16;$D$4:$D$12)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="347">
+        <f t="shared" ref="B17:B18" si="0">SUMIF($A$4:$A$12,A17,$D$4:$D$12)</f>
+        <v>300</v>
+      </c>
+      <c r="C17" s="347" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="347">
+        <v>300</v>
+      </c>
+      <c r="E17" s="65" t="str">
+        <f t="shared" ref="E17:E18" ca="1" si="1">_xlfn.FORMULATEXT(B17)</f>
+        <v>=SUMAR.SI($A$4:$A$12;A17;$D$4:$D$12)</v>
+      </c>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="428" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="428"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="347">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="C18" s="347" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="347">
+        <v>300</v>
+      </c>
+      <c r="E18" s="65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=SUMAR.SI($A$4:$A$12;A18;$D$4:$D$12)</v>
+      </c>
+      <c r="J18" s="350" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="420" t="s">
+        <v>344</v>
+      </c>
+      <c r="N18" s="420"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="J19" s="416" t="s">
+        <v>340</v>
+      </c>
+      <c r="K19" s="105" t="s">
+        <v>337</v>
+      </c>
+      <c r="L19" s="348">
+        <v>100</v>
+      </c>
+      <c r="M19" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="N19" s="348">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="433" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="J20" s="416"/>
+      <c r="K20" s="105" t="s">
+        <v>338</v>
+      </c>
+      <c r="L20" s="348">
+        <v>300</v>
+      </c>
+      <c r="M20" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="N20" s="348">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" s="344" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="344" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="297" t="s">
+        <v>326</v>
+      </c>
+      <c r="J21" s="416"/>
+      <c r="K21" s="105" t="s">
+        <v>339</v>
+      </c>
+      <c r="L21" s="348">
+        <v>300</v>
+      </c>
+      <c r="M21" s="85" t="s">
+        <v>343</v>
+      </c>
+      <c r="N21" s="348">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="347">
+        <f>SUMIF($B$4:$B$12,A22,$D$4:$D$12)</f>
+        <v>300</v>
+      </c>
+      <c r="C22" s="347" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="347">
+        <v>300</v>
+      </c>
+      <c r="E22" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B22)</f>
+        <v>=SUMAR.SI($B$4:$B$12;A22;$D$4:$D$12)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="347">
+        <f t="shared" ref="B23:B24" si="2">SUMIF($B$4:$B$12,A23,$D$4:$D$12)</f>
+        <v>300</v>
+      </c>
+      <c r="C23" s="347" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="347">
+        <v>300</v>
+      </c>
+      <c r="E23" s="65" t="str">
+        <f t="shared" ref="E23:E24" ca="1" si="3">_xlfn.FORMULATEXT(B23)</f>
+        <v>=SUMAR.SI($B$4:$B$12;A23;$D$4:$D$12)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" s="347">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C24" s="347" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="347">
+        <v>200</v>
+      </c>
+      <c r="E24" s="65" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=SUMAR.SI($B$4:$B$12;A24;$D$4:$D$12)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="23.25">
+      <c r="I25" s="435" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A27" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="434">
+        <f>SUMPRODUCT(C4:C12,D4:D12)</f>
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="J19:J21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="422"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A2" s="447" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="347" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="347" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="347" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2" s="353" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="423"/>
+      <c r="B3" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="438">
+        <v>10</v>
+      </c>
+      <c r="D3" s="438">
+        <v>4</v>
+      </c>
+      <c r="E3" s="438">
+        <v>9</v>
+      </c>
+      <c r="F3" s="352">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="424"/>
+      <c r="B4" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="438">
+        <v>12</v>
+      </c>
+      <c r="D4" s="438">
+        <v>6</v>
+      </c>
+      <c r="E4" s="438">
+        <v>8</v>
+      </c>
+      <c r="F4" s="352">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="424"/>
+      <c r="B5" s="437" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="439">
+        <v>8</v>
+      </c>
+      <c r="D5" s="439">
+        <v>9</v>
+      </c>
+      <c r="E5" s="439">
+        <v>5</v>
+      </c>
+      <c r="F5" s="352">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="65"/>
+      <c r="B6" s="354" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="352">
+        <v>50</v>
+      </c>
+      <c r="D6" s="352">
+        <v>40</v>
+      </c>
+      <c r="E6" s="352">
+        <v>60</v>
+      </c>
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="65"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="440" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="444" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="448">
+        <f>SUMPRODUCT(C13:C21,D13:D21)</f>
+        <v>1060</v>
+      </c>
+      <c r="D9" s="436" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C9)</f>
+        <v>=SUMAPRODUCTO(C13:C21;D13:D21)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="42"/>
+      <c r="C10" s="346"/>
+      <c r="D10" s="450" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B11" s="42"/>
+      <c r="C11" s="346"/>
+      <c r="D11" s="346"/>
+      <c r="E11" s="346"/>
+    </row>
+    <row r="12" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A12" s="447" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="347" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="445" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="295"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="441">
+        <v>10</v>
+      </c>
+      <c r="D13" s="446">
+        <v>40</v>
+      </c>
+      <c r="E13" s="443"/>
+      <c r="H13" s="166"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="441">
+        <v>12</v>
+      </c>
+      <c r="D14" s="446">
+        <v>0</v>
+      </c>
+      <c r="E14" s="443"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" s="441">
+        <v>8</v>
+      </c>
+      <c r="D15" s="446">
+        <v>10</v>
+      </c>
+      <c r="E15" s="443"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" s="441">
+        <v>4</v>
+      </c>
+      <c r="D16" s="446">
+        <v>40</v>
+      </c>
+      <c r="E16" s="436"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" s="441">
+        <v>6</v>
+      </c>
+      <c r="D17" s="446">
+        <v>0</v>
+      </c>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" s="441">
+        <v>9</v>
+      </c>
+      <c r="D18" s="446">
+        <v>0</v>
+      </c>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" s="91">
+        <v>9</v>
+      </c>
+      <c r="D19" s="446">
+        <v>0</v>
+      </c>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20" s="91">
+        <v>8</v>
+      </c>
+      <c r="D20" s="446">
+        <v>40</v>
+      </c>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" s="91">
+        <v>5</v>
+      </c>
+      <c r="D21" s="446">
+        <v>20</v>
+      </c>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A23" s="449" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" s="452" t="s">
+        <v>404</v>
+      </c>
+      <c r="C23" s="452"/>
+      <c r="D23" s="347" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="347" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIF($B$13:$B$21,"*PLANTA 1*",$D$13:$D$21)</f>
+        <v>80</v>
+      </c>
+      <c r="D24" s="347" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="345">
+        <v>80</v>
+      </c>
+      <c r="F24" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C24)</f>
+        <v>=SUMAR.SI($B$13:$B$21;"*PLANTA 1*";$D$13:$D$21)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIF($B$13:$B$21,"*PLANTA 2*",$D$13:$D$21)</f>
+        <v>40</v>
+      </c>
+      <c r="D25" s="347" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="345">
+        <v>40</v>
+      </c>
+      <c r="F25" s="65" t="str">
+        <f t="shared" ref="F25:F26" ca="1" si="0">_xlfn.FORMULATEXT(C25)</f>
+        <v>=SUMAR.SI($B$13:$B$21;"*PLANTA 2*";$D$13:$D$21)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIF($B$13:$B$21,"*PLANTA 3*",$D$13:$D$21)</f>
+        <v>30</v>
+      </c>
+      <c r="D26" s="347" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="345">
+        <v>30</v>
+      </c>
+      <c r="F26" s="65" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SUMAR.SI($B$13:$B$21;"*PLANTA 3*";$D$13:$D$21)</v>
+      </c>
+      <c r="H26" s="65"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="28" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A28" s="449" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="451" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="451"/>
+      <c r="D28" s="347" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" s="347" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="65"/>
+      <c r="B29" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIF($B$13:$B$21,"*A*",$D$13:$D$21)</f>
+        <v>150</v>
+      </c>
+      <c r="D29" s="347" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="345">
+        <v>50</v>
+      </c>
+      <c r="F29" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C29)</f>
+        <v>=SUMAR.SI($B$13:$B$21;"*A*";$D$13:$D$21)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="65"/>
+      <c r="B30" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIF($B$13:$B$21,"*B*",$D$13:$D$21)</f>
+        <v>40</v>
+      </c>
+      <c r="D30" s="347" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="345">
+        <v>40</v>
+      </c>
+      <c r="F30" s="65" t="str">
+        <f t="shared" ref="F30:F31" ca="1" si="1">_xlfn.FORMULATEXT(C30)</f>
+        <v>=SUMAR.SI($B$13:$B$21;"*B*";$D$13:$D$21)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="65"/>
+      <c r="B31" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIF($B$13:$B$21,"*C*",$D$13:$D$21)</f>
+        <v>60</v>
+      </c>
+      <c r="D31" s="347" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="345">
+        <v>60</v>
+      </c>
+      <c r="F31" s="65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=SUMAR.SI($B$13:$B$21;"*C*";$D$13:$D$21)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A3" s="456" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="442"/>
+      <c r="B4" s="347" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="347" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="347" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="347" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="345" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="453">
+        <v>800</v>
+      </c>
+      <c r="C5" s="453">
+        <v>1100</v>
+      </c>
+      <c r="D5" s="453">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="453">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="454"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="345" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="453">
+        <v>500</v>
+      </c>
+      <c r="C6" s="453">
+        <v>1600</v>
+      </c>
+      <c r="D6" s="453">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="453">
+        <v>800</v>
+      </c>
+      <c r="F6" s="454"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="345" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="453">
+        <v>500</v>
+      </c>
+      <c r="C7" s="453">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="453">
+        <v>2300</v>
+      </c>
+      <c r="E7" s="453">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="454"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="455"/>
+      <c r="C8" s="455"/>
+      <c r="D8" s="455"/>
+      <c r="E8" s="455"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="398" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="360"/>
+      <c r="C10" s="459" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1">
+      <c r="A11" s="442"/>
+      <c r="B11" s="347" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="347" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="347" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" s="347" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" s="347"/>
+      <c r="G11" s="347" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="445" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="345" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="460">
+        <v>0</v>
+      </c>
+      <c r="C12" s="460">
+        <v>1</v>
+      </c>
+      <c r="D12" s="460">
+        <v>0</v>
+      </c>
+      <c r="E12" s="460">
+        <v>0</v>
+      </c>
+      <c r="F12" s="461">
+        <f>SUM(B12:E12)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="347" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="345" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="460">
+        <v>0</v>
+      </c>
+      <c r="C13" s="460">
+        <v>0</v>
+      </c>
+      <c r="D13" s="460">
+        <v>0</v>
+      </c>
+      <c r="E13" s="460">
+        <v>1</v>
+      </c>
+      <c r="F13" s="461">
+        <f t="shared" ref="F13:F14" si="0">SUM(B13:E13)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="347" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="345" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" s="460">
+        <v>1</v>
+      </c>
+      <c r="C14" s="460">
+        <v>0</v>
+      </c>
+      <c r="D14" s="460">
+        <v>0</v>
+      </c>
+      <c r="E14" s="460">
+        <v>0</v>
+      </c>
+      <c r="F14" s="461">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="347" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="462">
+        <f>SUM(B12:B14)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="462">
+        <f>SUM(C12:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="462">
+        <f>SUM(D12:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="462">
+        <f>SUM(E12:E14)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F12)</f>
+        <v>=SUMA(B12:E12)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="351" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="351" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="351" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="351" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" s="351">
+        <v>1</v>
+      </c>
+      <c r="C17" s="351">
+        <v>1</v>
+      </c>
+      <c r="D17" s="351">
+        <v>1</v>
+      </c>
+      <c r="E17" s="351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="464" t="s">
+        <v>426</v>
+      </c>
+      <c r="G19" s="465"/>
+      <c r="H19" s="465"/>
+      <c r="I19" s="466"/>
+      <c r="J19" s="282"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" s="463">
+        <f>SUMPRODUCT(B5:E7,B12:E14)</f>
+        <v>2400</v>
+      </c>
+      <c r="F20" s="467" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="468"/>
+      <c r="H20" s="468"/>
+      <c r="I20" s="469"/>
+      <c r="J20" s="346"/>
+      <c r="K20" s="346"/>
+      <c r="L20" s="346"/>
+      <c r="M20" s="346"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="F21" s="467" t="s">
+        <v>428</v>
+      </c>
+      <c r="G21" s="468"/>
+      <c r="H21" s="468"/>
+      <c r="I21" s="470"/>
+      <c r="J21" s="458"/>
+      <c r="K21" s="458"/>
+      <c r="L21" s="458"/>
+      <c r="M21" s="458"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
+      <c r="F22" s="471" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" s="472"/>
+      <c r="H22" s="472"/>
+      <c r="I22" s="473"/>
+      <c r="J22" s="458"/>
+      <c r="K22" s="458"/>
+      <c r="L22" s="458"/>
+      <c r="M22" s="458"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="I23" s="457"/>
+      <c r="J23" s="458"/>
+      <c r="K23" s="458"/>
+      <c r="L23" s="458"/>
+      <c r="M23" s="458"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25810,23 +27963,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="353"/>
-      <c r="C1" s="353" t="s">
+      <c r="B1" s="370"/>
+      <c r="C1" s="370" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="353"/>
-      <c r="E1" s="354" t="s">
+      <c r="D1" s="370"/>
+      <c r="E1" s="371" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="353"/>
+      <c r="F1" s="370"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="355" t="s">
+      <c r="H1" s="372" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="356"/>
+      <c r="I1" s="373"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -25961,10 +28114,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="353" t="s">
+      <c r="H6" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="353"/>
+      <c r="I6" s="370"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -26246,26 +28399,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="378" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
+      <c r="B3" s="379"/>
+      <c r="C3" s="379"/>
+      <c r="D3" s="379"/>
+      <c r="E3" s="379"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="363" t="s">
+      <c r="A4" s="380" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="349"/>
-      <c r="C4" s="349"/>
-      <c r="D4" s="349"/>
-      <c r="E4" s="349"/>
-      <c r="F4" s="349"/>
-      <c r="G4" s="364"/>
+      <c r="B4" s="366"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="381"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -26277,15 +28430,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="365" t="s">
+      <c r="A6" s="382" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="366"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
-      <c r="G6" s="367"/>
+      <c r="B6" s="383"/>
+      <c r="C6" s="383"/>
+      <c r="D6" s="383"/>
+      <c r="E6" s="383"/>
+      <c r="F6" s="383"/>
+      <c r="G6" s="384"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -26297,34 +28450,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="368" t="s">
+      <c r="A8" s="385" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="369"/>
-      <c r="C8" s="369"/>
-      <c r="D8" s="369"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="369"/>
-      <c r="G8" s="370"/>
+      <c r="B8" s="386"/>
+      <c r="C8" s="386"/>
+      <c r="D8" s="386"/>
+      <c r="E8" s="386"/>
+      <c r="F8" s="386"/>
+      <c r="G8" s="387"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="371" t="s">
+      <c r="A9" s="388" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="372"/>
-      <c r="C9" s="372"/>
-      <c r="D9" s="372"/>
-      <c r="E9" s="372"/>
-      <c r="F9" s="372"/>
-      <c r="G9" s="373"/>
+      <c r="B9" s="389"/>
+      <c r="C9" s="389"/>
+      <c r="D9" s="389"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="390"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="358" t="s">
+      <c r="E11" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
+      <c r="F11" s="375"/>
+      <c r="G11" s="375"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -26339,10 +28492,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="357" t="s">
+      <c r="F12" s="374" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="357"/>
+      <c r="G12" s="374"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -26563,10 +28716,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="359" t="s">
+      <c r="B24" s="376" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="360"/>
+      <c r="C24" s="377"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -26793,17 +28946,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="375" t="s">
+      <c r="F2" s="392" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="375"/>
-      <c r="H2" s="375"/>
-      <c r="I2" s="375"/>
-      <c r="J2" s="375"/>
-      <c r="K2" s="375"/>
-      <c r="L2" s="375"/>
-      <c r="M2" s="375"/>
-      <c r="N2" s="375"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
+      <c r="K2" s="392"/>
+      <c r="L2" s="392"/>
+      <c r="M2" s="392"/>
+      <c r="N2" s="392"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -26984,10 +29137,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="374" t="s">
+      <c r="F10" s="391" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="356"/>
+      <c r="G10" s="373"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -27745,10 +29898,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="393" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="377"/>
+      <c r="B1" s="394"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -27802,22 +29955,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="378" t="s">
+      <c r="A9" s="395" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="379"/>
-      <c r="C9" s="379"/>
-      <c r="D9" s="379"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="379"/>
-      <c r="G9" s="379"/>
-      <c r="H9" s="379"/>
-      <c r="I9" s="379"/>
-      <c r="J9" s="379"/>
-      <c r="K9" s="379"/>
-      <c r="L9" s="379"/>
-      <c r="M9" s="379"/>
-      <c r="N9" s="380"/>
+      <c r="B9" s="396"/>
+      <c r="C9" s="396"/>
+      <c r="D9" s="396"/>
+      <c r="E9" s="396"/>
+      <c r="F9" s="396"/>
+      <c r="G9" s="396"/>
+      <c r="H9" s="396"/>
+      <c r="I9" s="396"/>
+      <c r="J9" s="396"/>
+      <c r="K9" s="396"/>
+      <c r="L9" s="396"/>
+      <c r="M9" s="396"/>
+      <c r="N9" s="397"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -28148,16 +30301,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="381" t="s">
+      <c r="A40" s="398" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="343"/>
-      <c r="C40" s="343"/>
-      <c r="D40" s="343"/>
-      <c r="E40" s="343"/>
-      <c r="F40" s="343"/>
-      <c r="G40" s="343"/>
-      <c r="H40" s="343"/>
+      <c r="B40" s="360"/>
+      <c r="C40" s="360"/>
+      <c r="D40" s="360"/>
+      <c r="E40" s="360"/>
+      <c r="F40" s="360"/>
+      <c r="G40" s="360"/>
+      <c r="H40" s="360"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="21" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -34,16 +34,16 @@
     <sheet name=" shipping transport LP" sheetId="26" r:id="rId20"/>
     <sheet name="example transport LP" sheetId="27" r:id="rId21"/>
     <sheet name="TRANSPORT LP" sheetId="28" r:id="rId22"/>
-    <sheet name=" assigment problem LP" sheetId="29" r:id="rId23"/>
+    <sheet name=" assignment problem LP" sheetId="29" r:id="rId23"/>
     <sheet name="assignment LP" sheetId="30" r:id="rId24"/>
     <sheet name="assignment problem" sheetId="31" r:id="rId25"/>
-    <sheet name="Hoja2" sheetId="32" r:id="rId26"/>
+    <sheet name="transport and assignment" sheetId="32" r:id="rId26"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="22" hidden="1">' assigment problem LP'!$B$12:$E$14</definedName>
+    <definedName name="solver_adj" localSheetId="22" hidden="1">' assignment problem LP'!$B$12:$E$14</definedName>
     <definedName name="solver_adj" localSheetId="19" hidden="1">' shipping transport LP'!$C$12:$E$14</definedName>
     <definedName name="solver_adj" localSheetId="23" hidden="1">'assignment LP'!$B$14:$E$17</definedName>
     <definedName name="solver_adj" localSheetId="24" hidden="1">'assignment problem'!$B$12:$E$15</definedName>
@@ -53,8 +53,8 @@
     <definedName name="solver_adj" localSheetId="12" hidden="1">'example linear programming'!$B$4:$C$4</definedName>
     <definedName name="solver_adj" localSheetId="13" hidden="1">'example LP'!$B$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="20" hidden="1">'example transport LP'!$D$4:$D$12</definedName>
-    <definedName name="solver_adj" localSheetId="25" hidden="1">Hoja2!$B$15:$D$16</definedName>
     <definedName name="solver_adj" localSheetId="15" hidden="1">'more variants LP'!$B$2:$F$2</definedName>
+    <definedName name="solver_adj" localSheetId="25" hidden="1">'transport and assignment'!$B$41:$D$43</definedName>
     <definedName name="solver_adj" localSheetId="21" hidden="1">'TRANSPORT LP'!$D$13:$D$21</definedName>
     <definedName name="solver_adj" localSheetId="14" hidden="1">'variants LP'!$B$2:$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="22" hidden="1">0.0001</definedName>
@@ -67,8 +67,8 @@
     <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="20" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="25" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="21" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="14" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="22" hidden="1">1</definedName>
@@ -81,8 +81,8 @@
     <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="25" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="22" hidden="1">2</definedName>
@@ -95,8 +95,8 @@
     <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="25" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="22" hidden="1">1</definedName>
@@ -109,8 +109,8 @@
     <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="25" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="22" hidden="1">2147483647</definedName>
@@ -123,12 +123,12 @@
     <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="20" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="25" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
-    <definedName name="solver_lhs1" localSheetId="22" hidden="1">' assigment problem LP'!$B$15:$E$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="22" hidden="1">' assignment problem LP'!$B$15:$E$15</definedName>
     <definedName name="solver_lhs1" localSheetId="19" hidden="1">' shipping transport LP'!$C$15:$E$15</definedName>
     <definedName name="solver_lhs1" localSheetId="23" hidden="1">'assignment LP'!$B$18:$E$18</definedName>
     <definedName name="solver_lhs1" localSheetId="24" hidden="1">'assignment problem'!$B$16:$E$16</definedName>
@@ -138,11 +138,11 @@
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">'example linear programming'!$D$13</definedName>
     <definedName name="solver_lhs1" localSheetId="13" hidden="1">'example LP'!$D$10</definedName>
     <definedName name="solver_lhs1" localSheetId="20" hidden="1">'example transport LP'!$B$16:$B$18</definedName>
-    <definedName name="solver_lhs1" localSheetId="25" hidden="1">Hoja2!$B$17:$D$17</definedName>
     <definedName name="solver_lhs1" localSheetId="15" hidden="1">'more variants LP'!$G$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="25" hidden="1">'transport and assignment'!$B$44:$D$44</definedName>
     <definedName name="solver_lhs1" localSheetId="21" hidden="1">'TRANSPORT LP'!$C$24:$C$26</definedName>
     <definedName name="solver_lhs1" localSheetId="14" hidden="1">'variants LP'!$D$15:$D$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="22" hidden="1">' assigment problem LP'!$F$12:$F$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="22" hidden="1">' assignment problem LP'!$F$12:$F$14</definedName>
     <definedName name="solver_lhs2" localSheetId="19" hidden="1">' shipping transport LP'!$F$12:$F$14</definedName>
     <definedName name="solver_lhs2" localSheetId="23" hidden="1">'assignment LP'!$F$14:$F$17</definedName>
     <definedName name="solver_lhs2" localSheetId="24" hidden="1">'assignment problem'!$F$12:$F$15</definedName>
@@ -151,8 +151,8 @@
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">'example linear programming'!$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="13" hidden="1">'example LP'!$D$9</definedName>
     <definedName name="solver_lhs2" localSheetId="20" hidden="1">'example transport LP'!$B$22:$B$24</definedName>
-    <definedName name="solver_lhs2" localSheetId="25" hidden="1">Hoja2!$E$15:$E$16</definedName>
     <definedName name="solver_lhs2" localSheetId="15" hidden="1">'more variants LP'!$G$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="25" hidden="1">'transport and assignment'!$E$41:$E$43</definedName>
     <definedName name="solver_lhs2" localSheetId="21" hidden="1">'TRANSPORT LP'!$C$29:$C$31</definedName>
     <definedName name="solver_lhs3" localSheetId="12" hidden="1">'example linear programming'!$D$15</definedName>
     <definedName name="solver_lhs3" localSheetId="15" hidden="1">'more variants LP'!$G$14</definedName>
@@ -169,8 +169,8 @@
     <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="20" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="25" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="22" hidden="1">30</definedName>
@@ -183,8 +183,8 @@
     <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="20" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="25" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="21" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="14" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="22" hidden="1">0.075</definedName>
@@ -197,8 +197,8 @@
     <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="20" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="25" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="21" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="14" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="22" hidden="1">2</definedName>
@@ -211,8 +211,8 @@
     <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="25" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="22" hidden="1">1</definedName>
@@ -225,8 +225,8 @@
     <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="25" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="22" hidden="1">2147483647</definedName>
@@ -239,8 +239,8 @@
     <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="20" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="25" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="22" hidden="1">2</definedName>
@@ -253,8 +253,8 @@
     <definedName name="solver_num" localSheetId="12" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="15" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="25" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="15" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="22" hidden="1">1</definedName>
@@ -267,11 +267,11 @@
     <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="25" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="14" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="22" hidden="1">' assigment problem LP'!$B$20</definedName>
+    <definedName name="solver_opt" localSheetId="22" hidden="1">' assignment problem LP'!$B$20</definedName>
     <definedName name="solver_opt" localSheetId="19" hidden="1">' shipping transport LP'!$B$22</definedName>
     <definedName name="solver_opt" localSheetId="23" hidden="1">'assignment LP'!$B$10</definedName>
     <definedName name="solver_opt" localSheetId="24" hidden="1">'assignment problem'!$C$9</definedName>
@@ -281,8 +281,8 @@
     <definedName name="solver_opt" localSheetId="12" hidden="1">'example linear programming'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="13" hidden="1">'example LP'!$B$6</definedName>
     <definedName name="solver_opt" localSheetId="20" hidden="1">'example transport LP'!$B$27</definedName>
-    <definedName name="solver_opt" localSheetId="25" hidden="1">Hoja2!$B$12</definedName>
     <definedName name="solver_opt" localSheetId="15" hidden="1">'more variants LP'!$B$5</definedName>
+    <definedName name="solver_opt" localSheetId="25" hidden="1">'transport and assignment'!$C$37</definedName>
     <definedName name="solver_opt" localSheetId="21" hidden="1">'TRANSPORT LP'!$C$9</definedName>
     <definedName name="solver_opt" localSheetId="14" hidden="1">'variants LP'!$D$11</definedName>
     <definedName name="solver_pre" localSheetId="22" hidden="1">0.000001</definedName>
@@ -295,8 +295,8 @@
     <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="20" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="25" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="21" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="14" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="22" hidden="1">1</definedName>
@@ -309,8 +309,8 @@
     <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="25" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel0" localSheetId="18" hidden="1">1</definedName>
@@ -324,8 +324,8 @@
     <definedName name="solver_rel1" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="20" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="25" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="25" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="22" hidden="1">2</definedName>
@@ -337,8 +337,8 @@
     <definedName name="solver_rel2" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="20" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="25" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="21" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="15" hidden="1">3</definedName>
@@ -346,7 +346,7 @@
     <definedName name="solver_rel4" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rhs0" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
-    <definedName name="solver_rhs1" localSheetId="22" hidden="1">' assigment problem LP'!$B$17:$E$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="22" hidden="1">' assignment problem LP'!$B$17:$E$17</definedName>
     <definedName name="solver_rhs1" localSheetId="19" hidden="1">' shipping transport LP'!$C$7:$E$7</definedName>
     <definedName name="solver_rhs1" localSheetId="23" hidden="1">'assignment LP'!$B$20:$E$20</definedName>
     <definedName name="solver_rhs1" localSheetId="24" hidden="1">'assignment problem'!$B$18:$E$18</definedName>
@@ -356,11 +356,11 @@
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">'example linear programming'!$F$13</definedName>
     <definedName name="solver_rhs1" localSheetId="13" hidden="1">'example LP'!$F$10</definedName>
     <definedName name="solver_rhs1" localSheetId="20" hidden="1">'example transport LP'!$D$16:$D$18</definedName>
-    <definedName name="solver_rhs1" localSheetId="25" hidden="1">Hoja2!$B$19:$D$19</definedName>
     <definedName name="solver_rhs1" localSheetId="15" hidden="1">'more variants LP'!$I$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="25" hidden="1">'transport and assignment'!$B$46:$D$46</definedName>
     <definedName name="solver_rhs1" localSheetId="21" hidden="1">'TRANSPORT LP'!$E$24:$E$26</definedName>
     <definedName name="solver_rhs1" localSheetId="14" hidden="1">'variants LP'!$F$15:$F$18</definedName>
-    <definedName name="solver_rhs2" localSheetId="22" hidden="1">' assigment problem LP'!$H$12:$H$14</definedName>
+    <definedName name="solver_rhs2" localSheetId="22" hidden="1">' assignment problem LP'!$H$12:$H$14</definedName>
     <definedName name="solver_rhs2" localSheetId="19" hidden="1">' shipping transport LP'!$F$4:$F$6</definedName>
     <definedName name="solver_rhs2" localSheetId="23" hidden="1">'assignment LP'!$H$14:$H$17</definedName>
     <definedName name="solver_rhs2" localSheetId="24" hidden="1">'assignment problem'!$H$12:$H$15</definedName>
@@ -369,8 +369,8 @@
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">'example linear programming'!$F$14</definedName>
     <definedName name="solver_rhs2" localSheetId="13" hidden="1">'example LP'!$F$9</definedName>
     <definedName name="solver_rhs2" localSheetId="20" hidden="1">'example transport LP'!$D$22:$D$24</definedName>
-    <definedName name="solver_rhs2" localSheetId="25" hidden="1">Hoja2!$G$15:$G$16</definedName>
     <definedName name="solver_rhs2" localSheetId="15" hidden="1">'more variants LP'!$I$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="25" hidden="1">'transport and assignment'!$G$41:$G$43</definedName>
     <definedName name="solver_rhs2" localSheetId="21" hidden="1">'TRANSPORT LP'!$E$29:$E$31</definedName>
     <definedName name="solver_rhs3" localSheetId="12" hidden="1">'example linear programming'!$F$15</definedName>
     <definedName name="solver_rhs3" localSheetId="15" hidden="1">'more variants LP'!$I$14</definedName>
@@ -387,8 +387,8 @@
     <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="25" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="22" hidden="1">0</definedName>
@@ -401,8 +401,8 @@
     <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="20" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="25" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="21" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="22" hidden="1">1</definedName>
@@ -415,8 +415,8 @@
     <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="25" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="22" hidden="1">2</definedName>
@@ -429,8 +429,8 @@
     <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="25" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="22" hidden="1">100</definedName>
@@ -443,8 +443,8 @@
     <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="20" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="25" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="21" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="14" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="22" hidden="1">2147483647</definedName>
@@ -457,8 +457,8 @@
     <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="20" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="25" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="22" hidden="1">0.01</definedName>
@@ -471,8 +471,8 @@
     <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="20" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="15" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="25" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="15" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="21" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="14" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="22" hidden="1">2</definedName>
@@ -485,8 +485,8 @@
     <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="20" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="25" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="25" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="22" hidden="1">0</definedName>
@@ -499,8 +499,8 @@
     <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="20" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="25" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="21" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="22" hidden="1">3</definedName>
@@ -513,8 +513,8 @@
     <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="20" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="25" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="21" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="14" hidden="1">3</definedName>
   </definedNames>
@@ -563,7 +563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="480">
   <si>
     <t>YEAR code</t>
   </si>
@@ -2635,6 +2635,52 @@
   </si>
   <si>
     <t>*sumo a cada tienda el coste de producción: Tienda A/fábrica 1: 22+6</t>
+  </si>
+  <si>
+    <t>Closing Plant</t>
+  </si>
+  <si>
+    <t>No. Of Workers to transfer</t>
+  </si>
+  <si>
+    <t>Fabrica 3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>No. Of Workers open positions</t>
+  </si>
+  <si>
+    <t>SECOND PART:</t>
+  </si>
+  <si>
+    <t>*Asignment problem</t>
+  </si>
+  <si>
+    <t>*Transport problem</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>TO:</t>
+  </si>
+  <si>
+    <t>Max the production:</t>
+  </si>
+  <si>
+    <t>Open Plant 
+(Demand)</t>
+  </si>
+  <si>
+    <t>Contraints:</t>
   </si>
 </sst>
 </file>
@@ -4031,7 +4077,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="509">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4920,218 +4966,17 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5149,9 +4994,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5185,6 +5027,239 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -18170,6 +18245,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>257288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771901" y="4411837"/>
+          <a:ext cx="4476750" cy="731776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="6738317"/>
+          <a:ext cx="3590925" cy="815161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>320011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771901" y="5206336"/>
+          <a:ext cx="3810000" cy="985095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20191,25 +20380,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="451" t="s">
+      <c r="G1" s="473" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="452"/>
-      <c r="I1" s="452"/>
-      <c r="J1" s="452"/>
-      <c r="K1" s="452"/>
-      <c r="L1" s="452"/>
-      <c r="M1" s="452"/>
-      <c r="N1" s="452"/>
-      <c r="O1" s="452"/>
-      <c r="P1" s="452"/>
-      <c r="Q1" s="452"/>
-      <c r="R1" s="452"/>
-      <c r="S1" s="452"/>
-      <c r="T1" s="452"/>
-      <c r="U1" s="452"/>
-      <c r="V1" s="452"/>
-      <c r="W1" s="453"/>
+      <c r="H1" s="474"/>
+      <c r="I1" s="474"/>
+      <c r="J1" s="474"/>
+      <c r="K1" s="474"/>
+      <c r="L1" s="474"/>
+      <c r="M1" s="474"/>
+      <c r="N1" s="474"/>
+      <c r="O1" s="474"/>
+      <c r="P1" s="474"/>
+      <c r="Q1" s="474"/>
+      <c r="R1" s="474"/>
+      <c r="S1" s="474"/>
+      <c r="T1" s="474"/>
+      <c r="U1" s="474"/>
+      <c r="V1" s="474"/>
+      <c r="W1" s="475"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -21180,9 +21369,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="454"/>
-      <c r="L16" s="454"/>
-      <c r="M16" s="454"/>
+      <c r="K16" s="476"/>
+      <c r="L16" s="476"/>
+      <c r="M16" s="476"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -21212,9 +21401,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="454"/>
-      <c r="L17" s="454"/>
-      <c r="M17" s="454"/>
+      <c r="K17" s="476"/>
+      <c r="L17" s="476"/>
+      <c r="M17" s="476"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -21230,10 +21419,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="448" t="s">
+      <c r="Y17" s="470" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="449"/>
+      <c r="Z17" s="471"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -21270,11 +21459,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="447" t="s">
+      <c r="G23" s="469" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="447"/>
-      <c r="I23" s="447"/>
+      <c r="H23" s="469"/>
+      <c r="I23" s="469"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -21282,11 +21471,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="450" t="s">
+      <c r="G24" s="472" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="450"/>
-      <c r="I24" s="450"/>
+      <c r="H24" s="472"/>
+      <c r="I24" s="472"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -21377,20 +21566,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="479" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="480"/>
+      <c r="F1" s="480"/>
+      <c r="G1" s="480"/>
+      <c r="H1" s="480"/>
+      <c r="I1" s="480"/>
+      <c r="J1" s="480"/>
+      <c r="K1" s="480"/>
+      <c r="L1" s="480"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -21447,10 +21636,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="459" t="s">
+      <c r="M3" s="481" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="459"/>
+      <c r="N3" s="481"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -21669,10 +21858,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="460" t="s">
+      <c r="M9" s="482" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="461"/>
+      <c r="N9" s="483"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -21941,12 +22130,12 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="462" t="s">
+      <c r="D17" s="484" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="462"/>
-      <c r="F17" s="462"/>
-      <c r="G17" s="462"/>
+      <c r="E17" s="484"/>
+      <c r="F17" s="484"/>
+      <c r="G17" s="484"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -22290,11 +22479,11 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="418" t="s">
+      <c r="O24" s="440" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="418"/>
-      <c r="Q24" s="418"/>
+      <c r="P24" s="440"/>
+      <c r="Q24" s="440"/>
       <c r="R24" s="65"/>
     </row>
     <row r="25" spans="1:19">
@@ -22365,7 +22554,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="455" t="s">
+      <c r="M26" s="477" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -22427,7 +22616,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="455"/>
+      <c r="M27" s="477"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -22487,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="455"/>
+      <c r="M28" s="477"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -22910,11 +23099,11 @@
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="456" t="s">
+      <c r="E40" s="478" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="456"/>
-      <c r="G40" s="456"/>
+      <c r="F40" s="478"/>
+      <c r="G40" s="478"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -23959,12 +24148,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="423" t="s">
+      <c r="A1" s="445" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="423"/>
-      <c r="C1" s="423"/>
-      <c r="D1" s="423"/>
+      <c r="B1" s="445"/>
+      <c r="C1" s="445"/>
+      <c r="D1" s="445"/>
       <c r="E1" s="65" t="s">
         <v>217</v>
       </c>
@@ -24155,19 +24344,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="463" t="s">
+      <c r="A20" s="485" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="463"/>
+      <c r="B20" s="485"/>
       <c r="C20" s="261">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="463" t="s">
+      <c r="A21" s="485" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="463"/>
+      <c r="B21" s="485"/>
       <c r="C21" s="12">
         <v>200</v>
       </c>
@@ -24182,10 +24371,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="463" t="s">
+      <c r="A22" s="485" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="463"/>
+      <c r="B22" s="485"/>
       <c r="C22" s="12">
         <v>500</v>
       </c>
@@ -24200,35 +24389,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="463" t="s">
+      <c r="A23" s="485" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="463"/>
-      <c r="C23" s="463"/>
-      <c r="D23" s="463"/>
-      <c r="E23" s="463"/>
+      <c r="B23" s="485"/>
+      <c r="C23" s="485"/>
+      <c r="D23" s="485"/>
+      <c r="E23" s="485"/>
       <c r="F23" s="12">
         <f>200*10+500*10</f>
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="463" t="s">
+      <c r="A24" s="485" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="463"/>
-      <c r="C24" s="463"/>
-      <c r="D24" s="463"/>
+      <c r="B24" s="485"/>
+      <c r="C24" s="485"/>
+      <c r="D24" s="485"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="464" t="s">
+      <c r="A26" s="486" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="464"/>
-      <c r="C26" s="464"/>
-      <c r="D26" s="464"/>
-      <c r="E26" s="464"/>
-      <c r="F26" s="464"/>
+      <c r="B26" s="486"/>
+      <c r="C26" s="486"/>
+      <c r="D26" s="486"/>
+      <c r="E26" s="486"/>
+      <c r="F26" s="486"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -24577,11 +24766,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="465" t="s">
+      <c r="A11" s="487" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="466"/>
-      <c r="C11" s="467"/>
+      <c r="B11" s="488"/>
+      <c r="C11" s="489"/>
       <c r="D11" s="285">
         <f>D5-D10</f>
         <v>353834</v>
@@ -26052,35 +26241,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="435" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="413"/>
+      <c r="B2" s="435"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="435"/>
+      <c r="E2" s="435"/>
+      <c r="F2" s="435"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="414" t="s">
+      <c r="A3" s="436" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="414"/>
-      <c r="F3" s="414"/>
-      <c r="G3" s="414"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="414"/>
-      <c r="B4" s="414"/>
-      <c r="C4" s="414"/>
-      <c r="D4" s="414"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="414"/>
-      <c r="G4" s="414"/>
+      <c r="A4" s="436"/>
+      <c r="B4" s="436"/>
+      <c r="C4" s="436"/>
+      <c r="D4" s="436"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="436"/>
+      <c r="G4" s="436"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -26111,22 +26300,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="412" t="s">
+      <c r="A9" s="434" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="412"/>
-      <c r="C9" s="412"/>
-      <c r="D9" s="412"/>
-      <c r="E9" s="412"/>
-      <c r="F9" s="412"/>
+      <c r="B9" s="434"/>
+      <c r="C9" s="434"/>
+      <c r="D9" s="434"/>
+      <c r="E9" s="434"/>
+      <c r="F9" s="434"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="412"/>
-      <c r="B10" s="412"/>
-      <c r="C10" s="412"/>
-      <c r="D10" s="412"/>
-      <c r="E10" s="412"/>
-      <c r="F10" s="412"/>
+      <c r="A10" s="434"/>
+      <c r="B10" s="434"/>
+      <c r="C10" s="434"/>
+      <c r="D10" s="434"/>
+      <c r="E10" s="434"/>
+      <c r="F10" s="434"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -26139,11 +26328,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="415" t="s">
+      <c r="A20" s="437" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="416"/>
-      <c r="C20" s="417"/>
+      <c r="B20" s="438"/>
+      <c r="C20" s="439"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -26421,12 +26610,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="409" t="s">
+      <c r="G39" s="431" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="410"/>
-      <c r="I39" s="410"/>
-      <c r="J39" s="411"/>
+      <c r="H39" s="432"/>
+      <c r="I39" s="432"/>
+      <c r="J39" s="433"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -26459,13 +26648,13 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="408" t="s">
+      <c r="A45" s="430" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="408"/>
-      <c r="C45" s="408"/>
-      <c r="D45" s="408"/>
-      <c r="E45" s="408"/>
+      <c r="B45" s="430"/>
+      <c r="C45" s="430"/>
+      <c r="D45" s="430"/>
+      <c r="E45" s="430"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26502,20 +26691,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="105" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="468" t="s">
+      <c r="A1" s="496" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="469"/>
+      <c r="B1" s="497"/>
       <c r="H1" s="105" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C2" s="472" t="s">
+      <c r="C2" s="491" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="473"/>
-      <c r="E2" s="473"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="492"/>
       <c r="H2" s="85" t="s">
         <v>335</v>
       </c>
@@ -26540,7 +26729,7 @@
       <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="474" t="s">
+      <c r="A4" s="493" t="s">
         <v>349</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -26563,7 +26752,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="475"/>
+      <c r="A5" s="494"/>
       <c r="B5" s="5" t="s">
         <v>329</v>
       </c>
@@ -26579,10 +26768,10 @@
       <c r="F5" s="352">
         <v>300</v>
       </c>
-      <c r="H5" s="463" t="s">
+      <c r="H5" s="485" t="s">
         <v>327</v>
       </c>
-      <c r="I5" s="463"/>
+      <c r="I5" s="485"/>
       <c r="J5" t="s">
         <v>324</v>
       </c>
@@ -26594,7 +26783,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="475"/>
+      <c r="A6" s="494"/>
       <c r="B6" s="5" t="s">
         <v>331</v>
       </c>
@@ -26644,10 +26833,10 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="H9" s="463" t="s">
+      <c r="H9" s="485" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="463"/>
+      <c r="I9" s="485"/>
       <c r="J9" s="65" t="s">
         <v>324</v>
       </c>
@@ -26661,11 +26850,11 @@
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
-      <c r="C10" s="472" t="s">
+      <c r="C10" s="491" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="473"/>
-      <c r="E10" s="473"/>
+      <c r="D10" s="492"/>
+      <c r="E10" s="492"/>
       <c r="F10" s="65"/>
       <c r="J10" s="65" t="s">
         <v>325</v>
@@ -26705,7 +26894,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="474" t="s">
+      <c r="A12" s="493" t="s">
         <v>349</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -26730,7 +26919,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="475"/>
+      <c r="A13" s="494"/>
       <c r="B13" s="5" t="s">
         <v>329</v>
       </c>
@@ -26751,10 +26940,10 @@
         <f t="shared" ref="G13:G14" ca="1" si="1">_xlfn.FORMULATEXT(F13)</f>
         <v>=SUMA(C13:E13)</v>
       </c>
-      <c r="H13" s="463" t="s">
+      <c r="H13" s="485" t="s">
         <v>332</v>
       </c>
-      <c r="I13" s="463"/>
+      <c r="I13" s="485"/>
       <c r="J13" s="65" t="s">
         <v>324</v>
       </c>
@@ -26766,7 +26955,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="475"/>
+      <c r="A14" s="494"/>
       <c r="B14" s="5" t="s">
         <v>331</v>
       </c>
@@ -26840,20 +27029,20 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="H17" s="470" t="s">
+      <c r="H17" s="498" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="470"/>
+      <c r="I17" s="498"/>
       <c r="K17" s="65"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1">
       <c r="H18" s="350" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="471" t="s">
+      <c r="K18" s="490" t="s">
         <v>344</v>
       </c>
-      <c r="L18" s="471"/>
+      <c r="L18" s="490"/>
       <c r="M18" s="65"/>
     </row>
     <row r="19" spans="1:13">
@@ -26865,7 +27054,7 @@
       <c r="D19" s="358"/>
       <c r="E19" s="358"/>
       <c r="F19" s="358"/>
-      <c r="H19" s="464" t="s">
+      <c r="H19" s="486" t="s">
         <v>340</v>
       </c>
       <c r="I19" s="105" t="s">
@@ -26882,7 +27071,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="H20" s="464"/>
+      <c r="H20" s="486"/>
       <c r="I20" s="105" t="s">
         <v>338</v>
       </c>
@@ -26897,11 +27086,11 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="476" t="s">
+      <c r="A21" s="495" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="476"/>
-      <c r="H21" s="464"/>
+      <c r="B21" s="495"/>
+      <c r="H21" s="486"/>
       <c r="I21" s="105" t="s">
         <v>339</v>
       </c>
@@ -26926,6 +27115,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="C2:E2"/>
@@ -26933,11 +27127,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27021,10 +27210,10 @@
       <c r="D5" s="368">
         <v>0</v>
       </c>
-      <c r="J5" s="463" t="s">
+      <c r="J5" s="485" t="s">
         <v>327</v>
       </c>
-      <c r="K5" s="463"/>
+      <c r="K5" s="485"/>
       <c r="L5" s="65" t="s">
         <v>324</v>
       </c>
@@ -27117,10 +27306,10 @@
       <c r="D9" s="368">
         <v>0</v>
       </c>
-      <c r="J9" s="463" t="s">
+      <c r="J9" s="485" t="s">
         <v>330</v>
       </c>
-      <c r="K9" s="463"/>
+      <c r="K9" s="485"/>
       <c r="L9" s="65" t="s">
         <v>324</v>
       </c>
@@ -27204,10 +27393,10 @@
       <c r="D13" s="369" t="s">
         <v>365</v>
       </c>
-      <c r="J13" s="463" t="s">
+      <c r="J13" s="485" t="s">
         <v>332</v>
       </c>
-      <c r="K13" s="463"/>
+      <c r="K13" s="485"/>
       <c r="L13" s="65" t="s">
         <v>324</v>
       </c>
@@ -27301,10 +27490,10 @@
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
-      <c r="J17" s="470" t="s">
+      <c r="J17" s="498" t="s">
         <v>333</v>
       </c>
-      <c r="K17" s="470"/>
+      <c r="K17" s="498"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
@@ -27329,13 +27518,13 @@
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
-      <c r="M18" s="471" t="s">
+      <c r="M18" s="490" t="s">
         <v>344</v>
       </c>
-      <c r="N18" s="471"/>
+      <c r="N18" s="490"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="J19" s="464" t="s">
+      <c r="J19" s="486" t="s">
         <v>340</v>
       </c>
       <c r="K19" s="105" t="s">
@@ -27360,7 +27549,7 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
-      <c r="J20" s="464"/>
+      <c r="J20" s="486"/>
       <c r="K20" s="105" t="s">
         <v>338</v>
       </c>
@@ -27387,7 +27576,7 @@
       <c r="D21" s="297" t="s">
         <v>326</v>
       </c>
-      <c r="J21" s="464"/>
+      <c r="J21" s="486"/>
       <c r="K21" s="105" t="s">
         <v>339</v>
       </c>
@@ -27479,12 +27668,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27509,9 +27698,9 @@
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
-      <c r="C1" s="472"/>
-      <c r="D1" s="473"/>
-      <c r="E1" s="473"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="492"/>
+      <c r="E1" s="492"/>
       <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
@@ -27533,7 +27722,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="474"/>
+      <c r="A3" s="493"/>
       <c r="B3" s="5" t="s">
         <v>376</v>
       </c>
@@ -27551,7 +27740,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="475"/>
+      <c r="A4" s="494"/>
       <c r="B4" s="5" t="s">
         <v>377</v>
       </c>
@@ -27569,7 +27758,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="475"/>
+      <c r="A5" s="494"/>
       <c r="B5" s="373" t="s">
         <v>378</v>
       </c>
@@ -27772,10 +27961,10 @@
       <c r="A23" s="385" t="s">
         <v>397</v>
       </c>
-      <c r="B23" s="477" t="s">
+      <c r="B23" s="499" t="s">
         <v>404</v>
       </c>
-      <c r="C23" s="477"/>
+      <c r="C23" s="499"/>
       <c r="D23" s="347" t="s">
         <v>366</v>
       </c>
@@ -27846,10 +28035,10 @@
       <c r="A28" s="385" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="478" t="s">
+      <c r="B28" s="500" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="478"/>
+      <c r="C28" s="500"/>
       <c r="D28" s="347" t="s">
         <v>366</v>
       </c>
@@ -27932,8 +28121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28027,10 +28216,10 @@
       <c r="E8" s="389"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="446" t="s">
+      <c r="A10" s="468" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="408"/>
+      <c r="B10" s="430"/>
       <c r="C10" s="393" t="s">
         <v>422</v>
       </c>
@@ -28281,7 +28470,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8">
-      <c r="A3" s="479" t="s">
+      <c r="A3" s="412" t="s">
         <v>439</v>
       </c>
       <c r="B3" s="361" t="s">
@@ -28410,23 +28599,23 @@
       <c r="A14" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="481">
+      <c r="B14" s="414">
         <v>0</v>
       </c>
-      <c r="C14" s="481">
+      <c r="C14" s="414">
         <v>0</v>
       </c>
-      <c r="D14" s="481">
+      <c r="D14" s="414">
         <v>1</v>
       </c>
-      <c r="E14" s="481">
+      <c r="E14" s="414">
         <v>0</v>
       </c>
-      <c r="F14" s="480">
+      <c r="F14" s="413">
         <f>SUM(B14:E14)</f>
         <v>1</v>
       </c>
-      <c r="G14" s="483" t="s">
+      <c r="G14" s="416" t="s">
         <v>87</v>
       </c>
       <c r="H14" s="363">
@@ -28437,23 +28626,23 @@
       <c r="A15" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B15" s="481">
+      <c r="B15" s="414">
         <v>0</v>
       </c>
-      <c r="C15" s="481">
+      <c r="C15" s="414">
         <v>1</v>
       </c>
-      <c r="D15" s="481">
+      <c r="D15" s="414">
         <v>0</v>
       </c>
-      <c r="E15" s="481">
+      <c r="E15" s="414">
         <v>0</v>
       </c>
-      <c r="F15" s="480">
+      <c r="F15" s="413">
         <f>SUM(B15:E15)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="483" t="s">
+      <c r="G15" s="416" t="s">
         <v>87</v>
       </c>
       <c r="H15" s="363">
@@ -28464,23 +28653,23 @@
       <c r="A16" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B16" s="481">
+      <c r="B16" s="414">
         <v>1</v>
       </c>
-      <c r="C16" s="481">
+      <c r="C16" s="414">
         <v>0</v>
       </c>
-      <c r="D16" s="481">
+      <c r="D16" s="414">
         <v>0</v>
       </c>
-      <c r="E16" s="482">
+      <c r="E16" s="415">
         <v>0</v>
       </c>
-      <c r="F16" s="480">
+      <c r="F16" s="413">
         <f>SUM(B16:D16)</f>
         <v>1</v>
       </c>
-      <c r="G16" s="483" t="s">
+      <c r="G16" s="416" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="363">
@@ -28491,23 +28680,23 @@
       <c r="A17" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B17" s="481">
+      <c r="B17" s="414">
         <v>0</v>
       </c>
-      <c r="C17" s="481">
+      <c r="C17" s="414">
         <v>0</v>
       </c>
-      <c r="D17" s="481">
+      <c r="D17" s="414">
         <v>0</v>
       </c>
-      <c r="E17" s="481">
+      <c r="E17" s="414">
         <v>1</v>
       </c>
-      <c r="F17" s="480">
+      <c r="F17" s="413">
         <f>SUM(B17:E17)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="483" t="s">
+      <c r="G17" s="416" t="s">
         <v>87</v>
       </c>
       <c r="H17" s="363">
@@ -28551,16 +28740,16 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="484">
+      <c r="B20" s="417">
         <v>1</v>
       </c>
-      <c r="C20" s="484">
+      <c r="C20" s="417">
         <v>1</v>
       </c>
-      <c r="D20" s="484">
+      <c r="D20" s="417">
         <v>1</v>
       </c>
-      <c r="E20" s="484">
+      <c r="E20" s="417">
         <v>1</v>
       </c>
     </row>
@@ -28586,7 +28775,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="479" t="s">
+      <c r="A2" s="412" t="s">
         <v>439</v>
       </c>
       <c r="B2" s="361" t="s">
@@ -28676,17 +28865,17 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="485" t="s">
+      <c r="A9" s="501" t="s">
         <v>450</v>
       </c>
-      <c r="B9" s="485"/>
+      <c r="B9" s="501"/>
       <c r="C9" s="320">
         <f>SUMPRODUCT(B3:E6,B12:E15)</f>
         <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="479" t="s">
+      <c r="A11" s="412" t="s">
         <v>439</v>
       </c>
       <c r="B11" s="361" t="s">
@@ -28836,16 +29025,16 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="486" t="s">
+      <c r="B17" s="418" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="486" t="s">
+      <c r="C17" s="418" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="486" t="s">
+      <c r="D17" s="418" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="486" t="s">
+      <c r="E17" s="418" t="s">
         <v>87</v>
       </c>
     </row>
@@ -28874,20 +29063,22 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="420" t="s">
         <v>462</v>
       </c>
       <c r="B2" s="361" t="s">
@@ -28907,15 +29098,15 @@
       <c r="A3" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B3" s="487">
+      <c r="B3" s="419">
         <f>22+6</f>
         <v>28</v>
       </c>
-      <c r="C3" s="487">
+      <c r="C3" s="419">
         <f>14+6</f>
         <v>20</v>
       </c>
-      <c r="D3" s="487">
+      <c r="D3" s="419">
         <f>30+6</f>
         <v>36</v>
       </c>
@@ -28927,15 +29118,15 @@
       <c r="A4" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="487">
+      <c r="B4" s="419">
         <f>16+6.25</f>
         <v>22.25</v>
       </c>
-      <c r="C4" s="487">
+      <c r="C4" s="419">
         <f>20+6.25</f>
         <v>26.25</v>
       </c>
-      <c r="D4" s="487">
+      <c r="D4" s="419">
         <f>24+6.25</f>
         <v>30.25</v>
       </c>
@@ -28958,48 +29149,48 @@
       <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A7" s="488" t="s">
+      <c r="A7" s="420" t="s">
         <v>463</v>
       </c>
       <c r="B7" s="367" t="s">
         <v>461</v>
       </c>
       <c r="C7" s="360"/>
-      <c r="D7" s="492"/>
-      <c r="E7" s="493"/>
-      <c r="F7" s="493"/>
-      <c r="G7" s="493"/>
-      <c r="H7" s="494"/>
+      <c r="D7" s="424"/>
+      <c r="E7" s="425"/>
+      <c r="F7" s="425"/>
+      <c r="G7" s="425"/>
+      <c r="H7" s="426"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B8" s="487">
+      <c r="B8" s="419">
         <v>6</v>
       </c>
-      <c r="C8" s="497" t="s">
+      <c r="C8" s="429" t="s">
         <v>464</v>
       </c>
       <c r="D8" s="372"/>
-      <c r="E8" s="495"/>
-      <c r="F8" s="495"/>
-      <c r="G8" s="495"/>
-      <c r="H8" s="496"/>
+      <c r="E8" s="427"/>
+      <c r="F8" s="427"/>
+      <c r="G8" s="427"/>
+      <c r="H8" s="428"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B9" s="487">
+      <c r="B9" s="419">
         <v>6.25</v>
       </c>
-      <c r="C9" s="490"/>
+      <c r="C9" s="422"/>
       <c r="D9" s="372"/>
-      <c r="E9" s="495"/>
-      <c r="F9" s="495"/>
-      <c r="G9" s="495"/>
-      <c r="H9" s="496"/>
+      <c r="E9" s="427"/>
+      <c r="F9" s="427"/>
+      <c r="G9" s="427"/>
+      <c r="H9" s="428"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1">
       <c r="A11" s="372" t="s">
@@ -29026,7 +29217,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="489" t="s">
+      <c r="A14" s="421" t="s">
         <v>457</v>
       </c>
       <c r="B14" s="361" t="s">
@@ -29050,13 +29241,13 @@
       <c r="A15" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B15" s="491">
+      <c r="B15" s="423">
         <v>30</v>
       </c>
-      <c r="C15" s="491">
+      <c r="C15" s="423">
         <v>60</v>
       </c>
-      <c r="D15" s="491">
+      <c r="D15" s="423">
         <v>0</v>
       </c>
       <c r="E15" s="395">
@@ -29074,13 +29265,13 @@
       <c r="A16" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B16" s="491">
+      <c r="B16" s="423">
         <v>50</v>
       </c>
-      <c r="C16" s="491">
+      <c r="C16" s="423">
         <v>0</v>
       </c>
-      <c r="D16" s="491">
+      <c r="D16" s="423">
         <v>70</v>
       </c>
       <c r="E16" s="395">
@@ -29143,7 +29334,341 @@
         <v>70</v>
       </c>
     </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="503" t="s">
+        <v>472</v>
+      </c>
+      <c r="B21" s="349" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" s="65"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A23" s="408" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" s="367" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="367" t="s">
+        <v>478</v>
+      </c>
+      <c r="D23" s="367" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B24" s="502">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="502">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B25" s="502">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" s="502">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B26" s="502">
+        <v>70</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D26" s="502">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="410">
+        <v>235</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="410">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="349" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="65"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="504" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="408" t="s">
+        <v>475</v>
+      </c>
+      <c r="B31" s="367" t="s">
+        <v>468</v>
+      </c>
+      <c r="C31" s="408" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" s="367" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="410">
+        <v>1</v>
+      </c>
+      <c r="B32" s="502">
+        <v>5</v>
+      </c>
+      <c r="C32" s="410">
+        <v>8</v>
+      </c>
+      <c r="D32" s="502">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="410">
+        <v>2</v>
+      </c>
+      <c r="B33" s="502">
+        <v>10</v>
+      </c>
+      <c r="C33" s="410">
+        <v>9</v>
+      </c>
+      <c r="D33" s="502">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="410">
+        <v>3</v>
+      </c>
+      <c r="B34" s="502">
+        <v>7</v>
+      </c>
+      <c r="C34" s="410">
+        <v>6</v>
+      </c>
+      <c r="D34" s="502">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="42"/>
+      <c r="B35" s="409"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="409"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A36" s="349" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A37" s="505" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" s="506"/>
+      <c r="C37" s="370">
+        <f>SUMPRODUCT(B41:D43,B32:D34)</f>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="42"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="504" t="s">
+        <v>476</v>
+      </c>
+      <c r="D39" s="65"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="408" t="s">
+        <v>475</v>
+      </c>
+      <c r="B40" s="367" t="s">
+        <v>468</v>
+      </c>
+      <c r="C40" s="408" t="s">
+        <v>469</v>
+      </c>
+      <c r="D40" s="367" t="s">
+        <v>470</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40" s="65"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="410">
+        <v>1</v>
+      </c>
+      <c r="B41" s="423">
+        <v>0</v>
+      </c>
+      <c r="C41" s="357">
+        <v>60</v>
+      </c>
+      <c r="D41" s="423">
+        <v>0</v>
+      </c>
+      <c r="E41" s="395">
+        <f>SUM(B41:D41)</f>
+        <v>60</v>
+      </c>
+      <c r="F41" s="410" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41" s="410">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="410">
+        <v>2</v>
+      </c>
+      <c r="B42" s="423">
+        <v>45</v>
+      </c>
+      <c r="C42" s="357">
+        <v>30</v>
+      </c>
+      <c r="D42" s="423">
+        <v>30</v>
+      </c>
+      <c r="E42" s="395">
+        <f t="shared" ref="E42:E43" si="1">SUM(B42:D42)</f>
+        <v>105</v>
+      </c>
+      <c r="F42" s="410" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="410">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="410">
+        <v>3</v>
+      </c>
+      <c r="B43" s="423">
+        <v>0</v>
+      </c>
+      <c r="C43" s="357">
+        <v>0</v>
+      </c>
+      <c r="D43" s="423">
+        <v>5</v>
+      </c>
+      <c r="E43" s="395">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F43" s="410" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" s="410">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="395">
+        <f>SUM(B41:B43)</f>
+        <v>45</v>
+      </c>
+      <c r="C44" s="395">
+        <f t="shared" ref="C44:D44" si="2">SUM(C41:C43)</f>
+        <v>90</v>
+      </c>
+      <c r="D44" s="395">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>479</v>
+      </c>
+      <c r="B45" s="410" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="410" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="410" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="508">
+        <v>45</v>
+      </c>
+      <c r="C46" s="415">
+        <v>90</v>
+      </c>
+      <c r="D46" s="508">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B48)</f>
+        <v>=SUMA(B44:D44)</v>
+      </c>
+      <c r="B48" s="507">
+        <f>SUM(B44:D44)</f>
+        <v>170</v>
+      </c>
+      <c r="C48" s="440"/>
+      <c r="D48" s="440"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="411" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="411">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="B48:D48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -29193,23 +29718,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="440" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="418"/>
-      <c r="C1" s="418" t="s">
+      <c r="B1" s="440"/>
+      <c r="C1" s="440" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="418"/>
-      <c r="E1" s="419" t="s">
+      <c r="D1" s="440"/>
+      <c r="E1" s="441" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="418"/>
+      <c r="F1" s="440"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="420" t="s">
+      <c r="H1" s="442" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="421"/>
+      <c r="I1" s="443"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -29344,10 +29869,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="418" t="s">
+      <c r="H6" s="440" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="418"/>
+      <c r="I6" s="440"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -29629,26 +30154,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="426" t="s">
+      <c r="A3" s="448" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="427"/>
-      <c r="C3" s="427"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="427"/>
+      <c r="B3" s="449"/>
+      <c r="C3" s="449"/>
+      <c r="D3" s="449"/>
+      <c r="E3" s="449"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="428" t="s">
+      <c r="A4" s="450" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="414"/>
-      <c r="C4" s="414"/>
-      <c r="D4" s="414"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="414"/>
-      <c r="G4" s="429"/>
+      <c r="B4" s="436"/>
+      <c r="C4" s="436"/>
+      <c r="D4" s="436"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="436"/>
+      <c r="G4" s="451"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -29660,15 +30185,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="430" t="s">
+      <c r="A6" s="452" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="431"/>
-      <c r="C6" s="431"/>
-      <c r="D6" s="431"/>
-      <c r="E6" s="431"/>
-      <c r="F6" s="431"/>
-      <c r="G6" s="432"/>
+      <c r="B6" s="453"/>
+      <c r="C6" s="453"/>
+      <c r="D6" s="453"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="454"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -29680,34 +30205,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="433" t="s">
+      <c r="A8" s="455" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="434"/>
-      <c r="C8" s="434"/>
-      <c r="D8" s="434"/>
-      <c r="E8" s="434"/>
-      <c r="F8" s="434"/>
-      <c r="G8" s="435"/>
+      <c r="B8" s="456"/>
+      <c r="C8" s="456"/>
+      <c r="D8" s="456"/>
+      <c r="E8" s="456"/>
+      <c r="F8" s="456"/>
+      <c r="G8" s="457"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="436" t="s">
+      <c r="A9" s="458" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="437"/>
-      <c r="C9" s="437"/>
-      <c r="D9" s="437"/>
-      <c r="E9" s="437"/>
-      <c r="F9" s="437"/>
-      <c r="G9" s="438"/>
+      <c r="B9" s="459"/>
+      <c r="C9" s="459"/>
+      <c r="D9" s="459"/>
+      <c r="E9" s="459"/>
+      <c r="F9" s="459"/>
+      <c r="G9" s="460"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="423" t="s">
+      <c r="E11" s="445" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="423"/>
-      <c r="G11" s="423"/>
+      <c r="F11" s="445"/>
+      <c r="G11" s="445"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -29722,10 +30247,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="422" t="s">
+      <c r="F12" s="444" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="422"/>
+      <c r="G12" s="444"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -29946,10 +30471,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="424" t="s">
+      <c r="B24" s="446" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="425"/>
+      <c r="C24" s="447"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -30176,17 +30701,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="440" t="s">
+      <c r="F2" s="462" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="440"/>
-      <c r="J2" s="440"/>
-      <c r="K2" s="440"/>
-      <c r="L2" s="440"/>
-      <c r="M2" s="440"/>
-      <c r="N2" s="440"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="462"/>
+      <c r="I2" s="462"/>
+      <c r="J2" s="462"/>
+      <c r="K2" s="462"/>
+      <c r="L2" s="462"/>
+      <c r="M2" s="462"/>
+      <c r="N2" s="462"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -30367,10 +30892,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="439" t="s">
+      <c r="F10" s="461" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="421"/>
+      <c r="G10" s="443"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -31128,10 +31653,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="463" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="442"/>
+      <c r="B1" s="464"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -31185,22 +31710,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="443" t="s">
+      <c r="A9" s="465" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="444"/>
-      <c r="C9" s="444"/>
-      <c r="D9" s="444"/>
-      <c r="E9" s="444"/>
-      <c r="F9" s="444"/>
-      <c r="G9" s="444"/>
-      <c r="H9" s="444"/>
-      <c r="I9" s="444"/>
-      <c r="J9" s="444"/>
-      <c r="K9" s="444"/>
-      <c r="L9" s="444"/>
-      <c r="M9" s="444"/>
-      <c r="N9" s="445"/>
+      <c r="B9" s="466"/>
+      <c r="C9" s="466"/>
+      <c r="D9" s="466"/>
+      <c r="E9" s="466"/>
+      <c r="F9" s="466"/>
+      <c r="G9" s="466"/>
+      <c r="H9" s="466"/>
+      <c r="I9" s="466"/>
+      <c r="J9" s="466"/>
+      <c r="K9" s="466"/>
+      <c r="L9" s="466"/>
+      <c r="M9" s="466"/>
+      <c r="N9" s="467"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -31531,16 +32056,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="446" t="s">
+      <c r="A40" s="468" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="408"/>
-      <c r="C40" s="408"/>
-      <c r="D40" s="408"/>
-      <c r="E40" s="408"/>
-      <c r="F40" s="408"/>
-      <c r="G40" s="408"/>
-      <c r="H40" s="408"/>
+      <c r="B40" s="430"/>
+      <c r="C40" s="430"/>
+      <c r="D40" s="430"/>
+      <c r="E40" s="430"/>
+      <c r="F40" s="430"/>
+      <c r="G40" s="430"/>
+      <c r="H40" s="430"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="20" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="21" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -35,97 +35,123 @@
     <sheet name="example transport LP" sheetId="27" r:id="rId21"/>
     <sheet name="TRANSPORT LP" sheetId="28" r:id="rId22"/>
     <sheet name=" assigment problem LP" sheetId="29" r:id="rId23"/>
-    <sheet name="Hoja4" sheetId="30" r:id="rId24"/>
+    <sheet name="assignment LP" sheetId="30" r:id="rId24"/>
+    <sheet name="assignment problem" sheetId="31" r:id="rId25"/>
+    <sheet name="Hoja2" sheetId="32" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="22" hidden="1">' assigment problem LP'!$B$12:$E$14</definedName>
     <definedName name="solver_adj" localSheetId="19" hidden="1">' shipping transport LP'!$C$12:$E$14</definedName>
+    <definedName name="solver_adj" localSheetId="23" hidden="1">'assignment LP'!$B$14:$E$17</definedName>
+    <definedName name="solver_adj" localSheetId="24" hidden="1">'assignment problem'!$B$12:$E$15</definedName>
     <definedName name="solver_adj" localSheetId="16" hidden="1">'example 2 LP'!$B$2:$P$2</definedName>
     <definedName name="solver_adj" localSheetId="17" hidden="1">'example 3 LP'!$B$3:$K$3</definedName>
     <definedName name="solver_adj" localSheetId="18" hidden="1">'example 4 LP'!$B$9:$C$9</definedName>
     <definedName name="solver_adj" localSheetId="12" hidden="1">'example linear programming'!$B$4:$C$4</definedName>
     <definedName name="solver_adj" localSheetId="13" hidden="1">'example LP'!$B$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="20" hidden="1">'example transport LP'!$D$4:$D$12</definedName>
+    <definedName name="solver_adj" localSheetId="25" hidden="1">Hoja2!$B$15:$D$16</definedName>
     <definedName name="solver_adj" localSheetId="15" hidden="1">'more variants LP'!$B$2:$F$2</definedName>
     <definedName name="solver_adj" localSheetId="21" hidden="1">'TRANSPORT LP'!$D$13:$D$21</definedName>
     <definedName name="solver_adj" localSheetId="14" hidden="1">'variants LP'!$B$2:$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="22" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="19" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="23" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="24" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="16" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="17" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="18" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="20" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="25" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="21" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="14" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="24" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="25" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="22" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="24" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="25" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="24" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="25" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="22" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="19" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="23" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="24" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="20" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="25" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
     <definedName name="solver_lhs1" localSheetId="22" hidden="1">' assigment problem LP'!$B$15:$E$15</definedName>
     <definedName name="solver_lhs1" localSheetId="19" hidden="1">' shipping transport LP'!$C$15:$E$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="23" hidden="1">'assignment LP'!$B$18:$E$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="24" hidden="1">'assignment problem'!$B$16:$E$16</definedName>
     <definedName name="solver_lhs1" localSheetId="16" hidden="1">'example 2 LP'!$Q$13:$Q$17</definedName>
     <definedName name="solver_lhs1" localSheetId="17" hidden="1">'example 3 LP'!$L$10:$L$14</definedName>
     <definedName name="solver_lhs1" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">'example linear programming'!$D$13</definedName>
     <definedName name="solver_lhs1" localSheetId="13" hidden="1">'example LP'!$D$10</definedName>
     <definedName name="solver_lhs1" localSheetId="20" hidden="1">'example transport LP'!$B$16:$B$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="25" hidden="1">Hoja2!$B$17:$D$17</definedName>
     <definedName name="solver_lhs1" localSheetId="15" hidden="1">'more variants LP'!$G$12</definedName>
     <definedName name="solver_lhs1" localSheetId="21" hidden="1">'TRANSPORT LP'!$C$24:$C$26</definedName>
     <definedName name="solver_lhs1" localSheetId="14" hidden="1">'variants LP'!$D$15:$D$18</definedName>
     <definedName name="solver_lhs2" localSheetId="22" hidden="1">' assigment problem LP'!$F$12:$F$14</definedName>
     <definedName name="solver_lhs2" localSheetId="19" hidden="1">' shipping transport LP'!$F$12:$F$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="23" hidden="1">'assignment LP'!$F$14:$F$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="24" hidden="1">'assignment problem'!$F$12:$F$15</definedName>
     <definedName name="solver_lhs2" localSheetId="16" hidden="1">'example 2 LP'!$Q$18:$Q$20</definedName>
     <definedName name="solver_lhs2" localSheetId="18" hidden="1">'example 4 LP'!$D$15:$D$16</definedName>
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">'example linear programming'!$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="13" hidden="1">'example LP'!$D$9</definedName>
     <definedName name="solver_lhs2" localSheetId="20" hidden="1">'example transport LP'!$B$22:$B$24</definedName>
+    <definedName name="solver_lhs2" localSheetId="25" hidden="1">Hoja2!$E$15:$E$16</definedName>
     <definedName name="solver_lhs2" localSheetId="15" hidden="1">'more variants LP'!$G$13</definedName>
     <definedName name="solver_lhs2" localSheetId="21" hidden="1">'TRANSPORT LP'!$C$29:$C$31</definedName>
     <definedName name="solver_lhs3" localSheetId="12" hidden="1">'example linear programming'!$D$15</definedName>
@@ -135,144 +161,183 @@
     <definedName name="solver_lhs5" localSheetId="12" hidden="1">'example linear programming'!$D$16</definedName>
     <definedName name="solver_mip" localSheetId="22" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="19" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="23" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="24" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="20" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="25" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="22" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="19" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="23" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="24" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="16" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="17" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="18" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="20" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="25" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="21" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="14" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="22" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="19" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="23" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="24" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="16" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="17" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="18" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="20" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="25" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="21" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="14" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="22" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="24" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="25" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="24" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="25" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="22" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="19" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="23" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="24" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="20" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="25" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="22" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="24" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="12" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="25" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="15" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="24" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="25" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="22" hidden="1">' assigment problem LP'!$B$20</definedName>
     <definedName name="solver_opt" localSheetId="19" hidden="1">' shipping transport LP'!$B$22</definedName>
+    <definedName name="solver_opt" localSheetId="23" hidden="1">'assignment LP'!$B$10</definedName>
+    <definedName name="solver_opt" localSheetId="24" hidden="1">'assignment problem'!$C$9</definedName>
     <definedName name="solver_opt" localSheetId="16" hidden="1">'example 2 LP'!$B$8</definedName>
     <definedName name="solver_opt" localSheetId="17" hidden="1">'example 3 LP'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="18" hidden="1">'example 4 LP'!$B$12</definedName>
     <definedName name="solver_opt" localSheetId="12" hidden="1">'example linear programming'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="13" hidden="1">'example LP'!$B$6</definedName>
     <definedName name="solver_opt" localSheetId="20" hidden="1">'example transport LP'!$B$27</definedName>
+    <definedName name="solver_opt" localSheetId="25" hidden="1">Hoja2!$B$12</definedName>
     <definedName name="solver_opt" localSheetId="15" hidden="1">'more variants LP'!$B$5</definedName>
     <definedName name="solver_opt" localSheetId="21" hidden="1">'TRANSPORT LP'!$C$9</definedName>
     <definedName name="solver_opt" localSheetId="14" hidden="1">'variants LP'!$D$11</definedName>
     <definedName name="solver_pre" localSheetId="22" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="19" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="23" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="24" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="16" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="17" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="18" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="20" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="25" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="21" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="14" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="24" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="25" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel0" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="24" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="25" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="22" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="24" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="20" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="25" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="21" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="12" hidden="1">3</definedName>
@@ -283,22 +348,28 @@
     <definedName name="solver_rhs0" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
     <definedName name="solver_rhs1" localSheetId="22" hidden="1">' assigment problem LP'!$B$17:$E$17</definedName>
     <definedName name="solver_rhs1" localSheetId="19" hidden="1">' shipping transport LP'!$C$7:$E$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="23" hidden="1">'assignment LP'!$B$20:$E$20</definedName>
+    <definedName name="solver_rhs1" localSheetId="24" hidden="1">'assignment problem'!$B$18:$E$18</definedName>
     <definedName name="solver_rhs1" localSheetId="16" hidden="1">'example 2 LP'!$S$13:$S$17</definedName>
     <definedName name="solver_rhs1" localSheetId="17" hidden="1">'example 3 LP'!$N$10:$N$14</definedName>
     <definedName name="solver_rhs1" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">'example linear programming'!$F$13</definedName>
     <definedName name="solver_rhs1" localSheetId="13" hidden="1">'example LP'!$F$10</definedName>
     <definedName name="solver_rhs1" localSheetId="20" hidden="1">'example transport LP'!$D$16:$D$18</definedName>
+    <definedName name="solver_rhs1" localSheetId="25" hidden="1">Hoja2!$B$19:$D$19</definedName>
     <definedName name="solver_rhs1" localSheetId="15" hidden="1">'more variants LP'!$I$12</definedName>
     <definedName name="solver_rhs1" localSheetId="21" hidden="1">'TRANSPORT LP'!$E$24:$E$26</definedName>
     <definedName name="solver_rhs1" localSheetId="14" hidden="1">'variants LP'!$F$15:$F$18</definedName>
     <definedName name="solver_rhs2" localSheetId="22" hidden="1">' assigment problem LP'!$H$12:$H$14</definedName>
     <definedName name="solver_rhs2" localSheetId="19" hidden="1">' shipping transport LP'!$F$4:$F$6</definedName>
+    <definedName name="solver_rhs2" localSheetId="23" hidden="1">'assignment LP'!$H$14:$H$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="24" hidden="1">'assignment problem'!$H$12:$H$15</definedName>
     <definedName name="solver_rhs2" localSheetId="16" hidden="1">'example 2 LP'!$S$18:$S$20</definedName>
     <definedName name="solver_rhs2" localSheetId="18" hidden="1">'example 4 LP'!$F$15:$F$16</definedName>
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">'example linear programming'!$F$14</definedName>
     <definedName name="solver_rhs2" localSheetId="13" hidden="1">'example LP'!$F$9</definedName>
     <definedName name="solver_rhs2" localSheetId="20" hidden="1">'example transport LP'!$D$22:$D$24</definedName>
+    <definedName name="solver_rhs2" localSheetId="25" hidden="1">Hoja2!$G$15:$G$16</definedName>
     <definedName name="solver_rhs2" localSheetId="15" hidden="1">'more variants LP'!$I$13</definedName>
     <definedName name="solver_rhs2" localSheetId="21" hidden="1">'TRANSPORT LP'!$E$29:$E$31</definedName>
     <definedName name="solver_rhs3" localSheetId="12" hidden="1">'example linear programming'!$F$15</definedName>
@@ -308,111 +379,141 @@
     <definedName name="solver_rhs5" localSheetId="12" hidden="1">'example linear programming'!$F$16</definedName>
     <definedName name="solver_rlx" localSheetId="22" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="24" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="25" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="22" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="19" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="23" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="24" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="17" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="18" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="20" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="25" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="21" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="19" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="23" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="24" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="20" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="25" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="22" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="24" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="18" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="25" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="22" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="19" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="23" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="24" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="16" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="17" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="18" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="20" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="25" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="21" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="14" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="22" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="19" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="23" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="24" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="18" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="20" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="25" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="15" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="21" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="14" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="22" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="19" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="23" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="24" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="16" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="17" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="18" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="20" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="25" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="15" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="21" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="14" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="22" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="19" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="23" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="24" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="17" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="20" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="25" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="21" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="22" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="19" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="23" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="24" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="17" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="18" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="20" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="25" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="21" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="22" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="19" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="23" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="24" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="16" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="17" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="18" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="20" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="25" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="21" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="14" hidden="1">3</definedName>
@@ -462,7 +563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="465">
   <si>
     <t>YEAR code</t>
   </si>
@@ -2429,6 +2530,111 @@
       </rPr>
       <t xml:space="preserve"> to Omaha for a total relocation of 2400$.</t>
     </r>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Min distance:</t>
+  </si>
+  <si>
+    <t>Data Table</t>
+  </si>
+  <si>
+    <t>one tripulation</t>
+  </si>
+  <si>
+    <t>Summary sentence: Tripulation from Seattle will go to Detroit, Arlington tripulation to Chicago, Oakland tripulation to Kansas city and Baltimore tripulation to Toronto; doing a total milles of 4580.</t>
+  </si>
+  <si>
+    <t>Estadística</t>
+  </si>
+  <si>
+    <t>Gestión</t>
+  </si>
+  <si>
+    <t>Finanzas</t>
+  </si>
+  <si>
+    <t>Economía</t>
+  </si>
+  <si>
+    <t>Bain</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>Dio</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>max califications:</t>
+  </si>
+  <si>
+    <t>Nº teachers</t>
+  </si>
+  <si>
+    <t>Fabrica 1</t>
+  </si>
+  <si>
+    <t>Fabrica 2</t>
+  </si>
+  <si>
+    <t>Tienda A</t>
+  </si>
+  <si>
+    <t>Tienda B</t>
+  </si>
+  <si>
+    <t>Tienda C</t>
+  </si>
+  <si>
+    <t>Variant Table</t>
+  </si>
+  <si>
+    <t>Demand/week</t>
+  </si>
+  <si>
+    <t>max production/week</t>
+  </si>
+  <si>
+    <t>Cost min:</t>
+  </si>
+  <si>
+    <t>production costs/t-shirt</t>
+  </si>
+  <si>
+    <t>Data Transport</t>
+  </si>
+  <si>
+    <t>Data Production</t>
+  </si>
+  <si>
+    <t>*sumo a cada tienda el coste de producción: Tienda A/fábrica 1: 22+6</t>
   </si>
 </sst>
 </file>
@@ -3825,7 +4031,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="474">
+  <cellXfs count="498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4607,211 +4813,19 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4861,12 +4875,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4910,6 +4918,272 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -17775,15 +18049,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>514652</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>609902</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17800,8 +18074,94 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143626" y="1381125"/>
+          <a:off x="6381751" y="695325"/>
           <a:ext cx="5801026" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9779</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105779" y="23165"/>
+          <a:ext cx="8305546" cy="3091509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38749</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="219075"/>
+          <a:ext cx="4648849" cy="3448531"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19831,25 +20191,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="403" t="s">
+      <c r="G1" s="451" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="404"/>
-      <c r="I1" s="404"/>
-      <c r="J1" s="404"/>
-      <c r="K1" s="404"/>
-      <c r="L1" s="404"/>
-      <c r="M1" s="404"/>
-      <c r="N1" s="404"/>
-      <c r="O1" s="404"/>
-      <c r="P1" s="404"/>
-      <c r="Q1" s="404"/>
-      <c r="R1" s="404"/>
-      <c r="S1" s="404"/>
-      <c r="T1" s="404"/>
-      <c r="U1" s="404"/>
-      <c r="V1" s="404"/>
-      <c r="W1" s="405"/>
+      <c r="H1" s="452"/>
+      <c r="I1" s="452"/>
+      <c r="J1" s="452"/>
+      <c r="K1" s="452"/>
+      <c r="L1" s="452"/>
+      <c r="M1" s="452"/>
+      <c r="N1" s="452"/>
+      <c r="O1" s="452"/>
+      <c r="P1" s="452"/>
+      <c r="Q1" s="452"/>
+      <c r="R1" s="452"/>
+      <c r="S1" s="452"/>
+      <c r="T1" s="452"/>
+      <c r="U1" s="452"/>
+      <c r="V1" s="452"/>
+      <c r="W1" s="453"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -20820,9 +21180,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="406"/>
-      <c r="L16" s="406"/>
-      <c r="M16" s="406"/>
+      <c r="K16" s="454"/>
+      <c r="L16" s="454"/>
+      <c r="M16" s="454"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -20852,9 +21212,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="406"/>
-      <c r="L17" s="406"/>
-      <c r="M17" s="406"/>
+      <c r="K17" s="454"/>
+      <c r="L17" s="454"/>
+      <c r="M17" s="454"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -20870,10 +21230,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="400" t="s">
+      <c r="Y17" s="448" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="401"/>
+      <c r="Z17" s="449"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -20910,11 +21270,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="399" t="s">
+      <c r="G23" s="447" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="399"/>
-      <c r="I23" s="399"/>
+      <c r="H23" s="447"/>
+      <c r="I23" s="447"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -20922,11 +21282,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="402" t="s">
+      <c r="G24" s="450" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="402"/>
-      <c r="I24" s="402"/>
+      <c r="H24" s="450"/>
+      <c r="I24" s="450"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -21017,20 +21377,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="409" t="s">
+      <c r="A1" s="457" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="410"/>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -21087,10 +21447,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="411" t="s">
+      <c r="M3" s="459" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="411"/>
+      <c r="N3" s="459"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -21309,10 +21669,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="412" t="s">
+      <c r="M9" s="460" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="413"/>
+      <c r="N9" s="461"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -21581,12 +21941,12 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="414" t="s">
+      <c r="D17" s="462" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="414"/>
-      <c r="F17" s="414"/>
-      <c r="G17" s="414"/>
+      <c r="E17" s="462"/>
+      <c r="F17" s="462"/>
+      <c r="G17" s="462"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -21930,11 +22290,11 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="370" t="s">
+      <c r="O24" s="418" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
+      <c r="P24" s="418"/>
+      <c r="Q24" s="418"/>
       <c r="R24" s="65"/>
     </row>
     <row r="25" spans="1:19">
@@ -22005,7 +22365,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="407" t="s">
+      <c r="M26" s="455" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -22067,7 +22427,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="407"/>
+      <c r="M27" s="455"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -22127,7 +22487,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="407"/>
+      <c r="M28" s="455"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -22550,11 +22910,11 @@
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="408" t="s">
+      <c r="E40" s="456" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="408"/>
-      <c r="G40" s="408"/>
+      <c r="F40" s="456"/>
+      <c r="G40" s="456"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -23599,12 +23959,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="423" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="423"/>
       <c r="E1" s="65" t="s">
         <v>217</v>
       </c>
@@ -23795,19 +24155,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="415" t="s">
+      <c r="A20" s="463" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="415"/>
+      <c r="B20" s="463"/>
       <c r="C20" s="261">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="415" t="s">
+      <c r="A21" s="463" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="415"/>
+      <c r="B21" s="463"/>
       <c r="C21" s="12">
         <v>200</v>
       </c>
@@ -23822,10 +24182,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="415" t="s">
+      <c r="A22" s="463" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="415"/>
+      <c r="B22" s="463"/>
       <c r="C22" s="12">
         <v>500</v>
       </c>
@@ -23840,35 +24200,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="415" t="s">
+      <c r="A23" s="463" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="415"/>
-      <c r="C23" s="415"/>
-      <c r="D23" s="415"/>
-      <c r="E23" s="415"/>
+      <c r="B23" s="463"/>
+      <c r="C23" s="463"/>
+      <c r="D23" s="463"/>
+      <c r="E23" s="463"/>
       <c r="F23" s="12">
         <f>200*10+500*10</f>
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="415" t="s">
+      <c r="A24" s="463" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="415"/>
-      <c r="C24" s="415"/>
-      <c r="D24" s="415"/>
+      <c r="B24" s="463"/>
+      <c r="C24" s="463"/>
+      <c r="D24" s="463"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="416" t="s">
+      <c r="A26" s="464" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="416"/>
-      <c r="C26" s="416"/>
-      <c r="D26" s="416"/>
-      <c r="E26" s="416"/>
-      <c r="F26" s="416"/>
+      <c r="B26" s="464"/>
+      <c r="C26" s="464"/>
+      <c r="D26" s="464"/>
+      <c r="E26" s="464"/>
+      <c r="F26" s="464"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -24217,11 +24577,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="417" t="s">
+      <c r="A11" s="465" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="418"/>
-      <c r="C11" s="419"/>
+      <c r="B11" s="466"/>
+      <c r="C11" s="467"/>
       <c r="D11" s="285">
         <f>D5-D10</f>
         <v>353834</v>
@@ -25692,35 +26052,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="413" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="365"/>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="414" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="366"/>
-      <c r="C3" s="366"/>
-      <c r="D3" s="366"/>
-      <c r="E3" s="366"/>
-      <c r="F3" s="366"/>
-      <c r="G3" s="366"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="414"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="366"/>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
+      <c r="A4" s="414"/>
+      <c r="B4" s="414"/>
+      <c r="C4" s="414"/>
+      <c r="D4" s="414"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="414"/>
+      <c r="G4" s="414"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -25751,22 +26111,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="364" t="s">
+      <c r="A9" s="412" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="364"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="B9" s="412"/>
+      <c r="C9" s="412"/>
+      <c r="D9" s="412"/>
+      <c r="E9" s="412"/>
+      <c r="F9" s="412"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="364"/>
-      <c r="B10" s="364"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="A10" s="412"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="412"/>
+      <c r="D10" s="412"/>
+      <c r="E10" s="412"/>
+      <c r="F10" s="412"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -25779,11 +26139,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="367" t="s">
+      <c r="A20" s="415" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="368"/>
-      <c r="C20" s="369"/>
+      <c r="B20" s="416"/>
+      <c r="C20" s="417"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -26061,12 +26421,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="361" t="s">
+      <c r="G39" s="409" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="362"/>
-      <c r="I39" s="362"/>
-      <c r="J39" s="363"/>
+      <c r="H39" s="410"/>
+      <c r="I39" s="410"/>
+      <c r="J39" s="411"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -26099,13 +26459,13 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="360" t="s">
+      <c r="A45" s="408" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="360"/>
-      <c r="C45" s="360"/>
-      <c r="D45" s="360"/>
-      <c r="E45" s="360"/>
+      <c r="B45" s="408"/>
+      <c r="C45" s="408"/>
+      <c r="D45" s="408"/>
+      <c r="E45" s="408"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26142,20 +26502,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="105" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="426" t="s">
+      <c r="A1" s="468" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="427"/>
+      <c r="B1" s="469"/>
       <c r="H1" s="105" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C2" s="421" t="s">
+      <c r="C2" s="472" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="422"/>
-      <c r="E2" s="422"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
       <c r="H2" s="85" t="s">
         <v>335</v>
       </c>
@@ -26180,7 +26540,7 @@
       <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="423" t="s">
+      <c r="A4" s="474" t="s">
         <v>349</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -26203,7 +26563,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="424"/>
+      <c r="A5" s="475"/>
       <c r="B5" s="5" t="s">
         <v>329</v>
       </c>
@@ -26219,10 +26579,10 @@
       <c r="F5" s="352">
         <v>300</v>
       </c>
-      <c r="H5" s="415" t="s">
+      <c r="H5" s="463" t="s">
         <v>327</v>
       </c>
-      <c r="I5" s="415"/>
+      <c r="I5" s="463"/>
       <c r="J5" t="s">
         <v>324</v>
       </c>
@@ -26234,7 +26594,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="424"/>
+      <c r="A6" s="475"/>
       <c r="B6" s="5" t="s">
         <v>331</v>
       </c>
@@ -26284,10 +26644,10 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="H9" s="415" t="s">
+      <c r="H9" s="463" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="415"/>
+      <c r="I9" s="463"/>
       <c r="J9" s="65" t="s">
         <v>324</v>
       </c>
@@ -26301,11 +26661,11 @@
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
-      <c r="C10" s="421" t="s">
+      <c r="C10" s="472" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="422"/>
-      <c r="E10" s="422"/>
+      <c r="D10" s="473"/>
+      <c r="E10" s="473"/>
       <c r="F10" s="65"/>
       <c r="J10" s="65" t="s">
         <v>325</v>
@@ -26345,7 +26705,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="423" t="s">
+      <c r="A12" s="474" t="s">
         <v>349</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -26370,7 +26730,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="424"/>
+      <c r="A13" s="475"/>
       <c r="B13" s="5" t="s">
         <v>329</v>
       </c>
@@ -26391,10 +26751,10 @@
         <f t="shared" ref="G13:G14" ca="1" si="1">_xlfn.FORMULATEXT(F13)</f>
         <v>=SUMA(C13:E13)</v>
       </c>
-      <c r="H13" s="415" t="s">
+      <c r="H13" s="463" t="s">
         <v>332</v>
       </c>
-      <c r="I13" s="415"/>
+      <c r="I13" s="463"/>
       <c r="J13" s="65" t="s">
         <v>324</v>
       </c>
@@ -26406,7 +26766,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="424"/>
+      <c r="A14" s="475"/>
       <c r="B14" s="5" t="s">
         <v>331</v>
       </c>
@@ -26480,20 +26840,20 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="H17" s="428" t="s">
+      <c r="H17" s="470" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="428"/>
+      <c r="I17" s="470"/>
       <c r="K17" s="65"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1">
       <c r="H18" s="350" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="420" t="s">
+      <c r="K18" s="471" t="s">
         <v>344</v>
       </c>
-      <c r="L18" s="420"/>
+      <c r="L18" s="471"/>
       <c r="M18" s="65"/>
     </row>
     <row r="19" spans="1:13">
@@ -26505,7 +26865,7 @@
       <c r="D19" s="358"/>
       <c r="E19" s="358"/>
       <c r="F19" s="358"/>
-      <c r="H19" s="416" t="s">
+      <c r="H19" s="464" t="s">
         <v>340</v>
       </c>
       <c r="I19" s="105" t="s">
@@ -26522,7 +26882,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="H20" s="416"/>
+      <c r="H20" s="464"/>
       <c r="I20" s="105" t="s">
         <v>338</v>
       </c>
@@ -26537,11 +26897,11 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="425" t="s">
+      <c r="A21" s="476" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="425"/>
-      <c r="H21" s="416"/>
+      <c r="B21" s="476"/>
+      <c r="H21" s="464"/>
       <c r="I21" s="105" t="s">
         <v>339</v>
       </c>
@@ -26566,11 +26926,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="C2:E2"/>
@@ -26578,6 +26933,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26602,8 +26962,8 @@
         <v>356</v>
       </c>
       <c r="B1" s="104"/>
-      <c r="C1" s="429"/>
-      <c r="D1" s="430"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="366"/>
       <c r="J1" s="105" t="s">
         <v>334</v>
       </c>
@@ -26623,7 +26983,7 @@
       <c r="C3" s="344" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="431" t="s">
+      <c r="D3" s="367" t="s">
         <v>362</v>
       </c>
     </row>
@@ -26637,7 +26997,7 @@
       <c r="C4" s="347">
         <v>5</v>
       </c>
-      <c r="D4" s="432">
+      <c r="D4" s="368">
         <v>0</v>
       </c>
       <c r="J4" s="85" t="s">
@@ -26658,13 +27018,13 @@
       <c r="C5" s="347">
         <v>4</v>
       </c>
-      <c r="D5" s="432">
+      <c r="D5" s="368">
         <v>0</v>
       </c>
-      <c r="J5" s="415" t="s">
+      <c r="J5" s="463" t="s">
         <v>327</v>
       </c>
-      <c r="K5" s="415"/>
+      <c r="K5" s="463"/>
       <c r="L5" s="65" t="s">
         <v>324</v>
       </c>
@@ -26685,7 +27045,7 @@
       <c r="C6" s="347">
         <v>3</v>
       </c>
-      <c r="D6" s="432">
+      <c r="D6" s="368">
         <v>100</v>
       </c>
       <c r="J6" s="65"/>
@@ -26710,7 +27070,7 @@
       <c r="C7" s="347">
         <v>8</v>
       </c>
-      <c r="D7" s="432">
+      <c r="D7" s="368">
         <v>0</v>
       </c>
       <c r="J7" s="65"/>
@@ -26735,7 +27095,7 @@
       <c r="C8" s="347">
         <v>4</v>
       </c>
-      <c r="D8" s="432">
+      <c r="D8" s="368">
         <v>300</v>
       </c>
       <c r="J8" s="65"/>
@@ -26754,13 +27114,13 @@
       <c r="C9" s="347">
         <v>3</v>
       </c>
-      <c r="D9" s="432">
+      <c r="D9" s="368">
         <v>0</v>
       </c>
-      <c r="J9" s="415" t="s">
+      <c r="J9" s="463" t="s">
         <v>330</v>
       </c>
-      <c r="K9" s="415"/>
+      <c r="K9" s="463"/>
       <c r="L9" s="65" t="s">
         <v>324</v>
       </c>
@@ -26781,7 +27141,7 @@
       <c r="C10" s="347">
         <v>9</v>
       </c>
-      <c r="D10" s="432">
+      <c r="D10" s="368">
         <v>300</v>
       </c>
       <c r="J10" s="65"/>
@@ -26806,7 +27166,7 @@
       <c r="C11" s="347">
         <v>7</v>
       </c>
-      <c r="D11" s="432">
+      <c r="D11" s="368">
         <v>0</v>
       </c>
       <c r="J11" s="65"/>
@@ -26831,7 +27191,7 @@
       <c r="C12" s="347">
         <v>5</v>
       </c>
-      <c r="D12" s="432">
+      <c r="D12" s="368">
         <v>0</v>
       </c>
       <c r="J12" s="65"/>
@@ -26841,13 +27201,13 @@
       <c r="N12" s="65"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="D13" s="433" t="s">
+      <c r="D13" s="369" t="s">
         <v>365</v>
       </c>
-      <c r="J13" s="415" t="s">
+      <c r="J13" s="463" t="s">
         <v>332</v>
       </c>
-      <c r="K13" s="415"/>
+      <c r="K13" s="463"/>
       <c r="L13" s="65" t="s">
         <v>324</v>
       </c>
@@ -26862,7 +27222,7 @@
       <c r="A14" t="s">
         <v>363</v>
       </c>
-      <c r="B14" s="433" t="s">
+      <c r="B14" s="369" t="s">
         <v>372</v>
       </c>
       <c r="J14" s="65"/>
@@ -26941,10 +27301,10 @@
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
-      <c r="J17" s="428" t="s">
+      <c r="J17" s="470" t="s">
         <v>333</v>
       </c>
-      <c r="K17" s="428"/>
+      <c r="K17" s="470"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
@@ -26969,13 +27329,13 @@
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
-      <c r="M18" s="420" t="s">
+      <c r="M18" s="471" t="s">
         <v>344</v>
       </c>
-      <c r="N18" s="420"/>
+      <c r="N18" s="471"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="J19" s="416" t="s">
+      <c r="J19" s="464" t="s">
         <v>340</v>
       </c>
       <c r="K19" s="105" t="s">
@@ -26995,12 +27355,12 @@
       <c r="A20" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="B20" s="433" t="s">
+      <c r="B20" s="369" t="s">
         <v>371</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
-      <c r="J20" s="416"/>
+      <c r="J20" s="464"/>
       <c r="K20" s="105" t="s">
         <v>338</v>
       </c>
@@ -27027,7 +27387,7 @@
       <c r="D21" s="297" t="s">
         <v>326</v>
       </c>
-      <c r="J21" s="416"/>
+      <c r="J21" s="464"/>
       <c r="K21" s="105" t="s">
         <v>339</v>
       </c>
@@ -27099,7 +27459,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="23.25">
-      <c r="I25" s="435" t="s">
+      <c r="I25" s="371" t="s">
         <v>375</v>
       </c>
     </row>
@@ -27112,19 +27472,19 @@
       <c r="A27" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="B27" s="434">
+      <c r="B27" s="370">
         <f>SUMPRODUCT(C4:C12,D4:D12)</f>
         <v>4200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J19:J21"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="J19:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27149,13 +27509,13 @@
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="473"/>
+      <c r="E1" s="473"/>
       <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="447" t="s">
+      <c r="A2" s="383" t="s">
         <v>352</v>
       </c>
       <c r="B2" s="74"/>
@@ -27173,17 +27533,17 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="423"/>
+      <c r="A3" s="474"/>
       <c r="B3" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="438">
+      <c r="C3" s="374">
         <v>10</v>
       </c>
-      <c r="D3" s="438">
+      <c r="D3" s="374">
         <v>4</v>
       </c>
-      <c r="E3" s="438">
+      <c r="E3" s="374">
         <v>9</v>
       </c>
       <c r="F3" s="352">
@@ -27191,17 +27551,17 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="424"/>
+      <c r="A4" s="475"/>
       <c r="B4" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="438">
+      <c r="C4" s="374">
         <v>12</v>
       </c>
-      <c r="D4" s="438">
+      <c r="D4" s="374">
         <v>6</v>
       </c>
-      <c r="E4" s="438">
+      <c r="E4" s="374">
         <v>8</v>
       </c>
       <c r="F4" s="352">
@@ -27209,17 +27569,17 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="424"/>
-      <c r="B5" s="437" t="s">
+      <c r="A5" s="475"/>
+      <c r="B5" s="373" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="439">
+      <c r="C5" s="375">
         <v>8</v>
       </c>
-      <c r="D5" s="439">
+      <c r="D5" s="375">
         <v>9</v>
       </c>
-      <c r="E5" s="439">
+      <c r="E5" s="375">
         <v>5</v>
       </c>
       <c r="F5" s="352">
@@ -27252,20 +27612,20 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="42"/>
-      <c r="B8" s="440" t="s">
+      <c r="B8" s="376" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
       <c r="A9" s="42"/>
-      <c r="B9" s="444" t="s">
+      <c r="B9" s="380" t="s">
         <v>385</v>
       </c>
-      <c r="C9" s="448">
+      <c r="C9" s="384">
         <f>SUMPRODUCT(C13:C21,D13:D21)</f>
         <v>1060</v>
       </c>
-      <c r="D9" s="436" t="str">
+      <c r="D9" s="372" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C9)</f>
         <v>=SUMAPRODUCTO(C13:C21;D13:D21)</v>
       </c>
@@ -27273,7 +27633,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="42"/>
       <c r="C10" s="346"/>
-      <c r="D10" s="450" t="s">
+      <c r="D10" s="386" t="s">
         <v>405</v>
       </c>
       <c r="E10" s="65"/>
@@ -27286,14 +27646,14 @@
       <c r="E11" s="346"/>
     </row>
     <row r="12" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A12" s="447" t="s">
+      <c r="A12" s="383" t="s">
         <v>352</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="347" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="445" t="s">
+      <c r="D12" s="381" t="s">
         <v>396</v>
       </c>
       <c r="E12" s="295"/>
@@ -27302,59 +27662,59 @@
       <c r="B13" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C13" s="441">
+      <c r="C13" s="377">
         <v>10</v>
       </c>
-      <c r="D13" s="446">
+      <c r="D13" s="382">
         <v>40</v>
       </c>
-      <c r="E13" s="443"/>
+      <c r="E13" s="379"/>
       <c r="H13" s="166"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C14" s="441">
+      <c r="C14" s="377">
         <v>12</v>
       </c>
-      <c r="D14" s="446">
+      <c r="D14" s="382">
         <v>0</v>
       </c>
-      <c r="E14" s="443"/>
+      <c r="E14" s="379"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C15" s="441">
+      <c r="C15" s="377">
         <v>8</v>
       </c>
-      <c r="D15" s="446">
+      <c r="D15" s="382">
         <v>10</v>
       </c>
-      <c r="E15" s="443"/>
+      <c r="E15" s="379"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C16" s="441">
+      <c r="C16" s="377">
         <v>4</v>
       </c>
-      <c r="D16" s="446">
+      <c r="D16" s="382">
         <v>40</v>
       </c>
-      <c r="E16" s="436"/>
+      <c r="E16" s="372"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="441">
+      <c r="C17" s="377">
         <v>6</v>
       </c>
-      <c r="D17" s="446">
+      <c r="D17" s="382">
         <v>0</v>
       </c>
       <c r="E17" s="42"/>
@@ -27363,10 +27723,10 @@
       <c r="B18" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C18" s="441">
+      <c r="C18" s="377">
         <v>9</v>
       </c>
-      <c r="D18" s="446">
+      <c r="D18" s="382">
         <v>0</v>
       </c>
       <c r="E18" s="42"/>
@@ -27378,7 +27738,7 @@
       <c r="C19" s="91">
         <v>9</v>
       </c>
-      <c r="D19" s="446">
+      <c r="D19" s="382">
         <v>0</v>
       </c>
       <c r="E19" s="42"/>
@@ -27390,7 +27750,7 @@
       <c r="C20" s="91">
         <v>8</v>
       </c>
-      <c r="D20" s="446">
+      <c r="D20" s="382">
         <v>40</v>
       </c>
       <c r="E20" s="42"/>
@@ -27402,20 +27762,20 @@
       <c r="C21" s="91">
         <v>5</v>
       </c>
-      <c r="D21" s="446">
+      <c r="D21" s="382">
         <v>20</v>
       </c>
       <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A23" s="449" t="s">
+      <c r="A23" s="385" t="s">
         <v>397</v>
       </c>
-      <c r="B23" s="452" t="s">
+      <c r="B23" s="477" t="s">
         <v>404</v>
       </c>
-      <c r="C23" s="452"/>
+      <c r="C23" s="477"/>
       <c r="D23" s="347" t="s">
         <v>366</v>
       </c>
@@ -27483,13 +27843,13 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A28" s="449" t="s">
+      <c r="A28" s="385" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="451" t="s">
+      <c r="B28" s="478" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="451"/>
+      <c r="C28" s="478"/>
       <c r="D28" s="347" t="s">
         <v>366</v>
       </c>
@@ -27584,7 +27944,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="456" t="s">
+      <c r="A3" s="390" t="s">
         <v>419</v>
       </c>
       <c r="B3" s="85" t="s">
@@ -27592,7 +27952,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="442"/>
+      <c r="A4" s="378"/>
       <c r="B4" s="347" t="s">
         <v>412</v>
       </c>
@@ -27610,75 +27970,75 @@
       <c r="A5" s="345" t="s">
         <v>413</v>
       </c>
-      <c r="B5" s="453">
+      <c r="B5" s="387">
         <v>800</v>
       </c>
-      <c r="C5" s="453">
+      <c r="C5" s="387">
         <v>1100</v>
       </c>
-      <c r="D5" s="453">
+      <c r="D5" s="387">
         <v>1200</v>
       </c>
-      <c r="E5" s="453">
+      <c r="E5" s="387">
         <v>1000</v>
       </c>
-      <c r="F5" s="454"/>
+      <c r="F5" s="388"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="345" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="453">
+      <c r="B6" s="387">
         <v>500</v>
       </c>
-      <c r="C6" s="453">
+      <c r="C6" s="387">
         <v>1600</v>
       </c>
-      <c r="D6" s="453">
+      <c r="D6" s="387">
         <v>1300</v>
       </c>
-      <c r="E6" s="453">
+      <c r="E6" s="387">
         <v>800</v>
       </c>
-      <c r="F6" s="454"/>
+      <c r="F6" s="388"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="345" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="453">
+      <c r="B7" s="387">
         <v>500</v>
       </c>
-      <c r="C7" s="453">
+      <c r="C7" s="387">
         <v>1000</v>
       </c>
-      <c r="D7" s="453">
+      <c r="D7" s="387">
         <v>2300</v>
       </c>
-      <c r="E7" s="453">
+      <c r="E7" s="387">
         <v>1500</v>
       </c>
-      <c r="F7" s="454"/>
+      <c r="F7" s="388"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="455"/>
-      <c r="C8" s="455"/>
-      <c r="D8" s="455"/>
-      <c r="E8" s="455"/>
+      <c r="B8" s="389"/>
+      <c r="C8" s="389"/>
+      <c r="D8" s="389"/>
+      <c r="E8" s="389"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="398" t="s">
+      <c r="A10" s="446" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="360"/>
-      <c r="C10" s="459" t="s">
+      <c r="B10" s="408"/>
+      <c r="C10" s="393" t="s">
         <v>422</v>
       </c>
       <c r="D10" s="65"/>
       <c r="E10" s="65"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1">
-      <c r="A11" s="442"/>
+      <c r="A11" s="378"/>
       <c r="B11" s="347" t="s">
         <v>412</v>
       </c>
@@ -27695,7 +28055,7 @@
       <c r="G11" s="347" t="s">
         <v>366</v>
       </c>
-      <c r="H11" s="445" t="s">
+      <c r="H11" s="381" t="s">
         <v>423</v>
       </c>
     </row>
@@ -27703,19 +28063,19 @@
       <c r="A12" s="345" t="s">
         <v>413</v>
       </c>
-      <c r="B12" s="460">
+      <c r="B12" s="394">
         <v>0</v>
       </c>
-      <c r="C12" s="460">
+      <c r="C12" s="394">
         <v>1</v>
       </c>
-      <c r="D12" s="460">
+      <c r="D12" s="394">
         <v>0</v>
       </c>
-      <c r="E12" s="460">
+      <c r="E12" s="394">
         <v>0</v>
       </c>
-      <c r="F12" s="461">
+      <c r="F12" s="395">
         <f>SUM(B12:E12)</f>
         <v>1</v>
       </c>
@@ -27730,19 +28090,19 @@
       <c r="A13" s="345" t="s">
         <v>414</v>
       </c>
-      <c r="B13" s="460">
+      <c r="B13" s="394">
         <v>0</v>
       </c>
-      <c r="C13" s="460">
+      <c r="C13" s="394">
         <v>0</v>
       </c>
-      <c r="D13" s="460">
+      <c r="D13" s="394">
         <v>0</v>
       </c>
-      <c r="E13" s="460">
+      <c r="E13" s="394">
         <v>1</v>
       </c>
-      <c r="F13" s="461">
+      <c r="F13" s="395">
         <f t="shared" ref="F13:F14" si="0">SUM(B13:E13)</f>
         <v>1</v>
       </c>
@@ -27757,19 +28117,19 @@
       <c r="A14" s="345" t="s">
         <v>415</v>
       </c>
-      <c r="B14" s="460">
+      <c r="B14" s="394">
         <v>1</v>
       </c>
-      <c r="C14" s="460">
+      <c r="C14" s="394">
         <v>0</v>
       </c>
-      <c r="D14" s="460">
+      <c r="D14" s="394">
         <v>0</v>
       </c>
-      <c r="E14" s="460">
+      <c r="E14" s="394">
         <v>0</v>
       </c>
-      <c r="F14" s="461">
+      <c r="F14" s="395">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -27781,19 +28141,19 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="462">
+      <c r="B15" s="396">
         <f>SUM(B12:B14)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="462">
+      <c r="C15" s="396">
         <f>SUM(C12:C14)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="462">
+      <c r="D15" s="396">
         <f>SUM(D12:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="462">
+      <c r="E15" s="396">
         <f>SUM(E12:E14)</f>
         <v>1</v>
       </c>
@@ -27835,12 +28195,12 @@
       <c r="A19" t="s">
         <v>424</v>
       </c>
-      <c r="F19" s="464" t="s">
+      <c r="F19" s="398" t="s">
         <v>426</v>
       </c>
-      <c r="G19" s="465"/>
-      <c r="H19" s="465"/>
-      <c r="I19" s="466"/>
+      <c r="G19" s="399"/>
+      <c r="H19" s="399"/>
+      <c r="I19" s="400"/>
       <c r="J19" s="282"/>
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
@@ -27850,51 +28210,51 @@
       <c r="A20" t="s">
         <v>425</v>
       </c>
-      <c r="B20" s="463">
+      <c r="B20" s="397">
         <f>SUMPRODUCT(B5:E7,B12:E14)</f>
         <v>2400</v>
       </c>
-      <c r="F20" s="467" t="s">
+      <c r="F20" s="401" t="s">
         <v>427</v>
       </c>
-      <c r="G20" s="468"/>
-      <c r="H20" s="468"/>
-      <c r="I20" s="469"/>
+      <c r="G20" s="402"/>
+      <c r="H20" s="402"/>
+      <c r="I20" s="403"/>
       <c r="J20" s="346"/>
       <c r="K20" s="346"/>
       <c r="L20" s="346"/>
       <c r="M20" s="346"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="F21" s="467" t="s">
+      <c r="F21" s="401" t="s">
         <v>428</v>
       </c>
-      <c r="G21" s="468"/>
-      <c r="H21" s="468"/>
-      <c r="I21" s="470"/>
-      <c r="J21" s="458"/>
-      <c r="K21" s="458"/>
-      <c r="L21" s="458"/>
-      <c r="M21" s="458"/>
+      <c r="G21" s="402"/>
+      <c r="H21" s="402"/>
+      <c r="I21" s="404"/>
+      <c r="J21" s="392"/>
+      <c r="K21" s="392"/>
+      <c r="L21" s="392"/>
+      <c r="M21" s="392"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
-      <c r="F22" s="471" t="s">
+      <c r="F22" s="405" t="s">
         <v>429</v>
       </c>
-      <c r="G22" s="472"/>
-      <c r="H22" s="472"/>
-      <c r="I22" s="473"/>
-      <c r="J22" s="458"/>
-      <c r="K22" s="458"/>
-      <c r="L22" s="458"/>
-      <c r="M22" s="458"/>
+      <c r="G22" s="406"/>
+      <c r="H22" s="406"/>
+      <c r="I22" s="407"/>
+      <c r="J22" s="392"/>
+      <c r="K22" s="392"/>
+      <c r="L22" s="392"/>
+      <c r="M22" s="392"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="I23" s="457"/>
-      <c r="J23" s="458"/>
-      <c r="K23" s="458"/>
-      <c r="L23" s="458"/>
-      <c r="M23" s="458"/>
+      <c r="I23" s="391"/>
+      <c r="J23" s="392"/>
+      <c r="K23" s="392"/>
+      <c r="L23" s="392"/>
+      <c r="M23" s="392"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27908,12 +28268,882 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="479" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="361" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="361" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" s="361" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" s="361" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="363">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="363">
+        <v>1730</v>
+      </c>
+      <c r="D4" s="363">
+        <v>1940</v>
+      </c>
+      <c r="E4" s="363">
+        <v>2070</v>
+      </c>
+      <c r="F4" s="362"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="363">
+        <v>460</v>
+      </c>
+      <c r="C5" s="363">
+        <v>810</v>
+      </c>
+      <c r="D5" s="363">
+        <v>1020</v>
+      </c>
+      <c r="E5" s="363">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="363">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="363">
+        <v>1850</v>
+      </c>
+      <c r="D6" s="363">
+        <v>2080</v>
+      </c>
+      <c r="E6" s="363" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="363">
+        <v>960</v>
+      </c>
+      <c r="C7" s="363">
+        <v>610</v>
+      </c>
+      <c r="D7" s="363">
+        <v>400</v>
+      </c>
+      <c r="E7" s="363">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="359">
+        <f>SUMPRODUCT(B4:E7,B14:E17)</f>
+        <v>4580</v>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
+        <v>=SUMAPRODUCTO(B4:E7;B14:E17)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5"/>
+      <c r="B13" s="361" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="361" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="361" t="s">
+        <v>432</v>
+      </c>
+      <c r="E13" s="361" t="s">
+        <v>433</v>
+      </c>
+      <c r="F13" s="363"/>
+      <c r="G13" s="363" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="363" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="481">
+        <v>0</v>
+      </c>
+      <c r="C14" s="481">
+        <v>0</v>
+      </c>
+      <c r="D14" s="481">
+        <v>1</v>
+      </c>
+      <c r="E14" s="481">
+        <v>0</v>
+      </c>
+      <c r="F14" s="480">
+        <f>SUM(B14:E14)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="483" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" s="481">
+        <v>0</v>
+      </c>
+      <c r="C15" s="481">
+        <v>1</v>
+      </c>
+      <c r="D15" s="481">
+        <v>0</v>
+      </c>
+      <c r="E15" s="481">
+        <v>0</v>
+      </c>
+      <c r="F15" s="480">
+        <f>SUM(B15:E15)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="483" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16" s="481">
+        <v>1</v>
+      </c>
+      <c r="C16" s="481">
+        <v>0</v>
+      </c>
+      <c r="D16" s="481">
+        <v>0</v>
+      </c>
+      <c r="E16" s="482">
+        <v>0</v>
+      </c>
+      <c r="F16" s="480">
+        <f>SUM(B16:D16)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="483" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" s="481">
+        <v>0</v>
+      </c>
+      <c r="C17" s="481">
+        <v>0</v>
+      </c>
+      <c r="D17" s="481">
+        <v>0</v>
+      </c>
+      <c r="E17" s="481">
+        <v>1</v>
+      </c>
+      <c r="F17" s="480">
+        <f>SUM(B17:E17)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="483" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="352">
+        <f>SUM(B14:B17)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="352">
+        <f>SUM(C14:C17)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="352">
+        <f>SUM(D14:D17)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="352">
+        <f>SUM(E14,E15,E17)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F14)</f>
+        <v>=SUMA(B14:E14)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="364" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="364" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="364" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="364" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="484">
+        <v>1</v>
+      </c>
+      <c r="C20" s="484">
+        <v>1</v>
+      </c>
+      <c r="D20" s="484">
+        <v>1</v>
+      </c>
+      <c r="E20" s="484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="479" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="361" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="361" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="361" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" s="361" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="363">
+        <v>80</v>
+      </c>
+      <c r="C3" s="363">
+        <v>85</v>
+      </c>
+      <c r="D3" s="363">
+        <v>95</v>
+      </c>
+      <c r="E3" s="363">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="363">
+        <v>85</v>
+      </c>
+      <c r="C4" s="363">
+        <v>30</v>
+      </c>
+      <c r="D4" s="363">
+        <v>75</v>
+      </c>
+      <c r="E4" s="363">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="363">
+        <v>90</v>
+      </c>
+      <c r="C5" s="363">
+        <v>55</v>
+      </c>
+      <c r="D5" s="363">
+        <v>80</v>
+      </c>
+      <c r="E5" s="363">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="363">
+        <v>55</v>
+      </c>
+      <c r="C6" s="363">
+        <v>80</v>
+      </c>
+      <c r="D6" s="363">
+        <v>65</v>
+      </c>
+      <c r="E6" s="363">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="485" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="485"/>
+      <c r="C9" s="320">
+        <f>SUMPRODUCT(B3:E6,B12:E15)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="479" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="361" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="361" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="361" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" s="361" t="s">
+        <v>445</v>
+      </c>
+      <c r="F11" s="363"/>
+      <c r="G11" s="363" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="363" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" s="357">
+        <v>0</v>
+      </c>
+      <c r="C12" s="357">
+        <v>0</v>
+      </c>
+      <c r="D12" s="357">
+        <v>1</v>
+      </c>
+      <c r="E12" s="357">
+        <v>0</v>
+      </c>
+      <c r="F12" s="363">
+        <f>SUM(B12:E12)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="363" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="357">
+        <v>1</v>
+      </c>
+      <c r="C13" s="357">
+        <v>0</v>
+      </c>
+      <c r="D13" s="357">
+        <v>0</v>
+      </c>
+      <c r="E13" s="357">
+        <v>0</v>
+      </c>
+      <c r="F13" s="363">
+        <f t="shared" ref="F13:F15" si="0">SUM(B13:E13)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="363" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="357">
+        <v>0</v>
+      </c>
+      <c r="C14" s="357">
+        <v>0</v>
+      </c>
+      <c r="D14" s="357">
+        <v>0</v>
+      </c>
+      <c r="E14" s="357">
+        <v>1</v>
+      </c>
+      <c r="F14" s="363">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="363" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" s="357">
+        <v>0</v>
+      </c>
+      <c r="C15" s="357">
+        <v>1</v>
+      </c>
+      <c r="D15" s="357">
+        <v>0</v>
+      </c>
+      <c r="E15" s="357">
+        <v>0</v>
+      </c>
+      <c r="F15" s="363">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="363" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="364">
+        <f>SUM(B12:B15)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="364">
+        <f t="shared" ref="C16:E16" si="1">SUM(C12:C15)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="364">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="364">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="486" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="486" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="486" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="486" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="295">
+        <v>1</v>
+      </c>
+      <c r="C18" s="295">
+        <v>1</v>
+      </c>
+      <c r="D18" s="295">
+        <v>1</v>
+      </c>
+      <c r="E18" s="295">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A2" s="488" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="361" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="361" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="361" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2" s="166"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="166"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="487">
+        <f>22+6</f>
+        <v>28</v>
+      </c>
+      <c r="C3" s="487">
+        <f>14+6</f>
+        <v>20</v>
+      </c>
+      <c r="D3" s="487">
+        <f>30+6</f>
+        <v>36</v>
+      </c>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="487">
+        <f>16+6.25</f>
+        <v>22.25</v>
+      </c>
+      <c r="C4" s="487">
+        <f>20+6.25</f>
+        <v>26.25</v>
+      </c>
+      <c r="D4" s="487">
+        <f>24+6.25</f>
+        <v>30.25</v>
+      </c>
+      <c r="E4" s="362"/>
+      <c r="F4" s="362"/>
+      <c r="G4" s="362"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="42"/>
+      <c r="B5" s="362"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="E6" s="362"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A7" s="488" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" s="367" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="360"/>
+      <c r="D7" s="492"/>
+      <c r="E7" s="493"/>
+      <c r="F7" s="493"/>
+      <c r="G7" s="493"/>
+      <c r="H7" s="494"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="487">
+        <v>6</v>
+      </c>
+      <c r="C8" s="497" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" s="372"/>
+      <c r="E8" s="495"/>
+      <c r="F8" s="495"/>
+      <c r="G8" s="495"/>
+      <c r="H8" s="496"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" s="487">
+        <v>6.25</v>
+      </c>
+      <c r="C9" s="490"/>
+      <c r="D9" s="372"/>
+      <c r="E9" s="495"/>
+      <c r="F9" s="495"/>
+      <c r="G9" s="495"/>
+      <c r="H9" s="496"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A11" s="372" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" s="362"/>
+      <c r="F11" s="65"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="372" t="s">
+        <v>460</v>
+      </c>
+      <c r="B12" s="359">
+        <f>SUMPRODUCT(B3:D4,B15:D16)</f>
+        <v>5270</v>
+      </c>
+      <c r="C12" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B12)</f>
+        <v>=SUMAPRODUCTO(B3:D4;B15:D16)</v>
+      </c>
+      <c r="G12">
+        <f>SUMPRODUCT(H8:H9,B8:B9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="489" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" s="361" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="361" t="s">
+        <v>455</v>
+      </c>
+      <c r="D14" s="361" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" s="361"/>
+      <c r="F14" s="361" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="367" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="491">
+        <v>30</v>
+      </c>
+      <c r="C15" s="491">
+        <v>60</v>
+      </c>
+      <c r="D15" s="491">
+        <v>0</v>
+      </c>
+      <c r="E15" s="395">
+        <f>SUM(B15:D15)</f>
+        <v>90</v>
+      </c>
+      <c r="F15" s="363" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="363">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B16" s="491">
+        <v>50</v>
+      </c>
+      <c r="C16" s="491">
+        <v>0</v>
+      </c>
+      <c r="D16" s="491">
+        <v>70</v>
+      </c>
+      <c r="E16" s="395">
+        <f>SUM(B16:D16)</f>
+        <v>120</v>
+      </c>
+      <c r="F16" s="363" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="363">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17" s="395">
+        <f>SUM(B15:B16)</f>
+        <v>80</v>
+      </c>
+      <c r="C17" s="395">
+        <f t="shared" ref="C17:D17" si="0">SUM(C15:C16)</f>
+        <v>60</v>
+      </c>
+      <c r="D17" s="395">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E17" s="391" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E15)</f>
+        <v>=SUMA(B15:D15)</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="42"/>
+      <c r="B18" s="362" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="362" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="362" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="362"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="364">
+        <v>80</v>
+      </c>
+      <c r="C19" s="364">
+        <v>60</v>
+      </c>
+      <c r="D19" s="364">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -27963,23 +29193,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="370" t="s">
+      <c r="A1" s="418" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="370"/>
-      <c r="C1" s="370" t="s">
+      <c r="B1" s="418"/>
+      <c r="C1" s="418" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="370"/>
-      <c r="E1" s="371" t="s">
+      <c r="D1" s="418"/>
+      <c r="E1" s="419" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="370"/>
+      <c r="F1" s="418"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="372" t="s">
+      <c r="H1" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="373"/>
+      <c r="I1" s="421"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -28114,10 +29344,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="370" t="s">
+      <c r="H6" s="418" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="370"/>
+      <c r="I6" s="418"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -28399,26 +29629,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="378" t="s">
+      <c r="A3" s="426" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="379"/>
-      <c r="C3" s="379"/>
-      <c r="D3" s="379"/>
-      <c r="E3" s="379"/>
+      <c r="B3" s="427"/>
+      <c r="C3" s="427"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="427"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="380" t="s">
+      <c r="A4" s="428" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="381"/>
+      <c r="B4" s="414"/>
+      <c r="C4" s="414"/>
+      <c r="D4" s="414"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="414"/>
+      <c r="G4" s="429"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -28430,15 +29660,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="382" t="s">
+      <c r="A6" s="430" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="383"/>
-      <c r="C6" s="383"/>
-      <c r="D6" s="383"/>
-      <c r="E6" s="383"/>
-      <c r="F6" s="383"/>
-      <c r="G6" s="384"/>
+      <c r="B6" s="431"/>
+      <c r="C6" s="431"/>
+      <c r="D6" s="431"/>
+      <c r="E6" s="431"/>
+      <c r="F6" s="431"/>
+      <c r="G6" s="432"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -28450,34 +29680,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="385" t="s">
+      <c r="A8" s="433" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="386"/>
-      <c r="C8" s="386"/>
-      <c r="D8" s="386"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="386"/>
-      <c r="G8" s="387"/>
+      <c r="B8" s="434"/>
+      <c r="C8" s="434"/>
+      <c r="D8" s="434"/>
+      <c r="E8" s="434"/>
+      <c r="F8" s="434"/>
+      <c r="G8" s="435"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="436" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="389"/>
-      <c r="C9" s="389"/>
-      <c r="D9" s="389"/>
-      <c r="E9" s="389"/>
-      <c r="F9" s="389"/>
-      <c r="G9" s="390"/>
+      <c r="B9" s="437"/>
+      <c r="C9" s="437"/>
+      <c r="D9" s="437"/>
+      <c r="E9" s="437"/>
+      <c r="F9" s="437"/>
+      <c r="G9" s="438"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="375" t="s">
+      <c r="E11" s="423" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="375"/>
-      <c r="G11" s="375"/>
+      <c r="F11" s="423"/>
+      <c r="G11" s="423"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -28492,10 +29722,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="374" t="s">
+      <c r="F12" s="422" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="374"/>
+      <c r="G12" s="422"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -28716,10 +29946,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="376" t="s">
+      <c r="B24" s="424" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="377"/>
+      <c r="C24" s="425"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -28946,17 +30176,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="392" t="s">
+      <c r="F2" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
+      <c r="J2" s="440"/>
+      <c r="K2" s="440"/>
+      <c r="L2" s="440"/>
+      <c r="M2" s="440"/>
+      <c r="N2" s="440"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -29137,10 +30367,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="391" t="s">
+      <c r="F10" s="439" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="373"/>
+      <c r="G10" s="421"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -29898,10 +31128,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="441" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="394"/>
+      <c r="B1" s="442"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -29955,22 +31185,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="395" t="s">
+      <c r="A9" s="443" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="396"/>
-      <c r="C9" s="396"/>
-      <c r="D9" s="396"/>
-      <c r="E9" s="396"/>
-      <c r="F9" s="396"/>
-      <c r="G9" s="396"/>
-      <c r="H9" s="396"/>
-      <c r="I9" s="396"/>
-      <c r="J9" s="396"/>
-      <c r="K9" s="396"/>
-      <c r="L9" s="396"/>
-      <c r="M9" s="396"/>
-      <c r="N9" s="397"/>
+      <c r="B9" s="444"/>
+      <c r="C9" s="444"/>
+      <c r="D9" s="444"/>
+      <c r="E9" s="444"/>
+      <c r="F9" s="444"/>
+      <c r="G9" s="444"/>
+      <c r="H9" s="444"/>
+      <c r="I9" s="444"/>
+      <c r="J9" s="444"/>
+      <c r="K9" s="444"/>
+      <c r="L9" s="444"/>
+      <c r="M9" s="444"/>
+      <c r="N9" s="445"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -30301,16 +31531,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="398" t="s">
+      <c r="A40" s="446" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="360"/>
-      <c r="C40" s="360"/>
-      <c r="D40" s="360"/>
-      <c r="E40" s="360"/>
-      <c r="F40" s="360"/>
-      <c r="G40" s="360"/>
-      <c r="H40" s="360"/>
+      <c r="B40" s="408"/>
+      <c r="C40" s="408"/>
+      <c r="D40" s="408"/>
+      <c r="E40" s="408"/>
+      <c r="F40" s="408"/>
+      <c r="G40" s="408"/>
+      <c r="H40" s="408"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="22" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -563,7 +563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="484">
   <si>
     <t>YEAR code</t>
   </si>
@@ -2681,6 +2681,87 @@
   </si>
   <si>
     <t>Contraints:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Factory 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">60 workers go to plant B </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Factory 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 45 workers go to plant A, 30 to plant B and 30 to plant C.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Factory 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 5 workers go to plant C.</t>
+    </r>
+  </si>
+  <si>
+    <t>For getting the maximun in production.</t>
   </si>
 </sst>
 </file>
@@ -4077,7 +4158,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="509">
+  <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -5028,6 +5109,14 @@
     <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5208,6 +5297,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5226,15 +5324,6 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5244,11 +5333,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5258,9 +5342,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Énfasis5 2" xfId="1"/>
@@ -20380,25 +20471,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="473" t="s">
+      <c r="G1" s="477" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="474"/>
-      <c r="I1" s="474"/>
-      <c r="J1" s="474"/>
-      <c r="K1" s="474"/>
-      <c r="L1" s="474"/>
-      <c r="M1" s="474"/>
-      <c r="N1" s="474"/>
-      <c r="O1" s="474"/>
-      <c r="P1" s="474"/>
-      <c r="Q1" s="474"/>
-      <c r="R1" s="474"/>
-      <c r="S1" s="474"/>
-      <c r="T1" s="474"/>
-      <c r="U1" s="474"/>
-      <c r="V1" s="474"/>
-      <c r="W1" s="475"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
+      <c r="K1" s="478"/>
+      <c r="L1" s="478"/>
+      <c r="M1" s="478"/>
+      <c r="N1" s="478"/>
+      <c r="O1" s="478"/>
+      <c r="P1" s="478"/>
+      <c r="Q1" s="478"/>
+      <c r="R1" s="478"/>
+      <c r="S1" s="478"/>
+      <c r="T1" s="478"/>
+      <c r="U1" s="478"/>
+      <c r="V1" s="478"/>
+      <c r="W1" s="479"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -21369,9 +21460,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="476"/>
-      <c r="L16" s="476"/>
-      <c r="M16" s="476"/>
+      <c r="K16" s="480"/>
+      <c r="L16" s="480"/>
+      <c r="M16" s="480"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -21401,9 +21492,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="476"/>
-      <c r="L17" s="476"/>
-      <c r="M17" s="476"/>
+      <c r="K17" s="480"/>
+      <c r="L17" s="480"/>
+      <c r="M17" s="480"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -21419,10 +21510,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="470" t="s">
+      <c r="Y17" s="474" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="471"/>
+      <c r="Z17" s="475"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -21459,11 +21550,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="469" t="s">
+      <c r="G23" s="473" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="469"/>
-      <c r="I23" s="469"/>
+      <c r="H23" s="473"/>
+      <c r="I23" s="473"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -21471,11 +21562,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="472" t="s">
+      <c r="G24" s="476" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="472"/>
-      <c r="I24" s="472"/>
+      <c r="H24" s="476"/>
+      <c r="I24" s="476"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -21566,20 +21657,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="479" t="s">
+      <c r="A1" s="483" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
-      <c r="K1" s="480"/>
-      <c r="L1" s="480"/>
+      <c r="B1" s="484"/>
+      <c r="C1" s="484"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="484"/>
+      <c r="F1" s="484"/>
+      <c r="G1" s="484"/>
+      <c r="H1" s="484"/>
+      <c r="I1" s="484"/>
+      <c r="J1" s="484"/>
+      <c r="K1" s="484"/>
+      <c r="L1" s="484"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -21636,10 +21727,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="481" t="s">
+      <c r="M3" s="485" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="481"/>
+      <c r="N3" s="485"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -21858,10 +21949,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="482" t="s">
+      <c r="M9" s="486" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="483"/>
+      <c r="N9" s="487"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -22130,12 +22221,12 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="484" t="s">
+      <c r="D17" s="488" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="484"/>
-      <c r="F17" s="484"/>
-      <c r="G17" s="484"/>
+      <c r="E17" s="488"/>
+      <c r="F17" s="488"/>
+      <c r="G17" s="488"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -22479,11 +22570,11 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="440" t="s">
+      <c r="O24" s="444" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="440"/>
-      <c r="Q24" s="440"/>
+      <c r="P24" s="444"/>
+      <c r="Q24" s="444"/>
       <c r="R24" s="65"/>
     </row>
     <row r="25" spans="1:19">
@@ -22554,7 +22645,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="477" t="s">
+      <c r="M26" s="481" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -22616,7 +22707,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="477"/>
+      <c r="M27" s="481"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -22676,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="477"/>
+      <c r="M28" s="481"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -23099,11 +23190,11 @@
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="478" t="s">
+      <c r="E40" s="482" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="478"/>
-      <c r="G40" s="478"/>
+      <c r="F40" s="482"/>
+      <c r="G40" s="482"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -24148,12 +24239,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="445" t="s">
+      <c r="A1" s="449" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="445"/>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
       <c r="E1" s="65" t="s">
         <v>217</v>
       </c>
@@ -24344,19 +24435,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="485" t="s">
+      <c r="A20" s="489" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="485"/>
+      <c r="B20" s="489"/>
       <c r="C20" s="261">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="485" t="s">
+      <c r="A21" s="489" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="485"/>
+      <c r="B21" s="489"/>
       <c r="C21" s="12">
         <v>200</v>
       </c>
@@ -24371,10 +24462,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="485" t="s">
+      <c r="A22" s="489" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="485"/>
+      <c r="B22" s="489"/>
       <c r="C22" s="12">
         <v>500</v>
       </c>
@@ -24389,35 +24480,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="485" t="s">
+      <c r="A23" s="489" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="485"/>
-      <c r="C23" s="485"/>
-      <c r="D23" s="485"/>
-      <c r="E23" s="485"/>
+      <c r="B23" s="489"/>
+      <c r="C23" s="489"/>
+      <c r="D23" s="489"/>
+      <c r="E23" s="489"/>
       <c r="F23" s="12">
         <f>200*10+500*10</f>
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="485" t="s">
+      <c r="A24" s="489" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="485"/>
-      <c r="C24" s="485"/>
-      <c r="D24" s="485"/>
+      <c r="B24" s="489"/>
+      <c r="C24" s="489"/>
+      <c r="D24" s="489"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="486" t="s">
+      <c r="A26" s="490" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="486"/>
-      <c r="C26" s="486"/>
-      <c r="D26" s="486"/>
-      <c r="E26" s="486"/>
-      <c r="F26" s="486"/>
+      <c r="B26" s="490"/>
+      <c r="C26" s="490"/>
+      <c r="D26" s="490"/>
+      <c r="E26" s="490"/>
+      <c r="F26" s="490"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -24766,11 +24857,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="487" t="s">
+      <c r="A11" s="491" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="488"/>
-      <c r="C11" s="489"/>
+      <c r="B11" s="492"/>
+      <c r="C11" s="493"/>
       <c r="D11" s="285">
         <f>D5-D10</f>
         <v>353834</v>
@@ -26241,35 +26332,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="435" t="s">
+      <c r="A2" s="439" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="435"/>
-      <c r="C2" s="435"/>
-      <c r="D2" s="435"/>
-      <c r="E2" s="435"/>
-      <c r="F2" s="435"/>
+      <c r="B2" s="439"/>
+      <c r="C2" s="439"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="439"/>
+      <c r="F2" s="439"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="436" t="s">
+      <c r="A3" s="440" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="436"/>
-      <c r="C3" s="436"/>
-      <c r="D3" s="436"/>
-      <c r="E3" s="436"/>
-      <c r="F3" s="436"/>
-      <c r="G3" s="436"/>
+      <c r="B3" s="440"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="436"/>
-      <c r="B4" s="436"/>
-      <c r="C4" s="436"/>
-      <c r="D4" s="436"/>
-      <c r="E4" s="436"/>
-      <c r="F4" s="436"/>
-      <c r="G4" s="436"/>
+      <c r="A4" s="440"/>
+      <c r="B4" s="440"/>
+      <c r="C4" s="440"/>
+      <c r="D4" s="440"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="440"/>
+      <c r="G4" s="440"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -26300,22 +26391,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="434" t="s">
+      <c r="A9" s="438" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="434"/>
-      <c r="C9" s="434"/>
-      <c r="D9" s="434"/>
-      <c r="E9" s="434"/>
-      <c r="F9" s="434"/>
+      <c r="B9" s="438"/>
+      <c r="C9" s="438"/>
+      <c r="D9" s="438"/>
+      <c r="E9" s="438"/>
+      <c r="F9" s="438"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="434"/>
-      <c r="B10" s="434"/>
-      <c r="C10" s="434"/>
-      <c r="D10" s="434"/>
-      <c r="E10" s="434"/>
-      <c r="F10" s="434"/>
+      <c r="A10" s="438"/>
+      <c r="B10" s="438"/>
+      <c r="C10" s="438"/>
+      <c r="D10" s="438"/>
+      <c r="E10" s="438"/>
+      <c r="F10" s="438"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -26328,11 +26419,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="437" t="s">
+      <c r="A20" s="441" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="438"/>
-      <c r="C20" s="439"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -26610,12 +26701,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="431" t="s">
+      <c r="G39" s="435" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="432"/>
-      <c r="I39" s="432"/>
-      <c r="J39" s="433"/>
+      <c r="H39" s="436"/>
+      <c r="I39" s="436"/>
+      <c r="J39" s="437"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -26648,13 +26739,13 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="430" t="s">
+      <c r="A45" s="434" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="430"/>
-      <c r="C45" s="430"/>
-      <c r="D45" s="430"/>
-      <c r="E45" s="430"/>
+      <c r="B45" s="434"/>
+      <c r="C45" s="434"/>
+      <c r="D45" s="434"/>
+      <c r="E45" s="434"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26691,20 +26782,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="105" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="496" t="s">
+      <c r="A1" s="494" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="497"/>
+      <c r="B1" s="495"/>
       <c r="H1" s="105" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C2" s="491" t="s">
+      <c r="C2" s="498" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="492"/>
-      <c r="E2" s="492"/>
+      <c r="D2" s="499"/>
+      <c r="E2" s="499"/>
       <c r="H2" s="85" t="s">
         <v>335</v>
       </c>
@@ -26729,7 +26820,7 @@
       <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="493" t="s">
+      <c r="A4" s="500" t="s">
         <v>349</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -26752,7 +26843,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="494"/>
+      <c r="A5" s="501"/>
       <c r="B5" s="5" t="s">
         <v>329</v>
       </c>
@@ -26768,10 +26859,10 @@
       <c r="F5" s="352">
         <v>300</v>
       </c>
-      <c r="H5" s="485" t="s">
+      <c r="H5" s="489" t="s">
         <v>327</v>
       </c>
-      <c r="I5" s="485"/>
+      <c r="I5" s="489"/>
       <c r="J5" t="s">
         <v>324</v>
       </c>
@@ -26783,7 +26874,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="494"/>
+      <c r="A6" s="501"/>
       <c r="B6" s="5" t="s">
         <v>331</v>
       </c>
@@ -26833,10 +26924,10 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="H9" s="485" t="s">
+      <c r="H9" s="489" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="485"/>
+      <c r="I9" s="489"/>
       <c r="J9" s="65" t="s">
         <v>324</v>
       </c>
@@ -26850,11 +26941,11 @@
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
-      <c r="C10" s="491" t="s">
+      <c r="C10" s="498" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="492"/>
-      <c r="E10" s="492"/>
+      <c r="D10" s="499"/>
+      <c r="E10" s="499"/>
       <c r="F10" s="65"/>
       <c r="J10" s="65" t="s">
         <v>325</v>
@@ -26894,7 +26985,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="493" t="s">
+      <c r="A12" s="500" t="s">
         <v>349</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -26919,7 +27010,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="494"/>
+      <c r="A13" s="501"/>
       <c r="B13" s="5" t="s">
         <v>329</v>
       </c>
@@ -26940,10 +27031,10 @@
         <f t="shared" ref="G13:G14" ca="1" si="1">_xlfn.FORMULATEXT(F13)</f>
         <v>=SUMA(C13:E13)</v>
       </c>
-      <c r="H13" s="485" t="s">
+      <c r="H13" s="489" t="s">
         <v>332</v>
       </c>
-      <c r="I13" s="485"/>
+      <c r="I13" s="489"/>
       <c r="J13" s="65" t="s">
         <v>324</v>
       </c>
@@ -26955,7 +27046,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="494"/>
+      <c r="A14" s="501"/>
       <c r="B14" s="5" t="s">
         <v>331</v>
       </c>
@@ -27029,20 +27120,20 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="H17" s="498" t="s">
+      <c r="H17" s="496" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="498"/>
+      <c r="I17" s="496"/>
       <c r="K17" s="65"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1">
       <c r="H18" s="350" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="490" t="s">
+      <c r="K18" s="497" t="s">
         <v>344</v>
       </c>
-      <c r="L18" s="490"/>
+      <c r="L18" s="497"/>
       <c r="M18" s="65"/>
     </row>
     <row r="19" spans="1:13">
@@ -27054,7 +27145,7 @@
       <c r="D19" s="358"/>
       <c r="E19" s="358"/>
       <c r="F19" s="358"/>
-      <c r="H19" s="486" t="s">
+      <c r="H19" s="490" t="s">
         <v>340</v>
       </c>
       <c r="I19" s="105" t="s">
@@ -27071,7 +27162,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="H20" s="486"/>
+      <c r="H20" s="490"/>
       <c r="I20" s="105" t="s">
         <v>338</v>
       </c>
@@ -27086,11 +27177,11 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="495" t="s">
+      <c r="A21" s="502" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="495"/>
-      <c r="H21" s="486"/>
+      <c r="B21" s="502"/>
+      <c r="H21" s="490"/>
       <c r="I21" s="105" t="s">
         <v>339</v>
       </c>
@@ -27115,11 +27206,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="C2:E2"/>
@@ -27127,6 +27213,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27210,10 +27301,10 @@
       <c r="D5" s="368">
         <v>0</v>
       </c>
-      <c r="J5" s="485" t="s">
+      <c r="J5" s="489" t="s">
         <v>327</v>
       </c>
-      <c r="K5" s="485"/>
+      <c r="K5" s="489"/>
       <c r="L5" s="65" t="s">
         <v>324</v>
       </c>
@@ -27306,10 +27397,10 @@
       <c r="D9" s="368">
         <v>0</v>
       </c>
-      <c r="J9" s="485" t="s">
+      <c r="J9" s="489" t="s">
         <v>330</v>
       </c>
-      <c r="K9" s="485"/>
+      <c r="K9" s="489"/>
       <c r="L9" s="65" t="s">
         <v>324</v>
       </c>
@@ -27393,10 +27484,10 @@
       <c r="D13" s="369" t="s">
         <v>365</v>
       </c>
-      <c r="J13" s="485" t="s">
+      <c r="J13" s="489" t="s">
         <v>332</v>
       </c>
-      <c r="K13" s="485"/>
+      <c r="K13" s="489"/>
       <c r="L13" s="65" t="s">
         <v>324</v>
       </c>
@@ -27490,10 +27581,10 @@
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
-      <c r="J17" s="498" t="s">
+      <c r="J17" s="496" t="s">
         <v>333</v>
       </c>
-      <c r="K17" s="498"/>
+      <c r="K17" s="496"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
@@ -27518,13 +27609,13 @@
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
-      <c r="M18" s="490" t="s">
+      <c r="M18" s="497" t="s">
         <v>344</v>
       </c>
-      <c r="N18" s="490"/>
+      <c r="N18" s="497"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="J19" s="486" t="s">
+      <c r="J19" s="490" t="s">
         <v>340</v>
       </c>
       <c r="K19" s="105" t="s">
@@ -27549,7 +27640,7 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
-      <c r="J20" s="486"/>
+      <c r="J20" s="490"/>
       <c r="K20" s="105" t="s">
         <v>338</v>
       </c>
@@ -27576,7 +27667,7 @@
       <c r="D21" s="297" t="s">
         <v>326</v>
       </c>
-      <c r="J21" s="486"/>
+      <c r="J21" s="490"/>
       <c r="K21" s="105" t="s">
         <v>339</v>
       </c>
@@ -27698,9 +27789,9 @@
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="492"/>
-      <c r="E1" s="492"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
       <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
@@ -27722,7 +27813,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="493"/>
+      <c r="A3" s="500"/>
       <c r="B3" s="5" t="s">
         <v>376</v>
       </c>
@@ -27740,7 +27831,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="494"/>
+      <c r="A4" s="501"/>
       <c r="B4" s="5" t="s">
         <v>377</v>
       </c>
@@ -27758,7 +27849,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="494"/>
+      <c r="A5" s="501"/>
       <c r="B5" s="373" t="s">
         <v>378</v>
       </c>
@@ -27961,10 +28052,10 @@
       <c r="A23" s="385" t="s">
         <v>397</v>
       </c>
-      <c r="B23" s="499" t="s">
+      <c r="B23" s="503" t="s">
         <v>404</v>
       </c>
-      <c r="C23" s="499"/>
+      <c r="C23" s="503"/>
       <c r="D23" s="347" t="s">
         <v>366</v>
       </c>
@@ -28035,10 +28126,10 @@
       <c r="A28" s="385" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="500" t="s">
+      <c r="B28" s="504" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="500"/>
+      <c r="C28" s="504"/>
       <c r="D28" s="347" t="s">
         <v>366</v>
       </c>
@@ -28121,8 +28212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28216,10 +28307,10 @@
       <c r="E8" s="389"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="468" t="s">
+      <c r="A10" s="472" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="430"/>
+      <c r="B10" s="434"/>
       <c r="C10" s="393" t="s">
         <v>422</v>
       </c>
@@ -28865,10 +28956,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="501" t="s">
+      <c r="A9" s="505" t="s">
         <v>450</v>
       </c>
-      <c r="B9" s="501"/>
+      <c r="B9" s="505"/>
       <c r="C9" s="320">
         <f>SUMPRODUCT(B3:E6,B12:E15)</f>
         <v>330</v>
@@ -29063,10 +29154,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H50"/>
+  <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29336,7 +29427,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="503" t="s">
+      <c r="A21" s="431" t="s">
         <v>472</v>
       </c>
       <c r="B21" s="349" t="s">
@@ -29365,13 +29456,13 @@
       <c r="A24" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B24" s="502">
+      <c r="B24" s="430">
         <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D24" s="502">
+      <c r="D24" s="430">
         <v>45</v>
       </c>
     </row>
@@ -29379,13 +29470,13 @@
       <c r="A25" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B25" s="502">
+      <c r="B25" s="430">
         <v>105</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D25" s="502">
+      <c r="D25" s="430">
         <v>90</v>
       </c>
     </row>
@@ -29393,13 +29484,13 @@
       <c r="A26" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B26" s="502">
+      <c r="B26" s="430">
         <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D26" s="502">
+      <c r="D26" s="430">
         <v>35</v>
       </c>
     </row>
@@ -29424,7 +29515,7 @@
       <c r="C29" s="65"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="C30" s="504" t="s">
+      <c r="C30" s="432" t="s">
         <v>476</v>
       </c>
     </row>
@@ -29446,74 +29537,74 @@
       <c r="A32" s="410">
         <v>1</v>
       </c>
-      <c r="B32" s="502">
+      <c r="B32" s="430">
         <v>5</v>
       </c>
       <c r="C32" s="410">
         <v>8</v>
       </c>
-      <c r="D32" s="502">
+      <c r="D32" s="430">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:11">
       <c r="A33" s="410">
         <v>2</v>
       </c>
-      <c r="B33" s="502">
+      <c r="B33" s="430">
         <v>10</v>
       </c>
       <c r="C33" s="410">
         <v>9</v>
       </c>
-      <c r="D33" s="502">
+      <c r="D33" s="430">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:11">
       <c r="A34" s="410">
         <v>3</v>
       </c>
-      <c r="B34" s="502">
+      <c r="B34" s="430">
         <v>7</v>
       </c>
       <c r="C34" s="410">
         <v>6</v>
       </c>
-      <c r="D34" s="502">
+      <c r="D34" s="430">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:11">
       <c r="A35" s="42"/>
       <c r="B35" s="409"/>
       <c r="C35" s="42"/>
       <c r="D35" s="409"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="349" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="505" t="s">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A37" s="506" t="s">
         <v>477</v>
       </c>
-      <c r="B37" s="506"/>
+      <c r="B37" s="507"/>
       <c r="C37" s="370">
         <f>SUMPRODUCT(B41:D43,B32:D34)</f>
         <v>1610</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:11">
       <c r="A39" s="42"/>
       <c r="B39" s="65"/>
-      <c r="C39" s="504" t="s">
+      <c r="C39" s="432" t="s">
         <v>476</v>
       </c>
       <c r="D39" s="65"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:11">
       <c r="A40" s="408" t="s">
         <v>475</v>
       </c>
@@ -29531,7 +29622,7 @@
       </c>
       <c r="F40" s="65"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:11">
       <c r="A41" s="410">
         <v>1</v>
       </c>
@@ -29555,7 +29646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:11">
       <c r="A42" s="410">
         <v>2</v>
       </c>
@@ -29579,7 +29670,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:11">
       <c r="A43" s="410">
         <v>3</v>
       </c>
@@ -29603,7 +29694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:11">
       <c r="B44" s="395">
         <f>SUM(B41:B43)</f>
         <v>45</v>
@@ -29617,7 +29708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1">
       <c r="A45" t="s">
         <v>479</v>
       </c>
@@ -29631,38 +29722,80 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="508">
+    <row r="46" spans="1:11">
+      <c r="B46" s="433">
         <v>45</v>
       </c>
       <c r="C46" s="415">
         <v>90</v>
       </c>
-      <c r="D46" s="508">
+      <c r="D46" s="433">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="F46" s="509" t="s">
+        <v>426</v>
+      </c>
+      <c r="G46" s="512"/>
+      <c r="H46" s="512"/>
+      <c r="I46" s="512"/>
+      <c r="J46" s="512"/>
+      <c r="K46" s="513"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="F47" s="510" t="s">
+        <v>480</v>
+      </c>
+      <c r="G47" s="514"/>
+      <c r="H47" s="514"/>
+      <c r="I47" s="514"/>
+      <c r="J47" s="514"/>
+      <c r="K47" s="515"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B48)</f>
         <v>=SUMA(B44:D44)</v>
       </c>
-      <c r="B48" s="507">
+      <c r="B48" s="508">
         <f>SUM(B44:D44)</f>
         <v>170</v>
       </c>
-      <c r="C48" s="440"/>
-      <c r="D48" s="440"/>
-    </row>
-    <row r="49" spans="3:3">
+      <c r="C48" s="444"/>
+      <c r="D48" s="444"/>
+      <c r="F48" s="510" t="s">
+        <v>481</v>
+      </c>
+      <c r="G48" s="514"/>
+      <c r="H48" s="514"/>
+      <c r="I48" s="514"/>
+      <c r="J48" s="514"/>
+      <c r="K48" s="515"/>
+    </row>
+    <row r="49" spans="3:11" ht="15.75" thickBot="1">
       <c r="C49" s="411" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="50" spans="3:3">
+      <c r="F49" s="511" t="s">
+        <v>482</v>
+      </c>
+      <c r="G49" s="516"/>
+      <c r="H49" s="516"/>
+      <c r="I49" s="516"/>
+      <c r="J49" s="516"/>
+      <c r="K49" s="517"/>
+    </row>
+    <row r="50" spans="3:11" ht="15.75" thickBot="1">
       <c r="C50" s="411">
         <v>170</v>
       </c>
+      <c r="F50" s="518" t="s">
+        <v>483</v>
+      </c>
+      <c r="G50" s="516"/>
+      <c r="H50" s="516"/>
+      <c r="I50" s="516"/>
+      <c r="J50" s="516"/>
+      <c r="K50" s="517"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -29718,23 +29851,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="444" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440" t="s">
+      <c r="B1" s="444"/>
+      <c r="C1" s="444" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="440"/>
-      <c r="E1" s="441" t="s">
+      <c r="D1" s="444"/>
+      <c r="E1" s="445" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="440"/>
+      <c r="F1" s="444"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="442" t="s">
+      <c r="H1" s="446" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="443"/>
+      <c r="I1" s="447"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -29869,10 +30002,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="440" t="s">
+      <c r="H6" s="444" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="440"/>
+      <c r="I6" s="444"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -30154,26 +30287,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="448" t="s">
+      <c r="A3" s="452" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="449"/>
-      <c r="C3" s="449"/>
-      <c r="D3" s="449"/>
-      <c r="E3" s="449"/>
+      <c r="B3" s="453"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="450" t="s">
+      <c r="A4" s="454" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="436"/>
-      <c r="C4" s="436"/>
-      <c r="D4" s="436"/>
-      <c r="E4" s="436"/>
-      <c r="F4" s="436"/>
-      <c r="G4" s="451"/>
+      <c r="B4" s="440"/>
+      <c r="C4" s="440"/>
+      <c r="D4" s="440"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="440"/>
+      <c r="G4" s="455"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -30185,15 +30318,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="452" t="s">
+      <c r="A6" s="456" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="453"/>
-      <c r="C6" s="453"/>
-      <c r="D6" s="453"/>
-      <c r="E6" s="453"/>
-      <c r="F6" s="453"/>
-      <c r="G6" s="454"/>
+      <c r="B6" s="457"/>
+      <c r="C6" s="457"/>
+      <c r="D6" s="457"/>
+      <c r="E6" s="457"/>
+      <c r="F6" s="457"/>
+      <c r="G6" s="458"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -30205,34 +30338,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="455" t="s">
+      <c r="A8" s="459" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="456"/>
-      <c r="C8" s="456"/>
-      <c r="D8" s="456"/>
-      <c r="E8" s="456"/>
-      <c r="F8" s="456"/>
-      <c r="G8" s="457"/>
+      <c r="B8" s="460"/>
+      <c r="C8" s="460"/>
+      <c r="D8" s="460"/>
+      <c r="E8" s="460"/>
+      <c r="F8" s="460"/>
+      <c r="G8" s="461"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="458" t="s">
+      <c r="A9" s="462" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="459"/>
-      <c r="C9" s="459"/>
-      <c r="D9" s="459"/>
-      <c r="E9" s="459"/>
-      <c r="F9" s="459"/>
-      <c r="G9" s="460"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
+      <c r="D9" s="463"/>
+      <c r="E9" s="463"/>
+      <c r="F9" s="463"/>
+      <c r="G9" s="464"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="445" t="s">
+      <c r="E11" s="449" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="445"/>
-      <c r="G11" s="445"/>
+      <c r="F11" s="449"/>
+      <c r="G11" s="449"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -30247,10 +30380,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="444" t="s">
+      <c r="F12" s="448" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="444"/>
+      <c r="G12" s="448"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -30471,10 +30604,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="446" t="s">
+      <c r="B24" s="450" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="447"/>
+      <c r="C24" s="451"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -30701,17 +30834,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="462" t="s">
+      <c r="F2" s="466" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="462"/>
-      <c r="H2" s="462"/>
-      <c r="I2" s="462"/>
-      <c r="J2" s="462"/>
-      <c r="K2" s="462"/>
-      <c r="L2" s="462"/>
-      <c r="M2" s="462"/>
-      <c r="N2" s="462"/>
+      <c r="G2" s="466"/>
+      <c r="H2" s="466"/>
+      <c r="I2" s="466"/>
+      <c r="J2" s="466"/>
+      <c r="K2" s="466"/>
+      <c r="L2" s="466"/>
+      <c r="M2" s="466"/>
+      <c r="N2" s="466"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -30892,10 +31025,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="461" t="s">
+      <c r="F10" s="465" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="443"/>
+      <c r="G10" s="447"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -31653,10 +31786,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="467" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="464"/>
+      <c r="B1" s="468"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -31710,22 +31843,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="465" t="s">
+      <c r="A9" s="469" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="466"/>
-      <c r="C9" s="466"/>
-      <c r="D9" s="466"/>
-      <c r="E9" s="466"/>
-      <c r="F9" s="466"/>
-      <c r="G9" s="466"/>
-      <c r="H9" s="466"/>
-      <c r="I9" s="466"/>
-      <c r="J9" s="466"/>
-      <c r="K9" s="466"/>
-      <c r="L9" s="466"/>
-      <c r="M9" s="466"/>
-      <c r="N9" s="467"/>
+      <c r="B9" s="470"/>
+      <c r="C9" s="470"/>
+      <c r="D9" s="470"/>
+      <c r="E9" s="470"/>
+      <c r="F9" s="470"/>
+      <c r="G9" s="470"/>
+      <c r="H9" s="470"/>
+      <c r="I9" s="470"/>
+      <c r="J9" s="470"/>
+      <c r="K9" s="470"/>
+      <c r="L9" s="470"/>
+      <c r="M9" s="470"/>
+      <c r="N9" s="471"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -32056,16 +32189,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="468" t="s">
+      <c r="A40" s="472" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="430"/>
-      <c r="C40" s="430"/>
-      <c r="D40" s="430"/>
-      <c r="E40" s="430"/>
-      <c r="F40" s="430"/>
-      <c r="G40" s="430"/>
-      <c r="H40" s="430"/>
+      <c r="B40" s="434"/>
+      <c r="C40" s="434"/>
+      <c r="D40" s="434"/>
+      <c r="E40" s="434"/>
+      <c r="F40" s="434"/>
+      <c r="G40" s="434"/>
+      <c r="H40" s="434"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>

--- a/Excel_proyects_BI 2.xlsx
+++ b/Excel_proyects_BI 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" firstSheet="22" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="16" r:id="rId1"/>
@@ -3337,7 +3337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -4150,6 +4150,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4158,7 +4169,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="519">
+  <cellXfs count="520">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -5117,231 +5128,6 @@
     <xf numFmtId="1" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5352,6 +5138,234 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="66" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Énfasis5 2" xfId="1"/>
@@ -5648,6 +5662,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -5751,6 +5766,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -5845,6 +5861,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -5970,6 +5987,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7099,7 +7117,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7180,6 +7200,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -7925,6 +7946,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8037,6 +8059,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8715,6 +8738,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9122,6 +9146,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9203,6 +9228,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9517,6 +9543,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9819,6 +9846,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10162,6 +10190,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10451,6 +10480,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10571,6 +10601,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10645,6 +10676,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10769,6 +10801,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10917,6 +10950,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11042,6 +11076,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18216,14 +18251,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>609902</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18240,7 +18275,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6381751" y="695325"/>
+          <a:off x="6553201" y="238125"/>
           <a:ext cx="5801026" cy="3067050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20392,10 +20427,13 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -20428,8 +20466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20471,25 +20509,25 @@
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
-      <c r="G1" s="477" t="s">
+      <c r="G1" s="487" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="478"/>
-      <c r="I1" s="478"/>
-      <c r="J1" s="478"/>
-      <c r="K1" s="478"/>
-      <c r="L1" s="478"/>
-      <c r="M1" s="478"/>
-      <c r="N1" s="478"/>
-      <c r="O1" s="478"/>
-      <c r="P1" s="478"/>
-      <c r="Q1" s="478"/>
-      <c r="R1" s="478"/>
-      <c r="S1" s="478"/>
-      <c r="T1" s="478"/>
-      <c r="U1" s="478"/>
-      <c r="V1" s="478"/>
-      <c r="W1" s="479"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
+      <c r="K1" s="488"/>
+      <c r="L1" s="488"/>
+      <c r="M1" s="488"/>
+      <c r="N1" s="488"/>
+      <c r="O1" s="488"/>
+      <c r="P1" s="488"/>
+      <c r="Q1" s="488"/>
+      <c r="R1" s="488"/>
+      <c r="S1" s="488"/>
+      <c r="T1" s="488"/>
+      <c r="U1" s="488"/>
+      <c r="V1" s="488"/>
+      <c r="W1" s="489"/>
       <c r="X1" s="194"/>
     </row>
     <row r="2" spans="1:24" s="161" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
@@ -20564,7 +20602,7 @@
         <v>0.05</v>
       </c>
       <c r="B3" s="203">
-        <f t="shared" ref="B3:B8" si="0">W4 * A3</f>
+        <f t="shared" ref="B3:B9" si="0">W4 * A3</f>
         <v>9</v>
       </c>
       <c r="C3" s="205">
@@ -21015,7 +21053,14 @@
       </c>
       <c r="X8" s="157"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A9" s="519">
+        <v>0.12</v>
+      </c>
+      <c r="B9" s="204">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
       <c r="G9" s="141">
         <v>7</v>
       </c>
@@ -21460,9 +21505,9 @@
     </row>
     <row r="16" spans="1:24" s="65" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="J16" s="174"/>
-      <c r="K16" s="480"/>
-      <c r="L16" s="480"/>
-      <c r="M16" s="480"/>
+      <c r="K16" s="490"/>
+      <c r="L16" s="490"/>
+      <c r="M16" s="490"/>
       <c r="N16" s="190" t="s">
         <v>121</v>
       </c>
@@ -21492,9 +21537,9 @@
     </row>
     <row r="17" spans="7:26" s="65" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
       <c r="J17" s="42"/>
-      <c r="K17" s="480"/>
-      <c r="L17" s="480"/>
-      <c r="M17" s="480"/>
+      <c r="K17" s="490"/>
+      <c r="L17" s="490"/>
+      <c r="M17" s="490"/>
       <c r="N17" s="177"/>
       <c r="O17" s="177"/>
       <c r="P17" s="176" t="s">
@@ -21510,10 +21555,10 @@
       </c>
       <c r="U17" s="170"/>
       <c r="V17" s="157"/>
-      <c r="Y17" s="474" t="s">
+      <c r="Y17" s="484" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="475"/>
+      <c r="Z17" s="485"/>
     </row>
     <row r="18" spans="7:26" ht="16.5" customHeight="1">
       <c r="G18" s="39" t="s">
@@ -21550,11 +21595,11 @@
       </c>
     </row>
     <row r="23" spans="7:26">
-      <c r="G23" s="473" t="s">
+      <c r="G23" s="483" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="473"/>
-      <c r="I23" s="473"/>
+      <c r="H23" s="483"/>
+      <c r="I23" s="483"/>
       <c r="J23" s="154">
         <v>50000000</v>
       </c>
@@ -21562,11 +21607,11 @@
       <c r="Y23" s="210"/>
     </row>
     <row r="24" spans="7:26" ht="16.5">
-      <c r="G24" s="476" t="s">
+      <c r="G24" s="486" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="476"/>
-      <c r="I24" s="476"/>
+      <c r="H24" s="486"/>
+      <c r="I24" s="486"/>
       <c r="J24" s="155">
         <v>0.12</v>
       </c>
@@ -21629,7 +21674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView topLeftCell="O61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="L61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
@@ -21657,20 +21702,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="483" t="s">
+      <c r="A1" s="493" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="484"/>
-      <c r="C1" s="484"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="484"/>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="484"/>
+      <c r="B1" s="494"/>
+      <c r="C1" s="494"/>
+      <c r="D1" s="494"/>
+      <c r="E1" s="494"/>
+      <c r="F1" s="494"/>
+      <c r="G1" s="494"/>
+      <c r="H1" s="494"/>
+      <c r="I1" s="494"/>
+      <c r="J1" s="494"/>
+      <c r="K1" s="494"/>
+      <c r="L1" s="494"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -21727,10 +21772,10 @@
       <c r="J3" s="211"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
-      <c r="M3" s="485" t="s">
+      <c r="M3" s="495" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="485"/>
+      <c r="N3" s="495"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
@@ -21949,10 +21994,10 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="M9" s="486" t="s">
+      <c r="M9" s="496" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="487"/>
+      <c r="N9" s="497"/>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
@@ -22221,12 +22266,12 @@
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="488" t="s">
+      <c r="D17" s="498" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="488"/>
-      <c r="F17" s="488"/>
-      <c r="G17" s="488"/>
+      <c r="E17" s="498"/>
+      <c r="F17" s="498"/>
+      <c r="G17" s="498"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
@@ -22570,11 +22615,11 @@
       <c r="L24" s="65"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="444" t="s">
+      <c r="O24" s="454" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="444"/>
-      <c r="Q24" s="444"/>
+      <c r="P24" s="454"/>
+      <c r="Q24" s="454"/>
       <c r="R24" s="65"/>
     </row>
     <row r="25" spans="1:19">
@@ -22645,7 +22690,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="481" t="s">
+      <c r="M26" s="491" t="s">
         <v>170</v>
       </c>
       <c r="N26" s="200" t="s">
@@ -22707,7 +22752,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="65"/>
-      <c r="M27" s="481"/>
+      <c r="M27" s="491"/>
       <c r="N27" s="200" t="s">
         <v>145</v>
       </c>
@@ -22767,7 +22812,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="65"/>
-      <c r="M28" s="481"/>
+      <c r="M28" s="491"/>
       <c r="N28" s="200" t="s">
         <v>150</v>
       </c>
@@ -23190,11 +23235,11 @@
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="482" t="s">
+      <c r="E40" s="492" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="482"/>
-      <c r="G40" s="482"/>
+      <c r="F40" s="492"/>
+      <c r="G40" s="492"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -24239,12 +24284,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="65" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="459" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="449"/>
-      <c r="C1" s="449"/>
-      <c r="D1" s="449"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
       <c r="E1" s="65" t="s">
         <v>217</v>
       </c>
@@ -24435,19 +24480,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="489" t="s">
+      <c r="A20" s="499" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="489"/>
+      <c r="B20" s="499"/>
       <c r="C20" s="261">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="489" t="s">
+      <c r="A21" s="499" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="489"/>
+      <c r="B21" s="499"/>
       <c r="C21" s="12">
         <v>200</v>
       </c>
@@ -24462,10 +24507,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="489" t="s">
+      <c r="A22" s="499" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="489"/>
+      <c r="B22" s="499"/>
       <c r="C22" s="12">
         <v>500</v>
       </c>
@@ -24480,35 +24525,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="489" t="s">
+      <c r="A23" s="499" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="489"/>
-      <c r="C23" s="489"/>
-      <c r="D23" s="489"/>
-      <c r="E23" s="489"/>
+      <c r="B23" s="499"/>
+      <c r="C23" s="499"/>
+      <c r="D23" s="499"/>
+      <c r="E23" s="499"/>
       <c r="F23" s="12">
         <f>200*10+500*10</f>
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="489" t="s">
+      <c r="A24" s="499" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="489"/>
-      <c r="C24" s="489"/>
-      <c r="D24" s="489"/>
+      <c r="B24" s="499"/>
+      <c r="C24" s="499"/>
+      <c r="D24" s="499"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="490" t="s">
+      <c r="A26" s="500" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="490"/>
-      <c r="C26" s="490"/>
-      <c r="D26" s="490"/>
-      <c r="E26" s="490"/>
-      <c r="F26" s="490"/>
+      <c r="B26" s="500"/>
+      <c r="C26" s="500"/>
+      <c r="D26" s="500"/>
+      <c r="E26" s="500"/>
+      <c r="F26" s="500"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -24857,11 +24902,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="65" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="491" t="s">
+      <c r="A11" s="501" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="492"/>
-      <c r="C11" s="493"/>
+      <c r="B11" s="502"/>
+      <c r="C11" s="503"/>
       <c r="D11" s="285">
         <f>D5-D10</f>
         <v>353834</v>
@@ -26325,42 +26370,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="449" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="439"/>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
+      <c r="B2" s="449"/>
+      <c r="C2" s="449"/>
+      <c r="D2" s="449"/>
+      <c r="E2" s="449"/>
+      <c r="F2" s="449"/>
       <c r="G2" s="170"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="440" t="s">
+      <c r="A3" s="450" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
+      <c r="B3" s="450"/>
+      <c r="C3" s="450"/>
+      <c r="D3" s="450"/>
+      <c r="E3" s="450"/>
+      <c r="F3" s="450"/>
+      <c r="G3" s="450"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="440"/>
-      <c r="B4" s="440"/>
-      <c r="C4" s="440"/>
-      <c r="D4" s="440"/>
-      <c r="E4" s="440"/>
-      <c r="F4" s="440"/>
-      <c r="G4" s="440"/>
+      <c r="A4" s="450"/>
+      <c r="B4" s="450"/>
+      <c r="C4" s="450"/>
+      <c r="D4" s="450"/>
+      <c r="E4" s="450"/>
+      <c r="F4" s="450"/>
+      <c r="G4" s="450"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="s">
@@ -26391,22 +26436,22 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="438" t="s">
+      <c r="A9" s="448" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="438"/>
-      <c r="C9" s="438"/>
-      <c r="D9" s="438"/>
-      <c r="E9" s="438"/>
-      <c r="F9" s="438"/>
+      <c r="B9" s="448"/>
+      <c r="C9" s="448"/>
+      <c r="D9" s="448"/>
+      <c r="E9" s="448"/>
+      <c r="F9" s="448"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="438"/>
-      <c r="B10" s="438"/>
-      <c r="C10" s="438"/>
-      <c r="D10" s="438"/>
-      <c r="E10" s="438"/>
-      <c r="F10" s="438"/>
+      <c r="A10" s="448"/>
+      <c r="B10" s="448"/>
+      <c r="C10" s="448"/>
+      <c r="D10" s="448"/>
+      <c r="E10" s="448"/>
+      <c r="F10" s="448"/>
     </row>
     <row r="18" spans="1:14">
       <c r="N18" s="65" t="s">
@@ -26419,11 +26464,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="441" t="s">
+      <c r="A20" s="451" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="442"/>
-      <c r="C20" s="443"/>
+      <c r="B20" s="452"/>
+      <c r="C20" s="453"/>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
@@ -26701,12 +26746,12 @@
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="435" t="s">
+      <c r="G39" s="445" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="436"/>
-      <c r="I39" s="436"/>
-      <c r="J39" s="437"/>
+      <c r="H39" s="446"/>
+      <c r="I39" s="446"/>
+      <c r="J39" s="447"/>
       <c r="K39" s="42"/>
       <c r="L39" s="46"/>
     </row>
@@ -26739,13 +26784,13 @@
       <c r="L41" s="139"/>
     </row>
     <row r="45" spans="1:12" ht="18.75">
-      <c r="A45" s="434" t="s">
+      <c r="A45" s="444" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="434"/>
-      <c r="C45" s="434"/>
-      <c r="D45" s="434"/>
-      <c r="E45" s="434"/>
+      <c r="B45" s="444"/>
+      <c r="C45" s="444"/>
+      <c r="D45" s="444"/>
+      <c r="E45" s="444"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26782,20 +26827,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="105" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="494" t="s">
+      <c r="A1" s="510" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="495"/>
+      <c r="B1" s="511"/>
       <c r="H1" s="105" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C2" s="498" t="s">
+      <c r="C2" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="499"/>
-      <c r="E2" s="499"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
       <c r="H2" s="85" t="s">
         <v>335</v>
       </c>
@@ -26820,7 +26865,7 @@
       <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="500" t="s">
+      <c r="A4" s="507" t="s">
         <v>349</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -26843,7 +26888,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="501"/>
+      <c r="A5" s="508"/>
       <c r="B5" s="5" t="s">
         <v>329</v>
       </c>
@@ -26859,10 +26904,10 @@
       <c r="F5" s="352">
         <v>300</v>
       </c>
-      <c r="H5" s="489" t="s">
+      <c r="H5" s="499" t="s">
         <v>327</v>
       </c>
-      <c r="I5" s="489"/>
+      <c r="I5" s="499"/>
       <c r="J5" t="s">
         <v>324</v>
       </c>
@@ -26874,7 +26919,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="501"/>
+      <c r="A6" s="508"/>
       <c r="B6" s="5" t="s">
         <v>331</v>
       </c>
@@ -26924,10 +26969,10 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="H9" s="489" t="s">
+      <c r="H9" s="499" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="489"/>
+      <c r="I9" s="499"/>
       <c r="J9" s="65" t="s">
         <v>324</v>
       </c>
@@ -26941,11 +26986,11 @@
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
-      <c r="C10" s="498" t="s">
+      <c r="C10" s="505" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="499"/>
-      <c r="E10" s="499"/>
+      <c r="D10" s="506"/>
+      <c r="E10" s="506"/>
       <c r="F10" s="65"/>
       <c r="J10" s="65" t="s">
         <v>325</v>
@@ -26985,7 +27030,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="500" t="s">
+      <c r="A12" s="507" t="s">
         <v>349</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -27010,7 +27055,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="501"/>
+      <c r="A13" s="508"/>
       <c r="B13" s="5" t="s">
         <v>329</v>
       </c>
@@ -27031,10 +27076,10 @@
         <f t="shared" ref="G13:G14" ca="1" si="1">_xlfn.FORMULATEXT(F13)</f>
         <v>=SUMA(C13:E13)</v>
       </c>
-      <c r="H13" s="489" t="s">
+      <c r="H13" s="499" t="s">
         <v>332</v>
       </c>
-      <c r="I13" s="489"/>
+      <c r="I13" s="499"/>
       <c r="J13" s="65" t="s">
         <v>324</v>
       </c>
@@ -27046,7 +27091,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="501"/>
+      <c r="A14" s="508"/>
       <c r="B14" s="5" t="s">
         <v>331</v>
       </c>
@@ -27120,20 +27165,20 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="H17" s="496" t="s">
+      <c r="H17" s="512" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="496"/>
+      <c r="I17" s="512"/>
       <c r="K17" s="65"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1">
       <c r="H18" s="350" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="497" t="s">
+      <c r="K18" s="504" t="s">
         <v>344</v>
       </c>
-      <c r="L18" s="497"/>
+      <c r="L18" s="504"/>
       <c r="M18" s="65"/>
     </row>
     <row r="19" spans="1:13">
@@ -27145,7 +27190,7 @@
       <c r="D19" s="358"/>
       <c r="E19" s="358"/>
       <c r="F19" s="358"/>
-      <c r="H19" s="490" t="s">
+      <c r="H19" s="500" t="s">
         <v>340</v>
       </c>
       <c r="I19" s="105" t="s">
@@ -27162,7 +27207,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="H20" s="490"/>
+      <c r="H20" s="500"/>
       <c r="I20" s="105" t="s">
         <v>338</v>
       </c>
@@ -27177,11 +27222,11 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="502" t="s">
+      <c r="A21" s="509" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="502"/>
-      <c r="H21" s="490"/>
+      <c r="B21" s="509"/>
+      <c r="H21" s="500"/>
       <c r="I21" s="105" t="s">
         <v>339</v>
       </c>
@@ -27206,6 +27251,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="C2:E2"/>
@@ -27213,11 +27263,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27301,10 +27346,10 @@
       <c r="D5" s="368">
         <v>0</v>
       </c>
-      <c r="J5" s="489" t="s">
+      <c r="J5" s="499" t="s">
         <v>327</v>
       </c>
-      <c r="K5" s="489"/>
+      <c r="K5" s="499"/>
       <c r="L5" s="65" t="s">
         <v>324</v>
       </c>
@@ -27397,10 +27442,10 @@
       <c r="D9" s="368">
         <v>0</v>
       </c>
-      <c r="J9" s="489" t="s">
+      <c r="J9" s="499" t="s">
         <v>330</v>
       </c>
-      <c r="K9" s="489"/>
+      <c r="K9" s="499"/>
       <c r="L9" s="65" t="s">
         <v>324</v>
       </c>
@@ -27484,10 +27529,10 @@
       <c r="D13" s="369" t="s">
         <v>365</v>
       </c>
-      <c r="J13" s="489" t="s">
+      <c r="J13" s="499" t="s">
         <v>332</v>
       </c>
-      <c r="K13" s="489"/>
+      <c r="K13" s="499"/>
       <c r="L13" s="65" t="s">
         <v>324</v>
       </c>
@@ -27581,10 +27626,10 @@
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
-      <c r="J17" s="496" t="s">
+      <c r="J17" s="512" t="s">
         <v>333</v>
       </c>
-      <c r="K17" s="496"/>
+      <c r="K17" s="512"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
@@ -27609,13 +27654,13 @@
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
-      <c r="M18" s="497" t="s">
+      <c r="M18" s="504" t="s">
         <v>344</v>
       </c>
-      <c r="N18" s="497"/>
+      <c r="N18" s="504"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="J19" s="490" t="s">
+      <c r="J19" s="500" t="s">
         <v>340</v>
       </c>
       <c r="K19" s="105" t="s">
@@ -27640,7 +27685,7 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
-      <c r="J20" s="490"/>
+      <c r="J20" s="500"/>
       <c r="K20" s="105" t="s">
         <v>338</v>
       </c>
@@ -27667,7 +27712,7 @@
       <c r="D21" s="297" t="s">
         <v>326</v>
       </c>
-      <c r="J21" s="490"/>
+      <c r="J21" s="500"/>
       <c r="K21" s="105" t="s">
         <v>339</v>
       </c>
@@ -27775,7 +27820,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27789,12 +27834,12 @@
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="65"/>
       <c r="B1" s="65"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
       <c r="F1" s="65"/>
     </row>
-    <row r="2" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
       <c r="A2" s="383" t="s">
         <v>352</v>
       </c>
@@ -27813,7 +27858,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="500"/>
+      <c r="A3" s="507"/>
       <c r="B3" s="5" t="s">
         <v>376</v>
       </c>
@@ -27831,7 +27876,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="501"/>
+      <c r="A4" s="508"/>
       <c r="B4" s="5" t="s">
         <v>377</v>
       </c>
@@ -27849,7 +27894,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="501"/>
+      <c r="A5" s="508"/>
       <c r="B5" s="373" t="s">
         <v>378</v>
       </c>
@@ -28052,10 +28097,10 @@
       <c r="A23" s="385" t="s">
         <v>397</v>
       </c>
-      <c r="B23" s="503" t="s">
+      <c r="B23" s="513" t="s">
         <v>404</v>
       </c>
-      <c r="C23" s="503"/>
+      <c r="C23" s="513"/>
       <c r="D23" s="347" t="s">
         <v>366</v>
       </c>
@@ -28126,10 +28171,10 @@
       <c r="A28" s="385" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="504" t="s">
+      <c r="B28" s="514" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="504"/>
+      <c r="C28" s="514"/>
       <c r="D28" s="347" t="s">
         <v>366</v>
       </c>
@@ -28307,10 +28352,10 @@
       <c r="E8" s="389"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="472" t="s">
+      <c r="A10" s="482" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="434"/>
+      <c r="B10" s="444"/>
       <c r="C10" s="393" t="s">
         <v>422</v>
       </c>
@@ -28551,7 +28596,7 @@
   <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28956,10 +29001,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="505" t="s">
+      <c r="A9" s="515" t="s">
         <v>450</v>
       </c>
-      <c r="B9" s="505"/>
+      <c r="B9" s="515"/>
       <c r="C9" s="320">
         <f>SUMPRODUCT(B3:E6,B12:E15)</f>
         <v>330</v>
@@ -29156,7 +29201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -29587,10 +29632,10 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A37" s="506" t="s">
+      <c r="A37" s="516" t="s">
         <v>477</v>
       </c>
-      <c r="B37" s="507"/>
+      <c r="B37" s="517"/>
       <c r="C37" s="370">
         <f>SUMPRODUCT(B41:D43,B32:D34)</f>
         <v>1610</v>
@@ -29732,70 +29777,70 @@
       <c r="D46" s="433">
         <v>35</v>
       </c>
-      <c r="F46" s="509" t="s">
+      <c r="F46" s="434" t="s">
         <v>426</v>
       </c>
-      <c r="G46" s="512"/>
-      <c r="H46" s="512"/>
-      <c r="I46" s="512"/>
-      <c r="J46" s="512"/>
-      <c r="K46" s="513"/>
+      <c r="G46" s="437"/>
+      <c r="H46" s="437"/>
+      <c r="I46" s="437"/>
+      <c r="J46" s="437"/>
+      <c r="K46" s="438"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="F47" s="510" t="s">
+      <c r="F47" s="435" t="s">
         <v>480</v>
       </c>
-      <c r="G47" s="514"/>
-      <c r="H47" s="514"/>
-      <c r="I47" s="514"/>
-      <c r="J47" s="514"/>
-      <c r="K47" s="515"/>
+      <c r="G47" s="439"/>
+      <c r="H47" s="439"/>
+      <c r="I47" s="439"/>
+      <c r="J47" s="439"/>
+      <c r="K47" s="440"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B48)</f>
         <v>=SUMA(B44:D44)</v>
       </c>
-      <c r="B48" s="508">
+      <c r="B48" s="518">
         <f>SUM(B44:D44)</f>
         <v>170</v>
       </c>
-      <c r="C48" s="444"/>
-      <c r="D48" s="444"/>
-      <c r="F48" s="510" t="s">
+      <c r="C48" s="454"/>
+      <c r="D48" s="454"/>
+      <c r="F48" s="435" t="s">
         <v>481</v>
       </c>
-      <c r="G48" s="514"/>
-      <c r="H48" s="514"/>
-      <c r="I48" s="514"/>
-      <c r="J48" s="514"/>
-      <c r="K48" s="515"/>
+      <c r="G48" s="439"/>
+      <c r="H48" s="439"/>
+      <c r="I48" s="439"/>
+      <c r="J48" s="439"/>
+      <c r="K48" s="440"/>
     </row>
     <row r="49" spans="3:11" ht="15.75" thickBot="1">
       <c r="C49" s="411" t="s">
         <v>206</v>
       </c>
-      <c r="F49" s="511" t="s">
+      <c r="F49" s="436" t="s">
         <v>482</v>
       </c>
-      <c r="G49" s="516"/>
-      <c r="H49" s="516"/>
-      <c r="I49" s="516"/>
-      <c r="J49" s="516"/>
-      <c r="K49" s="517"/>
+      <c r="G49" s="441"/>
+      <c r="H49" s="441"/>
+      <c r="I49" s="441"/>
+      <c r="J49" s="441"/>
+      <c r="K49" s="442"/>
     </row>
     <row r="50" spans="3:11" ht="15.75" thickBot="1">
       <c r="C50" s="411">
         <v>170</v>
       </c>
-      <c r="F50" s="518" t="s">
+      <c r="F50" s="443" t="s">
         <v>483</v>
       </c>
-      <c r="G50" s="516"/>
-      <c r="H50" s="516"/>
-      <c r="I50" s="516"/>
-      <c r="J50" s="516"/>
-      <c r="K50" s="517"/>
+      <c r="G50" s="441"/>
+      <c r="H50" s="441"/>
+      <c r="I50" s="441"/>
+      <c r="J50" s="441"/>
+      <c r="K50" s="442"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -29851,23 +29896,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="444" t="s">
+      <c r="A1" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="444"/>
-      <c r="C1" s="444" t="s">
+      <c r="B1" s="454"/>
+      <c r="C1" s="454" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="444"/>
-      <c r="E1" s="445" t="s">
+      <c r="D1" s="454"/>
+      <c r="E1" s="455" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="444"/>
+      <c r="F1" s="454"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="446" t="s">
+      <c r="H1" s="456" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="447"/>
+      <c r="I1" s="457"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -30002,10 +30047,10 @@
         <f t="shared" si="3"/>
         <v>6.0987271787220979E-2</v>
       </c>
-      <c r="H6" s="444" t="s">
+      <c r="H6" s="454" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="444"/>
+      <c r="I6" s="454"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
@@ -30264,8 +30309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -30287,26 +30332,26 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="452" t="s">
+      <c r="A3" s="462" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="453"/>
-      <c r="C3" s="453"/>
-      <c r="D3" s="453"/>
-      <c r="E3" s="453"/>
+      <c r="B3" s="463"/>
+      <c r="C3" s="463"/>
+      <c r="D3" s="463"/>
+      <c r="E3" s="463"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="4" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A4" s="454" t="s">
+    <row r="4" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A4" s="464" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="440"/>
-      <c r="C4" s="440"/>
-      <c r="D4" s="440"/>
-      <c r="E4" s="440"/>
-      <c r="F4" s="440"/>
-      <c r="G4" s="455"/>
+      <c r="B4" s="450"/>
+      <c r="C4" s="450"/>
+      <c r="D4" s="450"/>
+      <c r="E4" s="450"/>
+      <c r="F4" s="450"/>
+      <c r="G4" s="465"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35"/>
@@ -30318,15 +30363,15 @@
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="456" t="s">
+      <c r="A6" s="466" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="457"/>
-      <c r="C6" s="457"/>
-      <c r="D6" s="457"/>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="458"/>
+      <c r="B6" s="467"/>
+      <c r="C6" s="467"/>
+      <c r="D6" s="467"/>
+      <c r="E6" s="467"/>
+      <c r="F6" s="467"/>
+      <c r="G6" s="468"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1">
       <c r="A7" s="40"/>
@@ -30338,34 +30383,34 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A8" s="459" t="s">
+      <c r="A8" s="469" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="460"/>
-      <c r="C8" s="460"/>
-      <c r="D8" s="460"/>
-      <c r="E8" s="460"/>
-      <c r="F8" s="460"/>
-      <c r="G8" s="461"/>
+      <c r="B8" s="470"/>
+      <c r="C8" s="470"/>
+      <c r="D8" s="470"/>
+      <c r="E8" s="470"/>
+      <c r="F8" s="470"/>
+      <c r="G8" s="471"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="462" t="s">
+      <c r="A9" s="472" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
-      <c r="D9" s="463"/>
-      <c r="E9" s="463"/>
-      <c r="F9" s="463"/>
-      <c r="G9" s="464"/>
+      <c r="B9" s="473"/>
+      <c r="C9" s="473"/>
+      <c r="D9" s="473"/>
+      <c r="E9" s="473"/>
+      <c r="F9" s="473"/>
+      <c r="G9" s="474"/>
       <c r="H9" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="449" t="s">
+      <c r="E11" s="459" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="449"/>
-      <c r="G11" s="449"/>
+      <c r="F11" s="459"/>
+      <c r="G11" s="459"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="49" t="s">
@@ -30380,10 +30425,10 @@
       <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="448" t="s">
+      <c r="F12" s="458" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="448"/>
+      <c r="G12" s="458"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="49" t="s">
@@ -30604,10 +30649,10 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
-      <c r="B24" s="450" t="s">
+      <c r="B24" s="460" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="451"/>
+      <c r="C24" s="461"/>
       <c r="D24" s="61"/>
       <c r="E24" s="34">
         <v>12</v>
@@ -30760,7 +30805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -30834,17 +30879,17 @@
         <f>ABS((D2-C2)/C2)</f>
         <v>9.5253943519270107E-2</v>
       </c>
-      <c r="F2" s="466" t="s">
+      <c r="F2" s="476" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="466"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="466"/>
-      <c r="J2" s="466"/>
-      <c r="K2" s="466"/>
-      <c r="L2" s="466"/>
-      <c r="M2" s="466"/>
-      <c r="N2" s="466"/>
+      <c r="G2" s="476"/>
+      <c r="H2" s="476"/>
+      <c r="I2" s="476"/>
+      <c r="J2" s="476"/>
+      <c r="K2" s="476"/>
+      <c r="L2" s="476"/>
+      <c r="M2" s="476"/>
+      <c r="N2" s="476"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="68">
@@ -31025,10 +31070,10 @@
         <f t="shared" si="0"/>
         <v>6.3518521139460909E-2</v>
       </c>
-      <c r="F10" s="465" t="s">
+      <c r="F10" s="475" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="447"/>
+      <c r="G10" s="457"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="68">
@@ -31769,7 +31814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -31786,10 +31831,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="65" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="467" t="s">
+      <c r="A1" s="477" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="468"/>
+      <c r="B1" s="478"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -31843,22 +31888,22 @@
       <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="469" t="s">
+      <c r="A9" s="479" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="470"/>
-      <c r="C9" s="470"/>
-      <c r="D9" s="470"/>
-      <c r="E9" s="470"/>
-      <c r="F9" s="470"/>
-      <c r="G9" s="470"/>
-      <c r="H9" s="470"/>
-      <c r="I9" s="470"/>
-      <c r="J9" s="470"/>
-      <c r="K9" s="470"/>
-      <c r="L9" s="470"/>
-      <c r="M9" s="470"/>
-      <c r="N9" s="471"/>
+      <c r="B9" s="480"/>
+      <c r="C9" s="480"/>
+      <c r="D9" s="480"/>
+      <c r="E9" s="480"/>
+      <c r="F9" s="480"/>
+      <c r="G9" s="480"/>
+      <c r="H9" s="480"/>
+      <c r="I9" s="480"/>
+      <c r="J9" s="480"/>
+      <c r="K9" s="480"/>
+      <c r="L9" s="480"/>
+      <c r="M9" s="480"/>
+      <c r="N9" s="481"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="105"/>
@@ -32189,16 +32234,16 @@
       <c r="G38" s="109"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="472" t="s">
+      <c r="A40" s="482" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="434"/>
-      <c r="C40" s="434"/>
-      <c r="D40" s="434"/>
-      <c r="E40" s="434"/>
-      <c r="F40" s="434"/>
-      <c r="G40" s="434"/>
-      <c r="H40" s="434"/>
+      <c r="B40" s="444"/>
+      <c r="C40" s="444"/>
+      <c r="D40" s="444"/>
+      <c r="E40" s="444"/>
+      <c r="F40" s="444"/>
+      <c r="G40" s="444"/>
+      <c r="H40" s="444"/>
     </row>
     <row r="41" spans="1:10">
       <c r="G41" s="65"/>
